--- a/総合演習資料/2.外部設計/画面設計図.xlsx
+++ b/総合演習資料/2.外部設計/画面設計図.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PTM-WORK\Desktop\java.git\総合演習資料\2.外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>作成日付：</t>
     <rPh sb="0" eb="2">
@@ -59,6 +59,25 @@
     <rPh sb="5" eb="6">
       <t>メイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員ＩＤ：</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パースワード：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -130,7 +149,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -218,13 +237,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -273,39 +329,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -349,6 +372,66 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -704,7 +787,7 @@
   <dimension ref="B1:BB33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+      <selection activeCell="AN9" sqref="AN9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -753,236 +836,244 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="27" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="27"/>
-      <c r="AK2" s="27"/>
-      <c r="AL2" s="27"/>
-      <c r="AM2" s="27"/>
-      <c r="AN2" s="27"/>
-      <c r="AO2" s="27"/>
-      <c r="AP2" s="28"/>
-      <c r="AQ2" s="21" t="s">
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="16"/>
+      <c r="AF2" s="16"/>
+      <c r="AG2" s="16"/>
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="16"/>
+      <c r="AJ2" s="16"/>
+      <c r="AK2" s="16"/>
+      <c r="AL2" s="16"/>
+      <c r="AM2" s="16"/>
+      <c r="AN2" s="16"/>
+      <c r="AO2" s="16"/>
+      <c r="AP2" s="17"/>
+      <c r="AQ2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="18"/>
-      <c r="AS2" s="18"/>
-      <c r="AT2" s="18"/>
-      <c r="AU2" s="18"/>
-      <c r="AV2" s="19"/>
-      <c r="AW2" s="18" t="s">
+      <c r="AR2" s="33"/>
+      <c r="AS2" s="33"/>
+      <c r="AT2" s="33"/>
+      <c r="AU2" s="33">
+        <v>1</v>
+      </c>
+      <c r="AV2" s="34"/>
+      <c r="AW2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="18"/>
-      <c r="AY2" s="18"/>
-      <c r="AZ2" s="18"/>
-      <c r="BA2" s="18"/>
-      <c r="BB2" s="19"/>
+      <c r="AX2" s="33"/>
+      <c r="AY2" s="33"/>
+      <c r="AZ2" s="33"/>
+      <c r="BA2" s="33">
+        <v>1</v>
+      </c>
+      <c r="BB2" s="34"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="29"/>
-      <c r="AF3" s="29"/>
-      <c r="AG3" s="29"/>
-      <c r="AH3" s="29"/>
-      <c r="AI3" s="29"/>
-      <c r="AJ3" s="29"/>
-      <c r="AK3" s="29"/>
-      <c r="AL3" s="29"/>
-      <c r="AM3" s="29"/>
-      <c r="AN3" s="29"/>
-      <c r="AO3" s="29"/>
-      <c r="AP3" s="30"/>
-      <c r="AQ3" s="16" t="s">
+      <c r="B3" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="18"/>
+      <c r="AI3" s="18"/>
+      <c r="AJ3" s="18"/>
+      <c r="AK3" s="18"/>
+      <c r="AL3" s="18"/>
+      <c r="AM3" s="18"/>
+      <c r="AN3" s="18"/>
+      <c r="AO3" s="18"/>
+      <c r="AP3" s="19"/>
+      <c r="AQ3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="AR3" s="17"/>
-      <c r="AS3" s="17"/>
-      <c r="AT3" s="17"/>
-      <c r="AU3" s="17"/>
-      <c r="AV3" s="20"/>
-      <c r="AW3" s="17"/>
-      <c r="AX3" s="17"/>
-      <c r="AY3" s="17"/>
-      <c r="AZ3" s="17"/>
-      <c r="BA3" s="17"/>
-      <c r="BB3" s="20"/>
+      <c r="AR3" s="32"/>
+      <c r="AS3" s="32"/>
+      <c r="AT3" s="32"/>
+      <c r="AU3" s="32"/>
+      <c r="AV3" s="35"/>
+      <c r="AW3" s="32"/>
+      <c r="AX3" s="32"/>
+      <c r="AY3" s="32"/>
+      <c r="AZ3" s="32"/>
+      <c r="BA3" s="32"/>
+      <c r="BB3" s="35"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="36"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="29"/>
-      <c r="Y4" s="29"/>
-      <c r="Z4" s="29"/>
-      <c r="AA4" s="29"/>
-      <c r="AB4" s="29"/>
-      <c r="AC4" s="29"/>
-      <c r="AD4" s="29"/>
-      <c r="AE4" s="29"/>
-      <c r="AF4" s="29"/>
-      <c r="AG4" s="29"/>
-      <c r="AH4" s="29"/>
-      <c r="AI4" s="29"/>
-      <c r="AJ4" s="29"/>
-      <c r="AK4" s="29"/>
-      <c r="AL4" s="29"/>
-      <c r="AM4" s="29"/>
-      <c r="AN4" s="29"/>
-      <c r="AO4" s="29"/>
-      <c r="AP4" s="30"/>
-      <c r="AQ4" s="21" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="18"/>
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="18"/>
+      <c r="AI4" s="18"/>
+      <c r="AJ4" s="18"/>
+      <c r="AK4" s="18"/>
+      <c r="AL4" s="18"/>
+      <c r="AM4" s="18"/>
+      <c r="AN4" s="18"/>
+      <c r="AO4" s="18"/>
+      <c r="AP4" s="19"/>
+      <c r="AQ4" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="18"/>
-      <c r="AS4" s="18"/>
-      <c r="AT4" s="18"/>
-      <c r="AU4" s="22"/>
-      <c r="AV4" s="23"/>
-      <c r="AW4" s="23"/>
-      <c r="AX4" s="23"/>
-      <c r="AY4" s="23"/>
-      <c r="AZ4" s="23"/>
-      <c r="BA4" s="23"/>
-      <c r="BB4" s="24"/>
+      <c r="AR4" s="33"/>
+      <c r="AS4" s="33"/>
+      <c r="AT4" s="33"/>
+      <c r="AU4" s="41">
+        <v>43031</v>
+      </c>
+      <c r="AV4" s="37"/>
+      <c r="AW4" s="37"/>
+      <c r="AX4" s="37"/>
+      <c r="AY4" s="37"/>
+      <c r="AZ4" s="37"/>
+      <c r="BA4" s="37"/>
+      <c r="BB4" s="38"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="31"/>
-      <c r="AA5" s="31"/>
-      <c r="AB5" s="31"/>
-      <c r="AC5" s="31"/>
-      <c r="AD5" s="31"/>
-      <c r="AE5" s="31"/>
-      <c r="AF5" s="31"/>
-      <c r="AG5" s="31"/>
-      <c r="AH5" s="31"/>
-      <c r="AI5" s="31"/>
-      <c r="AJ5" s="31"/>
-      <c r="AK5" s="31"/>
-      <c r="AL5" s="31"/>
-      <c r="AM5" s="31"/>
-      <c r="AN5" s="31"/>
-      <c r="AO5" s="31"/>
-      <c r="AP5" s="32"/>
-      <c r="AQ5" s="16"/>
-      <c r="AR5" s="17"/>
-      <c r="AS5" s="17"/>
-      <c r="AT5" s="17"/>
-      <c r="AU5" s="25"/>
-      <c r="AV5" s="25"/>
-      <c r="AW5" s="25"/>
-      <c r="AX5" s="25"/>
-      <c r="AY5" s="25"/>
-      <c r="AZ5" s="25"/>
-      <c r="BA5" s="25"/>
-      <c r="BB5" s="26"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="20"/>
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="20"/>
+      <c r="AG5" s="20"/>
+      <c r="AH5" s="20"/>
+      <c r="AI5" s="20"/>
+      <c r="AJ5" s="20"/>
+      <c r="AK5" s="20"/>
+      <c r="AL5" s="20"/>
+      <c r="AM5" s="20"/>
+      <c r="AN5" s="20"/>
+      <c r="AO5" s="20"/>
+      <c r="AP5" s="21"/>
+      <c r="AQ5" s="31"/>
+      <c r="AR5" s="32"/>
+      <c r="AS5" s="32"/>
+      <c r="AT5" s="32"/>
+      <c r="AU5" s="39"/>
+      <c r="AV5" s="39"/>
+      <c r="AW5" s="39"/>
+      <c r="AX5" s="39"/>
+      <c r="AY5" s="39"/>
+      <c r="AZ5" s="39"/>
+      <c r="BA5" s="39"/>
+      <c r="BB5" s="40"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -1158,23 +1249,6 @@
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
       <c r="AA9" s="15"/>
       <c r="AB9" s="15"/>
       <c r="AC9" s="15"/>
@@ -1213,23 +1287,6 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
@@ -1268,23 +1325,6 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
@@ -1323,23 +1363,6 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
@@ -1378,29 +1401,23 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
       <c r="AG13" s="4"/>
       <c r="AH13" s="4"/>
       <c r="AI13" s="4"/>
@@ -1433,29 +1450,23 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="4"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="3"/>
       <c r="AG14" s="4"/>
       <c r="AH14" s="4"/>
       <c r="AI14" s="4"/>
@@ -1488,29 +1499,25 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
       <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4"/>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="4"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="43"/>
+      <c r="X15" s="43"/>
+      <c r="Y15" s="43"/>
+      <c r="Z15" s="43"/>
+      <c r="AA15" s="43"/>
+      <c r="AB15" s="44"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="3"/>
       <c r="AG15" s="4"/>
       <c r="AH15" s="4"/>
       <c r="AI15" s="4"/>
@@ -1543,12 +1550,8 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
       <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
+      <c r="O16" s="3"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
@@ -1562,11 +1565,8 @@
       <c r="Z16" s="4"/>
       <c r="AA16" s="4"/>
       <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="4"/>
-      <c r="AF16" s="4"/>
-      <c r="AG16" s="4"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="3"/>
       <c r="AH16" s="4"/>
       <c r="AI16" s="4"/>
       <c r="AJ16" s="4"/>
@@ -1598,30 +1598,25 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
       <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="4"/>
-      <c r="AG17" s="4"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="43"/>
+      <c r="X17" s="43"/>
+      <c r="Y17" s="43"/>
+      <c r="Z17" s="43"/>
+      <c r="AA17" s="43"/>
+      <c r="AB17" s="44"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="3"/>
       <c r="AH17" s="4"/>
       <c r="AI17" s="4"/>
       <c r="AJ17" s="4"/>
@@ -1658,7 +1653,7 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
+      <c r="O18" s="3"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
@@ -1672,11 +1667,8 @@
       <c r="Z18" s="4"/>
       <c r="AA18" s="4"/>
       <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
-      <c r="AG18" s="4"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="3"/>
       <c r="AH18" s="4"/>
       <c r="AI18" s="4"/>
       <c r="AJ18" s="4"/>
@@ -1713,7 +1705,7 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
+      <c r="O19" s="3"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
@@ -1724,14 +1716,13 @@
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="4"/>
-      <c r="AF19" s="4"/>
-      <c r="AG19" s="4"/>
+      <c r="Z19" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA19" s="49"/>
+      <c r="AB19" s="50"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="3"/>
       <c r="AH19" s="4"/>
       <c r="AI19" s="4"/>
       <c r="AJ19" s="4"/>
@@ -1768,25 +1759,22 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="4"/>
-      <c r="AF20" s="4"/>
-      <c r="AG20" s="4"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="3"/>
       <c r="AH20" s="4"/>
       <c r="AI20" s="4"/>
       <c r="AJ20" s="4"/>
@@ -1839,9 +1827,6 @@
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
-      <c r="AE21" s="4"/>
-      <c r="AF21" s="4"/>
-      <c r="AG21" s="4"/>
       <c r="AH21" s="4"/>
       <c r="AI21" s="4"/>
       <c r="AJ21" s="4"/>
@@ -1880,23 +1865,6 @@
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="4"/>
-      <c r="AE22" s="4"/>
-      <c r="AF22" s="4"/>
-      <c r="AG22" s="4"/>
       <c r="AH22" s="4"/>
       <c r="AI22" s="4"/>
       <c r="AJ22" s="4"/>
@@ -1935,23 +1903,6 @@
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="4"/>
-      <c r="AD23" s="4"/>
-      <c r="AE23" s="4"/>
-      <c r="AF23" s="4"/>
-      <c r="AG23" s="4"/>
       <c r="AH23" s="4"/>
       <c r="AI23" s="4"/>
       <c r="AJ23" s="4"/>
@@ -1990,23 +1941,6 @@
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
-      <c r="AB24" s="4"/>
-      <c r="AC24" s="4"/>
-      <c r="AD24" s="4"/>
-      <c r="AE24" s="4"/>
-      <c r="AF24" s="4"/>
-      <c r="AG24" s="4"/>
       <c r="AH24" s="4"/>
       <c r="AI24" s="4"/>
       <c r="AJ24" s="4"/>
@@ -2526,17 +2460,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="W2:AP2"/>
-    <mergeCell ref="W3:AP5"/>
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="B3:V5"/>
-    <mergeCell ref="AQ3:AT3"/>
     <mergeCell ref="AU2:AV3"/>
     <mergeCell ref="AQ4:AT5"/>
     <mergeCell ref="AU4:BB5"/>
     <mergeCell ref="BA2:BB3"/>
     <mergeCell ref="AW2:AZ3"/>
     <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="W2:AP2"/>
+    <mergeCell ref="W3:AP5"/>
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="B3:V5"/>
+    <mergeCell ref="AQ3:AT3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/総合演習資料/2.外部設計/画面設計図.xlsx
+++ b/総合演習資料/2.外部設計/画面設計図.xlsx
@@ -5,24 +5,24 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PTM-WORK\Desktop\java.git\総合演習資料\2.外部設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptsg-user\Desktop\javaWeb2.git\総合演習資料\2.外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン" sheetId="13" r:id="rId1"/>
     <sheet name="社員情報管理（管理用）" sheetId="11" r:id="rId2"/>
     <sheet name="社員情報管理（一般用）" sheetId="12" r:id="rId3"/>
-    <sheet name="新規登録" sheetId="2" r:id="rId4"/>
-    <sheet name="登録内容確認" sheetId="3" r:id="rId5"/>
-    <sheet name="修正" sheetId="4" r:id="rId6"/>
-    <sheet name="修正内容確認" sheetId="5" r:id="rId7"/>
-    <sheet name="削除内容確認画面" sheetId="6" r:id="rId8"/>
-    <sheet name="詳細画面（管理者）" sheetId="7" r:id="rId9"/>
-    <sheet name="詳細画面（一般・自分以外）" sheetId="8" r:id="rId10"/>
-    <sheet name="詳細画面（一般・自分）" sheetId="9" r:id="rId11"/>
+    <sheet name="新規登録" sheetId="14" r:id="rId4"/>
+    <sheet name="登録内容確認" sheetId="15" r:id="rId5"/>
+    <sheet name="修正" sheetId="16" r:id="rId6"/>
+    <sheet name="修正内容確認" sheetId="17" r:id="rId7"/>
+    <sheet name="削除内容確認画面" sheetId="18" r:id="rId8"/>
+    <sheet name="詳細画面（管理者）" sheetId="19" r:id="rId9"/>
+    <sheet name="詳細画面（一般・自分以外）" sheetId="20" r:id="rId10"/>
+    <sheet name="詳細画面（一般・自分）" sheetId="21" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="86">
   <si>
     <t>作成日付：</t>
     <rPh sb="0" eb="2">
@@ -200,10 +200,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>◆◆</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>内線または</t>
     <rPh sb="0" eb="2">
       <t>ナイセン</t>
@@ -241,11 +237,16 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>バージョン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ページNo.</t>
+    <t>登録内容確認</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -259,27 +260,6 @@
     <rPh sb="4" eb="6">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>No.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>登録内容確認</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>パスワード：</t>
     <phoneticPr fontId="7"/>
   </si>
   <si>
@@ -316,14 +296,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>バージョン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ページNo.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>修正内容確認</t>
     <rPh sb="0" eb="2">
       <t>シュウセイ</t>
@@ -334,10 +306,6 @@
     <rPh sb="4" eb="6">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>No.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -371,10 +339,6 @@
     <rPh sb="4" eb="6">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>パースワード：</t>
     <phoneticPr fontId="7"/>
   </si>
   <si>
@@ -550,6 +514,293 @@
   </si>
   <si>
     <t>ログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録ボタンをクリックすると、</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録内容確認画面に遷移</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻るボタンをクリックすると</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員情報管理画面に遷移</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード：</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>◆◆</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>前画面に戻るボタンをクリックすると</t>
+    <rPh sb="0" eb="1">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録画面に遷移</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（各項目には入力された状態で遷移）</t>
+    <rPh sb="1" eb="4">
+      <t>カクコウモク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正ボタンをクリックすると、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正内容確認画面に遷移</t>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バージョン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページNo.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正画面に遷移</t>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パースワード：</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>バージョン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページNo.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除ボタンをクリックすると、</t>
+  </si>
+  <si>
+    <t>社員情報管理画面または</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パースワード：</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>詳細画面に遷移</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（本画面に遷移する前の画面に遷移）</t>
+    <rPh sb="1" eb="2">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正画面に遷移</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除ボタンをクリックすると</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除内容確認画面に遷移</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バージョン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページNo.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正ボタンをクリックすると</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -817,7 +1068,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -884,6 +1135,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -893,12 +1184,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -977,38 +1262,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8438,244 +8692,244 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="29" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="29"/>
-      <c r="AO2" s="29"/>
-      <c r="AP2" s="30"/>
-      <c r="AQ2" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR2" s="46"/>
-      <c r="AS2" s="46"/>
-      <c r="AT2" s="46"/>
-      <c r="AU2" s="46">
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="42"/>
+      <c r="AQ2" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR2" s="58"/>
+      <c r="AS2" s="58"/>
+      <c r="AT2" s="58"/>
+      <c r="AU2" s="58">
         <v>1</v>
       </c>
-      <c r="AV2" s="47"/>
-      <c r="AW2" s="46" t="s">
+      <c r="AV2" s="59"/>
+      <c r="AW2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="46"/>
-      <c r="AY2" s="46"/>
-      <c r="AZ2" s="46"/>
-      <c r="BA2" s="46">
+      <c r="AX2" s="58"/>
+      <c r="AY2" s="58"/>
+      <c r="AZ2" s="58"/>
+      <c r="BA2" s="58">
         <v>1</v>
       </c>
-      <c r="BB2" s="47"/>
+      <c r="BB2" s="59"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="31"/>
-      <c r="AJ3" s="31"/>
-      <c r="AK3" s="31"/>
-      <c r="AL3" s="31"/>
-      <c r="AM3" s="31"/>
-      <c r="AN3" s="31"/>
-      <c r="AO3" s="31"/>
-      <c r="AP3" s="32"/>
-      <c r="AQ3" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="AR3" s="45"/>
-      <c r="AS3" s="45"/>
-      <c r="AT3" s="45"/>
-      <c r="AU3" s="45"/>
-      <c r="AV3" s="48"/>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="45"/>
-      <c r="AY3" s="45"/>
-      <c r="AZ3" s="45"/>
-      <c r="BA3" s="45"/>
-      <c r="BB3" s="48"/>
+      <c r="B3" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="43"/>
+      <c r="AO3" s="43"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR3" s="57"/>
+      <c r="AS3" s="57"/>
+      <c r="AT3" s="57"/>
+      <c r="AU3" s="57"/>
+      <c r="AV3" s="60"/>
+      <c r="AW3" s="57"/>
+      <c r="AX3" s="57"/>
+      <c r="AY3" s="57"/>
+      <c r="AZ3" s="57"/>
+      <c r="BA3" s="57"/>
+      <c r="BB3" s="60"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="31"/>
-      <c r="AM4" s="31"/>
-      <c r="AN4" s="31"/>
-      <c r="AO4" s="31"/>
-      <c r="AP4" s="32"/>
-      <c r="AQ4" s="49" t="s">
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="43"/>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="43"/>
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="43"/>
+      <c r="AD4" s="43"/>
+      <c r="AE4" s="43"/>
+      <c r="AF4" s="43"/>
+      <c r="AG4" s="43"/>
+      <c r="AH4" s="43"/>
+      <c r="AI4" s="43"/>
+      <c r="AJ4" s="43"/>
+      <c r="AK4" s="43"/>
+      <c r="AL4" s="43"/>
+      <c r="AM4" s="43"/>
+      <c r="AN4" s="43"/>
+      <c r="AO4" s="43"/>
+      <c r="AP4" s="44"/>
+      <c r="AQ4" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="46"/>
-      <c r="AS4" s="46"/>
-      <c r="AT4" s="46"/>
-      <c r="AU4" s="50">
+      <c r="AR4" s="58"/>
+      <c r="AS4" s="58"/>
+      <c r="AT4" s="58"/>
+      <c r="AU4" s="62">
         <v>43031</v>
       </c>
-      <c r="AV4" s="51"/>
-      <c r="AW4" s="51"/>
-      <c r="AX4" s="51"/>
-      <c r="AY4" s="51"/>
-      <c r="AZ4" s="51"/>
-      <c r="BA4" s="51"/>
-      <c r="BB4" s="52"/>
+      <c r="AV4" s="63"/>
+      <c r="AW4" s="63"/>
+      <c r="AX4" s="63"/>
+      <c r="AY4" s="63"/>
+      <c r="AZ4" s="63"/>
+      <c r="BA4" s="63"/>
+      <c r="BB4" s="64"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="41"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="33"/>
-      <c r="AE5" s="33"/>
-      <c r="AF5" s="33"/>
-      <c r="AG5" s="33"/>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="33"/>
-      <c r="AJ5" s="33"/>
-      <c r="AK5" s="33"/>
-      <c r="AL5" s="33"/>
-      <c r="AM5" s="33"/>
-      <c r="AN5" s="33"/>
-      <c r="AO5" s="33"/>
-      <c r="AP5" s="34"/>
-      <c r="AQ5" s="44"/>
-      <c r="AR5" s="45"/>
-      <c r="AS5" s="45"/>
-      <c r="AT5" s="45"/>
-      <c r="AU5" s="53"/>
-      <c r="AV5" s="53"/>
-      <c r="AW5" s="53"/>
-      <c r="AX5" s="53"/>
-      <c r="AY5" s="53"/>
-      <c r="AZ5" s="53"/>
-      <c r="BA5" s="53"/>
-      <c r="BB5" s="54"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="45"/>
+      <c r="AD5" s="45"/>
+      <c r="AE5" s="45"/>
+      <c r="AF5" s="45"/>
+      <c r="AG5" s="45"/>
+      <c r="AH5" s="45"/>
+      <c r="AI5" s="45"/>
+      <c r="AJ5" s="45"/>
+      <c r="AK5" s="45"/>
+      <c r="AL5" s="45"/>
+      <c r="AM5" s="45"/>
+      <c r="AN5" s="45"/>
+      <c r="AO5" s="45"/>
+      <c r="AP5" s="46"/>
+      <c r="AQ5" s="56"/>
+      <c r="AR5" s="57"/>
+      <c r="AS5" s="57"/>
+      <c r="AT5" s="57"/>
+      <c r="AU5" s="65"/>
+      <c r="AV5" s="65"/>
+      <c r="AW5" s="65"/>
+      <c r="AX5" s="65"/>
+      <c r="AY5" s="65"/>
+      <c r="AZ5" s="65"/>
+      <c r="BA5" s="65"/>
+      <c r="BB5" s="66"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -9103,21 +9357,21 @@
       <c r="I15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="58" t="s">
+      <c r="P15" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="58"/>
-      <c r="S15" s="58"/>
-      <c r="T15" s="66"/>
-      <c r="U15" s="65"/>
-      <c r="V15" s="64"/>
-      <c r="W15" s="64"/>
-      <c r="X15" s="64"/>
-      <c r="Y15" s="64"/>
-      <c r="Z15" s="64"/>
-      <c r="AA15" s="64"/>
-      <c r="AB15" s="63"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="39"/>
+      <c r="X15" s="39"/>
+      <c r="Y15" s="39"/>
+      <c r="Z15" s="39"/>
+      <c r="AA15" s="39"/>
+      <c r="AB15" s="40"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="3"/>
       <c r="AG15" s="4"/>
@@ -9203,20 +9457,20 @@
       <c r="N17" s="4"/>
       <c r="O17" s="3"/>
       <c r="P17" s="20" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="Q17" s="20"/>
       <c r="R17" s="20"/>
       <c r="S17" s="20"/>
       <c r="T17" s="21"/>
-      <c r="U17" s="65"/>
-      <c r="V17" s="64"/>
-      <c r="W17" s="64"/>
-      <c r="X17" s="64"/>
-      <c r="Y17" s="64"/>
-      <c r="Z17" s="64"/>
-      <c r="AA17" s="64"/>
-      <c r="AB17" s="63"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="39"/>
+      <c r="X17" s="39"/>
+      <c r="Y17" s="39"/>
+      <c r="Z17" s="39"/>
+      <c r="AA17" s="39"/>
+      <c r="AB17" s="40"/>
       <c r="AC17" s="5"/>
       <c r="AD17" s="3"/>
       <c r="AH17" s="4"/>
@@ -9317,10 +9571,10 @@
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
-      <c r="Y19" s="58"/>
-      <c r="Z19" s="58"/>
-      <c r="AA19" s="58"/>
-      <c r="AB19" s="58"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="29"/>
+      <c r="AB19" s="29"/>
       <c r="AC19" s="5"/>
       <c r="AD19" s="3"/>
       <c r="AH19" s="4"/>
@@ -10060,12 +10314,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="U15:AB15"/>
-    <mergeCell ref="U17:AB17"/>
-    <mergeCell ref="W2:AP2"/>
-    <mergeCell ref="W3:AP5"/>
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="B3:V5"/>
     <mergeCell ref="AQ3:AT3"/>
     <mergeCell ref="AU2:AV3"/>
     <mergeCell ref="AQ4:AT5"/>
@@ -10073,6 +10321,12 @@
     <mergeCell ref="BA2:BB3"/>
     <mergeCell ref="AW2:AZ3"/>
     <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="U15:AB15"/>
+    <mergeCell ref="U17:AB17"/>
+    <mergeCell ref="W2:AP2"/>
+    <mergeCell ref="W3:AP5"/>
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="B3:V5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10086,7 +10340,7 @@
   <dimension ref="B1:BB33"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="AR8" sqref="AR8:AZ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10135,244 +10389,244 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="29" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="29"/>
-      <c r="AO2" s="29"/>
-      <c r="AP2" s="30"/>
-      <c r="AQ2" s="49" t="s">
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="42"/>
+      <c r="AQ2" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="46"/>
-      <c r="AS2" s="46"/>
-      <c r="AT2" s="46"/>
-      <c r="AU2" s="46">
+      <c r="AR2" s="58"/>
+      <c r="AS2" s="58"/>
+      <c r="AT2" s="58"/>
+      <c r="AU2" s="58">
         <v>1</v>
       </c>
-      <c r="AV2" s="47"/>
-      <c r="AW2" s="46" t="s">
+      <c r="AV2" s="59"/>
+      <c r="AW2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="46"/>
-      <c r="AY2" s="46"/>
-      <c r="AZ2" s="46"/>
-      <c r="BA2" s="46">
+      <c r="AX2" s="58"/>
+      <c r="AY2" s="58"/>
+      <c r="AZ2" s="58"/>
+      <c r="BA2" s="58">
         <v>10</v>
       </c>
-      <c r="BB2" s="47"/>
+      <c r="BB2" s="59"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="31"/>
-      <c r="AJ3" s="31"/>
-      <c r="AK3" s="31"/>
-      <c r="AL3" s="31"/>
-      <c r="AM3" s="31"/>
-      <c r="AN3" s="31"/>
-      <c r="AO3" s="31"/>
-      <c r="AP3" s="32"/>
-      <c r="AQ3" s="44" t="s">
+      <c r="B3" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="43"/>
+      <c r="AO3" s="43"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="AR3" s="45"/>
-      <c r="AS3" s="45"/>
-      <c r="AT3" s="45"/>
-      <c r="AU3" s="45"/>
-      <c r="AV3" s="48"/>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="45"/>
-      <c r="AY3" s="45"/>
-      <c r="AZ3" s="45"/>
-      <c r="BA3" s="45"/>
-      <c r="BB3" s="48"/>
+      <c r="AR3" s="57"/>
+      <c r="AS3" s="57"/>
+      <c r="AT3" s="57"/>
+      <c r="AU3" s="57"/>
+      <c r="AV3" s="60"/>
+      <c r="AW3" s="57"/>
+      <c r="AX3" s="57"/>
+      <c r="AY3" s="57"/>
+      <c r="AZ3" s="57"/>
+      <c r="BA3" s="57"/>
+      <c r="BB3" s="60"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="31"/>
-      <c r="AM4" s="31"/>
-      <c r="AN4" s="31"/>
-      <c r="AO4" s="31"/>
-      <c r="AP4" s="32"/>
-      <c r="AQ4" s="49" t="s">
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="43"/>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="43"/>
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="43"/>
+      <c r="AD4" s="43"/>
+      <c r="AE4" s="43"/>
+      <c r="AF4" s="43"/>
+      <c r="AG4" s="43"/>
+      <c r="AH4" s="43"/>
+      <c r="AI4" s="43"/>
+      <c r="AJ4" s="43"/>
+      <c r="AK4" s="43"/>
+      <c r="AL4" s="43"/>
+      <c r="AM4" s="43"/>
+      <c r="AN4" s="43"/>
+      <c r="AO4" s="43"/>
+      <c r="AP4" s="44"/>
+      <c r="AQ4" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="46"/>
-      <c r="AS4" s="46"/>
-      <c r="AT4" s="46"/>
-      <c r="AU4" s="50">
+      <c r="AR4" s="58"/>
+      <c r="AS4" s="58"/>
+      <c r="AT4" s="58"/>
+      <c r="AU4" s="62">
         <v>43032</v>
       </c>
-      <c r="AV4" s="51"/>
-      <c r="AW4" s="51"/>
-      <c r="AX4" s="51"/>
-      <c r="AY4" s="51"/>
-      <c r="AZ4" s="51"/>
-      <c r="BA4" s="51"/>
-      <c r="BB4" s="52"/>
+      <c r="AV4" s="63"/>
+      <c r="AW4" s="63"/>
+      <c r="AX4" s="63"/>
+      <c r="AY4" s="63"/>
+      <c r="AZ4" s="63"/>
+      <c r="BA4" s="63"/>
+      <c r="BB4" s="64"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="41"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="33"/>
-      <c r="AE5" s="33"/>
-      <c r="AF5" s="33"/>
-      <c r="AG5" s="33"/>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="33"/>
-      <c r="AJ5" s="33"/>
-      <c r="AK5" s="33"/>
-      <c r="AL5" s="33"/>
-      <c r="AM5" s="33"/>
-      <c r="AN5" s="33"/>
-      <c r="AO5" s="33"/>
-      <c r="AP5" s="34"/>
-      <c r="AQ5" s="44"/>
-      <c r="AR5" s="45"/>
-      <c r="AS5" s="45"/>
-      <c r="AT5" s="45"/>
-      <c r="AU5" s="53"/>
-      <c r="AV5" s="53"/>
-      <c r="AW5" s="53"/>
-      <c r="AX5" s="53"/>
-      <c r="AY5" s="53"/>
-      <c r="AZ5" s="53"/>
-      <c r="BA5" s="53"/>
-      <c r="BB5" s="54"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="45"/>
+      <c r="AD5" s="45"/>
+      <c r="AE5" s="45"/>
+      <c r="AF5" s="45"/>
+      <c r="AG5" s="45"/>
+      <c r="AH5" s="45"/>
+      <c r="AI5" s="45"/>
+      <c r="AJ5" s="45"/>
+      <c r="AK5" s="45"/>
+      <c r="AL5" s="45"/>
+      <c r="AM5" s="45"/>
+      <c r="AN5" s="45"/>
+      <c r="AO5" s="45"/>
+      <c r="AP5" s="46"/>
+      <c r="AQ5" s="56"/>
+      <c r="AR5" s="57"/>
+      <c r="AS5" s="57"/>
+      <c r="AT5" s="57"/>
+      <c r="AU5" s="65"/>
+      <c r="AV5" s="65"/>
+      <c r="AW5" s="65"/>
+      <c r="AX5" s="65"/>
+      <c r="AY5" s="65"/>
+      <c r="AZ5" s="65"/>
+      <c r="BA5" s="65"/>
+      <c r="BB5" s="66"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -10526,7 +10780,9 @@
       <c r="AO8" s="15"/>
       <c r="AP8" s="15"/>
       <c r="AQ8" s="3"/>
-      <c r="AR8" s="4"/>
+      <c r="AR8" s="67" t="s">
+        <v>56</v>
+      </c>
       <c r="AS8" s="4"/>
       <c r="AT8" s="4"/>
       <c r="AU8" s="4"/>
@@ -10577,7 +10833,9 @@
       <c r="AO9" s="15"/>
       <c r="AP9" s="15"/>
       <c r="AQ9" s="3"/>
-      <c r="AR9" s="4"/>
+      <c r="AR9" s="67" t="s">
+        <v>57</v>
+      </c>
       <c r="AS9" s="4"/>
       <c r="AT9" s="4"/>
       <c r="AU9" s="4"/>
@@ -10599,8 +10857,8 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="25" t="s">
-        <v>52</v>
+      <c r="O10" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -10713,7 +10971,7 @@
       <c r="AO12" s="4"/>
       <c r="AP12" s="4"/>
       <c r="AQ12" s="3"/>
-      <c r="AR12" s="4"/>
+      <c r="AR12" s="67"/>
       <c r="AS12" s="4"/>
       <c r="AT12" s="4"/>
       <c r="AU12" s="4"/>
@@ -10736,8 +10994,8 @@
       <c r="I13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="3"/>
-      <c r="P13" s="28" t="s">
-        <v>35</v>
+      <c r="P13" s="25" t="s">
+        <v>30</v>
       </c>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
@@ -10809,8 +11067,6 @@
       <c r="AO14" s="4"/>
       <c r="AP14" s="4"/>
       <c r="AQ14" s="3"/>
-      <c r="AR14" s="4"/>
-      <c r="AS14" s="4"/>
       <c r="AT14" s="4"/>
       <c r="AU14" s="4"/>
       <c r="AV14" s="4"/>
@@ -10858,8 +11114,6 @@
       <c r="AO15" s="4"/>
       <c r="AP15" s="4"/>
       <c r="AQ15" s="3"/>
-      <c r="AR15" s="4"/>
-      <c r="AS15" s="4"/>
       <c r="AT15" s="4"/>
       <c r="AU15" s="4"/>
       <c r="AV15" s="4"/>
@@ -10925,7 +11179,7 @@
       <c r="I17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="26" t="s">
+      <c r="P17" s="23" t="s">
         <v>14</v>
       </c>
       <c r="Q17" s="4"/>
@@ -10973,7 +11227,7 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="26" t="s">
+      <c r="P18" s="23" t="s">
         <v>16</v>
       </c>
       <c r="Q18" s="4"/>
@@ -11020,7 +11274,7 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="26" t="s">
+      <c r="P19" s="23" t="s">
         <v>18</v>
       </c>
       <c r="Q19" s="4"/>
@@ -11067,7 +11321,7 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="26" t="s">
+      <c r="P20" s="23" t="s">
         <v>20</v>
       </c>
       <c r="Q20" s="4"/>
@@ -11114,14 +11368,14 @@
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="26" t="s">
+      <c r="P21" s="23" t="s">
         <v>22</v>
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="U21" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="AC21" s="5"/>
       <c r="AD21" s="4"/>
@@ -11162,14 +11416,14 @@
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="26" t="s">
-        <v>24</v>
+      <c r="P22" s="23" t="s">
+        <v>23</v>
       </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
       <c r="U22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC22" s="5"/>
       <c r="AD22" s="4"/>
@@ -11210,8 +11464,8 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="26" t="s">
-        <v>26</v>
+      <c r="P23" s="23" t="s">
+        <v>25</v>
       </c>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
@@ -11294,13 +11548,13 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="26"/>
+      <c r="P25" s="23"/>
       <c r="Q25" s="4"/>
-      <c r="X25" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y25" s="23"/>
-      <c r="Z25" s="24"/>
+      <c r="X25" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y25" s="35"/>
+      <c r="Z25" s="34"/>
       <c r="AC25" s="5"/>
       <c r="AD25" s="4"/>
       <c r="AE25" s="4"/>
@@ -11343,7 +11597,7 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="26"/>
+      <c r="P26" s="23"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
@@ -11709,7 +11963,7 @@
   <dimension ref="B1:BB33"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="AR8" sqref="AR8:AZ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11758,244 +12012,244 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="29" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="29"/>
-      <c r="AO2" s="29"/>
-      <c r="AP2" s="30"/>
-      <c r="AQ2" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="AR2" s="46"/>
-      <c r="AS2" s="46"/>
-      <c r="AT2" s="46"/>
-      <c r="AU2" s="46">
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="42"/>
+      <c r="AQ2" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR2" s="58"/>
+      <c r="AS2" s="58"/>
+      <c r="AT2" s="58"/>
+      <c r="AU2" s="58">
         <v>1</v>
       </c>
-      <c r="AV2" s="47"/>
-      <c r="AW2" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="AX2" s="46"/>
-      <c r="AY2" s="46"/>
-      <c r="AZ2" s="46"/>
-      <c r="BA2" s="46">
+      <c r="AV2" s="59"/>
+      <c r="AW2" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="AX2" s="58"/>
+      <c r="AY2" s="58"/>
+      <c r="AZ2" s="58"/>
+      <c r="BA2" s="58">
         <v>11</v>
       </c>
-      <c r="BB2" s="47"/>
+      <c r="BB2" s="59"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="31"/>
-      <c r="AJ3" s="31"/>
-      <c r="AK3" s="31"/>
-      <c r="AL3" s="31"/>
-      <c r="AM3" s="31"/>
-      <c r="AN3" s="31"/>
-      <c r="AO3" s="31"/>
-      <c r="AP3" s="32"/>
-      <c r="AQ3" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR3" s="45"/>
-      <c r="AS3" s="45"/>
-      <c r="AT3" s="45"/>
-      <c r="AU3" s="45"/>
-      <c r="AV3" s="48"/>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="45"/>
-      <c r="AY3" s="45"/>
-      <c r="AZ3" s="45"/>
-      <c r="BA3" s="45"/>
-      <c r="BB3" s="48"/>
+      <c r="B3" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="43"/>
+      <c r="AO3" s="43"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR3" s="57"/>
+      <c r="AS3" s="57"/>
+      <c r="AT3" s="57"/>
+      <c r="AU3" s="57"/>
+      <c r="AV3" s="60"/>
+      <c r="AW3" s="57"/>
+      <c r="AX3" s="57"/>
+      <c r="AY3" s="57"/>
+      <c r="AZ3" s="57"/>
+      <c r="BA3" s="57"/>
+      <c r="BB3" s="60"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="31"/>
-      <c r="AM4" s="31"/>
-      <c r="AN4" s="31"/>
-      <c r="AO4" s="31"/>
-      <c r="AP4" s="32"/>
-      <c r="AQ4" s="49" t="s">
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="43"/>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="43"/>
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="43"/>
+      <c r="AD4" s="43"/>
+      <c r="AE4" s="43"/>
+      <c r="AF4" s="43"/>
+      <c r="AG4" s="43"/>
+      <c r="AH4" s="43"/>
+      <c r="AI4" s="43"/>
+      <c r="AJ4" s="43"/>
+      <c r="AK4" s="43"/>
+      <c r="AL4" s="43"/>
+      <c r="AM4" s="43"/>
+      <c r="AN4" s="43"/>
+      <c r="AO4" s="43"/>
+      <c r="AP4" s="44"/>
+      <c r="AQ4" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="46"/>
-      <c r="AS4" s="46"/>
-      <c r="AT4" s="46"/>
-      <c r="AU4" s="50">
+      <c r="AR4" s="58"/>
+      <c r="AS4" s="58"/>
+      <c r="AT4" s="58"/>
+      <c r="AU4" s="62">
         <v>43032</v>
       </c>
-      <c r="AV4" s="51"/>
-      <c r="AW4" s="51"/>
-      <c r="AX4" s="51"/>
-      <c r="AY4" s="51"/>
-      <c r="AZ4" s="51"/>
-      <c r="BA4" s="51"/>
-      <c r="BB4" s="52"/>
+      <c r="AV4" s="63"/>
+      <c r="AW4" s="63"/>
+      <c r="AX4" s="63"/>
+      <c r="AY4" s="63"/>
+      <c r="AZ4" s="63"/>
+      <c r="BA4" s="63"/>
+      <c r="BB4" s="64"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="41"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="33"/>
-      <c r="AE5" s="33"/>
-      <c r="AF5" s="33"/>
-      <c r="AG5" s="33"/>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="33"/>
-      <c r="AJ5" s="33"/>
-      <c r="AK5" s="33"/>
-      <c r="AL5" s="33"/>
-      <c r="AM5" s="33"/>
-      <c r="AN5" s="33"/>
-      <c r="AO5" s="33"/>
-      <c r="AP5" s="34"/>
-      <c r="AQ5" s="44"/>
-      <c r="AR5" s="45"/>
-      <c r="AS5" s="45"/>
-      <c r="AT5" s="45"/>
-      <c r="AU5" s="53"/>
-      <c r="AV5" s="53"/>
-      <c r="AW5" s="53"/>
-      <c r="AX5" s="53"/>
-      <c r="AY5" s="53"/>
-      <c r="AZ5" s="53"/>
-      <c r="BA5" s="53"/>
-      <c r="BB5" s="54"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="45"/>
+      <c r="AD5" s="45"/>
+      <c r="AE5" s="45"/>
+      <c r="AF5" s="45"/>
+      <c r="AG5" s="45"/>
+      <c r="AH5" s="45"/>
+      <c r="AI5" s="45"/>
+      <c r="AJ5" s="45"/>
+      <c r="AK5" s="45"/>
+      <c r="AL5" s="45"/>
+      <c r="AM5" s="45"/>
+      <c r="AN5" s="45"/>
+      <c r="AO5" s="45"/>
+      <c r="AP5" s="46"/>
+      <c r="AQ5" s="56"/>
+      <c r="AR5" s="57"/>
+      <c r="AS5" s="57"/>
+      <c r="AT5" s="57"/>
+      <c r="AU5" s="65"/>
+      <c r="AV5" s="65"/>
+      <c r="AW5" s="65"/>
+      <c r="AX5" s="65"/>
+      <c r="AY5" s="65"/>
+      <c r="AZ5" s="65"/>
+      <c r="BA5" s="65"/>
+      <c r="BB5" s="66"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -12149,7 +12403,9 @@
       <c r="AO8" s="15"/>
       <c r="AP8" s="15"/>
       <c r="AQ8" s="3"/>
-      <c r="AR8" s="4"/>
+      <c r="AR8" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="AS8" s="4"/>
       <c r="AT8" s="4"/>
       <c r="AU8" s="4"/>
@@ -12200,7 +12456,9 @@
       <c r="AO9" s="15"/>
       <c r="AP9" s="15"/>
       <c r="AQ9" s="3"/>
-      <c r="AR9" s="4"/>
+      <c r="AR9" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="AS9" s="4"/>
       <c r="AT9" s="4"/>
       <c r="AU9" s="4"/>
@@ -12222,8 +12480,8 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="25" t="s">
-        <v>52</v>
+      <c r="O10" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -12253,7 +12511,6 @@
       <c r="AO10" s="4"/>
       <c r="AP10" s="4"/>
       <c r="AQ10" s="3"/>
-      <c r="AR10" s="4"/>
       <c r="AS10" s="4"/>
       <c r="AT10" s="4"/>
       <c r="AU10" s="4"/>
@@ -12290,7 +12547,9 @@
       <c r="AO11" s="4"/>
       <c r="AP11" s="4"/>
       <c r="AQ11" s="3"/>
-      <c r="AR11" s="4"/>
+      <c r="AR11" s="67" t="s">
+        <v>56</v>
+      </c>
       <c r="AS11" s="4"/>
       <c r="AT11" s="4"/>
       <c r="AU11" s="4"/>
@@ -12336,7 +12595,9 @@
       <c r="AO12" s="4"/>
       <c r="AP12" s="4"/>
       <c r="AQ12" s="3"/>
-      <c r="AR12" s="4"/>
+      <c r="AR12" s="67" t="s">
+        <v>57</v>
+      </c>
       <c r="AS12" s="4"/>
       <c r="AT12" s="4"/>
       <c r="AU12" s="4"/>
@@ -12359,8 +12620,8 @@
       <c r="I13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="3"/>
-      <c r="P13" s="28" t="s">
-        <v>35</v>
+      <c r="P13" s="25" t="s">
+        <v>30</v>
       </c>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
@@ -12548,7 +12809,7 @@
       <c r="I17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="26" t="s">
+      <c r="P17" s="23" t="s">
         <v>14</v>
       </c>
       <c r="Q17" s="4"/>
@@ -12596,7 +12857,7 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="26" t="s">
+      <c r="P18" s="23" t="s">
         <v>16</v>
       </c>
       <c r="Q18" s="4"/>
@@ -12643,7 +12904,7 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="26" t="s">
+      <c r="P19" s="23" t="s">
         <v>18</v>
       </c>
       <c r="Q19" s="4"/>
@@ -12690,7 +12951,7 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="26" t="s">
+      <c r="P20" s="23" t="s">
         <v>20</v>
       </c>
       <c r="Q20" s="4"/>
@@ -12737,14 +12998,14 @@
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="26" t="s">
+      <c r="P21" s="23" t="s">
         <v>22</v>
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="U21" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="AC21" s="5"/>
       <c r="AD21" s="4"/>
@@ -12785,14 +13046,14 @@
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="26" t="s">
-        <v>24</v>
+      <c r="P22" s="23" t="s">
+        <v>23</v>
       </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
       <c r="U22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC22" s="5"/>
       <c r="AD22" s="4"/>
@@ -12833,8 +13094,8 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="26" t="s">
-        <v>26</v>
+      <c r="P23" s="23" t="s">
+        <v>25</v>
       </c>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
@@ -12917,18 +13178,18 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="26"/>
+      <c r="P25" s="23"/>
       <c r="Q25" s="4"/>
-      <c r="U25" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="V25" s="22"/>
-      <c r="W25" s="23"/>
-      <c r="X25" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y25" s="23"/>
-      <c r="Z25" s="24"/>
+      <c r="U25" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="V25" s="36"/>
+      <c r="W25" s="35"/>
+      <c r="X25" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y25" s="35"/>
+      <c r="Z25" s="34"/>
       <c r="AC25" s="5"/>
       <c r="AD25" s="4"/>
       <c r="AE25" s="4"/>
@@ -12971,7 +13232,7 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="26"/>
+      <c r="P26" s="23"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
@@ -13336,7 +13597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AR21" sqref="AR21"/>
     </sheetView>
   </sheetViews>
@@ -13386,244 +13647,244 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="29" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="29"/>
-      <c r="AO2" s="29"/>
-      <c r="AP2" s="30"/>
-      <c r="AQ2" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR2" s="46"/>
-      <c r="AS2" s="46"/>
-      <c r="AT2" s="46"/>
-      <c r="AU2" s="46">
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="42"/>
+      <c r="AQ2" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR2" s="58"/>
+      <c r="AS2" s="58"/>
+      <c r="AT2" s="58"/>
+      <c r="AU2" s="58">
         <v>1</v>
       </c>
-      <c r="AV2" s="47"/>
-      <c r="AW2" s="46" t="s">
+      <c r="AV2" s="59"/>
+      <c r="AW2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="46"/>
-      <c r="AY2" s="46"/>
-      <c r="AZ2" s="46"/>
-      <c r="BA2" s="46">
+      <c r="AX2" s="58"/>
+      <c r="AY2" s="58"/>
+      <c r="AZ2" s="58"/>
+      <c r="BA2" s="58">
         <v>2</v>
       </c>
-      <c r="BB2" s="47"/>
+      <c r="BB2" s="59"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="31"/>
-      <c r="AJ3" s="31"/>
-      <c r="AK3" s="31"/>
-      <c r="AL3" s="31"/>
-      <c r="AM3" s="31"/>
-      <c r="AN3" s="31"/>
-      <c r="AO3" s="31"/>
-      <c r="AP3" s="32"/>
-      <c r="AQ3" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="AR3" s="45"/>
-      <c r="AS3" s="45"/>
-      <c r="AT3" s="45"/>
-      <c r="AU3" s="45"/>
-      <c r="AV3" s="48"/>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="45"/>
-      <c r="AY3" s="45"/>
-      <c r="AZ3" s="45"/>
-      <c r="BA3" s="45"/>
-      <c r="BB3" s="48"/>
+      <c r="B3" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="43"/>
+      <c r="AO3" s="43"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR3" s="57"/>
+      <c r="AS3" s="57"/>
+      <c r="AT3" s="57"/>
+      <c r="AU3" s="57"/>
+      <c r="AV3" s="60"/>
+      <c r="AW3" s="57"/>
+      <c r="AX3" s="57"/>
+      <c r="AY3" s="57"/>
+      <c r="AZ3" s="57"/>
+      <c r="BA3" s="57"/>
+      <c r="BB3" s="60"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="31"/>
-      <c r="AM4" s="31"/>
-      <c r="AN4" s="31"/>
-      <c r="AO4" s="31"/>
-      <c r="AP4" s="32"/>
-      <c r="AQ4" s="49" t="s">
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="43"/>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="43"/>
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="43"/>
+      <c r="AD4" s="43"/>
+      <c r="AE4" s="43"/>
+      <c r="AF4" s="43"/>
+      <c r="AG4" s="43"/>
+      <c r="AH4" s="43"/>
+      <c r="AI4" s="43"/>
+      <c r="AJ4" s="43"/>
+      <c r="AK4" s="43"/>
+      <c r="AL4" s="43"/>
+      <c r="AM4" s="43"/>
+      <c r="AN4" s="43"/>
+      <c r="AO4" s="43"/>
+      <c r="AP4" s="44"/>
+      <c r="AQ4" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="46"/>
-      <c r="AS4" s="46"/>
-      <c r="AT4" s="46"/>
-      <c r="AU4" s="50">
+      <c r="AR4" s="58"/>
+      <c r="AS4" s="58"/>
+      <c r="AT4" s="58"/>
+      <c r="AU4" s="62">
         <v>43032</v>
       </c>
-      <c r="AV4" s="51"/>
-      <c r="AW4" s="51"/>
-      <c r="AX4" s="51"/>
-      <c r="AY4" s="51"/>
-      <c r="AZ4" s="51"/>
-      <c r="BA4" s="51"/>
-      <c r="BB4" s="52"/>
+      <c r="AV4" s="63"/>
+      <c r="AW4" s="63"/>
+      <c r="AX4" s="63"/>
+      <c r="AY4" s="63"/>
+      <c r="AZ4" s="63"/>
+      <c r="BA4" s="63"/>
+      <c r="BB4" s="64"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="41"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="33"/>
-      <c r="AE5" s="33"/>
-      <c r="AF5" s="33"/>
-      <c r="AG5" s="33"/>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="33"/>
-      <c r="AJ5" s="33"/>
-      <c r="AK5" s="33"/>
-      <c r="AL5" s="33"/>
-      <c r="AM5" s="33"/>
-      <c r="AN5" s="33"/>
-      <c r="AO5" s="33"/>
-      <c r="AP5" s="34"/>
-      <c r="AQ5" s="44"/>
-      <c r="AR5" s="45"/>
-      <c r="AS5" s="45"/>
-      <c r="AT5" s="45"/>
-      <c r="AU5" s="53"/>
-      <c r="AV5" s="53"/>
-      <c r="AW5" s="53"/>
-      <c r="AX5" s="53"/>
-      <c r="AY5" s="53"/>
-      <c r="AZ5" s="53"/>
-      <c r="BA5" s="53"/>
-      <c r="BB5" s="54"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="45"/>
+      <c r="AD5" s="45"/>
+      <c r="AE5" s="45"/>
+      <c r="AF5" s="45"/>
+      <c r="AG5" s="45"/>
+      <c r="AH5" s="45"/>
+      <c r="AI5" s="45"/>
+      <c r="AJ5" s="45"/>
+      <c r="AK5" s="45"/>
+      <c r="AL5" s="45"/>
+      <c r="AM5" s="45"/>
+      <c r="AN5" s="45"/>
+      <c r="AO5" s="45"/>
+      <c r="AP5" s="46"/>
+      <c r="AQ5" s="56"/>
+      <c r="AR5" s="57"/>
+      <c r="AS5" s="57"/>
+      <c r="AT5" s="57"/>
+      <c r="AU5" s="65"/>
+      <c r="AV5" s="65"/>
+      <c r="AW5" s="65"/>
+      <c r="AX5" s="65"/>
+      <c r="AY5" s="65"/>
+      <c r="AZ5" s="65"/>
+      <c r="BA5" s="65"/>
+      <c r="BB5" s="66"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -13970,7 +14231,7 @@
       <c r="AG13" s="4"/>
       <c r="AH13" s="4"/>
       <c r="AI13" s="4"/>
-      <c r="AJ13" s="55"/>
+      <c r="AJ13" s="26"/>
       <c r="AK13" s="4"/>
       <c r="AL13" s="4"/>
       <c r="AM13" s="4"/>
@@ -14019,7 +14280,7 @@
       <c r="AG14" s="4"/>
       <c r="AH14" s="4"/>
       <c r="AI14" s="4"/>
-      <c r="AJ14" s="55"/>
+      <c r="AJ14" s="26"/>
       <c r="AK14" s="4"/>
       <c r="AL14" s="4"/>
       <c r="AM14" s="4"/>
@@ -14050,25 +14311,25 @@
       <c r="I15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="58"/>
-      <c r="S15" s="58"/>
-      <c r="T15" s="58"/>
-      <c r="U15" s="58"/>
-      <c r="V15" s="58"/>
-      <c r="W15" s="58"/>
-      <c r="X15" s="58"/>
-      <c r="Y15" s="58"/>
-      <c r="Z15" s="58"/>
-      <c r="AA15" s="58"/>
-      <c r="AB15" s="58"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="29"/>
+      <c r="AB15" s="29"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
       <c r="AG15" s="4"/>
       <c r="AH15" s="4"/>
       <c r="AI15" s="4"/>
-      <c r="AJ15" s="55"/>
+      <c r="AJ15" s="26"/>
       <c r="AK15" s="4"/>
       <c r="AL15" s="4"/>
       <c r="AM15" s="4"/>
@@ -14107,7 +14368,7 @@
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
-      <c r="X16" s="62"/>
+      <c r="X16" s="33"/>
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
       <c r="AA16" s="4"/>
@@ -14116,7 +14377,7 @@
       <c r="AD16" s="4"/>
       <c r="AH16" s="4"/>
       <c r="AI16" s="4"/>
-      <c r="AJ16" s="55"/>
+      <c r="AJ16" s="26"/>
       <c r="AK16" s="4"/>
       <c r="AL16" s="4"/>
       <c r="AM16" s="4"/>
@@ -14145,26 +14406,26 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="61"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
       <c r="S17" s="20"/>
-      <c r="T17" s="60"/>
-      <c r="U17" s="58"/>
-      <c r="V17" s="58"/>
-      <c r="W17" s="58"/>
-      <c r="X17" s="58"/>
-      <c r="Y17" s="58"/>
-      <c r="Z17" s="58"/>
-      <c r="AA17" s="58"/>
-      <c r="AB17" s="58"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="29"/>
+      <c r="AB17" s="29"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
       <c r="AH17" s="4"/>
       <c r="AI17" s="4"/>
-      <c r="AJ17" s="55"/>
+      <c r="AJ17" s="26"/>
       <c r="AK17" s="4"/>
       <c r="AL17" s="4"/>
       <c r="AM17" s="4"/>
@@ -14197,7 +14458,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="59"/>
+      <c r="N18" s="30"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
@@ -14209,13 +14470,13 @@
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
       <c r="Y18" s="4"/>
-      <c r="Z18" s="55"/>
+      <c r="Z18" s="26"/>
       <c r="AA18" s="4"/>
       <c r="AB18" s="4"/>
-      <c r="AC18" s="55"/>
+      <c r="AC18" s="26"/>
       <c r="AD18" s="4"/>
-      <c r="AF18" s="55"/>
-      <c r="AH18" s="55"/>
+      <c r="AF18" s="26"/>
+      <c r="AH18" s="26"/>
       <c r="AI18" s="4"/>
       <c r="AJ18" s="4"/>
       <c r="AK18" s="4"/>
@@ -14250,21 +14511,21 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="57"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
-      <c r="Y19" s="58"/>
-      <c r="Z19" s="58"/>
-      <c r="AA19" s="58"/>
-      <c r="AB19" s="58"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="29"/>
+      <c r="AB19" s="29"/>
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
       <c r="AH19" s="4"/>
@@ -14356,11 +14617,11 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="56"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
@@ -14370,12 +14631,12 @@
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
       <c r="AA21" s="4"/>
-      <c r="AB21" s="26"/>
-      <c r="AC21" s="26"/>
-      <c r="AD21" s="26"/>
-      <c r="AE21" s="26"/>
-      <c r="AF21" s="26"/>
-      <c r="AG21" s="26"/>
+      <c r="AB21" s="23"/>
+      <c r="AC21" s="23"/>
+      <c r="AD21" s="23"/>
+      <c r="AE21" s="23"/>
+      <c r="AF21" s="23"/>
+      <c r="AG21" s="23"/>
       <c r="AH21" s="4"/>
       <c r="AI21" s="4"/>
       <c r="AJ21" s="4"/>
@@ -14414,12 +14675,12 @@
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
-      <c r="AB22" s="26"/>
-      <c r="AC22" s="26"/>
-      <c r="AD22" s="26"/>
-      <c r="AE22" s="26"/>
-      <c r="AF22" s="26"/>
-      <c r="AG22" s="26"/>
+      <c r="AB22" s="23"/>
+      <c r="AC22" s="23"/>
+      <c r="AD22" s="23"/>
+      <c r="AE22" s="23"/>
+      <c r="AF22" s="23"/>
+      <c r="AG22" s="23"/>
       <c r="AH22" s="4"/>
       <c r="AI22" s="4"/>
       <c r="AJ22" s="4"/>
@@ -14530,7 +14791,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-      <c r="J25" s="55"/>
+      <c r="J25" s="26"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
@@ -14585,7 +14846,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
-      <c r="J26" s="55"/>
+      <c r="J26" s="26"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
@@ -14748,7 +15009,7 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
-      <c r="J29" s="55"/>
+      <c r="J29" s="26"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
@@ -15012,11 +15273,11 @@
       <c r="BB33" s="8"/>
     </row>
     <row r="36" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K36" s="55"/>
+      <c r="K36" s="26"/>
     </row>
     <row r="38" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K38" s="55" t="s">
-        <v>55</v>
+      <c r="K38" s="26" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -15094,244 +15355,244 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="29" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="29"/>
-      <c r="AO2" s="29"/>
-      <c r="AP2" s="30"/>
-      <c r="AQ2" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR2" s="46"/>
-      <c r="AS2" s="46"/>
-      <c r="AT2" s="46"/>
-      <c r="AU2" s="46">
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="42"/>
+      <c r="AQ2" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR2" s="58"/>
+      <c r="AS2" s="58"/>
+      <c r="AT2" s="58"/>
+      <c r="AU2" s="58">
         <v>1</v>
       </c>
-      <c r="AV2" s="47"/>
-      <c r="AW2" s="46" t="s">
+      <c r="AV2" s="59"/>
+      <c r="AW2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="46"/>
-      <c r="AY2" s="46"/>
-      <c r="AZ2" s="46"/>
-      <c r="BA2" s="46">
+      <c r="AX2" s="58"/>
+      <c r="AY2" s="58"/>
+      <c r="AZ2" s="58"/>
+      <c r="BA2" s="58">
         <v>3</v>
       </c>
-      <c r="BB2" s="47"/>
+      <c r="BB2" s="59"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="31"/>
-      <c r="AJ3" s="31"/>
-      <c r="AK3" s="31"/>
-      <c r="AL3" s="31"/>
-      <c r="AM3" s="31"/>
-      <c r="AN3" s="31"/>
-      <c r="AO3" s="31"/>
-      <c r="AP3" s="32"/>
-      <c r="AQ3" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="AR3" s="45"/>
-      <c r="AS3" s="45"/>
-      <c r="AT3" s="45"/>
-      <c r="AU3" s="45"/>
-      <c r="AV3" s="48"/>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="45"/>
-      <c r="AY3" s="45"/>
-      <c r="AZ3" s="45"/>
-      <c r="BA3" s="45"/>
-      <c r="BB3" s="48"/>
+      <c r="B3" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="43"/>
+      <c r="AO3" s="43"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR3" s="57"/>
+      <c r="AS3" s="57"/>
+      <c r="AT3" s="57"/>
+      <c r="AU3" s="57"/>
+      <c r="AV3" s="60"/>
+      <c r="AW3" s="57"/>
+      <c r="AX3" s="57"/>
+      <c r="AY3" s="57"/>
+      <c r="AZ3" s="57"/>
+      <c r="BA3" s="57"/>
+      <c r="BB3" s="60"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="31"/>
-      <c r="AM4" s="31"/>
-      <c r="AN4" s="31"/>
-      <c r="AO4" s="31"/>
-      <c r="AP4" s="32"/>
-      <c r="AQ4" s="49" t="s">
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="43"/>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="43"/>
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="43"/>
+      <c r="AD4" s="43"/>
+      <c r="AE4" s="43"/>
+      <c r="AF4" s="43"/>
+      <c r="AG4" s="43"/>
+      <c r="AH4" s="43"/>
+      <c r="AI4" s="43"/>
+      <c r="AJ4" s="43"/>
+      <c r="AK4" s="43"/>
+      <c r="AL4" s="43"/>
+      <c r="AM4" s="43"/>
+      <c r="AN4" s="43"/>
+      <c r="AO4" s="43"/>
+      <c r="AP4" s="44"/>
+      <c r="AQ4" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="46"/>
-      <c r="AS4" s="46"/>
-      <c r="AT4" s="46"/>
-      <c r="AU4" s="50">
+      <c r="AR4" s="58"/>
+      <c r="AS4" s="58"/>
+      <c r="AT4" s="58"/>
+      <c r="AU4" s="62">
         <v>43032</v>
       </c>
-      <c r="AV4" s="51"/>
-      <c r="AW4" s="51"/>
-      <c r="AX4" s="51"/>
-      <c r="AY4" s="51"/>
-      <c r="AZ4" s="51"/>
-      <c r="BA4" s="51"/>
-      <c r="BB4" s="52"/>
+      <c r="AV4" s="63"/>
+      <c r="AW4" s="63"/>
+      <c r="AX4" s="63"/>
+      <c r="AY4" s="63"/>
+      <c r="AZ4" s="63"/>
+      <c r="BA4" s="63"/>
+      <c r="BB4" s="64"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="41"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="33"/>
-      <c r="AE5" s="33"/>
-      <c r="AF5" s="33"/>
-      <c r="AG5" s="33"/>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="33"/>
-      <c r="AJ5" s="33"/>
-      <c r="AK5" s="33"/>
-      <c r="AL5" s="33"/>
-      <c r="AM5" s="33"/>
-      <c r="AN5" s="33"/>
-      <c r="AO5" s="33"/>
-      <c r="AP5" s="34"/>
-      <c r="AQ5" s="44"/>
-      <c r="AR5" s="45"/>
-      <c r="AS5" s="45"/>
-      <c r="AT5" s="45"/>
-      <c r="AU5" s="53"/>
-      <c r="AV5" s="53"/>
-      <c r="AW5" s="53"/>
-      <c r="AX5" s="53"/>
-      <c r="AY5" s="53"/>
-      <c r="AZ5" s="53"/>
-      <c r="BA5" s="53"/>
-      <c r="BB5" s="54"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="45"/>
+      <c r="AD5" s="45"/>
+      <c r="AE5" s="45"/>
+      <c r="AF5" s="45"/>
+      <c r="AG5" s="45"/>
+      <c r="AH5" s="45"/>
+      <c r="AI5" s="45"/>
+      <c r="AJ5" s="45"/>
+      <c r="AK5" s="45"/>
+      <c r="AL5" s="45"/>
+      <c r="AM5" s="45"/>
+      <c r="AN5" s="45"/>
+      <c r="AO5" s="45"/>
+      <c r="AP5" s="46"/>
+      <c r="AQ5" s="56"/>
+      <c r="AR5" s="57"/>
+      <c r="AS5" s="57"/>
+      <c r="AT5" s="57"/>
+      <c r="AU5" s="65"/>
+      <c r="AV5" s="65"/>
+      <c r="AW5" s="65"/>
+      <c r="AX5" s="65"/>
+      <c r="AY5" s="65"/>
+      <c r="AZ5" s="65"/>
+      <c r="BA5" s="65"/>
+      <c r="BB5" s="66"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -15678,7 +15939,7 @@
       <c r="AG13" s="4"/>
       <c r="AH13" s="4"/>
       <c r="AI13" s="4"/>
-      <c r="AJ13" s="55"/>
+      <c r="AJ13" s="26"/>
       <c r="AK13" s="4"/>
       <c r="AL13" s="4"/>
       <c r="AM13" s="4"/>
@@ -15727,7 +15988,7 @@
       <c r="AG14" s="4"/>
       <c r="AH14" s="4"/>
       <c r="AI14" s="4"/>
-      <c r="AJ14" s="55"/>
+      <c r="AJ14" s="26"/>
       <c r="AK14" s="4"/>
       <c r="AL14" s="4"/>
       <c r="AM14" s="4"/>
@@ -15758,25 +16019,25 @@
       <c r="I15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="58"/>
-      <c r="S15" s="58"/>
-      <c r="T15" s="58"/>
-      <c r="U15" s="58"/>
-      <c r="V15" s="58"/>
-      <c r="W15" s="58"/>
-      <c r="X15" s="58"/>
-      <c r="Y15" s="58"/>
-      <c r="Z15" s="58"/>
-      <c r="AA15" s="58"/>
-      <c r="AB15" s="58"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="29"/>
+      <c r="AB15" s="29"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
       <c r="AG15" s="4"/>
       <c r="AH15" s="4"/>
       <c r="AI15" s="4"/>
-      <c r="AJ15" s="55"/>
+      <c r="AJ15" s="26"/>
       <c r="AK15" s="4"/>
       <c r="AL15" s="4"/>
       <c r="AM15" s="4"/>
@@ -15815,7 +16076,7 @@
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
-      <c r="X16" s="62"/>
+      <c r="X16" s="33"/>
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
       <c r="AA16" s="4"/>
@@ -15824,7 +16085,7 @@
       <c r="AD16" s="4"/>
       <c r="AH16" s="4"/>
       <c r="AI16" s="4"/>
-      <c r="AJ16" s="55"/>
+      <c r="AJ16" s="26"/>
       <c r="AK16" s="4"/>
       <c r="AL16" s="4"/>
       <c r="AM16" s="4"/>
@@ -15853,26 +16114,26 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="61"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
       <c r="S17" s="20"/>
-      <c r="T17" s="60"/>
-      <c r="U17" s="58"/>
-      <c r="V17" s="58"/>
-      <c r="W17" s="58"/>
-      <c r="X17" s="58"/>
-      <c r="Y17" s="58"/>
-      <c r="Z17" s="58"/>
-      <c r="AA17" s="58"/>
-      <c r="AB17" s="58"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="29"/>
+      <c r="AB17" s="29"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
       <c r="AH17" s="4"/>
       <c r="AI17" s="4"/>
-      <c r="AJ17" s="55"/>
+      <c r="AJ17" s="26"/>
       <c r="AK17" s="4"/>
       <c r="AL17" s="4"/>
       <c r="AM17" s="4"/>
@@ -15905,7 +16166,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="59"/>
+      <c r="N18" s="30"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
@@ -15917,13 +16178,13 @@
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
       <c r="Y18" s="4"/>
-      <c r="Z18" s="55"/>
+      <c r="Z18" s="26"/>
       <c r="AA18" s="4"/>
       <c r="AB18" s="4"/>
-      <c r="AC18" s="55"/>
+      <c r="AC18" s="26"/>
       <c r="AD18" s="4"/>
-      <c r="AF18" s="55"/>
-      <c r="AH18" s="55"/>
+      <c r="AF18" s="26"/>
+      <c r="AH18" s="26"/>
       <c r="AI18" s="4"/>
       <c r="AJ18" s="4"/>
       <c r="AK18" s="4"/>
@@ -15958,21 +16219,21 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="57"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
-      <c r="Y19" s="58"/>
-      <c r="Z19" s="58"/>
-      <c r="AA19" s="58"/>
-      <c r="AB19" s="58"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="29"/>
+      <c r="AB19" s="29"/>
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
       <c r="AH19" s="4"/>
@@ -16064,11 +16325,11 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="56"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
@@ -16078,12 +16339,12 @@
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
       <c r="AA21" s="4"/>
-      <c r="AB21" s="26"/>
-      <c r="AC21" s="26"/>
-      <c r="AD21" s="26"/>
-      <c r="AE21" s="26"/>
-      <c r="AF21" s="26"/>
-      <c r="AG21" s="26"/>
+      <c r="AB21" s="23"/>
+      <c r="AC21" s="23"/>
+      <c r="AD21" s="23"/>
+      <c r="AE21" s="23"/>
+      <c r="AF21" s="23"/>
+      <c r="AG21" s="23"/>
       <c r="AH21" s="4"/>
       <c r="AI21" s="4"/>
       <c r="AJ21" s="4"/>
@@ -16122,12 +16383,12 @@
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
-      <c r="AB22" s="26"/>
-      <c r="AC22" s="26"/>
-      <c r="AD22" s="26"/>
-      <c r="AE22" s="26"/>
-      <c r="AF22" s="26"/>
-      <c r="AG22" s="26"/>
+      <c r="AB22" s="23"/>
+      <c r="AC22" s="23"/>
+      <c r="AD22" s="23"/>
+      <c r="AE22" s="23"/>
+      <c r="AF22" s="23"/>
+      <c r="AG22" s="23"/>
       <c r="AH22" s="4"/>
       <c r="AI22" s="4"/>
       <c r="AJ22" s="4"/>
@@ -16238,7 +16499,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-      <c r="J25" s="55"/>
+      <c r="J25" s="26"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
@@ -16293,7 +16554,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
-      <c r="J26" s="55"/>
+      <c r="J26" s="26"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
@@ -16456,7 +16717,7 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
-      <c r="J29" s="55"/>
+      <c r="J29" s="26"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
@@ -16720,11 +16981,11 @@
       <c r="BB33" s="8"/>
     </row>
     <row r="36" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K36" s="55"/>
+      <c r="K36" s="26"/>
     </row>
     <row r="38" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K38" s="55" t="s">
-        <v>55</v>
+      <c r="K38" s="26" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -16752,8 +17013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB33"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AR8" sqref="AR8:AZ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -16802,244 +17063,244 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="29" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="29"/>
-      <c r="AO2" s="29"/>
-      <c r="AP2" s="30"/>
-      <c r="AQ2" s="49" t="s">
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="42"/>
+      <c r="AQ2" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="46"/>
-      <c r="AS2" s="46"/>
-      <c r="AT2" s="46"/>
-      <c r="AU2" s="46">
+      <c r="AR2" s="58"/>
+      <c r="AS2" s="58"/>
+      <c r="AT2" s="58"/>
+      <c r="AU2" s="58">
         <v>1</v>
       </c>
-      <c r="AV2" s="47"/>
-      <c r="AW2" s="46" t="s">
+      <c r="AV2" s="59"/>
+      <c r="AW2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="46"/>
-      <c r="AY2" s="46"/>
-      <c r="AZ2" s="46"/>
-      <c r="BA2" s="46">
+      <c r="AX2" s="58"/>
+      <c r="AY2" s="58"/>
+      <c r="AZ2" s="58"/>
+      <c r="BA2" s="58">
         <v>4</v>
       </c>
-      <c r="BB2" s="47"/>
+      <c r="BB2" s="59"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="31"/>
-      <c r="AJ3" s="31"/>
-      <c r="AK3" s="31"/>
-      <c r="AL3" s="31"/>
-      <c r="AM3" s="31"/>
-      <c r="AN3" s="31"/>
-      <c r="AO3" s="31"/>
-      <c r="AP3" s="32"/>
-      <c r="AQ3" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR3" s="45"/>
-      <c r="AS3" s="45"/>
-      <c r="AT3" s="45"/>
-      <c r="AU3" s="45"/>
-      <c r="AV3" s="48"/>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="45"/>
-      <c r="AY3" s="45"/>
-      <c r="AZ3" s="45"/>
-      <c r="BA3" s="45"/>
-      <c r="BB3" s="48"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="43"/>
+      <c r="AO3" s="43"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR3" s="57"/>
+      <c r="AS3" s="57"/>
+      <c r="AT3" s="57"/>
+      <c r="AU3" s="57"/>
+      <c r="AV3" s="60"/>
+      <c r="AW3" s="57"/>
+      <c r="AX3" s="57"/>
+      <c r="AY3" s="57"/>
+      <c r="AZ3" s="57"/>
+      <c r="BA3" s="57"/>
+      <c r="BB3" s="60"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="31"/>
-      <c r="AM4" s="31"/>
-      <c r="AN4" s="31"/>
-      <c r="AO4" s="31"/>
-      <c r="AP4" s="32"/>
-      <c r="AQ4" s="49" t="s">
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="43"/>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="43"/>
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="43"/>
+      <c r="AD4" s="43"/>
+      <c r="AE4" s="43"/>
+      <c r="AF4" s="43"/>
+      <c r="AG4" s="43"/>
+      <c r="AH4" s="43"/>
+      <c r="AI4" s="43"/>
+      <c r="AJ4" s="43"/>
+      <c r="AK4" s="43"/>
+      <c r="AL4" s="43"/>
+      <c r="AM4" s="43"/>
+      <c r="AN4" s="43"/>
+      <c r="AO4" s="43"/>
+      <c r="AP4" s="44"/>
+      <c r="AQ4" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="46"/>
-      <c r="AS4" s="46"/>
-      <c r="AT4" s="46"/>
-      <c r="AU4" s="50">
+      <c r="AR4" s="58"/>
+      <c r="AS4" s="58"/>
+      <c r="AT4" s="58"/>
+      <c r="AU4" s="62">
         <v>43032</v>
       </c>
-      <c r="AV4" s="51"/>
-      <c r="AW4" s="51"/>
-      <c r="AX4" s="51"/>
-      <c r="AY4" s="51"/>
-      <c r="AZ4" s="51"/>
-      <c r="BA4" s="51"/>
-      <c r="BB4" s="52"/>
+      <c r="AV4" s="63"/>
+      <c r="AW4" s="63"/>
+      <c r="AX4" s="63"/>
+      <c r="AY4" s="63"/>
+      <c r="AZ4" s="63"/>
+      <c r="BA4" s="63"/>
+      <c r="BB4" s="64"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="41"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="33"/>
-      <c r="AE5" s="33"/>
-      <c r="AF5" s="33"/>
-      <c r="AG5" s="33"/>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="33"/>
-      <c r="AJ5" s="33"/>
-      <c r="AK5" s="33"/>
-      <c r="AL5" s="33"/>
-      <c r="AM5" s="33"/>
-      <c r="AN5" s="33"/>
-      <c r="AO5" s="33"/>
-      <c r="AP5" s="34"/>
-      <c r="AQ5" s="44"/>
-      <c r="AR5" s="45"/>
-      <c r="AS5" s="45"/>
-      <c r="AT5" s="45"/>
-      <c r="AU5" s="53"/>
-      <c r="AV5" s="53"/>
-      <c r="AW5" s="53"/>
-      <c r="AX5" s="53"/>
-      <c r="AY5" s="53"/>
-      <c r="AZ5" s="53"/>
-      <c r="BA5" s="53"/>
-      <c r="BB5" s="54"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="45"/>
+      <c r="AD5" s="45"/>
+      <c r="AE5" s="45"/>
+      <c r="AF5" s="45"/>
+      <c r="AG5" s="45"/>
+      <c r="AH5" s="45"/>
+      <c r="AI5" s="45"/>
+      <c r="AJ5" s="45"/>
+      <c r="AK5" s="45"/>
+      <c r="AL5" s="45"/>
+      <c r="AM5" s="45"/>
+      <c r="AN5" s="45"/>
+      <c r="AO5" s="45"/>
+      <c r="AP5" s="46"/>
+      <c r="AQ5" s="56"/>
+      <c r="AR5" s="57"/>
+      <c r="AS5" s="57"/>
+      <c r="AT5" s="57"/>
+      <c r="AU5" s="65"/>
+      <c r="AV5" s="65"/>
+      <c r="AW5" s="65"/>
+      <c r="AX5" s="65"/>
+      <c r="AY5" s="65"/>
+      <c r="AZ5" s="65"/>
+      <c r="BA5" s="65"/>
+      <c r="BB5" s="66"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -17139,7 +17400,6 @@
       <c r="AO7" s="15"/>
       <c r="AP7" s="15"/>
       <c r="AQ7" s="11"/>
-      <c r="AR7" s="12"/>
       <c r="AS7" s="12"/>
       <c r="AT7" s="12"/>
       <c r="AU7" s="4"/>
@@ -17193,7 +17453,9 @@
       <c r="AO8" s="15"/>
       <c r="AP8" s="15"/>
       <c r="AQ8" s="3"/>
-      <c r="AR8" s="4"/>
+      <c r="AR8" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="AS8" s="4"/>
       <c r="AT8" s="4"/>
       <c r="AU8" s="4"/>
@@ -17231,7 +17493,9 @@
       <c r="AO9" s="15"/>
       <c r="AP9" s="15"/>
       <c r="AQ9" s="3"/>
-      <c r="AR9" s="4"/>
+      <c r="AR9" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="AS9" s="4"/>
       <c r="AT9" s="4"/>
       <c r="AU9" s="4"/>
@@ -17307,7 +17571,9 @@
       <c r="AO11" s="4"/>
       <c r="AP11" s="4"/>
       <c r="AQ11" s="3"/>
-      <c r="AR11" s="4"/>
+      <c r="AR11" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="AS11" s="4"/>
       <c r="AT11" s="4"/>
       <c r="AU11" s="4"/>
@@ -17345,7 +17611,9 @@
       <c r="AO12" s="4"/>
       <c r="AP12" s="4"/>
       <c r="AQ12" s="3"/>
-      <c r="AR12" s="4"/>
+      <c r="AR12" s="67" t="s">
+        <v>57</v>
+      </c>
       <c r="AS12" s="4"/>
       <c r="AT12" s="4"/>
       <c r="AU12" s="4"/>
@@ -17416,7 +17684,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="N14" s="4"/>
-      <c r="O14" s="25" t="s">
+      <c r="O14" s="22" t="s">
         <v>8</v>
       </c>
       <c r="P14" s="1"/>
@@ -17557,7 +17825,7 @@
       <c r="N17" s="4"/>
       <c r="O17" s="3"/>
       <c r="P17" s="20" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="Q17" s="20"/>
       <c r="R17" s="20"/>
@@ -17668,7 +17936,7 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="26" t="s">
+      <c r="P19" s="23" t="s">
         <v>14</v>
       </c>
       <c r="Q19" s="4"/>
@@ -17723,7 +17991,7 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="26" t="s">
+      <c r="P20" s="23" t="s">
         <v>16</v>
       </c>
       <c r="Q20" s="4"/>
@@ -17778,7 +18046,7 @@
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="26" t="s">
+      <c r="P21" s="23" t="s">
         <v>18</v>
       </c>
       <c r="Q21" s="4"/>
@@ -17834,7 +18102,7 @@
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="26" t="s">
+      <c r="P22" s="23" t="s">
         <v>20</v>
       </c>
       <c r="Q22" s="4"/>
@@ -17889,7 +18157,7 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="26" t="s">
+      <c r="P23" s="23" t="s">
         <v>22</v>
       </c>
       <c r="Q23" s="4"/>
@@ -17897,7 +18165,7 @@
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
       <c r="U23" s="16" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="V23" s="17"/>
       <c r="W23" s="17"/>
@@ -17944,15 +18212,15 @@
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="3"/>
-      <c r="P24" s="26" t="s">
-        <v>24</v>
+      <c r="P24" s="23" t="s">
+        <v>23</v>
       </c>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
       <c r="U24" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V24" s="17"/>
       <c r="W24" s="17"/>
@@ -17999,8 +18267,8 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="26" t="s">
-        <v>26</v>
+      <c r="P25" s="23" t="s">
+        <v>25</v>
       </c>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
@@ -18103,18 +18371,18 @@
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
-      <c r="U27" s="27" t="s">
+      <c r="U27" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="V27" s="36"/>
+      <c r="W27" s="35"/>
+      <c r="X27" s="34"/>
+      <c r="Y27" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="V27" s="22"/>
-      <c r="W27" s="23"/>
-      <c r="X27" s="24"/>
-      <c r="Y27" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z27" s="22"/>
-      <c r="AA27" s="23"/>
-      <c r="AB27" s="24"/>
+      <c r="Z27" s="36"/>
+      <c r="AA27" s="35"/>
+      <c r="AB27" s="34"/>
       <c r="AC27" s="5"/>
       <c r="AD27" s="4"/>
       <c r="AE27" s="4"/>
@@ -18498,7 +18766,7 @@
   <dimension ref="B1:BB33"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="AR8" sqref="AR8:AZ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -18547,244 +18815,244 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="29" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="29"/>
-      <c r="AO2" s="29"/>
-      <c r="AP2" s="30"/>
-      <c r="AQ2" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="AR2" s="46"/>
-      <c r="AS2" s="46"/>
-      <c r="AT2" s="46"/>
-      <c r="AU2" s="46">
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="42"/>
+      <c r="AQ2" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR2" s="58"/>
+      <c r="AS2" s="58"/>
+      <c r="AT2" s="58"/>
+      <c r="AU2" s="58">
         <v>1</v>
       </c>
-      <c r="AV2" s="47"/>
-      <c r="AW2" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="AX2" s="46"/>
-      <c r="AY2" s="46"/>
-      <c r="AZ2" s="46"/>
-      <c r="BA2" s="46">
+      <c r="AV2" s="59"/>
+      <c r="AW2" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX2" s="58"/>
+      <c r="AY2" s="58"/>
+      <c r="AZ2" s="58"/>
+      <c r="BA2" s="58">
         <v>5</v>
       </c>
-      <c r="BB2" s="47"/>
+      <c r="BB2" s="59"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="31"/>
-      <c r="AJ3" s="31"/>
-      <c r="AK3" s="31"/>
-      <c r="AL3" s="31"/>
-      <c r="AM3" s="31"/>
-      <c r="AN3" s="31"/>
-      <c r="AO3" s="31"/>
-      <c r="AP3" s="32"/>
-      <c r="AQ3" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="AR3" s="45"/>
-      <c r="AS3" s="45"/>
-      <c r="AT3" s="45"/>
-      <c r="AU3" s="45"/>
-      <c r="AV3" s="48"/>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="45"/>
-      <c r="AY3" s="45"/>
-      <c r="AZ3" s="45"/>
-      <c r="BA3" s="45"/>
-      <c r="BB3" s="48"/>
+      <c r="B3" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="43"/>
+      <c r="AO3" s="43"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR3" s="57"/>
+      <c r="AS3" s="57"/>
+      <c r="AT3" s="57"/>
+      <c r="AU3" s="57"/>
+      <c r="AV3" s="60"/>
+      <c r="AW3" s="57"/>
+      <c r="AX3" s="57"/>
+      <c r="AY3" s="57"/>
+      <c r="AZ3" s="57"/>
+      <c r="BA3" s="57"/>
+      <c r="BB3" s="60"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="31"/>
-      <c r="AM4" s="31"/>
-      <c r="AN4" s="31"/>
-      <c r="AO4" s="31"/>
-      <c r="AP4" s="32"/>
-      <c r="AQ4" s="49" t="s">
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="43"/>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="43"/>
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="43"/>
+      <c r="AD4" s="43"/>
+      <c r="AE4" s="43"/>
+      <c r="AF4" s="43"/>
+      <c r="AG4" s="43"/>
+      <c r="AH4" s="43"/>
+      <c r="AI4" s="43"/>
+      <c r="AJ4" s="43"/>
+      <c r="AK4" s="43"/>
+      <c r="AL4" s="43"/>
+      <c r="AM4" s="43"/>
+      <c r="AN4" s="43"/>
+      <c r="AO4" s="43"/>
+      <c r="AP4" s="44"/>
+      <c r="AQ4" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="46"/>
-      <c r="AS4" s="46"/>
-      <c r="AT4" s="46"/>
-      <c r="AU4" s="50">
+      <c r="AR4" s="58"/>
+      <c r="AS4" s="58"/>
+      <c r="AT4" s="58"/>
+      <c r="AU4" s="62">
         <v>43032</v>
       </c>
-      <c r="AV4" s="51"/>
-      <c r="AW4" s="51"/>
-      <c r="AX4" s="51"/>
-      <c r="AY4" s="51"/>
-      <c r="AZ4" s="51"/>
-      <c r="BA4" s="51"/>
-      <c r="BB4" s="52"/>
+      <c r="AV4" s="63"/>
+      <c r="AW4" s="63"/>
+      <c r="AX4" s="63"/>
+      <c r="AY4" s="63"/>
+      <c r="AZ4" s="63"/>
+      <c r="BA4" s="63"/>
+      <c r="BB4" s="64"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="41"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="33"/>
-      <c r="AE5" s="33"/>
-      <c r="AF5" s="33"/>
-      <c r="AG5" s="33"/>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="33"/>
-      <c r="AJ5" s="33"/>
-      <c r="AK5" s="33"/>
-      <c r="AL5" s="33"/>
-      <c r="AM5" s="33"/>
-      <c r="AN5" s="33"/>
-      <c r="AO5" s="33"/>
-      <c r="AP5" s="34"/>
-      <c r="AQ5" s="44"/>
-      <c r="AR5" s="45"/>
-      <c r="AS5" s="45"/>
-      <c r="AT5" s="45"/>
-      <c r="AU5" s="53"/>
-      <c r="AV5" s="53"/>
-      <c r="AW5" s="53"/>
-      <c r="AX5" s="53"/>
-      <c r="AY5" s="53"/>
-      <c r="AZ5" s="53"/>
-      <c r="BA5" s="53"/>
-      <c r="BB5" s="54"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="45"/>
+      <c r="AD5" s="45"/>
+      <c r="AE5" s="45"/>
+      <c r="AF5" s="45"/>
+      <c r="AG5" s="45"/>
+      <c r="AH5" s="45"/>
+      <c r="AI5" s="45"/>
+      <c r="AJ5" s="45"/>
+      <c r="AK5" s="45"/>
+      <c r="AL5" s="45"/>
+      <c r="AM5" s="45"/>
+      <c r="AN5" s="45"/>
+      <c r="AO5" s="45"/>
+      <c r="AP5" s="46"/>
+      <c r="AQ5" s="56"/>
+      <c r="AR5" s="57"/>
+      <c r="AS5" s="57"/>
+      <c r="AT5" s="57"/>
+      <c r="AU5" s="65"/>
+      <c r="AV5" s="65"/>
+      <c r="AW5" s="65"/>
+      <c r="AX5" s="65"/>
+      <c r="AY5" s="65"/>
+      <c r="AZ5" s="65"/>
+      <c r="BA5" s="65"/>
+      <c r="BB5" s="66"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -18938,7 +19206,9 @@
       <c r="AO8" s="15"/>
       <c r="AP8" s="15"/>
       <c r="AQ8" s="3"/>
-      <c r="AR8" s="4"/>
+      <c r="AR8" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="AS8" s="4"/>
       <c r="AT8" s="4"/>
       <c r="AU8" s="4"/>
@@ -18989,7 +19259,9 @@
       <c r="AO9" s="15"/>
       <c r="AP9" s="15"/>
       <c r="AQ9" s="3"/>
-      <c r="AR9" s="4"/>
+      <c r="AR9" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="AS9" s="4"/>
       <c r="AT9" s="4"/>
       <c r="AU9" s="4"/>
@@ -19011,8 +19283,8 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="25" t="s">
-        <v>33</v>
+      <c r="O10" s="22" t="s">
+        <v>29</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -19079,7 +19351,9 @@
       <c r="AO11" s="4"/>
       <c r="AP11" s="4"/>
       <c r="AQ11" s="3"/>
-      <c r="AR11" s="4"/>
+      <c r="AR11" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="AS11" s="4"/>
       <c r="AT11" s="4"/>
       <c r="AU11" s="4"/>
@@ -19125,7 +19399,9 @@
       <c r="AO12" s="4"/>
       <c r="AP12" s="4"/>
       <c r="AQ12" s="3"/>
-      <c r="AR12" s="4"/>
+      <c r="AR12" s="67" t="s">
+        <v>61</v>
+      </c>
       <c r="AS12" s="4"/>
       <c r="AT12" s="4"/>
       <c r="AU12" s="4"/>
@@ -19149,7 +19425,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="3"/>
       <c r="P13" s="20" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="Q13" s="20"/>
       <c r="R13" s="20"/>
@@ -19169,7 +19445,9 @@
       <c r="AO13" s="4"/>
       <c r="AP13" s="4"/>
       <c r="AQ13" s="3"/>
-      <c r="AR13" s="4"/>
+      <c r="AR13" s="67" t="s">
+        <v>62</v>
+      </c>
       <c r="AS13" s="4"/>
       <c r="AT13" s="4"/>
       <c r="AU13" s="4"/>
@@ -19236,7 +19514,7 @@
       <c r="I15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="26" t="s">
+      <c r="P15" s="23" t="s">
         <v>14</v>
       </c>
       <c r="Q15" s="4"/>
@@ -19280,7 +19558,7 @@
       <c r="I16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="26" t="s">
+      <c r="P16" s="23" t="s">
         <v>16</v>
       </c>
       <c r="Q16" s="4"/>
@@ -19324,7 +19602,7 @@
       <c r="I17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="26" t="s">
+      <c r="P17" s="23" t="s">
         <v>18</v>
       </c>
       <c r="Q17" s="4"/>
@@ -19372,7 +19650,7 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="26" t="s">
+      <c r="P18" s="23" t="s">
         <v>20</v>
       </c>
       <c r="Q18" s="4"/>
@@ -19419,14 +19697,14 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="26" t="s">
+      <c r="P19" s="23" t="s">
         <v>22</v>
       </c>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
       <c r="U19" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="AC19" s="5"/>
       <c r="AH19" s="4"/>
@@ -19466,14 +19744,14 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="26" t="s">
-        <v>24</v>
+      <c r="P20" s="23" t="s">
+        <v>23</v>
       </c>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
       <c r="U20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC20" s="5"/>
       <c r="AH20" s="4"/>
@@ -19513,8 +19791,8 @@
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="26" t="s">
-        <v>26</v>
+      <c r="P21" s="23" t="s">
+        <v>25</v>
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
@@ -19558,8 +19836,8 @@
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="28" t="s">
-        <v>35</v>
+      <c r="P22" s="25" t="s">
+        <v>30</v>
       </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
@@ -19712,8 +19990,8 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="26" t="s">
-        <v>36</v>
+      <c r="P25" s="23" t="s">
+        <v>31</v>
       </c>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
@@ -19769,7 +20047,7 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="26"/>
+      <c r="P26" s="23"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
@@ -19829,18 +20107,18 @@
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
-      <c r="U27" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="V27" s="22"/>
-      <c r="W27" s="23"/>
-      <c r="X27" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y27" s="27"/>
-      <c r="Z27" s="22"/>
-      <c r="AA27" s="23"/>
-      <c r="AB27" s="24"/>
+      <c r="U27" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="V27" s="36"/>
+      <c r="W27" s="35"/>
+      <c r="X27" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y27" s="24"/>
+      <c r="Z27" s="36"/>
+      <c r="AA27" s="35"/>
+      <c r="AB27" s="34"/>
       <c r="AC27" s="5"/>
       <c r="AD27" s="4"/>
       <c r="AE27" s="4"/>
@@ -20155,8 +20433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB33"/>
   <sheetViews>
-    <sheetView topLeftCell="M13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AR8" sqref="AR8:AZ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -20205,244 +20483,244 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="29" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="29"/>
-      <c r="AO2" s="29"/>
-      <c r="AP2" s="30"/>
-      <c r="AQ2" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="AR2" s="46"/>
-      <c r="AS2" s="46"/>
-      <c r="AT2" s="46"/>
-      <c r="AU2" s="46">
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="42"/>
+      <c r="AQ2" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR2" s="58"/>
+      <c r="AS2" s="58"/>
+      <c r="AT2" s="58"/>
+      <c r="AU2" s="58">
         <v>1</v>
       </c>
-      <c r="AV2" s="47"/>
-      <c r="AW2" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="AX2" s="46"/>
-      <c r="AY2" s="46"/>
-      <c r="AZ2" s="46"/>
-      <c r="BA2" s="46">
+      <c r="AV2" s="59"/>
+      <c r="AW2" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX2" s="58"/>
+      <c r="AY2" s="58"/>
+      <c r="AZ2" s="58"/>
+      <c r="BA2" s="58">
         <v>6</v>
       </c>
-      <c r="BB2" s="47"/>
+      <c r="BB2" s="59"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="31"/>
-      <c r="AJ3" s="31"/>
-      <c r="AK3" s="31"/>
-      <c r="AL3" s="31"/>
-      <c r="AM3" s="31"/>
-      <c r="AN3" s="31"/>
-      <c r="AO3" s="31"/>
-      <c r="AP3" s="32"/>
-      <c r="AQ3" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR3" s="45"/>
-      <c r="AS3" s="45"/>
-      <c r="AT3" s="45"/>
-      <c r="AU3" s="45"/>
-      <c r="AV3" s="48"/>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="45"/>
-      <c r="AY3" s="45"/>
-      <c r="AZ3" s="45"/>
-      <c r="BA3" s="45"/>
-      <c r="BB3" s="48"/>
+      <c r="B3" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="43"/>
+      <c r="AO3" s="43"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR3" s="57"/>
+      <c r="AS3" s="57"/>
+      <c r="AT3" s="57"/>
+      <c r="AU3" s="57"/>
+      <c r="AV3" s="60"/>
+      <c r="AW3" s="57"/>
+      <c r="AX3" s="57"/>
+      <c r="AY3" s="57"/>
+      <c r="AZ3" s="57"/>
+      <c r="BA3" s="57"/>
+      <c r="BB3" s="60"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="31"/>
-      <c r="AM4" s="31"/>
-      <c r="AN4" s="31"/>
-      <c r="AO4" s="31"/>
-      <c r="AP4" s="32"/>
-      <c r="AQ4" s="49" t="s">
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="43"/>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="43"/>
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="43"/>
+      <c r="AD4" s="43"/>
+      <c r="AE4" s="43"/>
+      <c r="AF4" s="43"/>
+      <c r="AG4" s="43"/>
+      <c r="AH4" s="43"/>
+      <c r="AI4" s="43"/>
+      <c r="AJ4" s="43"/>
+      <c r="AK4" s="43"/>
+      <c r="AL4" s="43"/>
+      <c r="AM4" s="43"/>
+      <c r="AN4" s="43"/>
+      <c r="AO4" s="43"/>
+      <c r="AP4" s="44"/>
+      <c r="AQ4" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="46"/>
-      <c r="AS4" s="46"/>
-      <c r="AT4" s="46"/>
-      <c r="AU4" s="50">
+      <c r="AR4" s="58"/>
+      <c r="AS4" s="58"/>
+      <c r="AT4" s="58"/>
+      <c r="AU4" s="62">
         <v>43032</v>
       </c>
-      <c r="AV4" s="51"/>
-      <c r="AW4" s="51"/>
-      <c r="AX4" s="51"/>
-      <c r="AY4" s="51"/>
-      <c r="AZ4" s="51"/>
-      <c r="BA4" s="51"/>
-      <c r="BB4" s="52"/>
+      <c r="AV4" s="63"/>
+      <c r="AW4" s="63"/>
+      <c r="AX4" s="63"/>
+      <c r="AY4" s="63"/>
+      <c r="AZ4" s="63"/>
+      <c r="BA4" s="63"/>
+      <c r="BB4" s="64"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="41"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="33"/>
-      <c r="AE5" s="33"/>
-      <c r="AF5" s="33"/>
-      <c r="AG5" s="33"/>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="33"/>
-      <c r="AJ5" s="33"/>
-      <c r="AK5" s="33"/>
-      <c r="AL5" s="33"/>
-      <c r="AM5" s="33"/>
-      <c r="AN5" s="33"/>
-      <c r="AO5" s="33"/>
-      <c r="AP5" s="34"/>
-      <c r="AQ5" s="44"/>
-      <c r="AR5" s="45"/>
-      <c r="AS5" s="45"/>
-      <c r="AT5" s="45"/>
-      <c r="AU5" s="53"/>
-      <c r="AV5" s="53"/>
-      <c r="AW5" s="53"/>
-      <c r="AX5" s="53"/>
-      <c r="AY5" s="53"/>
-      <c r="AZ5" s="53"/>
-      <c r="BA5" s="53"/>
-      <c r="BB5" s="54"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="45"/>
+      <c r="AD5" s="45"/>
+      <c r="AE5" s="45"/>
+      <c r="AF5" s="45"/>
+      <c r="AG5" s="45"/>
+      <c r="AH5" s="45"/>
+      <c r="AI5" s="45"/>
+      <c r="AJ5" s="45"/>
+      <c r="AK5" s="45"/>
+      <c r="AL5" s="45"/>
+      <c r="AM5" s="45"/>
+      <c r="AN5" s="45"/>
+      <c r="AO5" s="45"/>
+      <c r="AP5" s="46"/>
+      <c r="AQ5" s="56"/>
+      <c r="AR5" s="57"/>
+      <c r="AS5" s="57"/>
+      <c r="AT5" s="57"/>
+      <c r="AU5" s="65"/>
+      <c r="AV5" s="65"/>
+      <c r="AW5" s="65"/>
+      <c r="AX5" s="65"/>
+      <c r="AY5" s="65"/>
+      <c r="AZ5" s="65"/>
+      <c r="BA5" s="65"/>
+      <c r="BB5" s="66"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -20596,7 +20874,9 @@
       <c r="AO8" s="15"/>
       <c r="AP8" s="15"/>
       <c r="AQ8" s="3"/>
-      <c r="AR8" s="4"/>
+      <c r="AR8" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="AS8" s="4"/>
       <c r="AT8" s="4"/>
       <c r="AU8" s="4"/>
@@ -20634,7 +20914,9 @@
       <c r="AO9" s="15"/>
       <c r="AP9" s="15"/>
       <c r="AQ9" s="3"/>
-      <c r="AR9" s="4"/>
+      <c r="AR9" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="AS9" s="4"/>
       <c r="AT9" s="4"/>
       <c r="AU9" s="4"/>
@@ -20656,8 +20938,8 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="25" t="s">
-        <v>42</v>
+      <c r="O10" s="22" t="s">
+        <v>34</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -20725,7 +21007,9 @@
       <c r="AO11" s="4"/>
       <c r="AP11" s="4"/>
       <c r="AQ11" s="3"/>
-      <c r="AR11" s="4"/>
+      <c r="AR11" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="AS11" s="4"/>
       <c r="AT11" s="4"/>
       <c r="AU11" s="4"/>
@@ -20780,7 +21064,9 @@
       <c r="AO12" s="4"/>
       <c r="AP12" s="4"/>
       <c r="AQ12" s="3"/>
-      <c r="AR12" s="4"/>
+      <c r="AR12" s="67" t="s">
+        <v>57</v>
+      </c>
       <c r="AS12" s="4"/>
       <c r="AT12" s="4"/>
       <c r="AU12" s="4"/>
@@ -20804,7 +21090,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="3"/>
       <c r="P13" s="20" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="Q13" s="20"/>
       <c r="R13" s="20"/>
@@ -20909,7 +21195,7 @@
       <c r="I15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="26" t="s">
+      <c r="P15" s="23" t="s">
         <v>14</v>
       </c>
       <c r="Q15" s="4"/>
@@ -20961,7 +21247,7 @@
       <c r="I16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="26" t="s">
+      <c r="P16" s="23" t="s">
         <v>16</v>
       </c>
       <c r="Q16" s="4"/>
@@ -21012,7 +21298,7 @@
       <c r="I17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="26" t="s">
+      <c r="P17" s="23" t="s">
         <v>18</v>
       </c>
       <c r="Q17" s="4"/>
@@ -21068,7 +21354,7 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="26" t="s">
+      <c r="P18" s="23" t="s">
         <v>20</v>
       </c>
       <c r="Q18" s="4"/>
@@ -21123,7 +21409,7 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="26" t="s">
+      <c r="P19" s="23" t="s">
         <v>22</v>
       </c>
       <c r="Q19" s="4"/>
@@ -21131,7 +21417,7 @@
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
       <c r="U19" s="16" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="V19" s="17"/>
       <c r="W19" s="17"/>
@@ -21178,15 +21464,15 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="26" t="s">
-        <v>24</v>
+      <c r="P20" s="23" t="s">
+        <v>23</v>
       </c>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
       <c r="U20" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V20" s="17"/>
       <c r="W20" s="17"/>
@@ -21233,8 +21519,8 @@
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="26" t="s">
-        <v>26</v>
+      <c r="P21" s="23" t="s">
+        <v>25</v>
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
@@ -21279,8 +21565,8 @@
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="28" t="s">
-        <v>35</v>
+      <c r="P22" s="25" t="s">
+        <v>30</v>
       </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
@@ -21493,18 +21779,18 @@
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
-      <c r="U26" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="V26" s="22"/>
-      <c r="W26" s="23"/>
-      <c r="X26" s="24"/>
-      <c r="Y26" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z26" s="22"/>
-      <c r="AA26" s="23"/>
-      <c r="AB26" s="24"/>
+      <c r="U26" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="V26" s="36"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="34"/>
+      <c r="Y26" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z26" s="36"/>
+      <c r="AA26" s="35"/>
+      <c r="AB26" s="34"/>
       <c r="AC26" s="5"/>
       <c r="AD26" s="4"/>
       <c r="AE26" s="4"/>
@@ -21874,8 +22160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AR8" sqref="AR8:AZ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -21924,244 +22210,244 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="29" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="29"/>
-      <c r="AO2" s="29"/>
-      <c r="AP2" s="30"/>
-      <c r="AQ2" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="AR2" s="46"/>
-      <c r="AS2" s="46"/>
-      <c r="AT2" s="46"/>
-      <c r="AU2" s="46">
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="42"/>
+      <c r="AQ2" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR2" s="58"/>
+      <c r="AS2" s="58"/>
+      <c r="AT2" s="58"/>
+      <c r="AU2" s="58">
         <v>1</v>
       </c>
-      <c r="AV2" s="47"/>
-      <c r="AW2" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="AX2" s="46"/>
-      <c r="AY2" s="46"/>
-      <c r="AZ2" s="46"/>
-      <c r="BA2" s="46">
+      <c r="AV2" s="59"/>
+      <c r="AW2" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX2" s="58"/>
+      <c r="AY2" s="58"/>
+      <c r="AZ2" s="58"/>
+      <c r="BA2" s="58">
         <v>7</v>
       </c>
-      <c r="BB2" s="47"/>
+      <c r="BB2" s="59"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="31"/>
-      <c r="AJ3" s="31"/>
-      <c r="AK3" s="31"/>
-      <c r="AL3" s="31"/>
-      <c r="AM3" s="31"/>
-      <c r="AN3" s="31"/>
-      <c r="AO3" s="31"/>
-      <c r="AP3" s="32"/>
-      <c r="AQ3" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR3" s="45"/>
-      <c r="AS3" s="45"/>
-      <c r="AT3" s="45"/>
-      <c r="AU3" s="45"/>
-      <c r="AV3" s="48"/>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="45"/>
-      <c r="AY3" s="45"/>
-      <c r="AZ3" s="45"/>
-      <c r="BA3" s="45"/>
-      <c r="BB3" s="48"/>
+      <c r="B3" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="43"/>
+      <c r="AO3" s="43"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR3" s="57"/>
+      <c r="AS3" s="57"/>
+      <c r="AT3" s="57"/>
+      <c r="AU3" s="57"/>
+      <c r="AV3" s="60"/>
+      <c r="AW3" s="57"/>
+      <c r="AX3" s="57"/>
+      <c r="AY3" s="57"/>
+      <c r="AZ3" s="57"/>
+      <c r="BA3" s="57"/>
+      <c r="BB3" s="60"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="31"/>
-      <c r="AM4" s="31"/>
-      <c r="AN4" s="31"/>
-      <c r="AO4" s="31"/>
-      <c r="AP4" s="32"/>
-      <c r="AQ4" s="49" t="s">
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="43"/>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="43"/>
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="43"/>
+      <c r="AD4" s="43"/>
+      <c r="AE4" s="43"/>
+      <c r="AF4" s="43"/>
+      <c r="AG4" s="43"/>
+      <c r="AH4" s="43"/>
+      <c r="AI4" s="43"/>
+      <c r="AJ4" s="43"/>
+      <c r="AK4" s="43"/>
+      <c r="AL4" s="43"/>
+      <c r="AM4" s="43"/>
+      <c r="AN4" s="43"/>
+      <c r="AO4" s="43"/>
+      <c r="AP4" s="44"/>
+      <c r="AQ4" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="46"/>
-      <c r="AS4" s="46"/>
-      <c r="AT4" s="46"/>
-      <c r="AU4" s="50">
+      <c r="AR4" s="58"/>
+      <c r="AS4" s="58"/>
+      <c r="AT4" s="58"/>
+      <c r="AU4" s="62">
         <v>43032</v>
       </c>
-      <c r="AV4" s="51"/>
-      <c r="AW4" s="51"/>
-      <c r="AX4" s="51"/>
-      <c r="AY4" s="51"/>
-      <c r="AZ4" s="51"/>
-      <c r="BA4" s="51"/>
-      <c r="BB4" s="52"/>
+      <c r="AV4" s="63"/>
+      <c r="AW4" s="63"/>
+      <c r="AX4" s="63"/>
+      <c r="AY4" s="63"/>
+      <c r="AZ4" s="63"/>
+      <c r="BA4" s="63"/>
+      <c r="BB4" s="64"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="41"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="33"/>
-      <c r="AE5" s="33"/>
-      <c r="AF5" s="33"/>
-      <c r="AG5" s="33"/>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="33"/>
-      <c r="AJ5" s="33"/>
-      <c r="AK5" s="33"/>
-      <c r="AL5" s="33"/>
-      <c r="AM5" s="33"/>
-      <c r="AN5" s="33"/>
-      <c r="AO5" s="33"/>
-      <c r="AP5" s="34"/>
-      <c r="AQ5" s="44"/>
-      <c r="AR5" s="45"/>
-      <c r="AS5" s="45"/>
-      <c r="AT5" s="45"/>
-      <c r="AU5" s="53"/>
-      <c r="AV5" s="53"/>
-      <c r="AW5" s="53"/>
-      <c r="AX5" s="53"/>
-      <c r="AY5" s="53"/>
-      <c r="AZ5" s="53"/>
-      <c r="BA5" s="53"/>
-      <c r="BB5" s="54"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="45"/>
+      <c r="AD5" s="45"/>
+      <c r="AE5" s="45"/>
+      <c r="AF5" s="45"/>
+      <c r="AG5" s="45"/>
+      <c r="AH5" s="45"/>
+      <c r="AI5" s="45"/>
+      <c r="AJ5" s="45"/>
+      <c r="AK5" s="45"/>
+      <c r="AL5" s="45"/>
+      <c r="AM5" s="45"/>
+      <c r="AN5" s="45"/>
+      <c r="AO5" s="45"/>
+      <c r="AP5" s="46"/>
+      <c r="AQ5" s="56"/>
+      <c r="AR5" s="57"/>
+      <c r="AS5" s="57"/>
+      <c r="AT5" s="57"/>
+      <c r="AU5" s="65"/>
+      <c r="AV5" s="65"/>
+      <c r="AW5" s="65"/>
+      <c r="AX5" s="65"/>
+      <c r="AY5" s="65"/>
+      <c r="AZ5" s="65"/>
+      <c r="BA5" s="65"/>
+      <c r="BB5" s="66"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -22315,7 +22601,9 @@
       <c r="AO8" s="15"/>
       <c r="AP8" s="15"/>
       <c r="AQ8" s="3"/>
-      <c r="AR8" s="4"/>
+      <c r="AR8" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="AS8" s="4"/>
       <c r="AT8" s="4"/>
       <c r="AU8" s="4"/>
@@ -22366,7 +22654,9 @@
       <c r="AO9" s="15"/>
       <c r="AP9" s="15"/>
       <c r="AQ9" s="3"/>
-      <c r="AR9" s="4"/>
+      <c r="AR9" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="AS9" s="4"/>
       <c r="AT9" s="4"/>
       <c r="AU9" s="4"/>
@@ -22388,8 +22678,8 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="25" t="s">
-        <v>44</v>
+      <c r="O10" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -22456,7 +22746,9 @@
       <c r="AO11" s="4"/>
       <c r="AP11" s="4"/>
       <c r="AQ11" s="3"/>
-      <c r="AR11" s="4"/>
+      <c r="AR11" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="AS11" s="4"/>
       <c r="AT11" s="4"/>
       <c r="AU11" s="4"/>
@@ -22502,7 +22794,9 @@
       <c r="AO12" s="4"/>
       <c r="AP12" s="4"/>
       <c r="AQ12" s="3"/>
-      <c r="AR12" s="4"/>
+      <c r="AR12" s="67" t="s">
+        <v>69</v>
+      </c>
       <c r="AS12" s="4"/>
       <c r="AT12" s="4"/>
       <c r="AU12" s="4"/>
@@ -22526,7 +22820,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="3"/>
       <c r="P13" s="20" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="20"/>
       <c r="R13" s="20"/>
@@ -22546,7 +22840,9 @@
       <c r="AO13" s="4"/>
       <c r="AP13" s="4"/>
       <c r="AQ13" s="3"/>
-      <c r="AR13" s="4"/>
+      <c r="AR13" s="67" t="s">
+        <v>62</v>
+      </c>
       <c r="AS13" s="4"/>
       <c r="AT13" s="4"/>
       <c r="AU13" s="4"/>
@@ -22613,7 +22909,7 @@
       <c r="I15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="26" t="s">
+      <c r="P15" s="23" t="s">
         <v>14</v>
       </c>
       <c r="Q15" s="4"/>
@@ -22657,7 +22953,7 @@
       <c r="I16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="26" t="s">
+      <c r="P16" s="23" t="s">
         <v>16</v>
       </c>
       <c r="Q16" s="4"/>
@@ -22701,7 +22997,7 @@
       <c r="I17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="26" t="s">
+      <c r="P17" s="23" t="s">
         <v>18</v>
       </c>
       <c r="Q17" s="4"/>
@@ -22749,7 +23045,7 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="26" t="s">
+      <c r="P18" s="23" t="s">
         <v>20</v>
       </c>
       <c r="Q18" s="4"/>
@@ -22796,14 +23092,14 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="26" t="s">
+      <c r="P19" s="23" t="s">
         <v>22</v>
       </c>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
       <c r="U19" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="AC19" s="5"/>
       <c r="AH19" s="4"/>
@@ -22843,14 +23139,14 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="26" t="s">
-        <v>24</v>
+      <c r="P20" s="23" t="s">
+        <v>23</v>
       </c>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
       <c r="U20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC20" s="5"/>
       <c r="AH20" s="4"/>
@@ -22890,8 +23186,8 @@
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="26" t="s">
-        <v>26</v>
+      <c r="P21" s="23" t="s">
+        <v>25</v>
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
@@ -22935,8 +23231,8 @@
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="28" t="s">
-        <v>35</v>
+      <c r="P22" s="25" t="s">
+        <v>30</v>
       </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
@@ -23089,8 +23385,8 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="26" t="s">
-        <v>46</v>
+      <c r="P25" s="23" t="s">
+        <v>37</v>
       </c>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
@@ -23146,7 +23442,7 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="26"/>
+      <c r="P26" s="23"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
@@ -23206,18 +23502,18 @@
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
-      <c r="U27" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="V27" s="22"/>
-      <c r="W27" s="23"/>
-      <c r="X27" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y27" s="27"/>
-      <c r="Z27" s="22"/>
-      <c r="AA27" s="23"/>
-      <c r="AB27" s="24"/>
+      <c r="U27" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="V27" s="36"/>
+      <c r="W27" s="35"/>
+      <c r="X27" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y27" s="24"/>
+      <c r="Z27" s="36"/>
+      <c r="AA27" s="35"/>
+      <c r="AB27" s="34"/>
       <c r="AC27" s="5"/>
       <c r="AD27" s="4"/>
       <c r="AE27" s="4"/>
@@ -23533,7 +23829,7 @@
   <dimension ref="B1:BB33"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="AR8" sqref="AR8:AZ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -23582,244 +23878,244 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="29" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="29"/>
-      <c r="AO2" s="29"/>
-      <c r="AP2" s="30"/>
-      <c r="AQ2" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="AR2" s="46"/>
-      <c r="AS2" s="46"/>
-      <c r="AT2" s="46"/>
-      <c r="AU2" s="46">
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="42"/>
+      <c r="AQ2" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR2" s="58"/>
+      <c r="AS2" s="58"/>
+      <c r="AT2" s="58"/>
+      <c r="AU2" s="58">
         <v>1</v>
       </c>
-      <c r="AV2" s="47"/>
-      <c r="AW2" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="AX2" s="46"/>
-      <c r="AY2" s="46"/>
-      <c r="AZ2" s="46"/>
-      <c r="BA2" s="46">
+      <c r="AV2" s="59"/>
+      <c r="AW2" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX2" s="58"/>
+      <c r="AY2" s="58"/>
+      <c r="AZ2" s="58"/>
+      <c r="BA2" s="58">
         <v>8</v>
       </c>
-      <c r="BB2" s="47"/>
+      <c r="BB2" s="59"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="31"/>
-      <c r="AJ3" s="31"/>
-      <c r="AK3" s="31"/>
-      <c r="AL3" s="31"/>
-      <c r="AM3" s="31"/>
-      <c r="AN3" s="31"/>
-      <c r="AO3" s="31"/>
-      <c r="AP3" s="32"/>
-      <c r="AQ3" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR3" s="45"/>
-      <c r="AS3" s="45"/>
-      <c r="AT3" s="45"/>
-      <c r="AU3" s="45"/>
-      <c r="AV3" s="48"/>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="45"/>
-      <c r="AY3" s="45"/>
-      <c r="AZ3" s="45"/>
-      <c r="BA3" s="45"/>
-      <c r="BB3" s="48"/>
+      <c r="B3" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="43"/>
+      <c r="AO3" s="43"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR3" s="57"/>
+      <c r="AS3" s="57"/>
+      <c r="AT3" s="57"/>
+      <c r="AU3" s="57"/>
+      <c r="AV3" s="60"/>
+      <c r="AW3" s="57"/>
+      <c r="AX3" s="57"/>
+      <c r="AY3" s="57"/>
+      <c r="AZ3" s="57"/>
+      <c r="BA3" s="57"/>
+      <c r="BB3" s="60"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="31"/>
-      <c r="AM4" s="31"/>
-      <c r="AN4" s="31"/>
-      <c r="AO4" s="31"/>
-      <c r="AP4" s="32"/>
-      <c r="AQ4" s="49" t="s">
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="43"/>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="43"/>
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="43"/>
+      <c r="AD4" s="43"/>
+      <c r="AE4" s="43"/>
+      <c r="AF4" s="43"/>
+      <c r="AG4" s="43"/>
+      <c r="AH4" s="43"/>
+      <c r="AI4" s="43"/>
+      <c r="AJ4" s="43"/>
+      <c r="AK4" s="43"/>
+      <c r="AL4" s="43"/>
+      <c r="AM4" s="43"/>
+      <c r="AN4" s="43"/>
+      <c r="AO4" s="43"/>
+      <c r="AP4" s="44"/>
+      <c r="AQ4" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="46"/>
-      <c r="AS4" s="46"/>
-      <c r="AT4" s="46"/>
-      <c r="AU4" s="50">
+      <c r="AR4" s="58"/>
+      <c r="AS4" s="58"/>
+      <c r="AT4" s="58"/>
+      <c r="AU4" s="62">
         <v>43032</v>
       </c>
-      <c r="AV4" s="51"/>
-      <c r="AW4" s="51"/>
-      <c r="AX4" s="51"/>
-      <c r="AY4" s="51"/>
-      <c r="AZ4" s="51"/>
-      <c r="BA4" s="51"/>
-      <c r="BB4" s="52"/>
+      <c r="AV4" s="63"/>
+      <c r="AW4" s="63"/>
+      <c r="AX4" s="63"/>
+      <c r="AY4" s="63"/>
+      <c r="AZ4" s="63"/>
+      <c r="BA4" s="63"/>
+      <c r="BB4" s="64"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="41"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="33"/>
-      <c r="AE5" s="33"/>
-      <c r="AF5" s="33"/>
-      <c r="AG5" s="33"/>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="33"/>
-      <c r="AJ5" s="33"/>
-      <c r="AK5" s="33"/>
-      <c r="AL5" s="33"/>
-      <c r="AM5" s="33"/>
-      <c r="AN5" s="33"/>
-      <c r="AO5" s="33"/>
-      <c r="AP5" s="34"/>
-      <c r="AQ5" s="44"/>
-      <c r="AR5" s="45"/>
-      <c r="AS5" s="45"/>
-      <c r="AT5" s="45"/>
-      <c r="AU5" s="53"/>
-      <c r="AV5" s="53"/>
-      <c r="AW5" s="53"/>
-      <c r="AX5" s="53"/>
-      <c r="AY5" s="53"/>
-      <c r="AZ5" s="53"/>
-      <c r="BA5" s="53"/>
-      <c r="BB5" s="54"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="45"/>
+      <c r="AD5" s="45"/>
+      <c r="AE5" s="45"/>
+      <c r="AF5" s="45"/>
+      <c r="AG5" s="45"/>
+      <c r="AH5" s="45"/>
+      <c r="AI5" s="45"/>
+      <c r="AJ5" s="45"/>
+      <c r="AK5" s="45"/>
+      <c r="AL5" s="45"/>
+      <c r="AM5" s="45"/>
+      <c r="AN5" s="45"/>
+      <c r="AO5" s="45"/>
+      <c r="AP5" s="46"/>
+      <c r="AQ5" s="56"/>
+      <c r="AR5" s="57"/>
+      <c r="AS5" s="57"/>
+      <c r="AT5" s="57"/>
+      <c r="AU5" s="65"/>
+      <c r="AV5" s="65"/>
+      <c r="AW5" s="65"/>
+      <c r="AX5" s="65"/>
+      <c r="AY5" s="65"/>
+      <c r="AZ5" s="65"/>
+      <c r="BA5" s="65"/>
+      <c r="BB5" s="66"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -23973,7 +24269,9 @@
       <c r="AO8" s="15"/>
       <c r="AP8" s="15"/>
       <c r="AQ8" s="3"/>
-      <c r="AR8" s="4"/>
+      <c r="AR8" s="20" t="s">
+        <v>74</v>
+      </c>
       <c r="AS8" s="4"/>
       <c r="AT8" s="4"/>
       <c r="AU8" s="4"/>
@@ -24024,7 +24322,9 @@
       <c r="AO9" s="15"/>
       <c r="AP9" s="15"/>
       <c r="AQ9" s="3"/>
-      <c r="AR9" s="4"/>
+      <c r="AR9" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="AS9" s="4"/>
       <c r="AT9" s="4"/>
       <c r="AU9" s="4"/>
@@ -24046,8 +24346,8 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="25" t="s">
-        <v>48</v>
+      <c r="O10" s="22" t="s">
+        <v>39</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -24114,7 +24414,9 @@
       <c r="AO11" s="4"/>
       <c r="AP11" s="4"/>
       <c r="AQ11" s="3"/>
-      <c r="AR11" s="4"/>
+      <c r="AR11" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="AS11" s="4"/>
       <c r="AT11" s="4"/>
       <c r="AU11" s="4"/>
@@ -24160,7 +24462,9 @@
       <c r="AO12" s="4"/>
       <c r="AP12" s="4"/>
       <c r="AQ12" s="3"/>
-      <c r="AR12" s="4"/>
+      <c r="AR12" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="AS12" s="4"/>
       <c r="AT12" s="4"/>
       <c r="AU12" s="4"/>
@@ -24184,7 +24488,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="3"/>
       <c r="P13" s="20" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="20"/>
       <c r="R13" s="20"/>
@@ -24204,7 +24508,9 @@
       <c r="AO13" s="4"/>
       <c r="AP13" s="4"/>
       <c r="AQ13" s="3"/>
-      <c r="AR13" s="4"/>
+      <c r="AR13" s="67" t="s">
+        <v>77</v>
+      </c>
       <c r="AS13" s="4"/>
       <c r="AT13" s="4"/>
       <c r="AU13" s="4"/>
@@ -24248,7 +24554,9 @@
       <c r="AO14" s="4"/>
       <c r="AP14" s="4"/>
       <c r="AQ14" s="3"/>
-      <c r="AR14" s="4"/>
+      <c r="AR14" s="67" t="s">
+        <v>78</v>
+      </c>
       <c r="AS14" s="4"/>
       <c r="AT14" s="4"/>
       <c r="AU14" s="4"/>
@@ -24271,7 +24579,7 @@
       <c r="I15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="26" t="s">
+      <c r="P15" s="23" t="s">
         <v>14</v>
       </c>
       <c r="Q15" s="4"/>
@@ -24315,7 +24623,7 @@
       <c r="I16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="26" t="s">
+      <c r="P16" s="23" t="s">
         <v>16</v>
       </c>
       <c r="Q16" s="4"/>
@@ -24359,7 +24667,7 @@
       <c r="I17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="26" t="s">
+      <c r="P17" s="23" t="s">
         <v>18</v>
       </c>
       <c r="Q17" s="4"/>
@@ -24407,7 +24715,7 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="26" t="s">
+      <c r="P18" s="23" t="s">
         <v>20</v>
       </c>
       <c r="Q18" s="4"/>
@@ -24454,14 +24762,14 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="26" t="s">
+      <c r="P19" s="23" t="s">
         <v>22</v>
       </c>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
       <c r="U19" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="AC19" s="5"/>
       <c r="AH19" s="4"/>
@@ -24501,14 +24809,14 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="26" t="s">
-        <v>24</v>
+      <c r="P20" s="23" t="s">
+        <v>23</v>
       </c>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
       <c r="U20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC20" s="5"/>
       <c r="AH20" s="4"/>
@@ -24548,8 +24856,8 @@
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="26" t="s">
-        <v>26</v>
+      <c r="P21" s="23" t="s">
+        <v>25</v>
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
@@ -24593,8 +24901,8 @@
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="28" t="s">
-        <v>35</v>
+      <c r="P22" s="25" t="s">
+        <v>30</v>
       </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
@@ -24747,8 +25055,8 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="26" t="s">
-        <v>49</v>
+      <c r="P25" s="23" t="s">
+        <v>40</v>
       </c>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
@@ -24804,7 +25112,7 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="26"/>
+      <c r="P26" s="23"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
@@ -24864,18 +25172,18 @@
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
-      <c r="U27" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="V27" s="22"/>
-      <c r="W27" s="23"/>
-      <c r="X27" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y27" s="27"/>
-      <c r="Z27" s="22"/>
-      <c r="AA27" s="23"/>
-      <c r="AB27" s="24"/>
+      <c r="U27" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="V27" s="36"/>
+      <c r="W27" s="35"/>
+      <c r="X27" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y27" s="24"/>
+      <c r="Z27" s="36"/>
+      <c r="AA27" s="35"/>
+      <c r="AB27" s="34"/>
       <c r="AC27" s="5"/>
       <c r="AD27" s="4"/>
       <c r="AE27" s="4"/>
@@ -25191,7 +25499,7 @@
   <dimension ref="B1:BB33"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="AR8" sqref="AR8:AZ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -25240,244 +25548,244 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="29" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="29"/>
-      <c r="AO2" s="29"/>
-      <c r="AP2" s="30"/>
-      <c r="AQ2" s="49" t="s">
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="42"/>
+      <c r="AQ2" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="46"/>
-      <c r="AS2" s="46"/>
-      <c r="AT2" s="46"/>
-      <c r="AU2" s="46">
+      <c r="AR2" s="58"/>
+      <c r="AS2" s="58"/>
+      <c r="AT2" s="58"/>
+      <c r="AU2" s="58">
         <v>1</v>
       </c>
-      <c r="AV2" s="47"/>
-      <c r="AW2" s="46" t="s">
+      <c r="AV2" s="59"/>
+      <c r="AW2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="46"/>
-      <c r="AY2" s="46"/>
-      <c r="AZ2" s="46"/>
-      <c r="BA2" s="46">
+      <c r="AX2" s="58"/>
+      <c r="AY2" s="58"/>
+      <c r="AZ2" s="58"/>
+      <c r="BA2" s="58">
         <v>9</v>
       </c>
-      <c r="BB2" s="47"/>
+      <c r="BB2" s="59"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="31"/>
-      <c r="AJ3" s="31"/>
-      <c r="AK3" s="31"/>
-      <c r="AL3" s="31"/>
-      <c r="AM3" s="31"/>
-      <c r="AN3" s="31"/>
-      <c r="AO3" s="31"/>
-      <c r="AP3" s="32"/>
-      <c r="AQ3" s="44" t="s">
+      <c r="B3" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="43"/>
+      <c r="AO3" s="43"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="AR3" s="45"/>
-      <c r="AS3" s="45"/>
-      <c r="AT3" s="45"/>
-      <c r="AU3" s="45"/>
-      <c r="AV3" s="48"/>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="45"/>
-      <c r="AY3" s="45"/>
-      <c r="AZ3" s="45"/>
-      <c r="BA3" s="45"/>
-      <c r="BB3" s="48"/>
+      <c r="AR3" s="57"/>
+      <c r="AS3" s="57"/>
+      <c r="AT3" s="57"/>
+      <c r="AU3" s="57"/>
+      <c r="AV3" s="60"/>
+      <c r="AW3" s="57"/>
+      <c r="AX3" s="57"/>
+      <c r="AY3" s="57"/>
+      <c r="AZ3" s="57"/>
+      <c r="BA3" s="57"/>
+      <c r="BB3" s="60"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="31"/>
-      <c r="AM4" s="31"/>
-      <c r="AN4" s="31"/>
-      <c r="AO4" s="31"/>
-      <c r="AP4" s="32"/>
-      <c r="AQ4" s="49" t="s">
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="43"/>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="43"/>
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="43"/>
+      <c r="AD4" s="43"/>
+      <c r="AE4" s="43"/>
+      <c r="AF4" s="43"/>
+      <c r="AG4" s="43"/>
+      <c r="AH4" s="43"/>
+      <c r="AI4" s="43"/>
+      <c r="AJ4" s="43"/>
+      <c r="AK4" s="43"/>
+      <c r="AL4" s="43"/>
+      <c r="AM4" s="43"/>
+      <c r="AN4" s="43"/>
+      <c r="AO4" s="43"/>
+      <c r="AP4" s="44"/>
+      <c r="AQ4" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="46"/>
-      <c r="AS4" s="46"/>
-      <c r="AT4" s="46"/>
-      <c r="AU4" s="50">
+      <c r="AR4" s="58"/>
+      <c r="AS4" s="58"/>
+      <c r="AT4" s="58"/>
+      <c r="AU4" s="62">
         <v>43032</v>
       </c>
-      <c r="AV4" s="51"/>
-      <c r="AW4" s="51"/>
-      <c r="AX4" s="51"/>
-      <c r="AY4" s="51"/>
-      <c r="AZ4" s="51"/>
-      <c r="BA4" s="51"/>
-      <c r="BB4" s="52"/>
+      <c r="AV4" s="63"/>
+      <c r="AW4" s="63"/>
+      <c r="AX4" s="63"/>
+      <c r="AY4" s="63"/>
+      <c r="AZ4" s="63"/>
+      <c r="BA4" s="63"/>
+      <c r="BB4" s="64"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="41"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="33"/>
-      <c r="AE5" s="33"/>
-      <c r="AF5" s="33"/>
-      <c r="AG5" s="33"/>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="33"/>
-      <c r="AJ5" s="33"/>
-      <c r="AK5" s="33"/>
-      <c r="AL5" s="33"/>
-      <c r="AM5" s="33"/>
-      <c r="AN5" s="33"/>
-      <c r="AO5" s="33"/>
-      <c r="AP5" s="34"/>
-      <c r="AQ5" s="44"/>
-      <c r="AR5" s="45"/>
-      <c r="AS5" s="45"/>
-      <c r="AT5" s="45"/>
-      <c r="AU5" s="53"/>
-      <c r="AV5" s="53"/>
-      <c r="AW5" s="53"/>
-      <c r="AX5" s="53"/>
-      <c r="AY5" s="53"/>
-      <c r="AZ5" s="53"/>
-      <c r="BA5" s="53"/>
-      <c r="BB5" s="54"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="45"/>
+      <c r="AD5" s="45"/>
+      <c r="AE5" s="45"/>
+      <c r="AF5" s="45"/>
+      <c r="AG5" s="45"/>
+      <c r="AH5" s="45"/>
+      <c r="AI5" s="45"/>
+      <c r="AJ5" s="45"/>
+      <c r="AK5" s="45"/>
+      <c r="AL5" s="45"/>
+      <c r="AM5" s="45"/>
+      <c r="AN5" s="45"/>
+      <c r="AO5" s="45"/>
+      <c r="AP5" s="46"/>
+      <c r="AQ5" s="56"/>
+      <c r="AR5" s="57"/>
+      <c r="AS5" s="57"/>
+      <c r="AT5" s="57"/>
+      <c r="AU5" s="65"/>
+      <c r="AV5" s="65"/>
+      <c r="AW5" s="65"/>
+      <c r="AX5" s="65"/>
+      <c r="AY5" s="65"/>
+      <c r="AZ5" s="65"/>
+      <c r="BA5" s="65"/>
+      <c r="BB5" s="66"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -25631,7 +25939,9 @@
       <c r="AO8" s="15"/>
       <c r="AP8" s="15"/>
       <c r="AQ8" s="3"/>
-      <c r="AR8" s="4"/>
+      <c r="AR8" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="AS8" s="4"/>
       <c r="AT8" s="4"/>
       <c r="AU8" s="4"/>
@@ -25682,7 +25992,9 @@
       <c r="AO9" s="15"/>
       <c r="AP9" s="15"/>
       <c r="AQ9" s="3"/>
-      <c r="AR9" s="4"/>
+      <c r="AR9" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="AS9" s="4"/>
       <c r="AT9" s="4"/>
       <c r="AU9" s="4"/>
@@ -25704,8 +26016,8 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="25" t="s">
-        <v>52</v>
+      <c r="O10" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -25772,7 +26084,9 @@
       <c r="AO11" s="4"/>
       <c r="AP11" s="4"/>
       <c r="AQ11" s="3"/>
-      <c r="AR11" s="4"/>
+      <c r="AR11" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="AS11" s="4"/>
       <c r="AT11" s="4"/>
       <c r="AU11" s="4"/>
@@ -25818,7 +26132,9 @@
       <c r="AO12" s="4"/>
       <c r="AP12" s="4"/>
       <c r="AQ12" s="3"/>
-      <c r="AR12" s="4"/>
+      <c r="AR12" s="67" t="s">
+        <v>81</v>
+      </c>
       <c r="AS12" s="4"/>
       <c r="AT12" s="4"/>
       <c r="AU12" s="4"/>
@@ -25841,8 +26157,8 @@
       <c r="I13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="3"/>
-      <c r="P13" s="28" t="s">
-        <v>35</v>
+      <c r="P13" s="25" t="s">
+        <v>30</v>
       </c>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
@@ -25914,7 +26230,9 @@
       <c r="AO14" s="4"/>
       <c r="AP14" s="4"/>
       <c r="AQ14" s="3"/>
-      <c r="AR14" s="4"/>
+      <c r="AR14" s="67" t="s">
+        <v>56</v>
+      </c>
       <c r="AS14" s="4"/>
       <c r="AT14" s="4"/>
       <c r="AU14" s="4"/>
@@ -25963,7 +26281,9 @@
       <c r="AO15" s="4"/>
       <c r="AP15" s="4"/>
       <c r="AQ15" s="3"/>
-      <c r="AR15" s="4"/>
+      <c r="AR15" s="67" t="s">
+        <v>57</v>
+      </c>
       <c r="AS15" s="4"/>
       <c r="AT15" s="4"/>
       <c r="AU15" s="4"/>
@@ -26030,7 +26350,7 @@
       <c r="I17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="26" t="s">
+      <c r="P17" s="23" t="s">
         <v>14</v>
       </c>
       <c r="Q17" s="4"/>
@@ -26078,7 +26398,7 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="26" t="s">
+      <c r="P18" s="23" t="s">
         <v>16</v>
       </c>
       <c r="Q18" s="4"/>
@@ -26125,7 +26445,7 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="26" t="s">
+      <c r="P19" s="23" t="s">
         <v>18</v>
       </c>
       <c r="Q19" s="4"/>
@@ -26172,7 +26492,7 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="26" t="s">
+      <c r="P20" s="23" t="s">
         <v>20</v>
       </c>
       <c r="Q20" s="4"/>
@@ -26219,14 +26539,14 @@
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="26" t="s">
+      <c r="P21" s="23" t="s">
         <v>22</v>
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="U21" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="AC21" s="5"/>
       <c r="AD21" s="4"/>
@@ -26267,14 +26587,14 @@
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="26" t="s">
-        <v>24</v>
+      <c r="P22" s="23" t="s">
+        <v>23</v>
       </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
       <c r="U22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC22" s="5"/>
       <c r="AD22" s="4"/>
@@ -26315,8 +26635,8 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="26" t="s">
-        <v>26</v>
+      <c r="P23" s="23" t="s">
+        <v>25</v>
       </c>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
@@ -26399,23 +26719,23 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="26"/>
+      <c r="P25" s="23"/>
       <c r="Q25" s="4"/>
-      <c r="R25" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="S25" s="22"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="V25" s="22"/>
-      <c r="W25" s="23"/>
-      <c r="X25" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y25" s="23"/>
-      <c r="Z25" s="24"/>
+      <c r="R25" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="S25" s="36"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="V25" s="36"/>
+      <c r="W25" s="35"/>
+      <c r="X25" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y25" s="35"/>
+      <c r="Z25" s="34"/>
       <c r="AC25" s="5"/>
       <c r="AD25" s="4"/>
       <c r="AE25" s="4"/>
@@ -26458,7 +26778,7 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="26"/>
+      <c r="P26" s="23"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>

--- a/総合演習資料/2.外部設計/画面設計図.xlsx
+++ b/総合演習資料/2.外部設計/画面設計図.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" firstSheet="3" activeTab="3"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7770" tabRatio="833" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン" sheetId="13" r:id="rId1"/>
@@ -1175,6 +1175,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1228,42 +1264,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2430,7 +2430,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1821140" cy="275717"/>
+    <xdr:ext cx="1923604" cy="275717"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="17" name="テキスト ボックス 16"/>
@@ -2439,7 +2439,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6534150" y="1047750"/>
-          <a:ext cx="1821140" cy="275717"/>
+          <a:ext cx="1923604" cy="275717"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2476,11 +2476,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>ユーザー　：　○○　○○様</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t> </a:t>
+            <a:t>ユーザー　：　○○　○○さん</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -8643,7 +8639,7 @@
   <dimension ref="B1:BB33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG17" sqref="AG17"/>
+      <selection activeCell="U17" sqref="U17:AB17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8692,244 +8688,244 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="41" t="s">
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="41"/>
-      <c r="AO2" s="41"/>
-      <c r="AP2" s="42"/>
-      <c r="AQ2" s="61" t="s">
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53"/>
+      <c r="AP2" s="54"/>
+      <c r="AQ2" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="AR2" s="58"/>
-      <c r="AS2" s="58"/>
-      <c r="AT2" s="58"/>
-      <c r="AU2" s="58">
+      <c r="AR2" s="41"/>
+      <c r="AS2" s="41"/>
+      <c r="AT2" s="41"/>
+      <c r="AU2" s="41">
         <v>1</v>
       </c>
-      <c r="AV2" s="59"/>
-      <c r="AW2" s="58" t="s">
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="58"/>
-      <c r="AY2" s="58"/>
-      <c r="AZ2" s="58"/>
-      <c r="BA2" s="58">
+      <c r="AX2" s="41"/>
+      <c r="AY2" s="41"/>
+      <c r="AZ2" s="41"/>
+      <c r="BA2" s="41">
         <v>1</v>
       </c>
-      <c r="BB2" s="59"/>
+      <c r="BB2" s="42"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="43"/>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="43"/>
-      <c r="AP3" s="44"/>
-      <c r="AQ3" s="56" t="s">
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="55"/>
+      <c r="Z3" s="55"/>
+      <c r="AA3" s="55"/>
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="55"/>
+      <c r="AD3" s="55"/>
+      <c r="AE3" s="55"/>
+      <c r="AF3" s="55"/>
+      <c r="AG3" s="55"/>
+      <c r="AH3" s="55"/>
+      <c r="AI3" s="55"/>
+      <c r="AJ3" s="55"/>
+      <c r="AK3" s="55"/>
+      <c r="AL3" s="55"/>
+      <c r="AM3" s="55"/>
+      <c r="AN3" s="55"/>
+      <c r="AO3" s="55"/>
+      <c r="AP3" s="56"/>
+      <c r="AQ3" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="AR3" s="57"/>
-      <c r="AS3" s="57"/>
-      <c r="AT3" s="57"/>
-      <c r="AU3" s="57"/>
-      <c r="AV3" s="60"/>
-      <c r="AW3" s="57"/>
-      <c r="AX3" s="57"/>
-      <c r="AY3" s="57"/>
-      <c r="AZ3" s="57"/>
-      <c r="BA3" s="57"/>
-      <c r="BB3" s="60"/>
+      <c r="AR3" s="40"/>
+      <c r="AS3" s="40"/>
+      <c r="AT3" s="40"/>
+      <c r="AU3" s="40"/>
+      <c r="AV3" s="43"/>
+      <c r="AW3" s="40"/>
+      <c r="AX3" s="40"/>
+      <c r="AY3" s="40"/>
+      <c r="AZ3" s="40"/>
+      <c r="BA3" s="40"/>
+      <c r="BB3" s="43"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
-      <c r="AH4" s="43"/>
-      <c r="AI4" s="43"/>
-      <c r="AJ4" s="43"/>
-      <c r="AK4" s="43"/>
-      <c r="AL4" s="43"/>
-      <c r="AM4" s="43"/>
-      <c r="AN4" s="43"/>
-      <c r="AO4" s="43"/>
-      <c r="AP4" s="44"/>
-      <c r="AQ4" s="61" t="s">
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="64"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="55"/>
+      <c r="AB4" s="55"/>
+      <c r="AC4" s="55"/>
+      <c r="AD4" s="55"/>
+      <c r="AE4" s="55"/>
+      <c r="AF4" s="55"/>
+      <c r="AG4" s="55"/>
+      <c r="AH4" s="55"/>
+      <c r="AI4" s="55"/>
+      <c r="AJ4" s="55"/>
+      <c r="AK4" s="55"/>
+      <c r="AL4" s="55"/>
+      <c r="AM4" s="55"/>
+      <c r="AN4" s="55"/>
+      <c r="AO4" s="55"/>
+      <c r="AP4" s="56"/>
+      <c r="AQ4" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="58"/>
-      <c r="AS4" s="58"/>
-      <c r="AT4" s="58"/>
-      <c r="AU4" s="62">
+      <c r="AR4" s="41"/>
+      <c r="AS4" s="41"/>
+      <c r="AT4" s="41"/>
+      <c r="AU4" s="45">
         <v>43031</v>
       </c>
-      <c r="AV4" s="63"/>
-      <c r="AW4" s="63"/>
-      <c r="AX4" s="63"/>
-      <c r="AY4" s="63"/>
-      <c r="AZ4" s="63"/>
-      <c r="BA4" s="63"/>
-      <c r="BB4" s="64"/>
+      <c r="AV4" s="46"/>
+      <c r="AW4" s="46"/>
+      <c r="AX4" s="46"/>
+      <c r="AY4" s="46"/>
+      <c r="AZ4" s="46"/>
+      <c r="BA4" s="46"/>
+      <c r="BB4" s="47"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="53"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="45"/>
-      <c r="AD5" s="45"/>
-      <c r="AE5" s="45"/>
-      <c r="AF5" s="45"/>
-      <c r="AG5" s="45"/>
-      <c r="AH5" s="45"/>
-      <c r="AI5" s="45"/>
-      <c r="AJ5" s="45"/>
-      <c r="AK5" s="45"/>
-      <c r="AL5" s="45"/>
-      <c r="AM5" s="45"/>
-      <c r="AN5" s="45"/>
-      <c r="AO5" s="45"/>
-      <c r="AP5" s="46"/>
-      <c r="AQ5" s="56"/>
-      <c r="AR5" s="57"/>
-      <c r="AS5" s="57"/>
-      <c r="AT5" s="57"/>
-      <c r="AU5" s="65"/>
-      <c r="AV5" s="65"/>
-      <c r="AW5" s="65"/>
-      <c r="AX5" s="65"/>
-      <c r="AY5" s="65"/>
-      <c r="AZ5" s="65"/>
-      <c r="BA5" s="65"/>
-      <c r="BB5" s="66"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="67"/>
+      <c r="W5" s="57"/>
+      <c r="X5" s="57"/>
+      <c r="Y5" s="57"/>
+      <c r="Z5" s="57"/>
+      <c r="AA5" s="57"/>
+      <c r="AB5" s="57"/>
+      <c r="AC5" s="57"/>
+      <c r="AD5" s="57"/>
+      <c r="AE5" s="57"/>
+      <c r="AF5" s="57"/>
+      <c r="AG5" s="57"/>
+      <c r="AH5" s="57"/>
+      <c r="AI5" s="57"/>
+      <c r="AJ5" s="57"/>
+      <c r="AK5" s="57"/>
+      <c r="AL5" s="57"/>
+      <c r="AM5" s="57"/>
+      <c r="AN5" s="57"/>
+      <c r="AO5" s="57"/>
+      <c r="AP5" s="58"/>
+      <c r="AQ5" s="39"/>
+      <c r="AR5" s="40"/>
+      <c r="AS5" s="40"/>
+      <c r="AT5" s="40"/>
+      <c r="AU5" s="48"/>
+      <c r="AV5" s="48"/>
+      <c r="AW5" s="48"/>
+      <c r="AX5" s="48"/>
+      <c r="AY5" s="48"/>
+      <c r="AZ5" s="48"/>
+      <c r="BA5" s="48"/>
+      <c r="BB5" s="49"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -9364,14 +9360,14 @@
       <c r="R15" s="29"/>
       <c r="S15" s="29"/>
       <c r="T15" s="37"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="39"/>
-      <c r="W15" s="39"/>
-      <c r="X15" s="39"/>
-      <c r="Y15" s="39"/>
-      <c r="Z15" s="39"/>
-      <c r="AA15" s="39"/>
-      <c r="AB15" s="40"/>
+      <c r="U15" s="50"/>
+      <c r="V15" s="51"/>
+      <c r="W15" s="51"/>
+      <c r="X15" s="51"/>
+      <c r="Y15" s="51"/>
+      <c r="Z15" s="51"/>
+      <c r="AA15" s="51"/>
+      <c r="AB15" s="52"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="3"/>
       <c r="AG15" s="4"/>
@@ -9463,14 +9459,14 @@
       <c r="R17" s="20"/>
       <c r="S17" s="20"/>
       <c r="T17" s="21"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="39"/>
-      <c r="W17" s="39"/>
-      <c r="X17" s="39"/>
-      <c r="Y17" s="39"/>
-      <c r="Z17" s="39"/>
-      <c r="AA17" s="39"/>
-      <c r="AB17" s="40"/>
+      <c r="U17" s="50"/>
+      <c r="V17" s="51"/>
+      <c r="W17" s="51"/>
+      <c r="X17" s="51"/>
+      <c r="Y17" s="51"/>
+      <c r="Z17" s="51"/>
+      <c r="AA17" s="51"/>
+      <c r="AB17" s="52"/>
       <c r="AC17" s="5"/>
       <c r="AD17" s="3"/>
       <c r="AH17" s="4"/>
@@ -10314,6 +10310,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="U15:AB15"/>
+    <mergeCell ref="U17:AB17"/>
+    <mergeCell ref="W2:AP2"/>
+    <mergeCell ref="W3:AP5"/>
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="B3:V5"/>
     <mergeCell ref="AQ3:AT3"/>
     <mergeCell ref="AU2:AV3"/>
     <mergeCell ref="AQ4:AT5"/>
@@ -10321,12 +10323,6 @@
     <mergeCell ref="BA2:BB3"/>
     <mergeCell ref="AW2:AZ3"/>
     <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="U15:AB15"/>
-    <mergeCell ref="U17:AB17"/>
-    <mergeCell ref="W2:AP2"/>
-    <mergeCell ref="W3:AP5"/>
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="B3:V5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10339,7 +10335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB33"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="F9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="AR8" sqref="AR8:AZ12"/>
     </sheetView>
   </sheetViews>
@@ -10389,244 +10385,244 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="41" t="s">
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="41"/>
-      <c r="AO2" s="41"/>
-      <c r="AP2" s="42"/>
-      <c r="AQ2" s="61" t="s">
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53"/>
+      <c r="AP2" s="54"/>
+      <c r="AQ2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="58"/>
-      <c r="AS2" s="58"/>
-      <c r="AT2" s="58"/>
-      <c r="AU2" s="58">
+      <c r="AR2" s="41"/>
+      <c r="AS2" s="41"/>
+      <c r="AT2" s="41"/>
+      <c r="AU2" s="41">
         <v>1</v>
       </c>
-      <c r="AV2" s="59"/>
-      <c r="AW2" s="58" t="s">
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="58"/>
-      <c r="AY2" s="58"/>
-      <c r="AZ2" s="58"/>
-      <c r="BA2" s="58">
+      <c r="AX2" s="41"/>
+      <c r="AY2" s="41"/>
+      <c r="AZ2" s="41"/>
+      <c r="BA2" s="41">
         <v>10</v>
       </c>
-      <c r="BB2" s="59"/>
+      <c r="BB2" s="42"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="43"/>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="43"/>
-      <c r="AP3" s="44"/>
-      <c r="AQ3" s="56" t="s">
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="55"/>
+      <c r="Z3" s="55"/>
+      <c r="AA3" s="55"/>
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="55"/>
+      <c r="AD3" s="55"/>
+      <c r="AE3" s="55"/>
+      <c r="AF3" s="55"/>
+      <c r="AG3" s="55"/>
+      <c r="AH3" s="55"/>
+      <c r="AI3" s="55"/>
+      <c r="AJ3" s="55"/>
+      <c r="AK3" s="55"/>
+      <c r="AL3" s="55"/>
+      <c r="AM3" s="55"/>
+      <c r="AN3" s="55"/>
+      <c r="AO3" s="55"/>
+      <c r="AP3" s="56"/>
+      <c r="AQ3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AR3" s="57"/>
-      <c r="AS3" s="57"/>
-      <c r="AT3" s="57"/>
-      <c r="AU3" s="57"/>
-      <c r="AV3" s="60"/>
-      <c r="AW3" s="57"/>
-      <c r="AX3" s="57"/>
-      <c r="AY3" s="57"/>
-      <c r="AZ3" s="57"/>
-      <c r="BA3" s="57"/>
-      <c r="BB3" s="60"/>
+      <c r="AR3" s="40"/>
+      <c r="AS3" s="40"/>
+      <c r="AT3" s="40"/>
+      <c r="AU3" s="40"/>
+      <c r="AV3" s="43"/>
+      <c r="AW3" s="40"/>
+      <c r="AX3" s="40"/>
+      <c r="AY3" s="40"/>
+      <c r="AZ3" s="40"/>
+      <c r="BA3" s="40"/>
+      <c r="BB3" s="43"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
-      <c r="AH4" s="43"/>
-      <c r="AI4" s="43"/>
-      <c r="AJ4" s="43"/>
-      <c r="AK4" s="43"/>
-      <c r="AL4" s="43"/>
-      <c r="AM4" s="43"/>
-      <c r="AN4" s="43"/>
-      <c r="AO4" s="43"/>
-      <c r="AP4" s="44"/>
-      <c r="AQ4" s="61" t="s">
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="64"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="55"/>
+      <c r="AB4" s="55"/>
+      <c r="AC4" s="55"/>
+      <c r="AD4" s="55"/>
+      <c r="AE4" s="55"/>
+      <c r="AF4" s="55"/>
+      <c r="AG4" s="55"/>
+      <c r="AH4" s="55"/>
+      <c r="AI4" s="55"/>
+      <c r="AJ4" s="55"/>
+      <c r="AK4" s="55"/>
+      <c r="AL4" s="55"/>
+      <c r="AM4" s="55"/>
+      <c r="AN4" s="55"/>
+      <c r="AO4" s="55"/>
+      <c r="AP4" s="56"/>
+      <c r="AQ4" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="58"/>
-      <c r="AS4" s="58"/>
-      <c r="AT4" s="58"/>
-      <c r="AU4" s="62">
+      <c r="AR4" s="41"/>
+      <c r="AS4" s="41"/>
+      <c r="AT4" s="41"/>
+      <c r="AU4" s="45">
         <v>43032</v>
       </c>
-      <c r="AV4" s="63"/>
-      <c r="AW4" s="63"/>
-      <c r="AX4" s="63"/>
-      <c r="AY4" s="63"/>
-      <c r="AZ4" s="63"/>
-      <c r="BA4" s="63"/>
-      <c r="BB4" s="64"/>
+      <c r="AV4" s="46"/>
+      <c r="AW4" s="46"/>
+      <c r="AX4" s="46"/>
+      <c r="AY4" s="46"/>
+      <c r="AZ4" s="46"/>
+      <c r="BA4" s="46"/>
+      <c r="BB4" s="47"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="53"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="45"/>
-      <c r="AD5" s="45"/>
-      <c r="AE5" s="45"/>
-      <c r="AF5" s="45"/>
-      <c r="AG5" s="45"/>
-      <c r="AH5" s="45"/>
-      <c r="AI5" s="45"/>
-      <c r="AJ5" s="45"/>
-      <c r="AK5" s="45"/>
-      <c r="AL5" s="45"/>
-      <c r="AM5" s="45"/>
-      <c r="AN5" s="45"/>
-      <c r="AO5" s="45"/>
-      <c r="AP5" s="46"/>
-      <c r="AQ5" s="56"/>
-      <c r="AR5" s="57"/>
-      <c r="AS5" s="57"/>
-      <c r="AT5" s="57"/>
-      <c r="AU5" s="65"/>
-      <c r="AV5" s="65"/>
-      <c r="AW5" s="65"/>
-      <c r="AX5" s="65"/>
-      <c r="AY5" s="65"/>
-      <c r="AZ5" s="65"/>
-      <c r="BA5" s="65"/>
-      <c r="BB5" s="66"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="67"/>
+      <c r="W5" s="57"/>
+      <c r="X5" s="57"/>
+      <c r="Y5" s="57"/>
+      <c r="Z5" s="57"/>
+      <c r="AA5" s="57"/>
+      <c r="AB5" s="57"/>
+      <c r="AC5" s="57"/>
+      <c r="AD5" s="57"/>
+      <c r="AE5" s="57"/>
+      <c r="AF5" s="57"/>
+      <c r="AG5" s="57"/>
+      <c r="AH5" s="57"/>
+      <c r="AI5" s="57"/>
+      <c r="AJ5" s="57"/>
+      <c r="AK5" s="57"/>
+      <c r="AL5" s="57"/>
+      <c r="AM5" s="57"/>
+      <c r="AN5" s="57"/>
+      <c r="AO5" s="57"/>
+      <c r="AP5" s="58"/>
+      <c r="AQ5" s="39"/>
+      <c r="AR5" s="40"/>
+      <c r="AS5" s="40"/>
+      <c r="AT5" s="40"/>
+      <c r="AU5" s="48"/>
+      <c r="AV5" s="48"/>
+      <c r="AW5" s="48"/>
+      <c r="AX5" s="48"/>
+      <c r="AY5" s="48"/>
+      <c r="AZ5" s="48"/>
+      <c r="BA5" s="48"/>
+      <c r="BB5" s="49"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -10780,7 +10776,7 @@
       <c r="AO8" s="15"/>
       <c r="AP8" s="15"/>
       <c r="AQ8" s="3"/>
-      <c r="AR8" s="67" t="s">
+      <c r="AR8" s="38" t="s">
         <v>56</v>
       </c>
       <c r="AS8" s="4"/>
@@ -10833,7 +10829,7 @@
       <c r="AO9" s="15"/>
       <c r="AP9" s="15"/>
       <c r="AQ9" s="3"/>
-      <c r="AR9" s="67" t="s">
+      <c r="AR9" s="38" t="s">
         <v>57</v>
       </c>
       <c r="AS9" s="4"/>
@@ -10971,7 +10967,7 @@
       <c r="AO12" s="4"/>
       <c r="AP12" s="4"/>
       <c r="AQ12" s="3"/>
-      <c r="AR12" s="67"/>
+      <c r="AR12" s="38"/>
       <c r="AS12" s="4"/>
       <c r="AT12" s="4"/>
       <c r="AU12" s="4"/>
@@ -11962,7 +11958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB33"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AR8" sqref="AR8:AZ12"/>
     </sheetView>
   </sheetViews>
@@ -12012,244 +12008,244 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="41" t="s">
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="41"/>
-      <c r="AO2" s="41"/>
-      <c r="AP2" s="42"/>
-      <c r="AQ2" s="61" t="s">
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53"/>
+      <c r="AP2" s="54"/>
+      <c r="AQ2" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="AR2" s="58"/>
-      <c r="AS2" s="58"/>
-      <c r="AT2" s="58"/>
-      <c r="AU2" s="58">
+      <c r="AR2" s="41"/>
+      <c r="AS2" s="41"/>
+      <c r="AT2" s="41"/>
+      <c r="AU2" s="41">
         <v>1</v>
       </c>
-      <c r="AV2" s="59"/>
-      <c r="AW2" s="58" t="s">
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="AX2" s="58"/>
-      <c r="AY2" s="58"/>
-      <c r="AZ2" s="58"/>
-      <c r="BA2" s="58">
+      <c r="AX2" s="41"/>
+      <c r="AY2" s="41"/>
+      <c r="AZ2" s="41"/>
+      <c r="BA2" s="41">
         <v>11</v>
       </c>
-      <c r="BB2" s="59"/>
+      <c r="BB2" s="42"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="43"/>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="43"/>
-      <c r="AP3" s="44"/>
-      <c r="AQ3" s="56" t="s">
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="55"/>
+      <c r="Z3" s="55"/>
+      <c r="AA3" s="55"/>
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="55"/>
+      <c r="AD3" s="55"/>
+      <c r="AE3" s="55"/>
+      <c r="AF3" s="55"/>
+      <c r="AG3" s="55"/>
+      <c r="AH3" s="55"/>
+      <c r="AI3" s="55"/>
+      <c r="AJ3" s="55"/>
+      <c r="AK3" s="55"/>
+      <c r="AL3" s="55"/>
+      <c r="AM3" s="55"/>
+      <c r="AN3" s="55"/>
+      <c r="AO3" s="55"/>
+      <c r="AP3" s="56"/>
+      <c r="AQ3" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="AR3" s="57"/>
-      <c r="AS3" s="57"/>
-      <c r="AT3" s="57"/>
-      <c r="AU3" s="57"/>
-      <c r="AV3" s="60"/>
-      <c r="AW3" s="57"/>
-      <c r="AX3" s="57"/>
-      <c r="AY3" s="57"/>
-      <c r="AZ3" s="57"/>
-      <c r="BA3" s="57"/>
-      <c r="BB3" s="60"/>
+      <c r="AR3" s="40"/>
+      <c r="AS3" s="40"/>
+      <c r="AT3" s="40"/>
+      <c r="AU3" s="40"/>
+      <c r="AV3" s="43"/>
+      <c r="AW3" s="40"/>
+      <c r="AX3" s="40"/>
+      <c r="AY3" s="40"/>
+      <c r="AZ3" s="40"/>
+      <c r="BA3" s="40"/>
+      <c r="BB3" s="43"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
-      <c r="AH4" s="43"/>
-      <c r="AI4" s="43"/>
-      <c r="AJ4" s="43"/>
-      <c r="AK4" s="43"/>
-      <c r="AL4" s="43"/>
-      <c r="AM4" s="43"/>
-      <c r="AN4" s="43"/>
-      <c r="AO4" s="43"/>
-      <c r="AP4" s="44"/>
-      <c r="AQ4" s="61" t="s">
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="64"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="55"/>
+      <c r="AB4" s="55"/>
+      <c r="AC4" s="55"/>
+      <c r="AD4" s="55"/>
+      <c r="AE4" s="55"/>
+      <c r="AF4" s="55"/>
+      <c r="AG4" s="55"/>
+      <c r="AH4" s="55"/>
+      <c r="AI4" s="55"/>
+      <c r="AJ4" s="55"/>
+      <c r="AK4" s="55"/>
+      <c r="AL4" s="55"/>
+      <c r="AM4" s="55"/>
+      <c r="AN4" s="55"/>
+      <c r="AO4" s="55"/>
+      <c r="AP4" s="56"/>
+      <c r="AQ4" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="58"/>
-      <c r="AS4" s="58"/>
-      <c r="AT4" s="58"/>
-      <c r="AU4" s="62">
+      <c r="AR4" s="41"/>
+      <c r="AS4" s="41"/>
+      <c r="AT4" s="41"/>
+      <c r="AU4" s="45">
         <v>43032</v>
       </c>
-      <c r="AV4" s="63"/>
-      <c r="AW4" s="63"/>
-      <c r="AX4" s="63"/>
-      <c r="AY4" s="63"/>
-      <c r="AZ4" s="63"/>
-      <c r="BA4" s="63"/>
-      <c r="BB4" s="64"/>
+      <c r="AV4" s="46"/>
+      <c r="AW4" s="46"/>
+      <c r="AX4" s="46"/>
+      <c r="AY4" s="46"/>
+      <c r="AZ4" s="46"/>
+      <c r="BA4" s="46"/>
+      <c r="BB4" s="47"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="53"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="45"/>
-      <c r="AD5" s="45"/>
-      <c r="AE5" s="45"/>
-      <c r="AF5" s="45"/>
-      <c r="AG5" s="45"/>
-      <c r="AH5" s="45"/>
-      <c r="AI5" s="45"/>
-      <c r="AJ5" s="45"/>
-      <c r="AK5" s="45"/>
-      <c r="AL5" s="45"/>
-      <c r="AM5" s="45"/>
-      <c r="AN5" s="45"/>
-      <c r="AO5" s="45"/>
-      <c r="AP5" s="46"/>
-      <c r="AQ5" s="56"/>
-      <c r="AR5" s="57"/>
-      <c r="AS5" s="57"/>
-      <c r="AT5" s="57"/>
-      <c r="AU5" s="65"/>
-      <c r="AV5" s="65"/>
-      <c r="AW5" s="65"/>
-      <c r="AX5" s="65"/>
-      <c r="AY5" s="65"/>
-      <c r="AZ5" s="65"/>
-      <c r="BA5" s="65"/>
-      <c r="BB5" s="66"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="67"/>
+      <c r="W5" s="57"/>
+      <c r="X5" s="57"/>
+      <c r="Y5" s="57"/>
+      <c r="Z5" s="57"/>
+      <c r="AA5" s="57"/>
+      <c r="AB5" s="57"/>
+      <c r="AC5" s="57"/>
+      <c r="AD5" s="57"/>
+      <c r="AE5" s="57"/>
+      <c r="AF5" s="57"/>
+      <c r="AG5" s="57"/>
+      <c r="AH5" s="57"/>
+      <c r="AI5" s="57"/>
+      <c r="AJ5" s="57"/>
+      <c r="AK5" s="57"/>
+      <c r="AL5" s="57"/>
+      <c r="AM5" s="57"/>
+      <c r="AN5" s="57"/>
+      <c r="AO5" s="57"/>
+      <c r="AP5" s="58"/>
+      <c r="AQ5" s="39"/>
+      <c r="AR5" s="40"/>
+      <c r="AS5" s="40"/>
+      <c r="AT5" s="40"/>
+      <c r="AU5" s="48"/>
+      <c r="AV5" s="48"/>
+      <c r="AW5" s="48"/>
+      <c r="AX5" s="48"/>
+      <c r="AY5" s="48"/>
+      <c r="AZ5" s="48"/>
+      <c r="BA5" s="48"/>
+      <c r="BB5" s="49"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -12547,7 +12543,7 @@
       <c r="AO11" s="4"/>
       <c r="AP11" s="4"/>
       <c r="AQ11" s="3"/>
-      <c r="AR11" s="67" t="s">
+      <c r="AR11" s="38" t="s">
         <v>56</v>
       </c>
       <c r="AS11" s="4"/>
@@ -12595,7 +12591,7 @@
       <c r="AO12" s="4"/>
       <c r="AP12" s="4"/>
       <c r="AQ12" s="3"/>
-      <c r="AR12" s="67" t="s">
+      <c r="AR12" s="38" t="s">
         <v>57</v>
       </c>
       <c r="AS12" s="4"/>
@@ -13597,8 +13593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AR21" sqref="AR21"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13647,244 +13643,244 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="41" t="s">
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="41"/>
-      <c r="AO2" s="41"/>
-      <c r="AP2" s="42"/>
-      <c r="AQ2" s="61" t="s">
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53"/>
+      <c r="AP2" s="54"/>
+      <c r="AQ2" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="AR2" s="58"/>
-      <c r="AS2" s="58"/>
-      <c r="AT2" s="58"/>
-      <c r="AU2" s="58">
+      <c r="AR2" s="41"/>
+      <c r="AS2" s="41"/>
+      <c r="AT2" s="41"/>
+      <c r="AU2" s="41">
         <v>1</v>
       </c>
-      <c r="AV2" s="59"/>
-      <c r="AW2" s="58" t="s">
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="58"/>
-      <c r="AY2" s="58"/>
-      <c r="AZ2" s="58"/>
-      <c r="BA2" s="58">
+      <c r="AX2" s="41"/>
+      <c r="AY2" s="41"/>
+      <c r="AZ2" s="41"/>
+      <c r="BA2" s="41">
         <v>2</v>
       </c>
-      <c r="BB2" s="59"/>
+      <c r="BB2" s="42"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="43"/>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="43"/>
-      <c r="AP3" s="44"/>
-      <c r="AQ3" s="56" t="s">
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="55"/>
+      <c r="Z3" s="55"/>
+      <c r="AA3" s="55"/>
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="55"/>
+      <c r="AD3" s="55"/>
+      <c r="AE3" s="55"/>
+      <c r="AF3" s="55"/>
+      <c r="AG3" s="55"/>
+      <c r="AH3" s="55"/>
+      <c r="AI3" s="55"/>
+      <c r="AJ3" s="55"/>
+      <c r="AK3" s="55"/>
+      <c r="AL3" s="55"/>
+      <c r="AM3" s="55"/>
+      <c r="AN3" s="55"/>
+      <c r="AO3" s="55"/>
+      <c r="AP3" s="56"/>
+      <c r="AQ3" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="AR3" s="57"/>
-      <c r="AS3" s="57"/>
-      <c r="AT3" s="57"/>
-      <c r="AU3" s="57"/>
-      <c r="AV3" s="60"/>
-      <c r="AW3" s="57"/>
-      <c r="AX3" s="57"/>
-      <c r="AY3" s="57"/>
-      <c r="AZ3" s="57"/>
-      <c r="BA3" s="57"/>
-      <c r="BB3" s="60"/>
+      <c r="AR3" s="40"/>
+      <c r="AS3" s="40"/>
+      <c r="AT3" s="40"/>
+      <c r="AU3" s="40"/>
+      <c r="AV3" s="43"/>
+      <c r="AW3" s="40"/>
+      <c r="AX3" s="40"/>
+      <c r="AY3" s="40"/>
+      <c r="AZ3" s="40"/>
+      <c r="BA3" s="40"/>
+      <c r="BB3" s="43"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
-      <c r="AH4" s="43"/>
-      <c r="AI4" s="43"/>
-      <c r="AJ4" s="43"/>
-      <c r="AK4" s="43"/>
-      <c r="AL4" s="43"/>
-      <c r="AM4" s="43"/>
-      <c r="AN4" s="43"/>
-      <c r="AO4" s="43"/>
-      <c r="AP4" s="44"/>
-      <c r="AQ4" s="61" t="s">
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="64"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="55"/>
+      <c r="AB4" s="55"/>
+      <c r="AC4" s="55"/>
+      <c r="AD4" s="55"/>
+      <c r="AE4" s="55"/>
+      <c r="AF4" s="55"/>
+      <c r="AG4" s="55"/>
+      <c r="AH4" s="55"/>
+      <c r="AI4" s="55"/>
+      <c r="AJ4" s="55"/>
+      <c r="AK4" s="55"/>
+      <c r="AL4" s="55"/>
+      <c r="AM4" s="55"/>
+      <c r="AN4" s="55"/>
+      <c r="AO4" s="55"/>
+      <c r="AP4" s="56"/>
+      <c r="AQ4" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="58"/>
-      <c r="AS4" s="58"/>
-      <c r="AT4" s="58"/>
-      <c r="AU4" s="62">
+      <c r="AR4" s="41"/>
+      <c r="AS4" s="41"/>
+      <c r="AT4" s="41"/>
+      <c r="AU4" s="45">
         <v>43032</v>
       </c>
-      <c r="AV4" s="63"/>
-      <c r="AW4" s="63"/>
-      <c r="AX4" s="63"/>
-      <c r="AY4" s="63"/>
-      <c r="AZ4" s="63"/>
-      <c r="BA4" s="63"/>
-      <c r="BB4" s="64"/>
+      <c r="AV4" s="46"/>
+      <c r="AW4" s="46"/>
+      <c r="AX4" s="46"/>
+      <c r="AY4" s="46"/>
+      <c r="AZ4" s="46"/>
+      <c r="BA4" s="46"/>
+      <c r="BB4" s="47"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="53"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="45"/>
-      <c r="AD5" s="45"/>
-      <c r="AE5" s="45"/>
-      <c r="AF5" s="45"/>
-      <c r="AG5" s="45"/>
-      <c r="AH5" s="45"/>
-      <c r="AI5" s="45"/>
-      <c r="AJ5" s="45"/>
-      <c r="AK5" s="45"/>
-      <c r="AL5" s="45"/>
-      <c r="AM5" s="45"/>
-      <c r="AN5" s="45"/>
-      <c r="AO5" s="45"/>
-      <c r="AP5" s="46"/>
-      <c r="AQ5" s="56"/>
-      <c r="AR5" s="57"/>
-      <c r="AS5" s="57"/>
-      <c r="AT5" s="57"/>
-      <c r="AU5" s="65"/>
-      <c r="AV5" s="65"/>
-      <c r="AW5" s="65"/>
-      <c r="AX5" s="65"/>
-      <c r="AY5" s="65"/>
-      <c r="AZ5" s="65"/>
-      <c r="BA5" s="65"/>
-      <c r="BB5" s="66"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="67"/>
+      <c r="W5" s="57"/>
+      <c r="X5" s="57"/>
+      <c r="Y5" s="57"/>
+      <c r="Z5" s="57"/>
+      <c r="AA5" s="57"/>
+      <c r="AB5" s="57"/>
+      <c r="AC5" s="57"/>
+      <c r="AD5" s="57"/>
+      <c r="AE5" s="57"/>
+      <c r="AF5" s="57"/>
+      <c r="AG5" s="57"/>
+      <c r="AH5" s="57"/>
+      <c r="AI5" s="57"/>
+      <c r="AJ5" s="57"/>
+      <c r="AK5" s="57"/>
+      <c r="AL5" s="57"/>
+      <c r="AM5" s="57"/>
+      <c r="AN5" s="57"/>
+      <c r="AO5" s="57"/>
+      <c r="AP5" s="58"/>
+      <c r="AQ5" s="39"/>
+      <c r="AR5" s="40"/>
+      <c r="AS5" s="40"/>
+      <c r="AT5" s="40"/>
+      <c r="AU5" s="48"/>
+      <c r="AV5" s="48"/>
+      <c r="AW5" s="48"/>
+      <c r="AX5" s="48"/>
+      <c r="AY5" s="48"/>
+      <c r="AZ5" s="48"/>
+      <c r="BA5" s="48"/>
+      <c r="BB5" s="49"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -15305,8 +15301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AR32" sqref="AR32"/>
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7:AE8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15355,244 +15351,244 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="41" t="s">
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="41"/>
-      <c r="AO2" s="41"/>
-      <c r="AP2" s="42"/>
-      <c r="AQ2" s="61" t="s">
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53"/>
+      <c r="AP2" s="54"/>
+      <c r="AQ2" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="AR2" s="58"/>
-      <c r="AS2" s="58"/>
-      <c r="AT2" s="58"/>
-      <c r="AU2" s="58">
+      <c r="AR2" s="41"/>
+      <c r="AS2" s="41"/>
+      <c r="AT2" s="41"/>
+      <c r="AU2" s="41">
         <v>1</v>
       </c>
-      <c r="AV2" s="59"/>
-      <c r="AW2" s="58" t="s">
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="58"/>
-      <c r="AY2" s="58"/>
-      <c r="AZ2" s="58"/>
-      <c r="BA2" s="58">
+      <c r="AX2" s="41"/>
+      <c r="AY2" s="41"/>
+      <c r="AZ2" s="41"/>
+      <c r="BA2" s="41">
         <v>3</v>
       </c>
-      <c r="BB2" s="59"/>
+      <c r="BB2" s="42"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="43"/>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="43"/>
-      <c r="AP3" s="44"/>
-      <c r="AQ3" s="56" t="s">
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="55"/>
+      <c r="Z3" s="55"/>
+      <c r="AA3" s="55"/>
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="55"/>
+      <c r="AD3" s="55"/>
+      <c r="AE3" s="55"/>
+      <c r="AF3" s="55"/>
+      <c r="AG3" s="55"/>
+      <c r="AH3" s="55"/>
+      <c r="AI3" s="55"/>
+      <c r="AJ3" s="55"/>
+      <c r="AK3" s="55"/>
+      <c r="AL3" s="55"/>
+      <c r="AM3" s="55"/>
+      <c r="AN3" s="55"/>
+      <c r="AO3" s="55"/>
+      <c r="AP3" s="56"/>
+      <c r="AQ3" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="AR3" s="57"/>
-      <c r="AS3" s="57"/>
-      <c r="AT3" s="57"/>
-      <c r="AU3" s="57"/>
-      <c r="AV3" s="60"/>
-      <c r="AW3" s="57"/>
-      <c r="AX3" s="57"/>
-      <c r="AY3" s="57"/>
-      <c r="AZ3" s="57"/>
-      <c r="BA3" s="57"/>
-      <c r="BB3" s="60"/>
+      <c r="AR3" s="40"/>
+      <c r="AS3" s="40"/>
+      <c r="AT3" s="40"/>
+      <c r="AU3" s="40"/>
+      <c r="AV3" s="43"/>
+      <c r="AW3" s="40"/>
+      <c r="AX3" s="40"/>
+      <c r="AY3" s="40"/>
+      <c r="AZ3" s="40"/>
+      <c r="BA3" s="40"/>
+      <c r="BB3" s="43"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
-      <c r="AH4" s="43"/>
-      <c r="AI4" s="43"/>
-      <c r="AJ4" s="43"/>
-      <c r="AK4" s="43"/>
-      <c r="AL4" s="43"/>
-      <c r="AM4" s="43"/>
-      <c r="AN4" s="43"/>
-      <c r="AO4" s="43"/>
-      <c r="AP4" s="44"/>
-      <c r="AQ4" s="61" t="s">
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="64"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="55"/>
+      <c r="AB4" s="55"/>
+      <c r="AC4" s="55"/>
+      <c r="AD4" s="55"/>
+      <c r="AE4" s="55"/>
+      <c r="AF4" s="55"/>
+      <c r="AG4" s="55"/>
+      <c r="AH4" s="55"/>
+      <c r="AI4" s="55"/>
+      <c r="AJ4" s="55"/>
+      <c r="AK4" s="55"/>
+      <c r="AL4" s="55"/>
+      <c r="AM4" s="55"/>
+      <c r="AN4" s="55"/>
+      <c r="AO4" s="55"/>
+      <c r="AP4" s="56"/>
+      <c r="AQ4" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="58"/>
-      <c r="AS4" s="58"/>
-      <c r="AT4" s="58"/>
-      <c r="AU4" s="62">
+      <c r="AR4" s="41"/>
+      <c r="AS4" s="41"/>
+      <c r="AT4" s="41"/>
+      <c r="AU4" s="45">
         <v>43032</v>
       </c>
-      <c r="AV4" s="63"/>
-      <c r="AW4" s="63"/>
-      <c r="AX4" s="63"/>
-      <c r="AY4" s="63"/>
-      <c r="AZ4" s="63"/>
-      <c r="BA4" s="63"/>
-      <c r="BB4" s="64"/>
+      <c r="AV4" s="46"/>
+      <c r="AW4" s="46"/>
+      <c r="AX4" s="46"/>
+      <c r="AY4" s="46"/>
+      <c r="AZ4" s="46"/>
+      <c r="BA4" s="46"/>
+      <c r="BB4" s="47"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="53"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="45"/>
-      <c r="AD5" s="45"/>
-      <c r="AE5" s="45"/>
-      <c r="AF5" s="45"/>
-      <c r="AG5" s="45"/>
-      <c r="AH5" s="45"/>
-      <c r="AI5" s="45"/>
-      <c r="AJ5" s="45"/>
-      <c r="AK5" s="45"/>
-      <c r="AL5" s="45"/>
-      <c r="AM5" s="45"/>
-      <c r="AN5" s="45"/>
-      <c r="AO5" s="45"/>
-      <c r="AP5" s="46"/>
-      <c r="AQ5" s="56"/>
-      <c r="AR5" s="57"/>
-      <c r="AS5" s="57"/>
-      <c r="AT5" s="57"/>
-      <c r="AU5" s="65"/>
-      <c r="AV5" s="65"/>
-      <c r="AW5" s="65"/>
-      <c r="AX5" s="65"/>
-      <c r="AY5" s="65"/>
-      <c r="AZ5" s="65"/>
-      <c r="BA5" s="65"/>
-      <c r="BB5" s="66"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="67"/>
+      <c r="W5" s="57"/>
+      <c r="X5" s="57"/>
+      <c r="Y5" s="57"/>
+      <c r="Z5" s="57"/>
+      <c r="AA5" s="57"/>
+      <c r="AB5" s="57"/>
+      <c r="AC5" s="57"/>
+      <c r="AD5" s="57"/>
+      <c r="AE5" s="57"/>
+      <c r="AF5" s="57"/>
+      <c r="AG5" s="57"/>
+      <c r="AH5" s="57"/>
+      <c r="AI5" s="57"/>
+      <c r="AJ5" s="57"/>
+      <c r="AK5" s="57"/>
+      <c r="AL5" s="57"/>
+      <c r="AM5" s="57"/>
+      <c r="AN5" s="57"/>
+      <c r="AO5" s="57"/>
+      <c r="AP5" s="58"/>
+      <c r="AQ5" s="39"/>
+      <c r="AR5" s="40"/>
+      <c r="AS5" s="40"/>
+      <c r="AT5" s="40"/>
+      <c r="AU5" s="48"/>
+      <c r="AV5" s="48"/>
+      <c r="AW5" s="48"/>
+      <c r="AX5" s="48"/>
+      <c r="AY5" s="48"/>
+      <c r="AZ5" s="48"/>
+      <c r="BA5" s="48"/>
+      <c r="BB5" s="49"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -17013,8 +17009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AR8" sqref="AR8:AZ12"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -17063,244 +17059,244 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="41" t="s">
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="41"/>
-      <c r="AO2" s="41"/>
-      <c r="AP2" s="42"/>
-      <c r="AQ2" s="61" t="s">
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53"/>
+      <c r="AP2" s="54"/>
+      <c r="AQ2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="58"/>
-      <c r="AS2" s="58"/>
-      <c r="AT2" s="58"/>
-      <c r="AU2" s="58">
+      <c r="AR2" s="41"/>
+      <c r="AS2" s="41"/>
+      <c r="AT2" s="41"/>
+      <c r="AU2" s="41">
         <v>1</v>
       </c>
-      <c r="AV2" s="59"/>
-      <c r="AW2" s="58" t="s">
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="58"/>
-      <c r="AY2" s="58"/>
-      <c r="AZ2" s="58"/>
-      <c r="BA2" s="58">
+      <c r="AX2" s="41"/>
+      <c r="AY2" s="41"/>
+      <c r="AZ2" s="41"/>
+      <c r="BA2" s="41">
         <v>4</v>
       </c>
-      <c r="BB2" s="59"/>
+      <c r="BB2" s="42"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="43"/>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="43"/>
-      <c r="AP3" s="44"/>
-      <c r="AQ3" s="56" t="s">
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="55"/>
+      <c r="Z3" s="55"/>
+      <c r="AA3" s="55"/>
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="55"/>
+      <c r="AD3" s="55"/>
+      <c r="AE3" s="55"/>
+      <c r="AF3" s="55"/>
+      <c r="AG3" s="55"/>
+      <c r="AH3" s="55"/>
+      <c r="AI3" s="55"/>
+      <c r="AJ3" s="55"/>
+      <c r="AK3" s="55"/>
+      <c r="AL3" s="55"/>
+      <c r="AM3" s="55"/>
+      <c r="AN3" s="55"/>
+      <c r="AO3" s="55"/>
+      <c r="AP3" s="56"/>
+      <c r="AQ3" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="AR3" s="57"/>
-      <c r="AS3" s="57"/>
-      <c r="AT3" s="57"/>
-      <c r="AU3" s="57"/>
-      <c r="AV3" s="60"/>
-      <c r="AW3" s="57"/>
-      <c r="AX3" s="57"/>
-      <c r="AY3" s="57"/>
-      <c r="AZ3" s="57"/>
-      <c r="BA3" s="57"/>
-      <c r="BB3" s="60"/>
+      <c r="AR3" s="40"/>
+      <c r="AS3" s="40"/>
+      <c r="AT3" s="40"/>
+      <c r="AU3" s="40"/>
+      <c r="AV3" s="43"/>
+      <c r="AW3" s="40"/>
+      <c r="AX3" s="40"/>
+      <c r="AY3" s="40"/>
+      <c r="AZ3" s="40"/>
+      <c r="BA3" s="40"/>
+      <c r="BB3" s="43"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
-      <c r="AH4" s="43"/>
-      <c r="AI4" s="43"/>
-      <c r="AJ4" s="43"/>
-      <c r="AK4" s="43"/>
-      <c r="AL4" s="43"/>
-      <c r="AM4" s="43"/>
-      <c r="AN4" s="43"/>
-      <c r="AO4" s="43"/>
-      <c r="AP4" s="44"/>
-      <c r="AQ4" s="61" t="s">
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="64"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="55"/>
+      <c r="AB4" s="55"/>
+      <c r="AC4" s="55"/>
+      <c r="AD4" s="55"/>
+      <c r="AE4" s="55"/>
+      <c r="AF4" s="55"/>
+      <c r="AG4" s="55"/>
+      <c r="AH4" s="55"/>
+      <c r="AI4" s="55"/>
+      <c r="AJ4" s="55"/>
+      <c r="AK4" s="55"/>
+      <c r="AL4" s="55"/>
+      <c r="AM4" s="55"/>
+      <c r="AN4" s="55"/>
+      <c r="AO4" s="55"/>
+      <c r="AP4" s="56"/>
+      <c r="AQ4" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="58"/>
-      <c r="AS4" s="58"/>
-      <c r="AT4" s="58"/>
-      <c r="AU4" s="62">
+      <c r="AR4" s="41"/>
+      <c r="AS4" s="41"/>
+      <c r="AT4" s="41"/>
+      <c r="AU4" s="45">
         <v>43032</v>
       </c>
-      <c r="AV4" s="63"/>
-      <c r="AW4" s="63"/>
-      <c r="AX4" s="63"/>
-      <c r="AY4" s="63"/>
-      <c r="AZ4" s="63"/>
-      <c r="BA4" s="63"/>
-      <c r="BB4" s="64"/>
+      <c r="AV4" s="46"/>
+      <c r="AW4" s="46"/>
+      <c r="AX4" s="46"/>
+      <c r="AY4" s="46"/>
+      <c r="AZ4" s="46"/>
+      <c r="BA4" s="46"/>
+      <c r="BB4" s="47"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="53"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="45"/>
-      <c r="AD5" s="45"/>
-      <c r="AE5" s="45"/>
-      <c r="AF5" s="45"/>
-      <c r="AG5" s="45"/>
-      <c r="AH5" s="45"/>
-      <c r="AI5" s="45"/>
-      <c r="AJ5" s="45"/>
-      <c r="AK5" s="45"/>
-      <c r="AL5" s="45"/>
-      <c r="AM5" s="45"/>
-      <c r="AN5" s="45"/>
-      <c r="AO5" s="45"/>
-      <c r="AP5" s="46"/>
-      <c r="AQ5" s="56"/>
-      <c r="AR5" s="57"/>
-      <c r="AS5" s="57"/>
-      <c r="AT5" s="57"/>
-      <c r="AU5" s="65"/>
-      <c r="AV5" s="65"/>
-      <c r="AW5" s="65"/>
-      <c r="AX5" s="65"/>
-      <c r="AY5" s="65"/>
-      <c r="AZ5" s="65"/>
-      <c r="BA5" s="65"/>
-      <c r="BB5" s="66"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="67"/>
+      <c r="W5" s="57"/>
+      <c r="X5" s="57"/>
+      <c r="Y5" s="57"/>
+      <c r="Z5" s="57"/>
+      <c r="AA5" s="57"/>
+      <c r="AB5" s="57"/>
+      <c r="AC5" s="57"/>
+      <c r="AD5" s="57"/>
+      <c r="AE5" s="57"/>
+      <c r="AF5" s="57"/>
+      <c r="AG5" s="57"/>
+      <c r="AH5" s="57"/>
+      <c r="AI5" s="57"/>
+      <c r="AJ5" s="57"/>
+      <c r="AK5" s="57"/>
+      <c r="AL5" s="57"/>
+      <c r="AM5" s="57"/>
+      <c r="AN5" s="57"/>
+      <c r="AO5" s="57"/>
+      <c r="AP5" s="58"/>
+      <c r="AQ5" s="39"/>
+      <c r="AR5" s="40"/>
+      <c r="AS5" s="40"/>
+      <c r="AT5" s="40"/>
+      <c r="AU5" s="48"/>
+      <c r="AV5" s="48"/>
+      <c r="AW5" s="48"/>
+      <c r="AX5" s="48"/>
+      <c r="AY5" s="48"/>
+      <c r="AZ5" s="48"/>
+      <c r="BA5" s="48"/>
+      <c r="BB5" s="49"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -17611,7 +17607,7 @@
       <c r="AO12" s="4"/>
       <c r="AP12" s="4"/>
       <c r="AQ12" s="3"/>
-      <c r="AR12" s="67" t="s">
+      <c r="AR12" s="38" t="s">
         <v>57</v>
       </c>
       <c r="AS12" s="4"/>
@@ -18765,8 +18761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB33"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AR8" sqref="AR8:AZ12"/>
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -18815,244 +18811,244 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="41" t="s">
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="41"/>
-      <c r="AO2" s="41"/>
-      <c r="AP2" s="42"/>
-      <c r="AQ2" s="61" t="s">
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53"/>
+      <c r="AP2" s="54"/>
+      <c r="AQ2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="58"/>
-      <c r="AS2" s="58"/>
-      <c r="AT2" s="58"/>
-      <c r="AU2" s="58">
+      <c r="AR2" s="41"/>
+      <c r="AS2" s="41"/>
+      <c r="AT2" s="41"/>
+      <c r="AU2" s="41">
         <v>1</v>
       </c>
-      <c r="AV2" s="59"/>
-      <c r="AW2" s="58" t="s">
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="58"/>
-      <c r="AY2" s="58"/>
-      <c r="AZ2" s="58"/>
-      <c r="BA2" s="58">
+      <c r="AX2" s="41"/>
+      <c r="AY2" s="41"/>
+      <c r="AZ2" s="41"/>
+      <c r="BA2" s="41">
         <v>5</v>
       </c>
-      <c r="BB2" s="59"/>
+      <c r="BB2" s="42"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="43"/>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="43"/>
-      <c r="AP3" s="44"/>
-      <c r="AQ3" s="56" t="s">
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="55"/>
+      <c r="Z3" s="55"/>
+      <c r="AA3" s="55"/>
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="55"/>
+      <c r="AD3" s="55"/>
+      <c r="AE3" s="55"/>
+      <c r="AF3" s="55"/>
+      <c r="AG3" s="55"/>
+      <c r="AH3" s="55"/>
+      <c r="AI3" s="55"/>
+      <c r="AJ3" s="55"/>
+      <c r="AK3" s="55"/>
+      <c r="AL3" s="55"/>
+      <c r="AM3" s="55"/>
+      <c r="AN3" s="55"/>
+      <c r="AO3" s="55"/>
+      <c r="AP3" s="56"/>
+      <c r="AQ3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AR3" s="57"/>
-      <c r="AS3" s="57"/>
-      <c r="AT3" s="57"/>
-      <c r="AU3" s="57"/>
-      <c r="AV3" s="60"/>
-      <c r="AW3" s="57"/>
-      <c r="AX3" s="57"/>
-      <c r="AY3" s="57"/>
-      <c r="AZ3" s="57"/>
-      <c r="BA3" s="57"/>
-      <c r="BB3" s="60"/>
+      <c r="AR3" s="40"/>
+      <c r="AS3" s="40"/>
+      <c r="AT3" s="40"/>
+      <c r="AU3" s="40"/>
+      <c r="AV3" s="43"/>
+      <c r="AW3" s="40"/>
+      <c r="AX3" s="40"/>
+      <c r="AY3" s="40"/>
+      <c r="AZ3" s="40"/>
+      <c r="BA3" s="40"/>
+      <c r="BB3" s="43"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
-      <c r="AH4" s="43"/>
-      <c r="AI4" s="43"/>
-      <c r="AJ4" s="43"/>
-      <c r="AK4" s="43"/>
-      <c r="AL4" s="43"/>
-      <c r="AM4" s="43"/>
-      <c r="AN4" s="43"/>
-      <c r="AO4" s="43"/>
-      <c r="AP4" s="44"/>
-      <c r="AQ4" s="61" t="s">
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="64"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="55"/>
+      <c r="AB4" s="55"/>
+      <c r="AC4" s="55"/>
+      <c r="AD4" s="55"/>
+      <c r="AE4" s="55"/>
+      <c r="AF4" s="55"/>
+      <c r="AG4" s="55"/>
+      <c r="AH4" s="55"/>
+      <c r="AI4" s="55"/>
+      <c r="AJ4" s="55"/>
+      <c r="AK4" s="55"/>
+      <c r="AL4" s="55"/>
+      <c r="AM4" s="55"/>
+      <c r="AN4" s="55"/>
+      <c r="AO4" s="55"/>
+      <c r="AP4" s="56"/>
+      <c r="AQ4" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="58"/>
-      <c r="AS4" s="58"/>
-      <c r="AT4" s="58"/>
-      <c r="AU4" s="62">
+      <c r="AR4" s="41"/>
+      <c r="AS4" s="41"/>
+      <c r="AT4" s="41"/>
+      <c r="AU4" s="45">
         <v>43032</v>
       </c>
-      <c r="AV4" s="63"/>
-      <c r="AW4" s="63"/>
-      <c r="AX4" s="63"/>
-      <c r="AY4" s="63"/>
-      <c r="AZ4" s="63"/>
-      <c r="BA4" s="63"/>
-      <c r="BB4" s="64"/>
+      <c r="AV4" s="46"/>
+      <c r="AW4" s="46"/>
+      <c r="AX4" s="46"/>
+      <c r="AY4" s="46"/>
+      <c r="AZ4" s="46"/>
+      <c r="BA4" s="46"/>
+      <c r="BB4" s="47"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="53"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="45"/>
-      <c r="AD5" s="45"/>
-      <c r="AE5" s="45"/>
-      <c r="AF5" s="45"/>
-      <c r="AG5" s="45"/>
-      <c r="AH5" s="45"/>
-      <c r="AI5" s="45"/>
-      <c r="AJ5" s="45"/>
-      <c r="AK5" s="45"/>
-      <c r="AL5" s="45"/>
-      <c r="AM5" s="45"/>
-      <c r="AN5" s="45"/>
-      <c r="AO5" s="45"/>
-      <c r="AP5" s="46"/>
-      <c r="AQ5" s="56"/>
-      <c r="AR5" s="57"/>
-      <c r="AS5" s="57"/>
-      <c r="AT5" s="57"/>
-      <c r="AU5" s="65"/>
-      <c r="AV5" s="65"/>
-      <c r="AW5" s="65"/>
-      <c r="AX5" s="65"/>
-      <c r="AY5" s="65"/>
-      <c r="AZ5" s="65"/>
-      <c r="BA5" s="65"/>
-      <c r="BB5" s="66"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="67"/>
+      <c r="W5" s="57"/>
+      <c r="X5" s="57"/>
+      <c r="Y5" s="57"/>
+      <c r="Z5" s="57"/>
+      <c r="AA5" s="57"/>
+      <c r="AB5" s="57"/>
+      <c r="AC5" s="57"/>
+      <c r="AD5" s="57"/>
+      <c r="AE5" s="57"/>
+      <c r="AF5" s="57"/>
+      <c r="AG5" s="57"/>
+      <c r="AH5" s="57"/>
+      <c r="AI5" s="57"/>
+      <c r="AJ5" s="57"/>
+      <c r="AK5" s="57"/>
+      <c r="AL5" s="57"/>
+      <c r="AM5" s="57"/>
+      <c r="AN5" s="57"/>
+      <c r="AO5" s="57"/>
+      <c r="AP5" s="58"/>
+      <c r="AQ5" s="39"/>
+      <c r="AR5" s="40"/>
+      <c r="AS5" s="40"/>
+      <c r="AT5" s="40"/>
+      <c r="AU5" s="48"/>
+      <c r="AV5" s="48"/>
+      <c r="AW5" s="48"/>
+      <c r="AX5" s="48"/>
+      <c r="AY5" s="48"/>
+      <c r="AZ5" s="48"/>
+      <c r="BA5" s="48"/>
+      <c r="BB5" s="49"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -19399,7 +19395,7 @@
       <c r="AO12" s="4"/>
       <c r="AP12" s="4"/>
       <c r="AQ12" s="3"/>
-      <c r="AR12" s="67" t="s">
+      <c r="AR12" s="38" t="s">
         <v>61</v>
       </c>
       <c r="AS12" s="4"/>
@@ -19445,7 +19441,7 @@
       <c r="AO13" s="4"/>
       <c r="AP13" s="4"/>
       <c r="AQ13" s="3"/>
-      <c r="AR13" s="67" t="s">
+      <c r="AR13" s="38" t="s">
         <v>62</v>
       </c>
       <c r="AS13" s="4"/>
@@ -20433,8 +20429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB33"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AR8" sqref="AR8:AZ12"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -20483,244 +20479,244 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="41" t="s">
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="41"/>
-      <c r="AO2" s="41"/>
-      <c r="AP2" s="42"/>
-      <c r="AQ2" s="61" t="s">
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53"/>
+      <c r="AP2" s="54"/>
+      <c r="AQ2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="58"/>
-      <c r="AS2" s="58"/>
-      <c r="AT2" s="58"/>
-      <c r="AU2" s="58">
+      <c r="AR2" s="41"/>
+      <c r="AS2" s="41"/>
+      <c r="AT2" s="41"/>
+      <c r="AU2" s="41">
         <v>1</v>
       </c>
-      <c r="AV2" s="59"/>
-      <c r="AW2" s="58" t="s">
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="58"/>
-      <c r="AY2" s="58"/>
-      <c r="AZ2" s="58"/>
-      <c r="BA2" s="58">
+      <c r="AX2" s="41"/>
+      <c r="AY2" s="41"/>
+      <c r="AZ2" s="41"/>
+      <c r="BA2" s="41">
         <v>6</v>
       </c>
-      <c r="BB2" s="59"/>
+      <c r="BB2" s="42"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="43"/>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="43"/>
-      <c r="AP3" s="44"/>
-      <c r="AQ3" s="56" t="s">
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="55"/>
+      <c r="Z3" s="55"/>
+      <c r="AA3" s="55"/>
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="55"/>
+      <c r="AD3" s="55"/>
+      <c r="AE3" s="55"/>
+      <c r="AF3" s="55"/>
+      <c r="AG3" s="55"/>
+      <c r="AH3" s="55"/>
+      <c r="AI3" s="55"/>
+      <c r="AJ3" s="55"/>
+      <c r="AK3" s="55"/>
+      <c r="AL3" s="55"/>
+      <c r="AM3" s="55"/>
+      <c r="AN3" s="55"/>
+      <c r="AO3" s="55"/>
+      <c r="AP3" s="56"/>
+      <c r="AQ3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AR3" s="57"/>
-      <c r="AS3" s="57"/>
-      <c r="AT3" s="57"/>
-      <c r="AU3" s="57"/>
-      <c r="AV3" s="60"/>
-      <c r="AW3" s="57"/>
-      <c r="AX3" s="57"/>
-      <c r="AY3" s="57"/>
-      <c r="AZ3" s="57"/>
-      <c r="BA3" s="57"/>
-      <c r="BB3" s="60"/>
+      <c r="AR3" s="40"/>
+      <c r="AS3" s="40"/>
+      <c r="AT3" s="40"/>
+      <c r="AU3" s="40"/>
+      <c r="AV3" s="43"/>
+      <c r="AW3" s="40"/>
+      <c r="AX3" s="40"/>
+      <c r="AY3" s="40"/>
+      <c r="AZ3" s="40"/>
+      <c r="BA3" s="40"/>
+      <c r="BB3" s="43"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
-      <c r="AH4" s="43"/>
-      <c r="AI4" s="43"/>
-      <c r="AJ4" s="43"/>
-      <c r="AK4" s="43"/>
-      <c r="AL4" s="43"/>
-      <c r="AM4" s="43"/>
-      <c r="AN4" s="43"/>
-      <c r="AO4" s="43"/>
-      <c r="AP4" s="44"/>
-      <c r="AQ4" s="61" t="s">
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="64"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="55"/>
+      <c r="AB4" s="55"/>
+      <c r="AC4" s="55"/>
+      <c r="AD4" s="55"/>
+      <c r="AE4" s="55"/>
+      <c r="AF4" s="55"/>
+      <c r="AG4" s="55"/>
+      <c r="AH4" s="55"/>
+      <c r="AI4" s="55"/>
+      <c r="AJ4" s="55"/>
+      <c r="AK4" s="55"/>
+      <c r="AL4" s="55"/>
+      <c r="AM4" s="55"/>
+      <c r="AN4" s="55"/>
+      <c r="AO4" s="55"/>
+      <c r="AP4" s="56"/>
+      <c r="AQ4" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="58"/>
-      <c r="AS4" s="58"/>
-      <c r="AT4" s="58"/>
-      <c r="AU4" s="62">
+      <c r="AR4" s="41"/>
+      <c r="AS4" s="41"/>
+      <c r="AT4" s="41"/>
+      <c r="AU4" s="45">
         <v>43032</v>
       </c>
-      <c r="AV4" s="63"/>
-      <c r="AW4" s="63"/>
-      <c r="AX4" s="63"/>
-      <c r="AY4" s="63"/>
-      <c r="AZ4" s="63"/>
-      <c r="BA4" s="63"/>
-      <c r="BB4" s="64"/>
+      <c r="AV4" s="46"/>
+      <c r="AW4" s="46"/>
+      <c r="AX4" s="46"/>
+      <c r="AY4" s="46"/>
+      <c r="AZ4" s="46"/>
+      <c r="BA4" s="46"/>
+      <c r="BB4" s="47"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="53"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="45"/>
-      <c r="AD5" s="45"/>
-      <c r="AE5" s="45"/>
-      <c r="AF5" s="45"/>
-      <c r="AG5" s="45"/>
-      <c r="AH5" s="45"/>
-      <c r="AI5" s="45"/>
-      <c r="AJ5" s="45"/>
-      <c r="AK5" s="45"/>
-      <c r="AL5" s="45"/>
-      <c r="AM5" s="45"/>
-      <c r="AN5" s="45"/>
-      <c r="AO5" s="45"/>
-      <c r="AP5" s="46"/>
-      <c r="AQ5" s="56"/>
-      <c r="AR5" s="57"/>
-      <c r="AS5" s="57"/>
-      <c r="AT5" s="57"/>
-      <c r="AU5" s="65"/>
-      <c r="AV5" s="65"/>
-      <c r="AW5" s="65"/>
-      <c r="AX5" s="65"/>
-      <c r="AY5" s="65"/>
-      <c r="AZ5" s="65"/>
-      <c r="BA5" s="65"/>
-      <c r="BB5" s="66"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="67"/>
+      <c r="W5" s="57"/>
+      <c r="X5" s="57"/>
+      <c r="Y5" s="57"/>
+      <c r="Z5" s="57"/>
+      <c r="AA5" s="57"/>
+      <c r="AB5" s="57"/>
+      <c r="AC5" s="57"/>
+      <c r="AD5" s="57"/>
+      <c r="AE5" s="57"/>
+      <c r="AF5" s="57"/>
+      <c r="AG5" s="57"/>
+      <c r="AH5" s="57"/>
+      <c r="AI5" s="57"/>
+      <c r="AJ5" s="57"/>
+      <c r="AK5" s="57"/>
+      <c r="AL5" s="57"/>
+      <c r="AM5" s="57"/>
+      <c r="AN5" s="57"/>
+      <c r="AO5" s="57"/>
+      <c r="AP5" s="58"/>
+      <c r="AQ5" s="39"/>
+      <c r="AR5" s="40"/>
+      <c r="AS5" s="40"/>
+      <c r="AT5" s="40"/>
+      <c r="AU5" s="48"/>
+      <c r="AV5" s="48"/>
+      <c r="AW5" s="48"/>
+      <c r="AX5" s="48"/>
+      <c r="AY5" s="48"/>
+      <c r="AZ5" s="48"/>
+      <c r="BA5" s="48"/>
+      <c r="BB5" s="49"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -21064,7 +21060,7 @@
       <c r="AO12" s="4"/>
       <c r="AP12" s="4"/>
       <c r="AQ12" s="3"/>
-      <c r="AR12" s="67" t="s">
+      <c r="AR12" s="38" t="s">
         <v>57</v>
       </c>
       <c r="AS12" s="4"/>
@@ -22210,244 +22206,244 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="41" t="s">
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="41"/>
-      <c r="AO2" s="41"/>
-      <c r="AP2" s="42"/>
-      <c r="AQ2" s="61" t="s">
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53"/>
+      <c r="AP2" s="54"/>
+      <c r="AQ2" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="AR2" s="58"/>
-      <c r="AS2" s="58"/>
-      <c r="AT2" s="58"/>
-      <c r="AU2" s="58">
+      <c r="AR2" s="41"/>
+      <c r="AS2" s="41"/>
+      <c r="AT2" s="41"/>
+      <c r="AU2" s="41">
         <v>1</v>
       </c>
-      <c r="AV2" s="59"/>
-      <c r="AW2" s="58" t="s">
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="AX2" s="58"/>
-      <c r="AY2" s="58"/>
-      <c r="AZ2" s="58"/>
-      <c r="BA2" s="58">
+      <c r="AX2" s="41"/>
+      <c r="AY2" s="41"/>
+      <c r="AZ2" s="41"/>
+      <c r="BA2" s="41">
         <v>7</v>
       </c>
-      <c r="BB2" s="59"/>
+      <c r="BB2" s="42"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="43"/>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="43"/>
-      <c r="AP3" s="44"/>
-      <c r="AQ3" s="56" t="s">
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="55"/>
+      <c r="Z3" s="55"/>
+      <c r="AA3" s="55"/>
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="55"/>
+      <c r="AD3" s="55"/>
+      <c r="AE3" s="55"/>
+      <c r="AF3" s="55"/>
+      <c r="AG3" s="55"/>
+      <c r="AH3" s="55"/>
+      <c r="AI3" s="55"/>
+      <c r="AJ3" s="55"/>
+      <c r="AK3" s="55"/>
+      <c r="AL3" s="55"/>
+      <c r="AM3" s="55"/>
+      <c r="AN3" s="55"/>
+      <c r="AO3" s="55"/>
+      <c r="AP3" s="56"/>
+      <c r="AQ3" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="AR3" s="57"/>
-      <c r="AS3" s="57"/>
-      <c r="AT3" s="57"/>
-      <c r="AU3" s="57"/>
-      <c r="AV3" s="60"/>
-      <c r="AW3" s="57"/>
-      <c r="AX3" s="57"/>
-      <c r="AY3" s="57"/>
-      <c r="AZ3" s="57"/>
-      <c r="BA3" s="57"/>
-      <c r="BB3" s="60"/>
+      <c r="AR3" s="40"/>
+      <c r="AS3" s="40"/>
+      <c r="AT3" s="40"/>
+      <c r="AU3" s="40"/>
+      <c r="AV3" s="43"/>
+      <c r="AW3" s="40"/>
+      <c r="AX3" s="40"/>
+      <c r="AY3" s="40"/>
+      <c r="AZ3" s="40"/>
+      <c r="BA3" s="40"/>
+      <c r="BB3" s="43"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
-      <c r="AH4" s="43"/>
-      <c r="AI4" s="43"/>
-      <c r="AJ4" s="43"/>
-      <c r="AK4" s="43"/>
-      <c r="AL4" s="43"/>
-      <c r="AM4" s="43"/>
-      <c r="AN4" s="43"/>
-      <c r="AO4" s="43"/>
-      <c r="AP4" s="44"/>
-      <c r="AQ4" s="61" t="s">
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="64"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="55"/>
+      <c r="AB4" s="55"/>
+      <c r="AC4" s="55"/>
+      <c r="AD4" s="55"/>
+      <c r="AE4" s="55"/>
+      <c r="AF4" s="55"/>
+      <c r="AG4" s="55"/>
+      <c r="AH4" s="55"/>
+      <c r="AI4" s="55"/>
+      <c r="AJ4" s="55"/>
+      <c r="AK4" s="55"/>
+      <c r="AL4" s="55"/>
+      <c r="AM4" s="55"/>
+      <c r="AN4" s="55"/>
+      <c r="AO4" s="55"/>
+      <c r="AP4" s="56"/>
+      <c r="AQ4" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="58"/>
-      <c r="AS4" s="58"/>
-      <c r="AT4" s="58"/>
-      <c r="AU4" s="62">
+      <c r="AR4" s="41"/>
+      <c r="AS4" s="41"/>
+      <c r="AT4" s="41"/>
+      <c r="AU4" s="45">
         <v>43032</v>
       </c>
-      <c r="AV4" s="63"/>
-      <c r="AW4" s="63"/>
-      <c r="AX4" s="63"/>
-      <c r="AY4" s="63"/>
-      <c r="AZ4" s="63"/>
-      <c r="BA4" s="63"/>
-      <c r="BB4" s="64"/>
+      <c r="AV4" s="46"/>
+      <c r="AW4" s="46"/>
+      <c r="AX4" s="46"/>
+      <c r="AY4" s="46"/>
+      <c r="AZ4" s="46"/>
+      <c r="BA4" s="46"/>
+      <c r="BB4" s="47"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="53"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="45"/>
-      <c r="AD5" s="45"/>
-      <c r="AE5" s="45"/>
-      <c r="AF5" s="45"/>
-      <c r="AG5" s="45"/>
-      <c r="AH5" s="45"/>
-      <c r="AI5" s="45"/>
-      <c r="AJ5" s="45"/>
-      <c r="AK5" s="45"/>
-      <c r="AL5" s="45"/>
-      <c r="AM5" s="45"/>
-      <c r="AN5" s="45"/>
-      <c r="AO5" s="45"/>
-      <c r="AP5" s="46"/>
-      <c r="AQ5" s="56"/>
-      <c r="AR5" s="57"/>
-      <c r="AS5" s="57"/>
-      <c r="AT5" s="57"/>
-      <c r="AU5" s="65"/>
-      <c r="AV5" s="65"/>
-      <c r="AW5" s="65"/>
-      <c r="AX5" s="65"/>
-      <c r="AY5" s="65"/>
-      <c r="AZ5" s="65"/>
-      <c r="BA5" s="65"/>
-      <c r="BB5" s="66"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="67"/>
+      <c r="W5" s="57"/>
+      <c r="X5" s="57"/>
+      <c r="Y5" s="57"/>
+      <c r="Z5" s="57"/>
+      <c r="AA5" s="57"/>
+      <c r="AB5" s="57"/>
+      <c r="AC5" s="57"/>
+      <c r="AD5" s="57"/>
+      <c r="AE5" s="57"/>
+      <c r="AF5" s="57"/>
+      <c r="AG5" s="57"/>
+      <c r="AH5" s="57"/>
+      <c r="AI5" s="57"/>
+      <c r="AJ5" s="57"/>
+      <c r="AK5" s="57"/>
+      <c r="AL5" s="57"/>
+      <c r="AM5" s="57"/>
+      <c r="AN5" s="57"/>
+      <c r="AO5" s="57"/>
+      <c r="AP5" s="58"/>
+      <c r="AQ5" s="39"/>
+      <c r="AR5" s="40"/>
+      <c r="AS5" s="40"/>
+      <c r="AT5" s="40"/>
+      <c r="AU5" s="48"/>
+      <c r="AV5" s="48"/>
+      <c r="AW5" s="48"/>
+      <c r="AX5" s="48"/>
+      <c r="AY5" s="48"/>
+      <c r="AZ5" s="48"/>
+      <c r="BA5" s="48"/>
+      <c r="BB5" s="49"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -22794,7 +22790,7 @@
       <c r="AO12" s="4"/>
       <c r="AP12" s="4"/>
       <c r="AQ12" s="3"/>
-      <c r="AR12" s="67" t="s">
+      <c r="AR12" s="38" t="s">
         <v>69</v>
       </c>
       <c r="AS12" s="4"/>
@@ -22840,7 +22836,7 @@
       <c r="AO13" s="4"/>
       <c r="AP13" s="4"/>
       <c r="AQ13" s="3"/>
-      <c r="AR13" s="67" t="s">
+      <c r="AR13" s="38" t="s">
         <v>62</v>
       </c>
       <c r="AS13" s="4"/>
@@ -23828,8 +23824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB33"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AR8" sqref="AR8:AZ12"/>
+    <sheetView tabSelected="1" topLeftCell="E8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC28" sqref="AC28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -23878,244 +23874,244 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="41" t="s">
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="41"/>
-      <c r="AO2" s="41"/>
-      <c r="AP2" s="42"/>
-      <c r="AQ2" s="61" t="s">
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53"/>
+      <c r="AP2" s="54"/>
+      <c r="AQ2" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="AR2" s="58"/>
-      <c r="AS2" s="58"/>
-      <c r="AT2" s="58"/>
-      <c r="AU2" s="58">
+      <c r="AR2" s="41"/>
+      <c r="AS2" s="41"/>
+      <c r="AT2" s="41"/>
+      <c r="AU2" s="41">
         <v>1</v>
       </c>
-      <c r="AV2" s="59"/>
-      <c r="AW2" s="58" t="s">
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="AX2" s="58"/>
-      <c r="AY2" s="58"/>
-      <c r="AZ2" s="58"/>
-      <c r="BA2" s="58">
+      <c r="AX2" s="41"/>
+      <c r="AY2" s="41"/>
+      <c r="AZ2" s="41"/>
+      <c r="BA2" s="41">
         <v>8</v>
       </c>
-      <c r="BB2" s="59"/>
+      <c r="BB2" s="42"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="43"/>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="43"/>
-      <c r="AP3" s="44"/>
-      <c r="AQ3" s="56" t="s">
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="55"/>
+      <c r="Z3" s="55"/>
+      <c r="AA3" s="55"/>
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="55"/>
+      <c r="AD3" s="55"/>
+      <c r="AE3" s="55"/>
+      <c r="AF3" s="55"/>
+      <c r="AG3" s="55"/>
+      <c r="AH3" s="55"/>
+      <c r="AI3" s="55"/>
+      <c r="AJ3" s="55"/>
+      <c r="AK3" s="55"/>
+      <c r="AL3" s="55"/>
+      <c r="AM3" s="55"/>
+      <c r="AN3" s="55"/>
+      <c r="AO3" s="55"/>
+      <c r="AP3" s="56"/>
+      <c r="AQ3" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="AR3" s="57"/>
-      <c r="AS3" s="57"/>
-      <c r="AT3" s="57"/>
-      <c r="AU3" s="57"/>
-      <c r="AV3" s="60"/>
-      <c r="AW3" s="57"/>
-      <c r="AX3" s="57"/>
-      <c r="AY3" s="57"/>
-      <c r="AZ3" s="57"/>
-      <c r="BA3" s="57"/>
-      <c r="BB3" s="60"/>
+      <c r="AR3" s="40"/>
+      <c r="AS3" s="40"/>
+      <c r="AT3" s="40"/>
+      <c r="AU3" s="40"/>
+      <c r="AV3" s="43"/>
+      <c r="AW3" s="40"/>
+      <c r="AX3" s="40"/>
+      <c r="AY3" s="40"/>
+      <c r="AZ3" s="40"/>
+      <c r="BA3" s="40"/>
+      <c r="BB3" s="43"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
-      <c r="AH4" s="43"/>
-      <c r="AI4" s="43"/>
-      <c r="AJ4" s="43"/>
-      <c r="AK4" s="43"/>
-      <c r="AL4" s="43"/>
-      <c r="AM4" s="43"/>
-      <c r="AN4" s="43"/>
-      <c r="AO4" s="43"/>
-      <c r="AP4" s="44"/>
-      <c r="AQ4" s="61" t="s">
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="64"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="55"/>
+      <c r="AB4" s="55"/>
+      <c r="AC4" s="55"/>
+      <c r="AD4" s="55"/>
+      <c r="AE4" s="55"/>
+      <c r="AF4" s="55"/>
+      <c r="AG4" s="55"/>
+      <c r="AH4" s="55"/>
+      <c r="AI4" s="55"/>
+      <c r="AJ4" s="55"/>
+      <c r="AK4" s="55"/>
+      <c r="AL4" s="55"/>
+      <c r="AM4" s="55"/>
+      <c r="AN4" s="55"/>
+      <c r="AO4" s="55"/>
+      <c r="AP4" s="56"/>
+      <c r="AQ4" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="58"/>
-      <c r="AS4" s="58"/>
-      <c r="AT4" s="58"/>
-      <c r="AU4" s="62">
+      <c r="AR4" s="41"/>
+      <c r="AS4" s="41"/>
+      <c r="AT4" s="41"/>
+      <c r="AU4" s="45">
         <v>43032</v>
       </c>
-      <c r="AV4" s="63"/>
-      <c r="AW4" s="63"/>
-      <c r="AX4" s="63"/>
-      <c r="AY4" s="63"/>
-      <c r="AZ4" s="63"/>
-      <c r="BA4" s="63"/>
-      <c r="BB4" s="64"/>
+      <c r="AV4" s="46"/>
+      <c r="AW4" s="46"/>
+      <c r="AX4" s="46"/>
+      <c r="AY4" s="46"/>
+      <c r="AZ4" s="46"/>
+      <c r="BA4" s="46"/>
+      <c r="BB4" s="47"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="53"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="45"/>
-      <c r="AD5" s="45"/>
-      <c r="AE5" s="45"/>
-      <c r="AF5" s="45"/>
-      <c r="AG5" s="45"/>
-      <c r="AH5" s="45"/>
-      <c r="AI5" s="45"/>
-      <c r="AJ5" s="45"/>
-      <c r="AK5" s="45"/>
-      <c r="AL5" s="45"/>
-      <c r="AM5" s="45"/>
-      <c r="AN5" s="45"/>
-      <c r="AO5" s="45"/>
-      <c r="AP5" s="46"/>
-      <c r="AQ5" s="56"/>
-      <c r="AR5" s="57"/>
-      <c r="AS5" s="57"/>
-      <c r="AT5" s="57"/>
-      <c r="AU5" s="65"/>
-      <c r="AV5" s="65"/>
-      <c r="AW5" s="65"/>
-      <c r="AX5" s="65"/>
-      <c r="AY5" s="65"/>
-      <c r="AZ5" s="65"/>
-      <c r="BA5" s="65"/>
-      <c r="BB5" s="66"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="67"/>
+      <c r="W5" s="57"/>
+      <c r="X5" s="57"/>
+      <c r="Y5" s="57"/>
+      <c r="Z5" s="57"/>
+      <c r="AA5" s="57"/>
+      <c r="AB5" s="57"/>
+      <c r="AC5" s="57"/>
+      <c r="AD5" s="57"/>
+      <c r="AE5" s="57"/>
+      <c r="AF5" s="57"/>
+      <c r="AG5" s="57"/>
+      <c r="AH5" s="57"/>
+      <c r="AI5" s="57"/>
+      <c r="AJ5" s="57"/>
+      <c r="AK5" s="57"/>
+      <c r="AL5" s="57"/>
+      <c r="AM5" s="57"/>
+      <c r="AN5" s="57"/>
+      <c r="AO5" s="57"/>
+      <c r="AP5" s="58"/>
+      <c r="AQ5" s="39"/>
+      <c r="AR5" s="40"/>
+      <c r="AS5" s="40"/>
+      <c r="AT5" s="40"/>
+      <c r="AU5" s="48"/>
+      <c r="AV5" s="48"/>
+      <c r="AW5" s="48"/>
+      <c r="AX5" s="48"/>
+      <c r="AY5" s="48"/>
+      <c r="AZ5" s="48"/>
+      <c r="BA5" s="48"/>
+      <c r="BB5" s="49"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -24508,7 +24504,7 @@
       <c r="AO13" s="4"/>
       <c r="AP13" s="4"/>
       <c r="AQ13" s="3"/>
-      <c r="AR13" s="67" t="s">
+      <c r="AR13" s="38" t="s">
         <v>77</v>
       </c>
       <c r="AS13" s="4"/>
@@ -24554,7 +24550,7 @@
       <c r="AO14" s="4"/>
       <c r="AP14" s="4"/>
       <c r="AQ14" s="3"/>
-      <c r="AR14" s="67" t="s">
+      <c r="AR14" s="38" t="s">
         <v>78</v>
       </c>
       <c r="AS14" s="4"/>
@@ -25498,8 +25494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB33"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AR8" sqref="AR8:AZ12"/>
+    <sheetView topLeftCell="H9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AD25" sqref="AD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -25548,244 +25544,244 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="41" t="s">
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="41"/>
-      <c r="AO2" s="41"/>
-      <c r="AP2" s="42"/>
-      <c r="AQ2" s="61" t="s">
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53"/>
+      <c r="AP2" s="54"/>
+      <c r="AQ2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="58"/>
-      <c r="AS2" s="58"/>
-      <c r="AT2" s="58"/>
-      <c r="AU2" s="58">
+      <c r="AR2" s="41"/>
+      <c r="AS2" s="41"/>
+      <c r="AT2" s="41"/>
+      <c r="AU2" s="41">
         <v>1</v>
       </c>
-      <c r="AV2" s="59"/>
-      <c r="AW2" s="58" t="s">
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="58"/>
-      <c r="AY2" s="58"/>
-      <c r="AZ2" s="58"/>
-      <c r="BA2" s="58">
+      <c r="AX2" s="41"/>
+      <c r="AY2" s="41"/>
+      <c r="AZ2" s="41"/>
+      <c r="BA2" s="41">
         <v>9</v>
       </c>
-      <c r="BB2" s="59"/>
+      <c r="BB2" s="42"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="43"/>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="43"/>
-      <c r="AP3" s="44"/>
-      <c r="AQ3" s="56" t="s">
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="55"/>
+      <c r="Z3" s="55"/>
+      <c r="AA3" s="55"/>
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="55"/>
+      <c r="AD3" s="55"/>
+      <c r="AE3" s="55"/>
+      <c r="AF3" s="55"/>
+      <c r="AG3" s="55"/>
+      <c r="AH3" s="55"/>
+      <c r="AI3" s="55"/>
+      <c r="AJ3" s="55"/>
+      <c r="AK3" s="55"/>
+      <c r="AL3" s="55"/>
+      <c r="AM3" s="55"/>
+      <c r="AN3" s="55"/>
+      <c r="AO3" s="55"/>
+      <c r="AP3" s="56"/>
+      <c r="AQ3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AR3" s="57"/>
-      <c r="AS3" s="57"/>
-      <c r="AT3" s="57"/>
-      <c r="AU3" s="57"/>
-      <c r="AV3" s="60"/>
-      <c r="AW3" s="57"/>
-      <c r="AX3" s="57"/>
-      <c r="AY3" s="57"/>
-      <c r="AZ3" s="57"/>
-      <c r="BA3" s="57"/>
-      <c r="BB3" s="60"/>
+      <c r="AR3" s="40"/>
+      <c r="AS3" s="40"/>
+      <c r="AT3" s="40"/>
+      <c r="AU3" s="40"/>
+      <c r="AV3" s="43"/>
+      <c r="AW3" s="40"/>
+      <c r="AX3" s="40"/>
+      <c r="AY3" s="40"/>
+      <c r="AZ3" s="40"/>
+      <c r="BA3" s="40"/>
+      <c r="BB3" s="43"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
-      <c r="AH4" s="43"/>
-      <c r="AI4" s="43"/>
-      <c r="AJ4" s="43"/>
-      <c r="AK4" s="43"/>
-      <c r="AL4" s="43"/>
-      <c r="AM4" s="43"/>
-      <c r="AN4" s="43"/>
-      <c r="AO4" s="43"/>
-      <c r="AP4" s="44"/>
-      <c r="AQ4" s="61" t="s">
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="64"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="55"/>
+      <c r="AB4" s="55"/>
+      <c r="AC4" s="55"/>
+      <c r="AD4" s="55"/>
+      <c r="AE4" s="55"/>
+      <c r="AF4" s="55"/>
+      <c r="AG4" s="55"/>
+      <c r="AH4" s="55"/>
+      <c r="AI4" s="55"/>
+      <c r="AJ4" s="55"/>
+      <c r="AK4" s="55"/>
+      <c r="AL4" s="55"/>
+      <c r="AM4" s="55"/>
+      <c r="AN4" s="55"/>
+      <c r="AO4" s="55"/>
+      <c r="AP4" s="56"/>
+      <c r="AQ4" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="58"/>
-      <c r="AS4" s="58"/>
-      <c r="AT4" s="58"/>
-      <c r="AU4" s="62">
+      <c r="AR4" s="41"/>
+      <c r="AS4" s="41"/>
+      <c r="AT4" s="41"/>
+      <c r="AU4" s="45">
         <v>43032</v>
       </c>
-      <c r="AV4" s="63"/>
-      <c r="AW4" s="63"/>
-      <c r="AX4" s="63"/>
-      <c r="AY4" s="63"/>
-      <c r="AZ4" s="63"/>
-      <c r="BA4" s="63"/>
-      <c r="BB4" s="64"/>
+      <c r="AV4" s="46"/>
+      <c r="AW4" s="46"/>
+      <c r="AX4" s="46"/>
+      <c r="AY4" s="46"/>
+      <c r="AZ4" s="46"/>
+      <c r="BA4" s="46"/>
+      <c r="BB4" s="47"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="53"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="45"/>
-      <c r="AD5" s="45"/>
-      <c r="AE5" s="45"/>
-      <c r="AF5" s="45"/>
-      <c r="AG5" s="45"/>
-      <c r="AH5" s="45"/>
-      <c r="AI5" s="45"/>
-      <c r="AJ5" s="45"/>
-      <c r="AK5" s="45"/>
-      <c r="AL5" s="45"/>
-      <c r="AM5" s="45"/>
-      <c r="AN5" s="45"/>
-      <c r="AO5" s="45"/>
-      <c r="AP5" s="46"/>
-      <c r="AQ5" s="56"/>
-      <c r="AR5" s="57"/>
-      <c r="AS5" s="57"/>
-      <c r="AT5" s="57"/>
-      <c r="AU5" s="65"/>
-      <c r="AV5" s="65"/>
-      <c r="AW5" s="65"/>
-      <c r="AX5" s="65"/>
-      <c r="AY5" s="65"/>
-      <c r="AZ5" s="65"/>
-      <c r="BA5" s="65"/>
-      <c r="BB5" s="66"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="67"/>
+      <c r="W5" s="57"/>
+      <c r="X5" s="57"/>
+      <c r="Y5" s="57"/>
+      <c r="Z5" s="57"/>
+      <c r="AA5" s="57"/>
+      <c r="AB5" s="57"/>
+      <c r="AC5" s="57"/>
+      <c r="AD5" s="57"/>
+      <c r="AE5" s="57"/>
+      <c r="AF5" s="57"/>
+      <c r="AG5" s="57"/>
+      <c r="AH5" s="57"/>
+      <c r="AI5" s="57"/>
+      <c r="AJ5" s="57"/>
+      <c r="AK5" s="57"/>
+      <c r="AL5" s="57"/>
+      <c r="AM5" s="57"/>
+      <c r="AN5" s="57"/>
+      <c r="AO5" s="57"/>
+      <c r="AP5" s="58"/>
+      <c r="AQ5" s="39"/>
+      <c r="AR5" s="40"/>
+      <c r="AS5" s="40"/>
+      <c r="AT5" s="40"/>
+      <c r="AU5" s="48"/>
+      <c r="AV5" s="48"/>
+      <c r="AW5" s="48"/>
+      <c r="AX5" s="48"/>
+      <c r="AY5" s="48"/>
+      <c r="AZ5" s="48"/>
+      <c r="BA5" s="48"/>
+      <c r="BB5" s="49"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -26132,7 +26128,7 @@
       <c r="AO12" s="4"/>
       <c r="AP12" s="4"/>
       <c r="AQ12" s="3"/>
-      <c r="AR12" s="67" t="s">
+      <c r="AR12" s="38" t="s">
         <v>81</v>
       </c>
       <c r="AS12" s="4"/>
@@ -26230,7 +26226,7 @@
       <c r="AO14" s="4"/>
       <c r="AP14" s="4"/>
       <c r="AQ14" s="3"/>
-      <c r="AR14" s="67" t="s">
+      <c r="AR14" s="38" t="s">
         <v>56</v>
       </c>
       <c r="AS14" s="4"/>
@@ -26281,7 +26277,7 @@
       <c r="AO15" s="4"/>
       <c r="AP15" s="4"/>
       <c r="AQ15" s="3"/>
-      <c r="AR15" s="67" t="s">
+      <c r="AR15" s="38" t="s">
         <v>57</v>
       </c>
       <c r="AS15" s="4"/>

--- a/総合演習資料/2.外部設計/画面設計図.xlsx
+++ b/総合演習資料/2.外部設計/画面設計図.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7770" tabRatio="833"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7770" tabRatio="833" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン" sheetId="13" r:id="rId1"/>
@@ -1504,39 +1504,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1589,6 +1556,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3174,7 +3174,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1828800" y="1952625"/>
+          <a:off x="1843928" y="2263028"/>
           <a:ext cx="913135" cy="275717"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3204,7 +3204,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>入社時期　：</a:t>
+            <a:t>入社年月　：</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -7543,7 +7543,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1828800" y="1952625"/>
+          <a:off x="1843928" y="2263028"/>
           <a:ext cx="913135" cy="275717"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7573,7 +7573,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>入社時期　：</a:t>
+            <a:t>入社年月　：</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -10766,7 +10766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -10814,246 +10814,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69">
         <v>1</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="70"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="71"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="73">
         <v>43031</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="75"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="77"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -11488,16 +11488,16 @@
       <c r="R15" s="29"/>
       <c r="S15" s="29"/>
       <c r="T15" s="34"/>
-      <c r="U15" s="60">
+      <c r="U15" s="49">
         <v>199104101</v>
       </c>
-      <c r="V15" s="61"/>
-      <c r="W15" s="61"/>
-      <c r="X15" s="61"/>
-      <c r="Y15" s="61"/>
-      <c r="Z15" s="61"/>
-      <c r="AA15" s="61"/>
-      <c r="AB15" s="62"/>
+      <c r="V15" s="50"/>
+      <c r="W15" s="50"/>
+      <c r="X15" s="50"/>
+      <c r="Y15" s="50"/>
+      <c r="Z15" s="50"/>
+      <c r="AA15" s="50"/>
+      <c r="AB15" s="51"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="3"/>
       <c r="AG15" s="4"/>
@@ -11589,16 +11589,16 @@
       <c r="R17" s="20"/>
       <c r="S17" s="20"/>
       <c r="T17" s="21"/>
-      <c r="U17" s="60" t="s">
+      <c r="U17" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="V17" s="61"/>
-      <c r="W17" s="61"/>
-      <c r="X17" s="61"/>
-      <c r="Y17" s="61"/>
-      <c r="Z17" s="61"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="62"/>
+      <c r="V17" s="50"/>
+      <c r="W17" s="50"/>
+      <c r="X17" s="50"/>
+      <c r="Y17" s="50"/>
+      <c r="Z17" s="50"/>
+      <c r="AA17" s="50"/>
+      <c r="AB17" s="51"/>
       <c r="AC17" s="5"/>
       <c r="AD17" s="3"/>
       <c r="AH17" s="4"/>
@@ -12442,12 +12442,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="U15:AB15"/>
-    <mergeCell ref="U17:AB17"/>
-    <mergeCell ref="W2:AP2"/>
-    <mergeCell ref="W3:AP5"/>
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="B3:V5"/>
     <mergeCell ref="AQ3:AT3"/>
     <mergeCell ref="AU2:AV3"/>
     <mergeCell ref="AQ4:AT5"/>
@@ -12455,6 +12449,12 @@
     <mergeCell ref="BA2:BB3"/>
     <mergeCell ref="AW2:AZ3"/>
     <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="U15:AB15"/>
+    <mergeCell ref="U17:AB17"/>
+    <mergeCell ref="W2:AP2"/>
+    <mergeCell ref="W3:AP5"/>
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="B3:V5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12517,246 +12517,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69">
         <v>10</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="70"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="71"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="73">
         <v>43032</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="75"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="77"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -14170,246 +14170,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69">
         <v>11</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="70"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="71"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="73">
         <v>43032</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="75"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="77"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -15832,246 +15832,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69">
         <v>2</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="70"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="71"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="73">
         <v>43032</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="75"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="77"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -17497,7 +17497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB38"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="W3" sqref="W3:AP5"/>
     </sheetView>
   </sheetViews>
@@ -17547,246 +17547,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69">
         <v>3</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="70"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="71"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="73">
         <v>43032</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="75"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="77"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -19260,246 +19260,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69">
         <v>4</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="70"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="71"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="73">
         <v>43032</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="75"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="77"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -21009,246 +21009,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69">
         <v>5</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="70"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="71"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="73">
         <v>43032</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="75"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="77"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -22697,246 +22697,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69">
         <v>6</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="70"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="71"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="73">
         <v>43032</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="75"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="77"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -24463,246 +24463,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69">
         <v>7</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="70"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="71"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="73">
         <v>43032</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="75"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="77"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -26149,246 +26149,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69">
         <v>8</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="70"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="71"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="73">
         <v>43032</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="75"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="77"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -27833,246 +27833,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69">
         <v>9</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="70"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="71"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="73">
         <v>43032</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="75"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="77"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>

--- a/総合演習資料/2.外部設計/画面設計図.xlsx
+++ b/総合演習資料/2.外部設計/画面設計図.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7770" tabRatio="833" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7770" tabRatio="833" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン" sheetId="13" r:id="rId1"/>
@@ -1504,6 +1504,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1556,39 +1589,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5331,35 +5331,6 @@
             </a:rPr>
             <a:t>年分）と月のリスト</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>※</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>入社時期の年月は手入力もできるとよい</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9617,30 +9588,6 @@
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>※</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>入社時期の年月は手入力もできるとよい</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -9725,8 +9672,8 @@
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>145677</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9736,7 +9683,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5927911" y="2823882"/>
-          <a:ext cx="2487707" cy="1490383"/>
+          <a:ext cx="2487707" cy="1624853"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -10288,6 +10235,77 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>91887</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>35860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>17928</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="角丸四角形吹き出し 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="293593" y="1828801"/>
+          <a:ext cx="2548217" cy="939052"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 56303"/>
+            <a:gd name="adj2" fmla="val 36725"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>一般社員でログインしている場合、旧パスワードと新パスワード以外は修正不可</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10814,246 +10832,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="52" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="72" t="s">
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69">
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51">
         <v>1</v>
       </c>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="69" t="s">
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69">
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51">
         <v>1</v>
       </c>
-      <c r="BB2" s="70"/>
+      <c r="BB2" s="52"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="54" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="67" t="s">
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="68"/>
-      <c r="BA3" s="68"/>
-      <c r="BB3" s="71"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="50"/>
+      <c r="AU3" s="50"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
+      <c r="BB3" s="53"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="72" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="73">
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="55">
         <v>43031</v>
       </c>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="74"/>
-      <c r="AX4" s="74"/>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="75"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="57"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="56"/>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="67"/>
-      <c r="AR5" s="68"/>
-      <c r="AS5" s="68"/>
-      <c r="AT5" s="68"/>
-      <c r="AU5" s="76"/>
-      <c r="AV5" s="76"/>
-      <c r="AW5" s="76"/>
-      <c r="AX5" s="76"/>
-      <c r="AY5" s="76"/>
-      <c r="AZ5" s="76"/>
-      <c r="BA5" s="76"/>
-      <c r="BB5" s="77"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="67"/>
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="67"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="67"/>
+      <c r="AL5" s="67"/>
+      <c r="AM5" s="67"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="67"/>
+      <c r="AP5" s="68"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="58"/>
+      <c r="AW5" s="58"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58"/>
+      <c r="AZ5" s="58"/>
+      <c r="BA5" s="58"/>
+      <c r="BB5" s="59"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -11488,16 +11506,16 @@
       <c r="R15" s="29"/>
       <c r="S15" s="29"/>
       <c r="T15" s="34"/>
-      <c r="U15" s="49">
+      <c r="U15" s="60">
         <v>199104101</v>
       </c>
-      <c r="V15" s="50"/>
-      <c r="W15" s="50"/>
-      <c r="X15" s="50"/>
-      <c r="Y15" s="50"/>
-      <c r="Z15" s="50"/>
-      <c r="AA15" s="50"/>
-      <c r="AB15" s="51"/>
+      <c r="V15" s="61"/>
+      <c r="W15" s="61"/>
+      <c r="X15" s="61"/>
+      <c r="Y15" s="61"/>
+      <c r="Z15" s="61"/>
+      <c r="AA15" s="61"/>
+      <c r="AB15" s="62"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="3"/>
       <c r="AG15" s="4"/>
@@ -11589,16 +11607,16 @@
       <c r="R17" s="20"/>
       <c r="S17" s="20"/>
       <c r="T17" s="21"/>
-      <c r="U17" s="49" t="s">
+      <c r="U17" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="V17" s="50"/>
-      <c r="W17" s="50"/>
-      <c r="X17" s="50"/>
-      <c r="Y17" s="50"/>
-      <c r="Z17" s="50"/>
-      <c r="AA17" s="50"/>
-      <c r="AB17" s="51"/>
+      <c r="V17" s="61"/>
+      <c r="W17" s="61"/>
+      <c r="X17" s="61"/>
+      <c r="Y17" s="61"/>
+      <c r="Z17" s="61"/>
+      <c r="AA17" s="61"/>
+      <c r="AB17" s="62"/>
       <c r="AC17" s="5"/>
       <c r="AD17" s="3"/>
       <c r="AH17" s="4"/>
@@ -12442,6 +12460,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="U15:AB15"/>
+    <mergeCell ref="U17:AB17"/>
+    <mergeCell ref="W2:AP2"/>
+    <mergeCell ref="W3:AP5"/>
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="B3:V5"/>
     <mergeCell ref="AQ3:AT3"/>
     <mergeCell ref="AU2:AV3"/>
     <mergeCell ref="AQ4:AT5"/>
@@ -12449,12 +12473,6 @@
     <mergeCell ref="BA2:BB3"/>
     <mergeCell ref="AW2:AZ3"/>
     <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="U15:AB15"/>
-    <mergeCell ref="U17:AB17"/>
-    <mergeCell ref="W2:AP2"/>
-    <mergeCell ref="W3:AP5"/>
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="B3:V5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12517,246 +12535,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="52" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="72" t="s">
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69">
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51">
         <v>1</v>
       </c>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="69" t="s">
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69">
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51">
         <v>10</v>
       </c>
-      <c r="BB2" s="70"/>
+      <c r="BB2" s="52"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="54" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="67" t="s">
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="68"/>
-      <c r="BA3" s="68"/>
-      <c r="BB3" s="71"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="50"/>
+      <c r="AU3" s="50"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
+      <c r="BB3" s="53"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="72" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="73">
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="55">
         <v>43032</v>
       </c>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="74"/>
-      <c r="AX4" s="74"/>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="75"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="57"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="56"/>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="67"/>
-      <c r="AR5" s="68"/>
-      <c r="AS5" s="68"/>
-      <c r="AT5" s="68"/>
-      <c r="AU5" s="76"/>
-      <c r="AV5" s="76"/>
-      <c r="AW5" s="76"/>
-      <c r="AX5" s="76"/>
-      <c r="AY5" s="76"/>
-      <c r="AZ5" s="76"/>
-      <c r="BA5" s="76"/>
-      <c r="BB5" s="77"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="67"/>
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="67"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="67"/>
+      <c r="AL5" s="67"/>
+      <c r="AM5" s="67"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="67"/>
+      <c r="AP5" s="68"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="58"/>
+      <c r="AW5" s="58"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58"/>
+      <c r="AZ5" s="58"/>
+      <c r="BA5" s="58"/>
+      <c r="BB5" s="59"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -14170,246 +14188,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="52" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="72" t="s">
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69">
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51">
         <v>1</v>
       </c>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="69" t="s">
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69">
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51">
         <v>11</v>
       </c>
-      <c r="BB2" s="70"/>
+      <c r="BB2" s="52"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="54" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="67" t="s">
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="68"/>
-      <c r="BA3" s="68"/>
-      <c r="BB3" s="71"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="50"/>
+      <c r="AU3" s="50"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
+      <c r="BB3" s="53"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="72" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="73">
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="55">
         <v>43032</v>
       </c>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="74"/>
-      <c r="AX4" s="74"/>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="75"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="57"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="56"/>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="67"/>
-      <c r="AR5" s="68"/>
-      <c r="AS5" s="68"/>
-      <c r="AT5" s="68"/>
-      <c r="AU5" s="76"/>
-      <c r="AV5" s="76"/>
-      <c r="AW5" s="76"/>
-      <c r="AX5" s="76"/>
-      <c r="AY5" s="76"/>
-      <c r="AZ5" s="76"/>
-      <c r="BA5" s="76"/>
-      <c r="BB5" s="77"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="67"/>
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="67"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="67"/>
+      <c r="AL5" s="67"/>
+      <c r="AM5" s="67"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="67"/>
+      <c r="AP5" s="68"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="58"/>
+      <c r="AW5" s="58"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58"/>
+      <c r="AZ5" s="58"/>
+      <c r="BA5" s="58"/>
+      <c r="BB5" s="59"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -15783,7 +15801,7 @@
   <dimension ref="B1:BB38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BG8" sqref="BG8"/>
+      <selection activeCell="AS19" sqref="AS19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15832,246 +15850,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="52" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="72" t="s">
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69">
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51">
         <v>1</v>
       </c>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="69" t="s">
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69">
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51">
         <v>2</v>
       </c>
-      <c r="BB2" s="70"/>
+      <c r="BB2" s="52"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="54" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="67" t="s">
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="68"/>
-      <c r="BA3" s="68"/>
-      <c r="BB3" s="71"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="50"/>
+      <c r="AU3" s="50"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
+      <c r="BB3" s="53"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="72" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="73">
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="55">
         <v>43032</v>
       </c>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="74"/>
-      <c r="AX4" s="74"/>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="75"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="57"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="56"/>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="67"/>
-      <c r="AR5" s="68"/>
-      <c r="AS5" s="68"/>
-      <c r="AT5" s="68"/>
-      <c r="AU5" s="76"/>
-      <c r="AV5" s="76"/>
-      <c r="AW5" s="76"/>
-      <c r="AX5" s="76"/>
-      <c r="AY5" s="76"/>
-      <c r="AZ5" s="76"/>
-      <c r="BA5" s="76"/>
-      <c r="BB5" s="77"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="67"/>
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="67"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="67"/>
+      <c r="AL5" s="67"/>
+      <c r="AM5" s="67"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="67"/>
+      <c r="AP5" s="68"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="58"/>
+      <c r="AW5" s="58"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58"/>
+      <c r="AZ5" s="58"/>
+      <c r="BA5" s="58"/>
+      <c r="BB5" s="59"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -17497,7 +17515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="W3" sqref="W3:AP5"/>
     </sheetView>
   </sheetViews>
@@ -17547,246 +17565,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="52" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="72" t="s">
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69">
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51">
         <v>1</v>
       </c>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="69" t="s">
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69">
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51">
         <v>3</v>
       </c>
-      <c r="BB2" s="70"/>
+      <c r="BB2" s="52"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="54" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="67" t="s">
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="68"/>
-      <c r="BA3" s="68"/>
-      <c r="BB3" s="71"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="50"/>
+      <c r="AU3" s="50"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
+      <c r="BB3" s="53"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="72" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="73">
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="55">
         <v>43032</v>
       </c>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="74"/>
-      <c r="AX4" s="74"/>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="75"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="57"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="56"/>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="67"/>
-      <c r="AR5" s="68"/>
-      <c r="AS5" s="68"/>
-      <c r="AT5" s="68"/>
-      <c r="AU5" s="76"/>
-      <c r="AV5" s="76"/>
-      <c r="AW5" s="76"/>
-      <c r="AX5" s="76"/>
-      <c r="AY5" s="76"/>
-      <c r="AZ5" s="76"/>
-      <c r="BA5" s="76"/>
-      <c r="BB5" s="77"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="67"/>
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="67"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="67"/>
+      <c r="AL5" s="67"/>
+      <c r="AM5" s="67"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="67"/>
+      <c r="AP5" s="68"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="58"/>
+      <c r="AW5" s="58"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58"/>
+      <c r="AZ5" s="58"/>
+      <c r="BA5" s="58"/>
+      <c r="BB5" s="59"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -19207,7 +19225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="K4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AR19" sqref="AR19"/>
     </sheetView>
   </sheetViews>
@@ -19260,246 +19278,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="52" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="72" t="s">
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69">
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51">
         <v>1</v>
       </c>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="69" t="s">
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69">
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51">
         <v>4</v>
       </c>
-      <c r="BB2" s="70"/>
+      <c r="BB2" s="52"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="54" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="67" t="s">
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="68"/>
-      <c r="BA3" s="68"/>
-      <c r="BB3" s="71"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="50"/>
+      <c r="AU3" s="50"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
+      <c r="BB3" s="53"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="72" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="73">
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="55">
         <v>43032</v>
       </c>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="74"/>
-      <c r="AX4" s="74"/>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="75"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="57"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="56"/>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="67"/>
-      <c r="AR5" s="68"/>
-      <c r="AS5" s="68"/>
-      <c r="AT5" s="68"/>
-      <c r="AU5" s="76"/>
-      <c r="AV5" s="76"/>
-      <c r="AW5" s="76"/>
-      <c r="AX5" s="76"/>
-      <c r="AY5" s="76"/>
-      <c r="AZ5" s="76"/>
-      <c r="BA5" s="76"/>
-      <c r="BB5" s="77"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="67"/>
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="67"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="67"/>
+      <c r="AL5" s="67"/>
+      <c r="AM5" s="67"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="67"/>
+      <c r="AP5" s="68"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="58"/>
+      <c r="AW5" s="58"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58"/>
+      <c r="AZ5" s="58"/>
+      <c r="BA5" s="58"/>
+      <c r="BB5" s="59"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -20959,7 +20977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P14" sqref="P14:AA23"/>
     </sheetView>
   </sheetViews>
@@ -21009,246 +21027,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="52" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="72" t="s">
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69">
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51">
         <v>1</v>
       </c>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="69" t="s">
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69">
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51">
         <v>5</v>
       </c>
-      <c r="BB2" s="70"/>
+      <c r="BB2" s="52"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="54" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="67" t="s">
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="68"/>
-      <c r="BA3" s="68"/>
-      <c r="BB3" s="71"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="50"/>
+      <c r="AU3" s="50"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
+      <c r="BB3" s="53"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="72" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="73">
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="55">
         <v>43032</v>
       </c>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="74"/>
-      <c r="AX4" s="74"/>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="75"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="57"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="56"/>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="67"/>
-      <c r="AR5" s="68"/>
-      <c r="AS5" s="68"/>
-      <c r="AT5" s="68"/>
-      <c r="AU5" s="76"/>
-      <c r="AV5" s="76"/>
-      <c r="AW5" s="76"/>
-      <c r="AX5" s="76"/>
-      <c r="AY5" s="76"/>
-      <c r="AZ5" s="76"/>
-      <c r="BA5" s="76"/>
-      <c r="BB5" s="77"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="67"/>
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="67"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="67"/>
+      <c r="AL5" s="67"/>
+      <c r="AM5" s="67"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="67"/>
+      <c r="AP5" s="68"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="58"/>
+      <c r="AW5" s="58"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58"/>
+      <c r="AZ5" s="58"/>
+      <c r="BA5" s="58"/>
+      <c r="BB5" s="59"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -22647,8 +22665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25:U25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -22697,246 +22715,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="52" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="72" t="s">
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69">
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51">
         <v>1</v>
       </c>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="69" t="s">
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69">
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51">
         <v>6</v>
       </c>
-      <c r="BB2" s="70"/>
+      <c r="BB2" s="52"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="54" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="67" t="s">
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="68"/>
-      <c r="BA3" s="68"/>
-      <c r="BB3" s="71"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="50"/>
+      <c r="AU3" s="50"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
+      <c r="BB3" s="53"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="72" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="73">
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="55">
         <v>43032</v>
       </c>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="74"/>
-      <c r="AX4" s="74"/>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="75"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="57"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="56"/>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="67"/>
-      <c r="AR5" s="68"/>
-      <c r="AS5" s="68"/>
-      <c r="AT5" s="68"/>
-      <c r="AU5" s="76"/>
-      <c r="AV5" s="76"/>
-      <c r="AW5" s="76"/>
-      <c r="AX5" s="76"/>
-      <c r="AY5" s="76"/>
-      <c r="AZ5" s="76"/>
-      <c r="BA5" s="76"/>
-      <c r="BB5" s="77"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="67"/>
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="67"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="67"/>
+      <c r="AL5" s="67"/>
+      <c r="AM5" s="67"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="67"/>
+      <c r="AP5" s="68"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="58"/>
+      <c r="AW5" s="58"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58"/>
+      <c r="AZ5" s="58"/>
+      <c r="BA5" s="58"/>
+      <c r="BB5" s="59"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -24463,246 +24481,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="52" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="72" t="s">
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69">
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51">
         <v>1</v>
       </c>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="69" t="s">
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69">
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51">
         <v>7</v>
       </c>
-      <c r="BB2" s="70"/>
+      <c r="BB2" s="52"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="54" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="67" t="s">
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="68"/>
-      <c r="BA3" s="68"/>
-      <c r="BB3" s="71"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="50"/>
+      <c r="AU3" s="50"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
+      <c r="BB3" s="53"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="72" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="73">
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="55">
         <v>43032</v>
       </c>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="74"/>
-      <c r="AX4" s="74"/>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="75"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="57"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="56"/>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="67"/>
-      <c r="AR5" s="68"/>
-      <c r="AS5" s="68"/>
-      <c r="AT5" s="68"/>
-      <c r="AU5" s="76"/>
-      <c r="AV5" s="76"/>
-      <c r="AW5" s="76"/>
-      <c r="AX5" s="76"/>
-      <c r="AY5" s="76"/>
-      <c r="AZ5" s="76"/>
-      <c r="BA5" s="76"/>
-      <c r="BB5" s="77"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="67"/>
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="67"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="67"/>
+      <c r="AL5" s="67"/>
+      <c r="AM5" s="67"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="67"/>
+      <c r="AP5" s="68"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="58"/>
+      <c r="AW5" s="58"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58"/>
+      <c r="AZ5" s="58"/>
+      <c r="BA5" s="58"/>
+      <c r="BB5" s="59"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -26149,246 +26167,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="52" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="72" t="s">
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69">
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51">
         <v>1</v>
       </c>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="69" t="s">
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69">
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51">
         <v>8</v>
       </c>
-      <c r="BB2" s="70"/>
+      <c r="BB2" s="52"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="54" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="67" t="s">
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="68"/>
-      <c r="BA3" s="68"/>
-      <c r="BB3" s="71"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="50"/>
+      <c r="AU3" s="50"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
+      <c r="BB3" s="53"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="72" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="73">
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="55">
         <v>43032</v>
       </c>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="74"/>
-      <c r="AX4" s="74"/>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="75"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="57"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="56"/>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="67"/>
-      <c r="AR5" s="68"/>
-      <c r="AS5" s="68"/>
-      <c r="AT5" s="68"/>
-      <c r="AU5" s="76"/>
-      <c r="AV5" s="76"/>
-      <c r="AW5" s="76"/>
-      <c r="AX5" s="76"/>
-      <c r="AY5" s="76"/>
-      <c r="AZ5" s="76"/>
-      <c r="BA5" s="76"/>
-      <c r="BB5" s="77"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="67"/>
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="67"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="67"/>
+      <c r="AL5" s="67"/>
+      <c r="AM5" s="67"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="67"/>
+      <c r="AP5" s="68"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="58"/>
+      <c r="AW5" s="58"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58"/>
+      <c r="AZ5" s="58"/>
+      <c r="BA5" s="58"/>
+      <c r="BB5" s="59"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -27833,246 +27851,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="52" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="72" t="s">
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69">
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51">
         <v>1</v>
       </c>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="69" t="s">
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69">
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51">
         <v>9</v>
       </c>
-      <c r="BB2" s="70"/>
+      <c r="BB2" s="52"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="54" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="67" t="s">
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="68"/>
-      <c r="BA3" s="68"/>
-      <c r="BB3" s="71"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="50"/>
+      <c r="AU3" s="50"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
+      <c r="BB3" s="53"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="72" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="73">
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="55">
         <v>43032</v>
       </c>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="74"/>
-      <c r="AX4" s="74"/>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="75"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="57"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="56"/>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="67"/>
-      <c r="AR5" s="68"/>
-      <c r="AS5" s="68"/>
-      <c r="AT5" s="68"/>
-      <c r="AU5" s="76"/>
-      <c r="AV5" s="76"/>
-      <c r="AW5" s="76"/>
-      <c r="AX5" s="76"/>
-      <c r="AY5" s="76"/>
-      <c r="AZ5" s="76"/>
-      <c r="BA5" s="76"/>
-      <c r="BB5" s="77"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="67"/>
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="67"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="67"/>
+      <c r="AL5" s="67"/>
+      <c r="AM5" s="67"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="67"/>
+      <c r="AP5" s="68"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="58"/>
+      <c r="AW5" s="58"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58"/>
+      <c r="AZ5" s="58"/>
+      <c r="BA5" s="58"/>
+      <c r="BB5" s="59"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>

--- a/総合演習資料/2.外部設計/画面設計図.xlsx
+++ b/総合演習資料/2.外部設計/画面設計図.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7770" tabRatio="833" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7770" tabRatio="833" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン" sheetId="13" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="115">
   <si>
     <t>作成日付：</t>
     <rPh sb="0" eb="2">
@@ -998,6 +998,20 @@
   </si>
   <si>
     <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・旧パスワード</t>
+    <rPh sb="1" eb="2">
+      <t>キュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・新パスワード</t>
+    <rPh sb="1" eb="2">
+      <t>シン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -9969,8 +9983,8 @@
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>100853</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9980,7 +9994,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5894294" y="3115236"/>
-          <a:ext cx="2476500" cy="1322294"/>
+          <a:ext cx="2476500" cy="1613646"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -10175,7 +10189,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>修正画面は、新パスワード以外は</a:t>
+            <a:t>修正画面は、既存の情報が入力された状態で表示。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -10191,23 +10205,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>既存の情報が入力された状態で表示。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>但し、一般社員でログインしている場合、旧パスワードも空白</a:t>
+            <a:t>但し、一般社員でログインしている場合、旧パスワードと新パスワードは空白の状態で表示。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -15800,7 +15798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB38"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AS19" sqref="AS19"/>
     </sheetView>
   </sheetViews>
@@ -17515,7 +17513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB38"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="T1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="W3" sqref="W3:AP5"/>
     </sheetView>
   </sheetViews>
@@ -19226,7 +19224,7 @@
   <dimension ref="B1:BB33"/>
   <sheetViews>
     <sheetView topLeftCell="K4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AR19" sqref="AR19"/>
+      <selection activeCell="AR14" sqref="AR14:AR19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -20977,7 +20975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P14" sqref="P14:AA23"/>
     </sheetView>
   </sheetViews>
@@ -22665,8 +22663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AS26" sqref="AS26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -23404,7 +23402,9 @@
       <c r="AO14" s="4"/>
       <c r="AP14" s="4"/>
       <c r="AQ14" s="3"/>
-      <c r="AR14" s="4"/>
+      <c r="AR14" s="35" t="s">
+        <v>83</v>
+      </c>
       <c r="AS14" s="4"/>
       <c r="AT14" s="4"/>
       <c r="AU14" s="4"/>
@@ -23452,7 +23452,9 @@
       <c r="AO15" s="4"/>
       <c r="AP15" s="4"/>
       <c r="AQ15" s="3"/>
-      <c r="AR15" s="4"/>
+      <c r="AR15" s="35" t="s">
+        <v>84</v>
+      </c>
       <c r="AS15" s="4"/>
       <c r="AT15" s="4"/>
       <c r="AU15" s="4"/>
@@ -23503,7 +23505,9 @@
       <c r="AO16" s="4"/>
       <c r="AP16" s="4"/>
       <c r="AQ16" s="3"/>
-      <c r="AR16" s="4"/>
+      <c r="AR16" s="35" t="s">
+        <v>113</v>
+      </c>
       <c r="AS16" s="4"/>
       <c r="AT16" s="4"/>
       <c r="AU16" s="4"/>
@@ -23555,8 +23559,9 @@
       <c r="AO17" s="4"/>
       <c r="AP17" s="4"/>
       <c r="AQ17" s="3"/>
-      <c r="AR17" s="4"/>
-      <c r="AS17" s="4"/>
+      <c r="AR17" s="35" t="s">
+        <v>114</v>
+      </c>
       <c r="AT17" s="4"/>
       <c r="AU17" s="4"/>
       <c r="AV17" s="4"/>
@@ -23610,7 +23615,9 @@
       <c r="AO18" s="4"/>
       <c r="AP18" s="4"/>
       <c r="AQ18" s="3"/>
-      <c r="AR18" s="4"/>
+      <c r="AR18" s="35" t="s">
+        <v>86</v>
+      </c>
       <c r="AS18" s="4"/>
       <c r="AT18" s="4"/>
       <c r="AU18" s="4"/>
@@ -23665,7 +23672,9 @@
       <c r="AO19" s="4"/>
       <c r="AP19" s="4"/>
       <c r="AQ19" s="3"/>
-      <c r="AR19" s="4"/>
+      <c r="AR19" s="35" t="s">
+        <v>87</v>
+      </c>
       <c r="AS19" s="4"/>
       <c r="AT19" s="4"/>
       <c r="AU19" s="4"/>
@@ -23720,7 +23729,9 @@
       <c r="AO20" s="4"/>
       <c r="AP20" s="4"/>
       <c r="AQ20" s="3"/>
-      <c r="AR20" s="4"/>
+      <c r="AR20" s="35" t="s">
+        <v>90</v>
+      </c>
       <c r="AS20" s="4"/>
       <c r="AT20" s="4"/>
       <c r="AU20" s="4"/>
@@ -26119,7 +26130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>

--- a/総合演習資料/2.外部設計/画面設計図.xlsx
+++ b/総合演習資料/2.外部設計/画面設計図.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7770" tabRatio="833" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7770" tabRatio="833"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン" sheetId="13" r:id="rId1"/>
@@ -432,10 +432,6 @@
     <rPh sb="7" eb="10">
       <t>イッパンヨウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パースワード：</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1012,6 +1008,10 @@
     <rPh sb="1" eb="2">
       <t>シン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード：</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -10782,7 +10782,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -10898,7 +10900,7 @@
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="73"/>
       <c r="D3" s="73"/>
@@ -10921,7 +10923,7 @@
       <c r="U3" s="73"/>
       <c r="V3" s="74"/>
       <c r="W3" s="65" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X3" s="65"/>
       <c r="Y3" s="65"/>
@@ -11599,14 +11601,14 @@
       <c r="N17" s="4"/>
       <c r="O17" s="3"/>
       <c r="P17" s="20" t="s">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="20"/>
       <c r="R17" s="20"/>
       <c r="S17" s="20"/>
       <c r="T17" s="21"/>
       <c r="U17" s="60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V17" s="61"/>
       <c r="W17" s="61"/>
@@ -12624,7 +12626,7 @@
       <c r="U3" s="73"/>
       <c r="V3" s="74"/>
       <c r="W3" s="65" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X3" s="65"/>
       <c r="Y3" s="65"/>
@@ -12927,7 +12929,7 @@
       <c r="AP8" s="15"/>
       <c r="AQ8" s="3"/>
       <c r="AR8" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AS8" s="4"/>
       <c r="AT8" s="4"/>
@@ -12980,7 +12982,7 @@
       <c r="AP9" s="15"/>
       <c r="AQ9" s="3"/>
       <c r="AR9" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AS9" s="4"/>
       <c r="AT9" s="4"/>
@@ -13282,7 +13284,7 @@
       <c r="N16" s="4"/>
       <c r="O16" s="3"/>
       <c r="P16" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q16" s="20"/>
       <c r="R16" s="20"/>
@@ -13326,13 +13328,13 @@
       <c r="N17" s="4"/>
       <c r="O17" s="3"/>
       <c r="P17" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="U17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC17" s="5"/>
       <c r="AD17" s="4"/>
@@ -13374,13 +13376,13 @@
       <c r="N18" s="4"/>
       <c r="O18" s="3"/>
       <c r="P18" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
       <c r="U18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AC18" s="5"/>
       <c r="AH18" s="4"/>
@@ -13421,13 +13423,13 @@
       <c r="N19" s="4"/>
       <c r="O19" s="3"/>
       <c r="P19" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
       <c r="U19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AC19" s="5"/>
       <c r="AH19" s="4"/>
@@ -13468,7 +13470,7 @@
       <c r="N20" s="4"/>
       <c r="O20" s="3"/>
       <c r="P20" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="U20" t="s">
         <v>12</v>
@@ -13614,7 +13616,7 @@
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
       <c r="U23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AC23" s="5"/>
       <c r="AD23" s="4"/>
@@ -13656,13 +13658,13 @@
       <c r="N24" s="4"/>
       <c r="O24" s="3"/>
       <c r="P24" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
       <c r="U24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AC24" s="5"/>
       <c r="AD24" s="4"/>
@@ -13704,7 +13706,7 @@
       <c r="N25" s="4"/>
       <c r="O25" s="3"/>
       <c r="P25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U25">
         <v>1001</v>
@@ -13752,7 +13754,7 @@
       <c r="N26" s="4"/>
       <c r="O26" s="3"/>
       <c r="P26" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q26" s="4"/>
       <c r="U26" t="s">
@@ -14232,7 +14234,7 @@
       <c r="AO2" s="63"/>
       <c r="AP2" s="64"/>
       <c r="AQ2" s="54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AR2" s="51"/>
       <c r="AS2" s="51"/>
@@ -14242,7 +14244,7 @@
       </c>
       <c r="AV2" s="52"/>
       <c r="AW2" s="51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AX2" s="51"/>
       <c r="AY2" s="51"/>
@@ -14277,7 +14279,7 @@
       <c r="U3" s="73"/>
       <c r="V3" s="74"/>
       <c r="W3" s="65" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X3" s="65"/>
       <c r="Y3" s="65"/>
@@ -14299,7 +14301,7 @@
       <c r="AO3" s="65"/>
       <c r="AP3" s="66"/>
       <c r="AQ3" s="49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AR3" s="50"/>
       <c r="AS3" s="50"/>
@@ -14580,7 +14582,7 @@
       <c r="AP8" s="15"/>
       <c r="AQ8" s="3"/>
       <c r="AR8" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AS8" s="4"/>
       <c r="AT8" s="4"/>
@@ -14633,7 +14635,7 @@
       <c r="AP9" s="15"/>
       <c r="AQ9" s="3"/>
       <c r="AR9" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AS9" s="4"/>
       <c r="AT9" s="4"/>
@@ -14724,7 +14726,7 @@
       <c r="AP11" s="4"/>
       <c r="AQ11" s="3"/>
       <c r="AR11" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AS11" s="4"/>
       <c r="AT11" s="4"/>
@@ -14772,7 +14774,7 @@
       <c r="AP12" s="4"/>
       <c r="AQ12" s="3"/>
       <c r="AR12" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AS12" s="4"/>
       <c r="AT12" s="4"/>
@@ -14942,7 +14944,7 @@
       <c r="N16" s="4"/>
       <c r="O16" s="3"/>
       <c r="P16" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q16" s="20"/>
       <c r="R16" s="20"/>
@@ -14986,13 +14988,13 @@
       <c r="N17" s="4"/>
       <c r="O17" s="3"/>
       <c r="P17" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="U17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC17" s="5"/>
       <c r="AD17" s="4"/>
@@ -15034,13 +15036,13 @@
       <c r="N18" s="4"/>
       <c r="O18" s="3"/>
       <c r="P18" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
       <c r="U18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AC18" s="5"/>
       <c r="AH18" s="4"/>
@@ -15081,13 +15083,13 @@
       <c r="N19" s="4"/>
       <c r="O19" s="3"/>
       <c r="P19" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
       <c r="U19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AC19" s="5"/>
       <c r="AH19" s="4"/>
@@ -15128,7 +15130,7 @@
       <c r="N20" s="4"/>
       <c r="O20" s="3"/>
       <c r="P20" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="U20" t="s">
         <v>12</v>
@@ -15274,7 +15276,7 @@
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
       <c r="U23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AC23" s="5"/>
       <c r="AD23" s="4"/>
@@ -15316,13 +15318,13 @@
       <c r="N24" s="4"/>
       <c r="O24" s="3"/>
       <c r="P24" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
       <c r="U24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AC24" s="5"/>
       <c r="AD24" s="4"/>
@@ -15364,7 +15366,7 @@
       <c r="N25" s="4"/>
       <c r="O25" s="3"/>
       <c r="P25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U25">
         <v>1001</v>
@@ -15412,7 +15414,7 @@
       <c r="N26" s="4"/>
       <c r="O26" s="3"/>
       <c r="P26" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q26" s="4"/>
       <c r="U26" t="s">
@@ -15799,7 +15801,7 @@
   <dimension ref="B1:BB38"/>
   <sheetViews>
     <sheetView topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AS19" sqref="AS19"/>
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15939,7 +15941,7 @@
       <c r="U3" s="73"/>
       <c r="V3" s="74"/>
       <c r="W3" s="65" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X3" s="65"/>
       <c r="Y3" s="65"/>
@@ -16159,7 +16161,7 @@
       <c r="M7" s="15"/>
       <c r="N7" s="15"/>
       <c r="O7" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P7" s="41"/>
       <c r="Q7" s="41"/>
@@ -16216,7 +16218,7 @@
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
       <c r="O8" s="43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P8" s="44"/>
       <c r="Q8" s="44"/>
@@ -17654,7 +17656,7 @@
       <c r="U3" s="73"/>
       <c r="V3" s="74"/>
       <c r="W3" s="65" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X3" s="65"/>
       <c r="Y3" s="65"/>
@@ -19367,7 +19369,7 @@
       <c r="U3" s="73"/>
       <c r="V3" s="74"/>
       <c r="W3" s="65" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X3" s="65"/>
       <c r="Y3" s="65"/>
@@ -19389,7 +19391,7 @@
       <c r="AO3" s="65"/>
       <c r="AP3" s="66"/>
       <c r="AQ3" s="49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AR3" s="50"/>
       <c r="AS3" s="50"/>
@@ -19655,7 +19657,7 @@
       <c r="AP8" s="15"/>
       <c r="AQ8" s="3"/>
       <c r="AR8" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AS8" s="4"/>
       <c r="AT8" s="4"/>
@@ -19706,7 +19708,7 @@
       <c r="AP9" s="15"/>
       <c r="AQ9" s="3"/>
       <c r="AR9" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AS9" s="4"/>
       <c r="AT9" s="4"/>
@@ -19782,7 +19784,7 @@
       <c r="N11" s="4"/>
       <c r="O11" s="3"/>
       <c r="P11" s="46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q11" s="47"/>
       <c r="R11" s="47"/>
@@ -19810,7 +19812,7 @@
       <c r="AP11" s="4"/>
       <c r="AQ11" s="3"/>
       <c r="AR11" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AS11" s="4"/>
       <c r="AT11" s="4"/>
@@ -19848,7 +19850,7 @@
       <c r="AP12" s="4"/>
       <c r="AQ12" s="3"/>
       <c r="AR12" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AS12" s="4"/>
       <c r="AT12" s="4"/>
@@ -19873,7 +19875,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="3"/>
       <c r="P13" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q13" s="20"/>
       <c r="R13" s="20"/>
@@ -19927,7 +19929,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="3"/>
       <c r="P14" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
@@ -19957,7 +19959,7 @@
       <c r="AP14" s="4"/>
       <c r="AQ14" s="3"/>
       <c r="AR14" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AS14" s="4"/>
       <c r="AT14" s="4"/>
@@ -19983,7 +19985,7 @@
       <c r="N15" s="4"/>
       <c r="O15" s="3"/>
       <c r="P15" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q15" s="20"/>
       <c r="R15" s="20"/>
@@ -20012,7 +20014,7 @@
       <c r="AP15" s="4"/>
       <c r="AQ15" s="3"/>
       <c r="AR15" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AS15" s="4"/>
       <c r="AT15" s="4"/>
@@ -20038,14 +20040,14 @@
       <c r="N16" s="4"/>
       <c r="O16" s="3"/>
       <c r="P16" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="20"/>
       <c r="R16" s="20"/>
       <c r="S16" s="20"/>
       <c r="T16" s="21"/>
       <c r="U16" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V16" s="17"/>
       <c r="W16" s="17"/>
@@ -20066,7 +20068,7 @@
       <c r="AP16" s="4"/>
       <c r="AQ16" s="3"/>
       <c r="AR16" s="35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AS16" s="4"/>
       <c r="AT16" s="4"/>
@@ -20092,10 +20094,10 @@
       <c r="N17" s="4"/>
       <c r="O17" s="3"/>
       <c r="P17" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="U17" s="16" t="s">
         <v>75</v>
-      </c>
-      <c r="U17" s="16" t="s">
-        <v>76</v>
       </c>
       <c r="V17" s="17"/>
       <c r="W17" s="17"/>
@@ -20117,7 +20119,7 @@
       <c r="AP17" s="4"/>
       <c r="AQ17" s="3"/>
       <c r="AR17" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AS17" s="4"/>
       <c r="AT17" s="4"/>
@@ -20146,14 +20148,14 @@
       <c r="N18" s="4"/>
       <c r="O18" s="3"/>
       <c r="P18" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
       <c r="U18" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V18" s="17"/>
       <c r="W18" s="17"/>
@@ -20174,7 +20176,7 @@
       <c r="AP18" s="4"/>
       <c r="AQ18" s="3"/>
       <c r="AR18" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AS18" s="4"/>
       <c r="AT18" s="4"/>
@@ -20231,7 +20233,7 @@
       <c r="AP19" s="4"/>
       <c r="AQ19" s="3"/>
       <c r="AR19" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AS19" s="4"/>
       <c r="AT19" s="4"/>
@@ -20322,7 +20324,7 @@
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V21" s="17"/>
       <c r="W21" s="17"/>
@@ -20373,14 +20375,14 @@
       <c r="N22" s="4"/>
       <c r="O22" s="3"/>
       <c r="P22" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
       <c r="U22" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="V22" s="17"/>
       <c r="W22" s="17"/>
@@ -20431,7 +20433,7 @@
       <c r="N23" s="4"/>
       <c r="O23" s="3"/>
       <c r="P23" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
@@ -20489,7 +20491,7 @@
       <c r="N24" s="4"/>
       <c r="O24" s="3"/>
       <c r="P24" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
@@ -21116,7 +21118,7 @@
       <c r="U3" s="73"/>
       <c r="V3" s="74"/>
       <c r="W3" s="65" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X3" s="65"/>
       <c r="Y3" s="65"/>
@@ -21419,7 +21421,7 @@
       <c r="AP8" s="15"/>
       <c r="AQ8" s="3"/>
       <c r="AR8" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AS8" s="4"/>
       <c r="AT8" s="4"/>
@@ -21472,7 +21474,7 @@
       <c r="AP9" s="15"/>
       <c r="AQ9" s="3"/>
       <c r="AR9" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AS9" s="4"/>
       <c r="AT9" s="4"/>
@@ -21564,7 +21566,7 @@
       <c r="AP11" s="4"/>
       <c r="AQ11" s="3"/>
       <c r="AR11" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AS11" s="4"/>
       <c r="AT11" s="4"/>
@@ -21589,7 +21591,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="3"/>
       <c r="P12" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q12" s="20"/>
       <c r="R12" s="20"/>
@@ -21612,7 +21614,7 @@
       <c r="AP12" s="4"/>
       <c r="AQ12" s="3"/>
       <c r="AR12" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AS12" s="4"/>
       <c r="AT12" s="4"/>
@@ -21637,7 +21639,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="3"/>
       <c r="P13" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q13" s="20"/>
       <c r="R13" s="20"/>
@@ -21658,7 +21660,7 @@
       <c r="AP13" s="4"/>
       <c r="AQ13" s="3"/>
       <c r="AR13" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AS13" s="4"/>
       <c r="AT13" s="4"/>
@@ -21683,7 +21685,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="3"/>
       <c r="P14" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
@@ -21727,10 +21729,10 @@
       <c r="N15" s="4"/>
       <c r="O15" s="3"/>
       <c r="P15" s="39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="U15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD15" s="3"/>
       <c r="AG15" s="4"/>
@@ -21768,10 +21770,10 @@
       <c r="N16" s="4"/>
       <c r="O16" s="3"/>
       <c r="P16" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="U16" t="s">
         <v>75</v>
-      </c>
-      <c r="U16" t="s">
-        <v>76</v>
       </c>
       <c r="AC16" s="5"/>
       <c r="AD16" s="4"/>
@@ -21809,13 +21811,13 @@
       <c r="N17" s="4"/>
       <c r="O17" s="3"/>
       <c r="P17" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="U17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AC17" s="5"/>
       <c r="AD17" s="4"/>
@@ -21957,7 +21959,7 @@
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
       <c r="U20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AC20" s="5"/>
       <c r="AH20" s="4"/>
@@ -21998,10 +22000,10 @@
       <c r="N21" s="4"/>
       <c r="O21" s="3"/>
       <c r="P21" t="s">
+        <v>93</v>
+      </c>
+      <c r="U21" t="s">
         <v>94</v>
-      </c>
-      <c r="U21" t="s">
-        <v>95</v>
       </c>
       <c r="AC21" s="5"/>
       <c r="AD21" s="4"/>
@@ -22043,7 +22045,7 @@
       <c r="N22" s="4"/>
       <c r="O22" s="3"/>
       <c r="P22" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
@@ -22091,7 +22093,7 @@
       <c r="N23" s="4"/>
       <c r="O23" s="3"/>
       <c r="P23" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
@@ -22781,7 +22783,7 @@
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="72" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="73"/>
       <c r="D3" s="73"/>
@@ -22804,7 +22806,7 @@
       <c r="U3" s="73"/>
       <c r="V3" s="74"/>
       <c r="W3" s="65" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X3" s="65"/>
       <c r="Y3" s="65"/>
@@ -23107,7 +23109,7 @@
       <c r="AP8" s="15"/>
       <c r="AQ8" s="3"/>
       <c r="AR8" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AS8" s="4"/>
       <c r="AT8" s="4"/>
@@ -23147,7 +23149,7 @@
       <c r="AP9" s="15"/>
       <c r="AQ9" s="3"/>
       <c r="AR9" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AS9" s="4"/>
       <c r="AT9" s="4"/>
@@ -23225,7 +23227,7 @@
       <c r="N11" s="4"/>
       <c r="O11" s="3"/>
       <c r="P11" s="46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q11" s="47"/>
       <c r="R11" s="47"/>
@@ -23255,7 +23257,7 @@
       <c r="AP11" s="4"/>
       <c r="AQ11" s="3"/>
       <c r="AR11" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AS11" s="4"/>
       <c r="AT11" s="4"/>
@@ -23295,7 +23297,7 @@
       <c r="AP12" s="4"/>
       <c r="AQ12" s="3"/>
       <c r="AR12" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AS12" s="4"/>
       <c r="AT12" s="4"/>
@@ -23320,7 +23322,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="3"/>
       <c r="P13" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q13" s="20"/>
       <c r="R13" s="20"/>
@@ -23373,7 +23375,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="3"/>
       <c r="P14" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
@@ -23403,7 +23405,7 @@
       <c r="AP14" s="4"/>
       <c r="AQ14" s="3"/>
       <c r="AR14" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AS14" s="4"/>
       <c r="AT14" s="4"/>
@@ -23428,10 +23430,10 @@
       <c r="N15" s="4"/>
       <c r="O15" s="3"/>
       <c r="P15" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U15" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V15" s="17"/>
       <c r="W15" s="17"/>
@@ -23453,7 +23455,7 @@
       <c r="AP15" s="4"/>
       <c r="AQ15" s="3"/>
       <c r="AR15" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AS15" s="4"/>
       <c r="AT15" s="4"/>
@@ -23478,7 +23480,7 @@
       <c r="N16" s="4"/>
       <c r="O16" s="3"/>
       <c r="P16" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q16" s="20"/>
       <c r="R16" s="20"/>
@@ -23506,7 +23508,7 @@
       <c r="AP16" s="4"/>
       <c r="AQ16" s="3"/>
       <c r="AR16" s="35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AS16" s="4"/>
       <c r="AT16" s="4"/>
@@ -23531,14 +23533,14 @@
       <c r="N17" s="4"/>
       <c r="O17" s="3"/>
       <c r="P17" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q17" s="20"/>
       <c r="R17" s="20"/>
       <c r="S17" s="20"/>
       <c r="T17" s="21"/>
       <c r="U17" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V17" s="17"/>
       <c r="W17" s="17"/>
@@ -23560,7 +23562,7 @@
       <c r="AP17" s="4"/>
       <c r="AQ17" s="3"/>
       <c r="AR17" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AT17" s="4"/>
       <c r="AU17" s="4"/>
@@ -23588,14 +23590,14 @@
       <c r="N18" s="4"/>
       <c r="O18" s="3"/>
       <c r="P18" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
       <c r="U18" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V18" s="17"/>
       <c r="W18" s="17"/>
@@ -23616,7 +23618,7 @@
       <c r="AP18" s="4"/>
       <c r="AQ18" s="3"/>
       <c r="AR18" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AS18" s="4"/>
       <c r="AT18" s="4"/>
@@ -23673,7 +23675,7 @@
       <c r="AP19" s="4"/>
       <c r="AQ19" s="3"/>
       <c r="AR19" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AS19" s="4"/>
       <c r="AT19" s="4"/>
@@ -23730,7 +23732,7 @@
       <c r="AP20" s="4"/>
       <c r="AQ20" s="3"/>
       <c r="AR20" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AS20" s="4"/>
       <c r="AT20" s="4"/>
@@ -23766,7 +23768,7 @@
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V21" s="17"/>
       <c r="W21" s="17"/>
@@ -23815,14 +23817,14 @@
       <c r="N22" s="4"/>
       <c r="O22" s="3"/>
       <c r="P22" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
       <c r="U22" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="V22" s="17"/>
       <c r="W22" s="17"/>
@@ -23871,7 +23873,7 @@
       <c r="N23" s="4"/>
       <c r="O23" s="3"/>
       <c r="P23" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
@@ -23927,7 +23929,7 @@
       <c r="N24" s="4"/>
       <c r="O24" s="3"/>
       <c r="P24" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
@@ -23983,14 +23985,14 @@
       <c r="N25" s="4"/>
       <c r="O25" s="3"/>
       <c r="P25" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
       <c r="U25" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V25" s="17"/>
       <c r="W25" s="17"/>
@@ -24538,7 +24540,7 @@
       <c r="AO2" s="63"/>
       <c r="AP2" s="64"/>
       <c r="AQ2" s="54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AR2" s="51"/>
       <c r="AS2" s="51"/>
@@ -24548,7 +24550,7 @@
       </c>
       <c r="AV2" s="52"/>
       <c r="AW2" s="51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AX2" s="51"/>
       <c r="AY2" s="51"/>
@@ -24583,7 +24585,7 @@
       <c r="U3" s="73"/>
       <c r="V3" s="74"/>
       <c r="W3" s="65" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X3" s="65"/>
       <c r="Y3" s="65"/>
@@ -24605,7 +24607,7 @@
       <c r="AO3" s="65"/>
       <c r="AP3" s="66"/>
       <c r="AQ3" s="49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AR3" s="50"/>
       <c r="AS3" s="50"/>
@@ -24886,7 +24888,7 @@
       <c r="AP8" s="15"/>
       <c r="AQ8" s="3"/>
       <c r="AR8" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AS8" s="4"/>
       <c r="AT8" s="4"/>
@@ -24939,7 +24941,7 @@
       <c r="AP9" s="15"/>
       <c r="AQ9" s="3"/>
       <c r="AR9" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AS9" s="4"/>
       <c r="AT9" s="4"/>
@@ -25031,7 +25033,7 @@
       <c r="AP11" s="4"/>
       <c r="AQ11" s="3"/>
       <c r="AR11" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AS11" s="4"/>
       <c r="AT11" s="4"/>
@@ -25056,7 +25058,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="3"/>
       <c r="P12" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q12" s="20"/>
       <c r="R12" s="20"/>
@@ -25079,7 +25081,7 @@
       <c r="AP12" s="4"/>
       <c r="AQ12" s="3"/>
       <c r="AR12" s="35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AS12" s="4"/>
       <c r="AT12" s="4"/>
@@ -25104,13 +25106,13 @@
       <c r="N13" s="4"/>
       <c r="O13" s="3"/>
       <c r="P13" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q13" s="20"/>
       <c r="R13" s="20"/>
       <c r="S13" s="20"/>
       <c r="U13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AD13" s="3"/>
       <c r="AG13" s="4"/>
@@ -25125,7 +25127,7 @@
       <c r="AP13" s="4"/>
       <c r="AQ13" s="3"/>
       <c r="AR13" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AS13" s="4"/>
       <c r="AT13" s="4"/>
@@ -25150,7 +25152,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="3"/>
       <c r="P14" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
@@ -25194,10 +25196,10 @@
       <c r="N15" s="4"/>
       <c r="O15" s="3"/>
       <c r="P15" s="39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="U15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD15" s="3"/>
       <c r="AG15" s="4"/>
@@ -25235,13 +25237,13 @@
       <c r="N16" s="4"/>
       <c r="O16" s="3"/>
       <c r="P16" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
       <c r="U16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AC16" s="5"/>
       <c r="AD16" s="4"/>
@@ -25380,7 +25382,7 @@
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
       <c r="U19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AC19" s="5"/>
       <c r="AH19" s="4"/>
@@ -25421,10 +25423,10 @@
       <c r="N20" s="4"/>
       <c r="O20" s="3"/>
       <c r="P20" t="s">
+        <v>93</v>
+      </c>
+      <c r="U20" t="s">
         <v>94</v>
-      </c>
-      <c r="U20" t="s">
-        <v>95</v>
       </c>
       <c r="AC20" s="5"/>
       <c r="AH20" s="4"/>
@@ -25465,7 +25467,7 @@
       <c r="N21" s="4"/>
       <c r="O21" s="3"/>
       <c r="P21" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
@@ -25513,7 +25515,7 @@
       <c r="N22" s="4"/>
       <c r="O22" s="3"/>
       <c r="P22" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
@@ -25561,10 +25563,10 @@
       <c r="N23" s="4"/>
       <c r="O23" s="3"/>
       <c r="P23" t="s">
+        <v>109</v>
+      </c>
+      <c r="U23" t="s">
         <v>110</v>
-      </c>
-      <c r="U23" t="s">
-        <v>111</v>
       </c>
       <c r="AC23" s="5"/>
       <c r="AD23" s="4"/>
@@ -26130,7 +26132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -26224,7 +26226,7 @@
       <c r="AO2" s="63"/>
       <c r="AP2" s="64"/>
       <c r="AQ2" s="54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AR2" s="51"/>
       <c r="AS2" s="51"/>
@@ -26234,7 +26236,7 @@
       </c>
       <c r="AV2" s="52"/>
       <c r="AW2" s="51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AX2" s="51"/>
       <c r="AY2" s="51"/>
@@ -26269,7 +26271,7 @@
       <c r="U3" s="73"/>
       <c r="V3" s="74"/>
       <c r="W3" s="65" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X3" s="65"/>
       <c r="Y3" s="65"/>
@@ -26291,7 +26293,7 @@
       <c r="AO3" s="65"/>
       <c r="AP3" s="66"/>
       <c r="AQ3" s="49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AR3" s="50"/>
       <c r="AS3" s="50"/>
@@ -26572,7 +26574,7 @@
       <c r="AP8" s="15"/>
       <c r="AQ8" s="3"/>
       <c r="AR8" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AS8" s="4"/>
       <c r="AT8" s="4"/>
@@ -26625,7 +26627,7 @@
       <c r="AP9" s="15"/>
       <c r="AQ9" s="3"/>
       <c r="AR9" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AS9" s="4"/>
       <c r="AT9" s="4"/>
@@ -26717,7 +26719,7 @@
       <c r="AP11" s="4"/>
       <c r="AQ11" s="3"/>
       <c r="AR11" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AS11" s="4"/>
       <c r="AT11" s="4"/>
@@ -26742,7 +26744,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="3"/>
       <c r="P12" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q12" s="20"/>
       <c r="R12" s="20"/>
@@ -26765,7 +26767,7 @@
       <c r="AP12" s="4"/>
       <c r="AQ12" s="3"/>
       <c r="AR12" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AS12" s="4"/>
       <c r="AT12" s="4"/>
@@ -26790,13 +26792,13 @@
       <c r="N13" s="4"/>
       <c r="O13" s="3"/>
       <c r="P13" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q13" s="20"/>
       <c r="R13" s="20"/>
       <c r="S13" s="20"/>
       <c r="U13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AD13" s="3"/>
       <c r="AG13" s="4"/>
@@ -26811,7 +26813,7 @@
       <c r="AP13" s="4"/>
       <c r="AQ13" s="3"/>
       <c r="AR13" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AS13" s="4"/>
       <c r="AT13" s="4"/>
@@ -26836,7 +26838,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="3"/>
       <c r="P14" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
@@ -26857,7 +26859,7 @@
       <c r="AP14" s="4"/>
       <c r="AQ14" s="3"/>
       <c r="AR14" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AS14" s="4"/>
       <c r="AT14" s="4"/>
@@ -26882,10 +26884,10 @@
       <c r="N15" s="4"/>
       <c r="O15" s="3"/>
       <c r="P15" s="39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="U15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD15" s="3"/>
       <c r="AG15" s="4"/>
@@ -26923,13 +26925,13 @@
       <c r="N16" s="4"/>
       <c r="O16" s="3"/>
       <c r="P16" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
       <c r="U16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AC16" s="5"/>
       <c r="AD16" s="4"/>
@@ -27068,7 +27070,7 @@
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
       <c r="U19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AC19" s="5"/>
       <c r="AH19" s="4"/>
@@ -27109,10 +27111,10 @@
       <c r="N20" s="4"/>
       <c r="O20" s="3"/>
       <c r="P20" t="s">
+        <v>93</v>
+      </c>
+      <c r="U20" t="s">
         <v>94</v>
-      </c>
-      <c r="U20" t="s">
-        <v>95</v>
       </c>
       <c r="AC20" s="5"/>
       <c r="AH20" s="4"/>
@@ -27153,7 +27155,7 @@
       <c r="N21" s="4"/>
       <c r="O21" s="3"/>
       <c r="P21" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
@@ -27201,7 +27203,7 @@
       <c r="N22" s="4"/>
       <c r="O22" s="3"/>
       <c r="P22" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
@@ -27490,7 +27492,7 @@
       <c r="N28" s="4"/>
       <c r="O28" s="3"/>
       <c r="P28" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
@@ -27953,7 +27955,7 @@
       <c r="U3" s="73"/>
       <c r="V3" s="74"/>
       <c r="W3" s="65" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X3" s="65"/>
       <c r="Y3" s="65"/>
@@ -28256,7 +28258,7 @@
       <c r="AP8" s="15"/>
       <c r="AQ8" s="3"/>
       <c r="AR8" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AS8" s="4"/>
       <c r="AT8" s="4"/>
@@ -28309,7 +28311,7 @@
       <c r="AP9" s="15"/>
       <c r="AQ9" s="3"/>
       <c r="AR9" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AS9" s="4"/>
       <c r="AT9" s="4"/>
@@ -28401,7 +28403,7 @@
       <c r="AP11" s="4"/>
       <c r="AQ11" s="3"/>
       <c r="AR11" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AS11" s="4"/>
       <c r="AT11" s="4"/>
@@ -28449,7 +28451,7 @@
       <c r="AP12" s="4"/>
       <c r="AQ12" s="3"/>
       <c r="AR12" s="35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AS12" s="4"/>
       <c r="AT12" s="4"/>
@@ -28547,7 +28549,7 @@
       <c r="AP14" s="4"/>
       <c r="AQ14" s="3"/>
       <c r="AR14" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AS14" s="4"/>
       <c r="AT14" s="4"/>
@@ -28598,7 +28600,7 @@
       <c r="AP15" s="4"/>
       <c r="AQ15" s="3"/>
       <c r="AR15" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AS15" s="4"/>
       <c r="AT15" s="4"/>
@@ -28623,7 +28625,7 @@
       <c r="N16" s="4"/>
       <c r="O16" s="3"/>
       <c r="P16" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q16" s="20"/>
       <c r="R16" s="20"/>
@@ -28667,13 +28669,13 @@
       <c r="N17" s="4"/>
       <c r="O17" s="3"/>
       <c r="P17" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="U17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC17" s="5"/>
       <c r="AD17" s="4"/>
@@ -28715,13 +28717,13 @@
       <c r="N18" s="4"/>
       <c r="O18" s="3"/>
       <c r="P18" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
       <c r="U18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AC18" s="5"/>
       <c r="AH18" s="4"/>
@@ -28762,13 +28764,13 @@
       <c r="N19" s="4"/>
       <c r="O19" s="3"/>
       <c r="P19" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
       <c r="U19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AC19" s="5"/>
       <c r="AH19" s="4"/>
@@ -28809,7 +28811,7 @@
       <c r="N20" s="4"/>
       <c r="O20" s="3"/>
       <c r="P20" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="U20" t="s">
         <v>12</v>
@@ -28955,7 +28957,7 @@
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
       <c r="U23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AC23" s="5"/>
       <c r="AD23" s="4"/>
@@ -28997,13 +28999,13 @@
       <c r="N24" s="4"/>
       <c r="O24" s="3"/>
       <c r="P24" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
       <c r="U24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AC24" s="5"/>
       <c r="AD24" s="4"/>
@@ -29045,7 +29047,7 @@
       <c r="N25" s="4"/>
       <c r="O25" s="3"/>
       <c r="P25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U25">
         <v>1001</v>
@@ -29093,7 +29095,7 @@
       <c r="N26" s="4"/>
       <c r="O26" s="3"/>
       <c r="P26" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q26" s="4"/>
       <c r="U26" t="s">
@@ -29143,10 +29145,10 @@
       <c r="N27" s="4"/>
       <c r="O27" s="3"/>
       <c r="P27" t="s">
+        <v>109</v>
+      </c>
+      <c r="U27" t="s">
         <v>110</v>
-      </c>
-      <c r="U27" t="s">
-        <v>111</v>
       </c>
       <c r="AA27" s="4"/>
       <c r="AB27" s="4"/>

--- a/総合演習資料/2.外部設計/画面設計図.xlsx
+++ b/総合演習資料/2.外部設計/画面設計図.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptsg-user\Desktop\javaWeb2.git\総合演習資料\2.外部設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PTM-WORK\Desktop\java.git\総合演習資料\2.外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7770" tabRatio="833"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7770" tabRatio="833" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン" sheetId="13" r:id="rId1"/>
@@ -1518,39 +1518,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1603,6 +1570,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10782,7 +10782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
@@ -10832,246 +10832,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69">
         <v>1</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="70"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="71"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="73">
         <v>43031</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="75"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="77"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -11506,16 +11506,16 @@
       <c r="R15" s="29"/>
       <c r="S15" s="29"/>
       <c r="T15" s="34"/>
-      <c r="U15" s="60">
+      <c r="U15" s="49">
         <v>199104101</v>
       </c>
-      <c r="V15" s="61"/>
-      <c r="W15" s="61"/>
-      <c r="X15" s="61"/>
-      <c r="Y15" s="61"/>
-      <c r="Z15" s="61"/>
-      <c r="AA15" s="61"/>
-      <c r="AB15" s="62"/>
+      <c r="V15" s="50"/>
+      <c r="W15" s="50"/>
+      <c r="X15" s="50"/>
+      <c r="Y15" s="50"/>
+      <c r="Z15" s="50"/>
+      <c r="AA15" s="50"/>
+      <c r="AB15" s="51"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="3"/>
       <c r="AG15" s="4"/>
@@ -11607,16 +11607,16 @@
       <c r="R17" s="20"/>
       <c r="S17" s="20"/>
       <c r="T17" s="21"/>
-      <c r="U17" s="60" t="s">
+      <c r="U17" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="V17" s="61"/>
-      <c r="W17" s="61"/>
-      <c r="X17" s="61"/>
-      <c r="Y17" s="61"/>
-      <c r="Z17" s="61"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="62"/>
+      <c r="V17" s="50"/>
+      <c r="W17" s="50"/>
+      <c r="X17" s="50"/>
+      <c r="Y17" s="50"/>
+      <c r="Z17" s="50"/>
+      <c r="AA17" s="50"/>
+      <c r="AB17" s="51"/>
       <c r="AC17" s="5"/>
       <c r="AD17" s="3"/>
       <c r="AH17" s="4"/>
@@ -12460,12 +12460,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="U15:AB15"/>
-    <mergeCell ref="U17:AB17"/>
-    <mergeCell ref="W2:AP2"/>
-    <mergeCell ref="W3:AP5"/>
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="B3:V5"/>
     <mergeCell ref="AQ3:AT3"/>
     <mergeCell ref="AU2:AV3"/>
     <mergeCell ref="AQ4:AT5"/>
@@ -12473,6 +12467,12 @@
     <mergeCell ref="BA2:BB3"/>
     <mergeCell ref="AW2:AZ3"/>
     <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="U15:AB15"/>
+    <mergeCell ref="U17:AB17"/>
+    <mergeCell ref="W2:AP2"/>
+    <mergeCell ref="W3:AP5"/>
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="B3:V5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12535,246 +12535,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69">
         <v>10</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="70"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="71"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="73">
         <v>43032</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="75"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="77"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -14188,246 +14188,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69">
         <v>11</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="70"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="71"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="73">
         <v>43032</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="75"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="77"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -15850,246 +15850,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69">
         <v>2</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="70"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="71"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="73">
         <v>43032</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="75"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="77"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -17515,7 +17515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB38"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="W3" sqref="W3:AP5"/>
     </sheetView>
   </sheetViews>
@@ -17565,246 +17565,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69">
         <v>3</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="70"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="71"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="73">
         <v>43032</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="75"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="77"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -19278,246 +19278,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69">
         <v>4</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="70"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="71"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="73">
         <v>43032</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="75"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="77"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -21027,246 +21027,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69">
         <v>5</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="70"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="71"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="73">
         <v>43032</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="75"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="77"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -22665,8 +22665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB33"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AS26" sqref="AS26"/>
+    <sheetView tabSelected="1" topLeftCell="J4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AI27" sqref="AI27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -22715,246 +22715,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69">
         <v>6</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="70"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="71"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="73">
         <v>43032</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="75"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="77"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -24494,246 +24494,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69">
         <v>7</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="70"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="71"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="73">
         <v>43032</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="75"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="77"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -26180,246 +26180,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69">
         <v>8</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="70"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="71"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="73">
         <v>43032</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="75"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="77"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -27864,246 +27864,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69">
         <v>9</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="70"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="71"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="73">
         <v>43032</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="75"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="77"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>

--- a/総合演習資料/2.外部設計/画面設計図.xlsx
+++ b/総合演習資料/2.外部設計/画面設計図.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7770" tabRatio="833"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7650" windowHeight="7695" tabRatio="833" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン" sheetId="13" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="115">
   <si>
     <t>作成日付：</t>
     <rPh sb="0" eb="2">
@@ -834,36 +834,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・入社年月</t>
-    <rPh sb="1" eb="3">
-      <t>ニュウシャ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ネンゲツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入社年月</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウシャ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ネンゲツ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>YYYY年MM月</t>
-    <rPh sb="4" eb="5">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・部署</t>
     <rPh sb="1" eb="3">
       <t>ブショ</t>
@@ -1012,6 +982,30 @@
   </si>
   <si>
     <t>パスワード：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ログインに失敗した場合、エラー</t>
+    <rPh sb="6" eb="8">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージはここに表示する。</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・性別</t>
+    <rPh sb="1" eb="3">
+      <t>セイベツ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1518,39 +1512,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1603,6 +1564,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9686,7 +9680,7 @@
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>145677</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>33617</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9697,7 +9691,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5927911" y="2823882"/>
-          <a:ext cx="2487707" cy="1624853"/>
+          <a:ext cx="2487707" cy="1423147"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -9752,38 +9746,6 @@
               </a:solidFill>
             </a:rPr>
             <a:t>・性別：男女</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>・入社年月：年のリスト（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>20</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>年分）と月のリスト</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -10048,38 +10010,6 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>・入社年月：年のリスト（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>20</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>年分）と月のリスト</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
             <a:t>・部署：部署名のリスト</a:t>
           </a:r>
         </a:p>
@@ -10236,15 +10166,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>91887</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>35860</xdr:rowOff>
+      <xdr:colOff>47063</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>17928</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>174810</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10253,8 +10183,79 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="293593" y="1828801"/>
-          <a:ext cx="2548217" cy="939052"/>
+          <a:off x="248769" y="2790264"/>
+          <a:ext cx="2548217" cy="874059"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 57622"/>
+            <a:gd name="adj2" fmla="val -49172"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>一般社員でログインしている場合、旧パスワードと新パスワード以外は修正不可</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>109817</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>40344</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>35858</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>179298</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="角丸四角形吹き出し 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="311523" y="2034991"/>
+          <a:ext cx="2548217" cy="542366"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -10292,7 +10293,23 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>一般社員でログインしている場合、旧パスワードと新パスワード以外は修正不可</a:t>
+            <a:t>社員</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>は修正不可（表示のみ）</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -10782,8 +10799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10832,246 +10849,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69">
         <v>1</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="70"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="71"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="73">
         <v>43031</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="75"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="77"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -11323,6 +11340,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
+      <c r="P11" s="7"/>
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
@@ -11361,9 +11379,23 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="2"/>
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
       <c r="AF12" s="4"/>
@@ -11400,21 +11432,23 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="15"/>
-      <c r="AC13" s="15"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="5"/>
       <c r="AD13" s="15"/>
       <c r="AG13" s="4"/>
       <c r="AH13" s="4"/>
@@ -11449,22 +11483,22 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="N14" s="4"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="2"/>
-      <c r="AD14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="4"/>
       <c r="AG14" s="4"/>
       <c r="AH14" s="4"/>
       <c r="AI14" s="4"/>
@@ -11506,16 +11540,16 @@
       <c r="R15" s="29"/>
       <c r="S15" s="29"/>
       <c r="T15" s="34"/>
-      <c r="U15" s="60">
+      <c r="U15" s="49">
         <v>199104101</v>
       </c>
-      <c r="V15" s="61"/>
-      <c r="W15" s="61"/>
-      <c r="X15" s="61"/>
-      <c r="Y15" s="61"/>
-      <c r="Z15" s="61"/>
-      <c r="AA15" s="61"/>
-      <c r="AB15" s="62"/>
+      <c r="V15" s="50"/>
+      <c r="W15" s="50"/>
+      <c r="X15" s="50"/>
+      <c r="Y15" s="50"/>
+      <c r="Z15" s="50"/>
+      <c r="AA15" s="50"/>
+      <c r="AB15" s="51"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="3"/>
       <c r="AG15" s="4"/>
@@ -11601,22 +11635,22 @@
       <c r="N17" s="4"/>
       <c r="O17" s="3"/>
       <c r="P17" s="20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Q17" s="20"/>
       <c r="R17" s="20"/>
       <c r="S17" s="20"/>
       <c r="T17" s="21"/>
-      <c r="U17" s="60" t="s">
+      <c r="U17" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="V17" s="61"/>
-      <c r="W17" s="61"/>
-      <c r="X17" s="61"/>
-      <c r="Y17" s="61"/>
-      <c r="Z17" s="61"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="62"/>
+      <c r="V17" s="50"/>
+      <c r="W17" s="50"/>
+      <c r="X17" s="50"/>
+      <c r="Y17" s="50"/>
+      <c r="Z17" s="50"/>
+      <c r="AA17" s="50"/>
+      <c r="AB17" s="51"/>
       <c r="AC17" s="5"/>
       <c r="AD17" s="3"/>
       <c r="AH17" s="4"/>
@@ -12460,12 +12494,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="U15:AB15"/>
-    <mergeCell ref="U17:AB17"/>
-    <mergeCell ref="W2:AP2"/>
-    <mergeCell ref="W3:AP5"/>
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="B3:V5"/>
     <mergeCell ref="AQ3:AT3"/>
     <mergeCell ref="AU2:AV3"/>
     <mergeCell ref="AQ4:AT5"/>
@@ -12473,6 +12501,12 @@
     <mergeCell ref="BA2:BB3"/>
     <mergeCell ref="AW2:AZ3"/>
     <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="U15:AB15"/>
+    <mergeCell ref="U17:AB17"/>
+    <mergeCell ref="W2:AP2"/>
+    <mergeCell ref="W3:AP5"/>
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="B3:V5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12486,7 +12520,7 @@
   <dimension ref="B1:BB33"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10:AC29"/>
+      <selection activeCell="P19" sqref="P19:Z27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12535,246 +12569,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69">
         <v>10</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="70"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="71"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="73">
         <v>43032</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="75"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="77"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -13284,7 +13318,7 @@
       <c r="N16" s="4"/>
       <c r="O16" s="3"/>
       <c r="P16" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="Q16" s="20"/>
       <c r="R16" s="20"/>
@@ -13328,13 +13362,13 @@
       <c r="N17" s="4"/>
       <c r="O17" s="3"/>
       <c r="P17" s="23" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="U17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AC17" s="5"/>
       <c r="AD17" s="4"/>
@@ -13422,14 +13456,11 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
+      <c r="P19" s="25" t="s">
+        <v>105</v>
+      </c>
       <c r="U19" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="AC19" s="5"/>
       <c r="AH19" s="4"/>
@@ -13469,11 +13500,14 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="25" t="s">
-        <v>108</v>
-      </c>
+      <c r="P20" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
       <c r="U20" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AC20" s="5"/>
       <c r="AH20" s="4"/>
@@ -13514,13 +13548,13 @@
       <c r="N21" s="4"/>
       <c r="O21" s="3"/>
       <c r="P21" s="23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="U21" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AC21" s="5"/>
       <c r="AD21" s="4"/>
@@ -13562,13 +13596,13 @@
       <c r="N22" s="4"/>
       <c r="O22" s="3"/>
       <c r="P22" s="23" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
       <c r="U22" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="AC22" s="5"/>
       <c r="AD22" s="4"/>
@@ -13610,13 +13644,13 @@
       <c r="N23" s="4"/>
       <c r="O23" s="3"/>
       <c r="P23" s="23" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
       <c r="U23" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="AC23" s="5"/>
       <c r="AD23" s="4"/>
@@ -13657,14 +13691,11 @@
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="3"/>
-      <c r="P24" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="U24" t="s">
-        <v>94</v>
+      <c r="P24" t="s">
+        <v>76</v>
+      </c>
+      <c r="U24">
+        <v>1001</v>
       </c>
       <c r="AC24" s="5"/>
       <c r="AD24" s="4"/>
@@ -13705,12 +13736,14 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="3"/>
-      <c r="P25" t="s">
-        <v>76</v>
-      </c>
-      <c r="U25">
-        <v>1001</v>
-      </c>
+      <c r="P25" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q25" s="4"/>
+      <c r="U25" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z25" s="4"/>
       <c r="AC25" s="5"/>
       <c r="AD25" s="4"/>
       <c r="AE25" s="4"/>
@@ -13753,14 +13786,8 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="23" t="s">
-        <v>77</v>
-      </c>
+      <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
-      <c r="U26" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z26" s="4"/>
       <c r="AC26" s="5"/>
       <c r="AD26" s="4"/>
       <c r="AE26" s="4"/>
@@ -13805,6 +13832,17 @@
       <c r="O27" s="3"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y27" s="37"/>
+      <c r="Z27" s="38"/>
       <c r="AA27" s="4"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="5"/>
@@ -13849,19 +13887,6 @@
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="3"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y28" s="37"/>
-      <c r="Z28" s="38"/>
       <c r="AA28" s="4"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="5"/>
@@ -14138,9 +14163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U29" sqref="U29"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -14188,246 +14211,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69">
         <v>11</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="70"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="71"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="73">
         <v>43032</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="75"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="77"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -14944,7 +14967,7 @@
       <c r="N16" s="4"/>
       <c r="O16" s="3"/>
       <c r="P16" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="Q16" s="20"/>
       <c r="R16" s="20"/>
@@ -14988,13 +15011,13 @@
       <c r="N17" s="4"/>
       <c r="O17" s="3"/>
       <c r="P17" s="23" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="U17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AC17" s="5"/>
       <c r="AD17" s="4"/>
@@ -15082,14 +15105,11 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
+      <c r="P19" s="25" t="s">
+        <v>105</v>
+      </c>
       <c r="U19" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="AC19" s="5"/>
       <c r="AH19" s="4"/>
@@ -15129,11 +15149,14 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="25" t="s">
-        <v>108</v>
-      </c>
+      <c r="P20" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
       <c r="U20" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AC20" s="5"/>
       <c r="AH20" s="4"/>
@@ -15174,13 +15197,13 @@
       <c r="N21" s="4"/>
       <c r="O21" s="3"/>
       <c r="P21" s="23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="U21" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AC21" s="5"/>
       <c r="AD21" s="4"/>
@@ -15222,13 +15245,13 @@
       <c r="N22" s="4"/>
       <c r="O22" s="3"/>
       <c r="P22" s="23" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
       <c r="U22" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="AC22" s="5"/>
       <c r="AD22" s="4"/>
@@ -15270,13 +15293,13 @@
       <c r="N23" s="4"/>
       <c r="O23" s="3"/>
       <c r="P23" s="23" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
       <c r="U23" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="AC23" s="5"/>
       <c r="AD23" s="4"/>
@@ -15317,14 +15340,11 @@
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="3"/>
-      <c r="P24" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="U24" t="s">
-        <v>94</v>
+      <c r="P24" t="s">
+        <v>76</v>
+      </c>
+      <c r="U24">
+        <v>1001</v>
       </c>
       <c r="AC24" s="5"/>
       <c r="AD24" s="4"/>
@@ -15365,12 +15385,14 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="3"/>
-      <c r="P25" t="s">
-        <v>76</v>
-      </c>
-      <c r="U25">
-        <v>1001</v>
-      </c>
+      <c r="P25" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q25" s="4"/>
+      <c r="U25" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z25" s="4"/>
       <c r="AC25" s="5"/>
       <c r="AD25" s="4"/>
       <c r="AE25" s="4"/>
@@ -15413,14 +15435,9 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="23" t="s">
-        <v>77</v>
-      </c>
+      <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
-      <c r="U26" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
       <c r="AC26" s="5"/>
       <c r="AD26" s="4"/>
       <c r="AE26" s="4"/>
@@ -15465,6 +15482,19 @@
       <c r="O27" s="3"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="V27" s="37"/>
+      <c r="W27" s="38"/>
+      <c r="X27" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y27" s="37"/>
+      <c r="Z27" s="38"/>
       <c r="AA27" s="4"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="5"/>
@@ -15509,22 +15539,6 @@
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="3"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="V28" s="37"/>
-      <c r="W28" s="38"/>
-      <c r="X28" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y28" s="37"/>
-      <c r="Z28" s="38"/>
-      <c r="AA28" s="4"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="5"/>
       <c r="AD28" s="4"/>
@@ -15800,7 +15814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB38"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
@@ -15850,246 +15864,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69">
         <v>2</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="70"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="71"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="73">
         <v>43032</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="75"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="77"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -17565,246 +17579,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69">
         <v>3</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="70"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="71"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="73">
         <v>43032</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="75"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="77"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -19225,8 +19239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB33"/>
   <sheetViews>
-    <sheetView topLeftCell="K4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AR14" sqref="AR14:AR19"/>
+    <sheetView topLeftCell="O4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AR19" sqref="AR19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -19278,246 +19292,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69">
         <v>4</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="70"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="71"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="73">
         <v>43032</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="75"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="77"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -19875,7 +19889,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="3"/>
       <c r="P13" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="20"/>
       <c r="R13" s="20"/>
@@ -19929,7 +19943,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="3"/>
       <c r="P14" s="20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
@@ -19985,7 +19999,7 @@
       <c r="N15" s="4"/>
       <c r="O15" s="3"/>
       <c r="P15" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="Q15" s="20"/>
       <c r="R15" s="20"/>
@@ -20040,14 +20054,14 @@
       <c r="N16" s="4"/>
       <c r="O16" s="3"/>
       <c r="P16" s="20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="20"/>
       <c r="R16" s="20"/>
       <c r="S16" s="20"/>
       <c r="T16" s="21"/>
       <c r="U16" s="16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="V16" s="17"/>
       <c r="W16" s="17"/>
@@ -20148,14 +20162,14 @@
       <c r="N18" s="4"/>
       <c r="O18" s="3"/>
       <c r="P18" s="23" t="s">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
       <c r="U18" s="16" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="V18" s="17"/>
       <c r="W18" s="17"/>
@@ -20176,7 +20190,7 @@
       <c r="AP18" s="4"/>
       <c r="AQ18" s="3"/>
       <c r="AR18" s="35" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="AS18" s="4"/>
       <c r="AT18" s="4"/>
@@ -20205,14 +20219,14 @@
       <c r="N19" s="4"/>
       <c r="O19" s="3"/>
       <c r="P19" s="23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
       <c r="U19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="V19" s="17"/>
       <c r="W19" s="17"/>
@@ -20233,7 +20247,7 @@
       <c r="AP19" s="4"/>
       <c r="AQ19" s="3"/>
       <c r="AR19" s="35" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AS19" s="4"/>
       <c r="AT19" s="4"/>
@@ -20262,14 +20276,14 @@
       <c r="N20" s="4"/>
       <c r="O20" s="3"/>
       <c r="P20" s="23" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
       <c r="U20" s="16" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="V20" s="17"/>
       <c r="W20" s="17"/>
@@ -20317,14 +20331,14 @@
       <c r="N21" s="4"/>
       <c r="O21" s="3"/>
       <c r="P21" s="23" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="16" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="V21" s="17"/>
       <c r="W21" s="17"/>
@@ -20375,14 +20389,14 @@
       <c r="N22" s="4"/>
       <c r="O22" s="3"/>
       <c r="P22" s="23" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
-      <c r="U22" s="16" t="s">
-        <v>95</v>
+      <c r="U22" s="16">
+        <v>1001</v>
       </c>
       <c r="V22" s="17"/>
       <c r="W22" s="17"/>
@@ -20433,14 +20447,14 @@
       <c r="N23" s="4"/>
       <c r="O23" s="3"/>
       <c r="P23" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
-      <c r="U23" s="16">
-        <v>1001</v>
+      <c r="U23" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="V23" s="17"/>
       <c r="W23" s="17"/>
@@ -20490,23 +20504,6 @@
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="3"/>
-      <c r="P24" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="V24" s="17"/>
-      <c r="W24" s="17"/>
-      <c r="X24" s="17"/>
-      <c r="Y24" s="17"/>
-      <c r="Z24" s="17"/>
-      <c r="AA24" s="17"/>
-      <c r="AB24" s="18"/>
       <c r="AC24" s="5"/>
       <c r="AD24" s="4"/>
       <c r="AE24" s="4"/>
@@ -20977,9 +20974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14:AA23"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -21027,246 +21022,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69">
         <v>5</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="70"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="71"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="73">
         <v>43032</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="75"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="77"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -21591,7 +21586,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="3"/>
       <c r="P12" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="Q12" s="20"/>
       <c r="R12" s="20"/>
@@ -21639,7 +21634,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="3"/>
       <c r="P13" s="20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="20"/>
       <c r="R13" s="20"/>
@@ -21685,7 +21680,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="3"/>
       <c r="P14" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
@@ -21729,10 +21724,10 @@
       <c r="N15" s="4"/>
       <c r="O15" s="3"/>
       <c r="P15" s="39" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AD15" s="3"/>
       <c r="AG15" s="4"/>
@@ -21811,13 +21806,13 @@
       <c r="N17" s="4"/>
       <c r="O17" s="3"/>
       <c r="P17" s="23" t="s">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="U17" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="AC17" s="5"/>
       <c r="AD17" s="4"/>
@@ -21859,13 +21854,13 @@
       <c r="N18" s="4"/>
       <c r="O18" s="3"/>
       <c r="P18" s="23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
       <c r="U18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AC18" s="5"/>
       <c r="AH18" s="4"/>
@@ -21906,13 +21901,13 @@
       <c r="N19" s="4"/>
       <c r="O19" s="3"/>
       <c r="P19" s="23" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
       <c r="U19" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="AC19" s="5"/>
       <c r="AH19" s="4"/>
@@ -21952,14 +21947,11 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
+      <c r="P20" t="s">
+        <v>90</v>
+      </c>
       <c r="U20" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="AC20" s="5"/>
       <c r="AH20" s="4"/>
@@ -21999,11 +21991,14 @@
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="3"/>
-      <c r="P21" t="s">
-        <v>93</v>
-      </c>
-      <c r="U21" t="s">
-        <v>94</v>
+      <c r="P21" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="U21">
+        <v>1001</v>
       </c>
       <c r="AC21" s="5"/>
       <c r="AD21" s="4"/>
@@ -22045,13 +22040,13 @@
       <c r="N22" s="4"/>
       <c r="O22" s="3"/>
       <c r="P22" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
-      <c r="U22">
-        <v>1001</v>
+      <c r="U22" t="s">
+        <v>18</v>
       </c>
       <c r="AC22" s="5"/>
       <c r="AD22" s="4"/>
@@ -22092,15 +22087,19 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="23" t="s">
-        <v>77</v>
+      <c r="P23" s="25" t="s">
+        <v>23</v>
       </c>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
-      <c r="U23" t="s">
-        <v>18</v>
-      </c>
+      <c r="T23" s="4"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="2"/>
       <c r="AC23" s="5"/>
       <c r="AD23" s="4"/>
       <c r="AH23" s="4"/>
@@ -22140,19 +22139,17 @@
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="3"/>
-      <c r="P24" s="25" t="s">
-        <v>23</v>
-      </c>
+      <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="2"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="5"/>
       <c r="AA24" s="4"/>
       <c r="AB24" s="4"/>
       <c r="AC24" s="5"/>
@@ -22199,12 +22196,12 @@
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="5"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="8"/>
       <c r="AC25" s="5"/>
       <c r="AD25" s="4"/>
       <c r="AE25" s="4"/>
@@ -22247,17 +22244,6 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="8"/>
       <c r="AC26" s="5"/>
       <c r="AD26" s="4"/>
       <c r="AE26" s="4"/>
@@ -22665,8 +22651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB33"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AS26" sqref="AS26"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AR15" sqref="AR15:AS18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -22715,246 +22701,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69">
         <v>6</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="70"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="71"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="73">
         <v>43032</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="75"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="77"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -23322,7 +23308,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="3"/>
       <c r="P13" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="20"/>
       <c r="R13" s="20"/>
@@ -23375,7 +23361,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="3"/>
       <c r="P14" s="20" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
@@ -23430,10 +23416,10 @@
       <c r="N15" s="4"/>
       <c r="O15" s="3"/>
       <c r="P15" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U15" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="V15" s="17"/>
       <c r="W15" s="17"/>
@@ -23455,7 +23441,7 @@
       <c r="AP15" s="4"/>
       <c r="AQ15" s="3"/>
       <c r="AR15" s="35" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="AS15" s="4"/>
       <c r="AT15" s="4"/>
@@ -23480,7 +23466,7 @@
       <c r="N16" s="4"/>
       <c r="O16" s="3"/>
       <c r="P16" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="Q16" s="20"/>
       <c r="R16" s="20"/>
@@ -23508,9 +23494,8 @@
       <c r="AP16" s="4"/>
       <c r="AQ16" s="3"/>
       <c r="AR16" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS16" s="4"/>
+        <v>110</v>
+      </c>
       <c r="AT16" s="4"/>
       <c r="AU16" s="4"/>
       <c r="AV16" s="4"/>
@@ -23533,14 +23518,14 @@
       <c r="N17" s="4"/>
       <c r="O17" s="3"/>
       <c r="P17" s="20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="Q17" s="20"/>
       <c r="R17" s="20"/>
       <c r="S17" s="20"/>
       <c r="T17" s="21"/>
       <c r="U17" s="16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="V17" s="17"/>
       <c r="W17" s="17"/>
@@ -23562,8 +23547,9 @@
       <c r="AP17" s="4"/>
       <c r="AQ17" s="3"/>
       <c r="AR17" s="35" t="s">
-        <v>113</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="AS17" s="4"/>
       <c r="AT17" s="4"/>
       <c r="AU17" s="4"/>
       <c r="AV17" s="4"/>
@@ -23590,14 +23576,14 @@
       <c r="N18" s="4"/>
       <c r="O18" s="3"/>
       <c r="P18" s="23" t="s">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
       <c r="U18" s="16" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="V18" s="17"/>
       <c r="W18" s="17"/>
@@ -23618,7 +23604,7 @@
       <c r="AP18" s="4"/>
       <c r="AQ18" s="3"/>
       <c r="AR18" s="35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AS18" s="4"/>
       <c r="AT18" s="4"/>
@@ -23647,14 +23633,14 @@
       <c r="N19" s="4"/>
       <c r="O19" s="3"/>
       <c r="P19" s="23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
       <c r="U19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="V19" s="17"/>
       <c r="W19" s="17"/>
@@ -23674,10 +23660,6 @@
       <c r="AO19" s="4"/>
       <c r="AP19" s="4"/>
       <c r="AQ19" s="3"/>
-      <c r="AR19" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="AS19" s="4"/>
       <c r="AT19" s="4"/>
       <c r="AU19" s="4"/>
       <c r="AV19" s="4"/>
@@ -23704,14 +23686,14 @@
       <c r="N20" s="4"/>
       <c r="O20" s="3"/>
       <c r="P20" s="23" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
       <c r="U20" s="16" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="V20" s="17"/>
       <c r="W20" s="17"/>
@@ -23731,9 +23713,6 @@
       <c r="AO20" s="4"/>
       <c r="AP20" s="4"/>
       <c r="AQ20" s="3"/>
-      <c r="AR20" s="35" t="s">
-        <v>89</v>
-      </c>
       <c r="AS20" s="4"/>
       <c r="AT20" s="4"/>
       <c r="AU20" s="4"/>
@@ -23761,14 +23740,14 @@
       <c r="N21" s="4"/>
       <c r="O21" s="3"/>
       <c r="P21" s="23" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="16" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="V21" s="17"/>
       <c r="W21" s="17"/>
@@ -23817,14 +23796,14 @@
       <c r="N22" s="4"/>
       <c r="O22" s="3"/>
       <c r="P22" s="23" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
-      <c r="U22" s="16" t="s">
-        <v>95</v>
+      <c r="U22" s="16">
+        <v>1001</v>
       </c>
       <c r="V22" s="17"/>
       <c r="W22" s="17"/>
@@ -23873,14 +23852,14 @@
       <c r="N23" s="4"/>
       <c r="O23" s="3"/>
       <c r="P23" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
-      <c r="U23" s="16">
-        <v>1001</v>
+      <c r="U23" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="V23" s="17"/>
       <c r="W23" s="17"/>
@@ -23928,15 +23907,15 @@
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="3"/>
-      <c r="P24" s="23" t="s">
-        <v>77</v>
+      <c r="P24" s="25" t="s">
+        <v>106</v>
       </c>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
       <c r="U24" s="16" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="V24" s="17"/>
       <c r="W24" s="17"/>
@@ -23984,23 +23963,6 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="V25" s="17"/>
-      <c r="W25" s="17"/>
-      <c r="X25" s="17"/>
-      <c r="Y25" s="17"/>
-      <c r="Z25" s="17"/>
-      <c r="AA25" s="17"/>
-      <c r="AB25" s="18"/>
       <c r="AC25" s="5"/>
       <c r="AD25" s="4"/>
       <c r="AE25" s="4"/>
@@ -24444,9 +24406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23:U23"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -24494,246 +24454,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69">
         <v>7</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="70"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="71"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="73">
         <v>43032</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="75"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="77"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -25058,7 +25018,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="3"/>
       <c r="P12" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="Q12" s="20"/>
       <c r="R12" s="20"/>
@@ -25106,13 +25066,13 @@
       <c r="N13" s="4"/>
       <c r="O13" s="3"/>
       <c r="P13" s="20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="20"/>
       <c r="R13" s="20"/>
       <c r="S13" s="20"/>
       <c r="U13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AD13" s="3"/>
       <c r="AG13" s="4"/>
@@ -25152,7 +25112,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="3"/>
       <c r="P14" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
@@ -25196,10 +25156,10 @@
       <c r="N15" s="4"/>
       <c r="O15" s="3"/>
       <c r="P15" s="39" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AD15" s="3"/>
       <c r="AG15" s="4"/>
@@ -25237,13 +25197,13 @@
       <c r="N16" s="4"/>
       <c r="O16" s="3"/>
       <c r="P16" s="23" t="s">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
       <c r="U16" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="AC16" s="5"/>
       <c r="AD16" s="4"/>
@@ -25281,13 +25241,13 @@
       <c r="N17" s="4"/>
       <c r="O17" s="3"/>
       <c r="P17" s="23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="U17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AC17" s="5"/>
       <c r="AD17" s="4"/>
@@ -25329,13 +25289,13 @@
       <c r="N18" s="4"/>
       <c r="O18" s="3"/>
       <c r="P18" s="23" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
       <c r="U18" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="AC18" s="5"/>
       <c r="AH18" s="4"/>
@@ -25375,14 +25335,11 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
+      <c r="P19" t="s">
+        <v>90</v>
+      </c>
       <c r="U19" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="AC19" s="5"/>
       <c r="AH19" s="4"/>
@@ -25422,11 +25379,14 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="3"/>
-      <c r="P20" t="s">
-        <v>93</v>
-      </c>
-      <c r="U20" t="s">
-        <v>94</v>
+      <c r="P20" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="U20">
+        <v>1001</v>
       </c>
       <c r="AC20" s="5"/>
       <c r="AH20" s="4"/>
@@ -25467,13 +25427,13 @@
       <c r="N21" s="4"/>
       <c r="O21" s="3"/>
       <c r="P21" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
-      <c r="U21">
-        <v>1001</v>
+      <c r="U21" t="s">
+        <v>18</v>
       </c>
       <c r="AC21" s="5"/>
       <c r="AD21" s="4"/>
@@ -25514,14 +25474,11 @@
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
+      <c r="P22" t="s">
+        <v>106</v>
+      </c>
       <c r="U22" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="AC22" s="5"/>
       <c r="AD22" s="4"/>
@@ -25562,12 +25519,19 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="3"/>
-      <c r="P23" t="s">
-        <v>109</v>
-      </c>
-      <c r="U23" t="s">
-        <v>110</v>
-      </c>
+      <c r="P23" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="2"/>
       <c r="AC23" s="5"/>
       <c r="AD23" s="4"/>
       <c r="AH23" s="4"/>
@@ -25607,19 +25571,17 @@
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="3"/>
-      <c r="P24" s="25" t="s">
-        <v>23</v>
-      </c>
+      <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="2"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="5"/>
       <c r="AB24" s="4"/>
       <c r="AC24" s="5"/>
       <c r="AD24" s="4"/>
@@ -25665,12 +25627,12 @@
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="5"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="8"/>
       <c r="AA25" s="4"/>
       <c r="AC25" s="5"/>
       <c r="AD25" s="4"/>
@@ -25714,17 +25676,6 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="8"/>
       <c r="AC26" s="5"/>
       <c r="AD26" s="4"/>
       <c r="AE26" s="4"/>
@@ -26132,7 +26083,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="E4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16:Z24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -26180,246 +26133,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69">
         <v>8</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="70"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="71"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="73">
         <v>43032</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="75"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="77"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -26744,7 +26697,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="3"/>
       <c r="P12" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="Q12" s="20"/>
       <c r="R12" s="20"/>
@@ -26792,13 +26745,13 @@
       <c r="N13" s="4"/>
       <c r="O13" s="3"/>
       <c r="P13" s="20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="20"/>
       <c r="R13" s="20"/>
       <c r="S13" s="20"/>
       <c r="U13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AD13" s="3"/>
       <c r="AG13" s="4"/>
@@ -26838,7 +26791,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="3"/>
       <c r="P14" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
@@ -26884,10 +26837,10 @@
       <c r="N15" s="4"/>
       <c r="O15" s="3"/>
       <c r="P15" s="39" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AD15" s="3"/>
       <c r="AG15" s="4"/>
@@ -26925,13 +26878,13 @@
       <c r="N16" s="4"/>
       <c r="O16" s="3"/>
       <c r="P16" s="23" t="s">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
       <c r="U16" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="AC16" s="5"/>
       <c r="AD16" s="4"/>
@@ -26969,13 +26922,13 @@
       <c r="N17" s="4"/>
       <c r="O17" s="3"/>
       <c r="P17" s="23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="U17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AC17" s="5"/>
       <c r="AD17" s="4"/>
@@ -27017,13 +26970,13 @@
       <c r="N18" s="4"/>
       <c r="O18" s="3"/>
       <c r="P18" s="23" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
       <c r="U18" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="AC18" s="5"/>
       <c r="AH18" s="4"/>
@@ -27063,14 +27016,11 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
+      <c r="P19" t="s">
+        <v>90</v>
+      </c>
       <c r="U19" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="AC19" s="5"/>
       <c r="AH19" s="4"/>
@@ -27110,11 +27060,14 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="3"/>
-      <c r="P20" t="s">
-        <v>93</v>
-      </c>
-      <c r="U20" t="s">
-        <v>94</v>
+      <c r="P20" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="U20">
+        <v>1001</v>
       </c>
       <c r="AC20" s="5"/>
       <c r="AH20" s="4"/>
@@ -27155,13 +27108,13 @@
       <c r="N21" s="4"/>
       <c r="O21" s="3"/>
       <c r="P21" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
-      <c r="U21">
-        <v>1001</v>
+      <c r="U21" t="s">
+        <v>18</v>
       </c>
       <c r="AC21" s="5"/>
       <c r="AD21" s="4"/>
@@ -27202,15 +27155,19 @@
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="23" t="s">
-        <v>77</v>
+      <c r="P22" s="25" t="s">
+        <v>23</v>
       </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
-      <c r="U22" t="s">
-        <v>18</v>
-      </c>
+      <c r="T22" s="4"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="2"/>
       <c r="AC22" s="5"/>
       <c r="AD22" s="4"/>
       <c r="AH22" s="4"/>
@@ -27250,19 +27207,17 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="25" t="s">
-        <v>23</v>
-      </c>
+      <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="2"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="5"/>
       <c r="AC23" s="5"/>
       <c r="AD23" s="4"/>
       <c r="AH23" s="4"/>
@@ -27307,12 +27262,12 @@
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="5"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="8"/>
       <c r="AA24" s="4"/>
       <c r="AB24" s="4"/>
       <c r="AC24" s="5"/>
@@ -27354,17 +27309,6 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="8"/>
       <c r="AC25" s="5"/>
       <c r="AD25" s="4"/>
       <c r="AE25" s="4"/>
@@ -27492,7 +27436,7 @@
       <c r="N28" s="4"/>
       <c r="O28" s="3"/>
       <c r="P28" s="23" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
@@ -27814,8 +27758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27:U27"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19:AB28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -27864,246 +27808,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69">
         <v>9</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="70"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="71"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="73">
         <v>43032</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="75"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="77"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -28625,7 +28569,7 @@
       <c r="N16" s="4"/>
       <c r="O16" s="3"/>
       <c r="P16" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="Q16" s="20"/>
       <c r="R16" s="20"/>
@@ -28669,13 +28613,13 @@
       <c r="N17" s="4"/>
       <c r="O17" s="3"/>
       <c r="P17" s="23" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="U17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AC17" s="5"/>
       <c r="AD17" s="4"/>
@@ -28763,14 +28707,11 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
+      <c r="P19" s="25" t="s">
+        <v>105</v>
+      </c>
       <c r="U19" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="AC19" s="5"/>
       <c r="AH19" s="4"/>
@@ -28810,11 +28751,14 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="25" t="s">
-        <v>108</v>
-      </c>
+      <c r="P20" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
       <c r="U20" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AC20" s="5"/>
       <c r="AH20" s="4"/>
@@ -28855,13 +28799,13 @@
       <c r="N21" s="4"/>
       <c r="O21" s="3"/>
       <c r="P21" s="23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="U21" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AC21" s="5"/>
       <c r="AD21" s="4"/>
@@ -28903,13 +28847,13 @@
       <c r="N22" s="4"/>
       <c r="O22" s="3"/>
       <c r="P22" s="23" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
       <c r="U22" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="AC22" s="5"/>
       <c r="AD22" s="4"/>
@@ -28951,13 +28895,13 @@
       <c r="N23" s="4"/>
       <c r="O23" s="3"/>
       <c r="P23" s="23" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
       <c r="U23" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="AC23" s="5"/>
       <c r="AD23" s="4"/>
@@ -28998,14 +28942,11 @@
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="3"/>
-      <c r="P24" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="U24" t="s">
-        <v>94</v>
+      <c r="P24" t="s">
+        <v>76</v>
+      </c>
+      <c r="U24">
+        <v>1001</v>
       </c>
       <c r="AC24" s="5"/>
       <c r="AD24" s="4"/>
@@ -29046,12 +28987,14 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="3"/>
-      <c r="P25" t="s">
-        <v>76</v>
-      </c>
-      <c r="U25">
-        <v>1001</v>
-      </c>
+      <c r="P25" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q25" s="4"/>
+      <c r="U25" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z25" s="4"/>
       <c r="AC25" s="5"/>
       <c r="AD25" s="4"/>
       <c r="AE25" s="4"/>
@@ -29094,14 +29037,14 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q26" s="4"/>
+      <c r="P26" t="s">
+        <v>106</v>
+      </c>
       <c r="U26" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z26" s="4"/>
+        <v>107</v>
+      </c>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="4"/>
       <c r="AC26" s="5"/>
       <c r="AD26" s="4"/>
       <c r="AE26" s="4"/>
@@ -29144,12 +29087,8 @@
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="3"/>
-      <c r="P27" t="s">
-        <v>109</v>
-      </c>
-      <c r="U27" t="s">
-        <v>110</v>
-      </c>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
       <c r="AA27" s="4"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="5"/>
@@ -29196,6 +29135,21 @@
       <c r="O28" s="3"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
+      <c r="R28" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="S28" s="36"/>
+      <c r="T28" s="37"/>
+      <c r="U28" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="V28" s="36"/>
+      <c r="W28" s="37"/>
+      <c r="X28" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y28" s="37"/>
+      <c r="Z28" s="38"/>
       <c r="AA28" s="4"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="5"/>
@@ -29240,25 +29194,6 @@
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="3"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="S29" s="36"/>
-      <c r="T29" s="37"/>
-      <c r="U29" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="V29" s="36"/>
-      <c r="W29" s="37"/>
-      <c r="X29" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y29" s="37"/>
-      <c r="Z29" s="38"/>
-      <c r="AA29" s="4"/>
-      <c r="AB29" s="4"/>
       <c r="AC29" s="5"/>
       <c r="AD29" s="4"/>
       <c r="AE29" s="4"/>

--- a/総合演習資料/2.外部設計/画面設計図.xlsx
+++ b/総合演習資料/2.外部設計/画面設計図.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7650" windowHeight="7695" tabRatio="833" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7650" windowHeight="6765" tabRatio="833" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン" sheetId="13" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="117">
   <si>
     <t>作成日付：</t>
     <rPh sb="0" eb="2">
@@ -1008,6 +1008,20 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>性別</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1512,6 +1526,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1564,39 +1611,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10849,246 +10863,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="52" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="72" t="s">
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69">
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51">
         <v>1</v>
       </c>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="69" t="s">
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69">
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51">
         <v>1</v>
       </c>
-      <c r="BB2" s="70"/>
+      <c r="BB2" s="52"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="54" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="67" t="s">
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="68"/>
-      <c r="BA3" s="68"/>
-      <c r="BB3" s="71"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="50"/>
+      <c r="AU3" s="50"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
+      <c r="BB3" s="53"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="72" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="73">
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="55">
         <v>43031</v>
       </c>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="74"/>
-      <c r="AX4" s="74"/>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="75"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="57"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="56"/>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="67"/>
-      <c r="AR5" s="68"/>
-      <c r="AS5" s="68"/>
-      <c r="AT5" s="68"/>
-      <c r="AU5" s="76"/>
-      <c r="AV5" s="76"/>
-      <c r="AW5" s="76"/>
-      <c r="AX5" s="76"/>
-      <c r="AY5" s="76"/>
-      <c r="AZ5" s="76"/>
-      <c r="BA5" s="76"/>
-      <c r="BB5" s="77"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="67"/>
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="67"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="67"/>
+      <c r="AL5" s="67"/>
+      <c r="AM5" s="67"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="67"/>
+      <c r="AP5" s="68"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="58"/>
+      <c r="AW5" s="58"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58"/>
+      <c r="AZ5" s="58"/>
+      <c r="BA5" s="58"/>
+      <c r="BB5" s="59"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -11540,16 +11554,16 @@
       <c r="R15" s="29"/>
       <c r="S15" s="29"/>
       <c r="T15" s="34"/>
-      <c r="U15" s="49">
+      <c r="U15" s="60">
         <v>199104101</v>
       </c>
-      <c r="V15" s="50"/>
-      <c r="W15" s="50"/>
-      <c r="X15" s="50"/>
-      <c r="Y15" s="50"/>
-      <c r="Z15" s="50"/>
-      <c r="AA15" s="50"/>
-      <c r="AB15" s="51"/>
+      <c r="V15" s="61"/>
+      <c r="W15" s="61"/>
+      <c r="X15" s="61"/>
+      <c r="Y15" s="61"/>
+      <c r="Z15" s="61"/>
+      <c r="AA15" s="61"/>
+      <c r="AB15" s="62"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="3"/>
       <c r="AG15" s="4"/>
@@ -11641,16 +11655,16 @@
       <c r="R17" s="20"/>
       <c r="S17" s="20"/>
       <c r="T17" s="21"/>
-      <c r="U17" s="49" t="s">
+      <c r="U17" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="V17" s="50"/>
-      <c r="W17" s="50"/>
-      <c r="X17" s="50"/>
-      <c r="Y17" s="50"/>
-      <c r="Z17" s="50"/>
-      <c r="AA17" s="50"/>
-      <c r="AB17" s="51"/>
+      <c r="V17" s="61"/>
+      <c r="W17" s="61"/>
+      <c r="X17" s="61"/>
+      <c r="Y17" s="61"/>
+      <c r="Z17" s="61"/>
+      <c r="AA17" s="61"/>
+      <c r="AB17" s="62"/>
       <c r="AC17" s="5"/>
       <c r="AD17" s="3"/>
       <c r="AH17" s="4"/>
@@ -12494,6 +12508,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="U15:AB15"/>
+    <mergeCell ref="U17:AB17"/>
+    <mergeCell ref="W2:AP2"/>
+    <mergeCell ref="W3:AP5"/>
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="B3:V5"/>
     <mergeCell ref="AQ3:AT3"/>
     <mergeCell ref="AU2:AV3"/>
     <mergeCell ref="AQ4:AT5"/>
@@ -12501,12 +12521,6 @@
     <mergeCell ref="BA2:BB3"/>
     <mergeCell ref="AW2:AZ3"/>
     <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="U15:AB15"/>
-    <mergeCell ref="U17:AB17"/>
-    <mergeCell ref="W2:AP2"/>
-    <mergeCell ref="W3:AP5"/>
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="B3:V5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12569,246 +12583,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="52" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="72" t="s">
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69">
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51">
         <v>1</v>
       </c>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="69" t="s">
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69">
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51">
         <v>10</v>
       </c>
-      <c r="BB2" s="70"/>
+      <c r="BB2" s="52"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="54" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="67" t="s">
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="68"/>
-      <c r="BA3" s="68"/>
-      <c r="BB3" s="71"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="50"/>
+      <c r="AU3" s="50"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
+      <c r="BB3" s="53"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="72" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="73">
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="55">
         <v>43032</v>
       </c>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="74"/>
-      <c r="AX4" s="74"/>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="75"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="57"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="56"/>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="67"/>
-      <c r="AR5" s="68"/>
-      <c r="AS5" s="68"/>
-      <c r="AT5" s="68"/>
-      <c r="AU5" s="76"/>
-      <c r="AV5" s="76"/>
-      <c r="AW5" s="76"/>
-      <c r="AX5" s="76"/>
-      <c r="AY5" s="76"/>
-      <c r="AZ5" s="76"/>
-      <c r="BA5" s="76"/>
-      <c r="BB5" s="77"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="67"/>
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="67"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="67"/>
+      <c r="AL5" s="67"/>
+      <c r="AM5" s="67"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="67"/>
+      <c r="AP5" s="68"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="58"/>
+      <c r="AW5" s="58"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58"/>
+      <c r="AZ5" s="58"/>
+      <c r="BA5" s="58"/>
+      <c r="BB5" s="59"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -14211,246 +14225,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="52" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="72" t="s">
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69">
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51">
         <v>1</v>
       </c>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="69" t="s">
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69">
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51">
         <v>11</v>
       </c>
-      <c r="BB2" s="70"/>
+      <c r="BB2" s="52"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="54" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="67" t="s">
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="68"/>
-      <c r="BA3" s="68"/>
-      <c r="BB3" s="71"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="50"/>
+      <c r="AU3" s="50"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
+      <c r="BB3" s="53"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="72" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="73">
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="55">
         <v>43032</v>
       </c>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="74"/>
-      <c r="AX4" s="74"/>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="75"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="57"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="56"/>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="67"/>
-      <c r="AR5" s="68"/>
-      <c r="AS5" s="68"/>
-      <c r="AT5" s="68"/>
-      <c r="AU5" s="76"/>
-      <c r="AV5" s="76"/>
-      <c r="AW5" s="76"/>
-      <c r="AX5" s="76"/>
-      <c r="AY5" s="76"/>
-      <c r="AZ5" s="76"/>
-      <c r="BA5" s="76"/>
-      <c r="BB5" s="77"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="67"/>
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="67"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="67"/>
+      <c r="AL5" s="67"/>
+      <c r="AM5" s="67"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="67"/>
+      <c r="AP5" s="68"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="58"/>
+      <c r="AW5" s="58"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58"/>
+      <c r="AZ5" s="58"/>
+      <c r="BA5" s="58"/>
+      <c r="BB5" s="59"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -15864,246 +15878,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="52" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="72" t="s">
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69">
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51">
         <v>1</v>
       </c>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="69" t="s">
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69">
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51">
         <v>2</v>
       </c>
-      <c r="BB2" s="70"/>
+      <c r="BB2" s="52"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="54" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="67" t="s">
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="68"/>
-      <c r="BA3" s="68"/>
-      <c r="BB3" s="71"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="50"/>
+      <c r="AU3" s="50"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
+      <c r="BB3" s="53"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="72" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="73">
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="55">
         <v>43032</v>
       </c>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="74"/>
-      <c r="AX4" s="74"/>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="75"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="57"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="56"/>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="67"/>
-      <c r="AR5" s="68"/>
-      <c r="AS5" s="68"/>
-      <c r="AT5" s="68"/>
-      <c r="AU5" s="76"/>
-      <c r="AV5" s="76"/>
-      <c r="AW5" s="76"/>
-      <c r="AX5" s="76"/>
-      <c r="AY5" s="76"/>
-      <c r="AZ5" s="76"/>
-      <c r="BA5" s="76"/>
-      <c r="BB5" s="77"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="67"/>
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="67"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="67"/>
+      <c r="AL5" s="67"/>
+      <c r="AM5" s="67"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="67"/>
+      <c r="AP5" s="68"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="58"/>
+      <c r="AW5" s="58"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58"/>
+      <c r="AZ5" s="58"/>
+      <c r="BA5" s="58"/>
+      <c r="BB5" s="59"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -17579,246 +17593,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="52" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="72" t="s">
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69">
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51">
         <v>1</v>
       </c>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="69" t="s">
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69">
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51">
         <v>3</v>
       </c>
-      <c r="BB2" s="70"/>
+      <c r="BB2" s="52"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="54" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="67" t="s">
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="68"/>
-      <c r="BA3" s="68"/>
-      <c r="BB3" s="71"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="50"/>
+      <c r="AU3" s="50"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
+      <c r="BB3" s="53"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="72" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="73">
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="55">
         <v>43032</v>
       </c>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="74"/>
-      <c r="AX4" s="74"/>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="75"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="57"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="56"/>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="67"/>
-      <c r="AR5" s="68"/>
-      <c r="AS5" s="68"/>
-      <c r="AT5" s="68"/>
-      <c r="AU5" s="76"/>
-      <c r="AV5" s="76"/>
-      <c r="AW5" s="76"/>
-      <c r="AX5" s="76"/>
-      <c r="AY5" s="76"/>
-      <c r="AZ5" s="76"/>
-      <c r="BA5" s="76"/>
-      <c r="BB5" s="77"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="67"/>
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="67"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="67"/>
+      <c r="AL5" s="67"/>
+      <c r="AM5" s="67"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="67"/>
+      <c r="AP5" s="68"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="58"/>
+      <c r="AW5" s="58"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58"/>
+      <c r="AZ5" s="58"/>
+      <c r="BA5" s="58"/>
+      <c r="BB5" s="59"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -19240,7 +19254,7 @@
   <dimension ref="B1:BB33"/>
   <sheetViews>
     <sheetView topLeftCell="O4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AR19" sqref="AR19"/>
+      <selection activeCell="AD12" sqref="AD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -19292,246 +19306,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="52" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="72" t="s">
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69">
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51">
         <v>1</v>
       </c>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="69" t="s">
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69">
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51">
         <v>4</v>
       </c>
-      <c r="BB2" s="70"/>
+      <c r="BB2" s="52"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="54" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="67" t="s">
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="68"/>
-      <c r="BA3" s="68"/>
-      <c r="BB3" s="71"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="50"/>
+      <c r="AU3" s="50"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
+      <c r="BB3" s="53"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="72" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="73">
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="55">
         <v>43032</v>
       </c>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="74"/>
-      <c r="AX4" s="74"/>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="75"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="57"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="56"/>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="67"/>
-      <c r="AR5" s="68"/>
-      <c r="AS5" s="68"/>
-      <c r="AT5" s="68"/>
-      <c r="AU5" s="76"/>
-      <c r="AV5" s="76"/>
-      <c r="AW5" s="76"/>
-      <c r="AX5" s="76"/>
-      <c r="AY5" s="76"/>
-      <c r="AZ5" s="76"/>
-      <c r="BA5" s="76"/>
-      <c r="BB5" s="77"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="67"/>
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="67"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="67"/>
+      <c r="AL5" s="67"/>
+      <c r="AM5" s="67"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="67"/>
+      <c r="AP5" s="68"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="58"/>
+      <c r="AW5" s="58"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58"/>
+      <c r="AZ5" s="58"/>
+      <c r="BA5" s="58"/>
+      <c r="BB5" s="59"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -21022,246 +21036,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="52" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="72" t="s">
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69">
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51">
         <v>1</v>
       </c>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="69" t="s">
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69">
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51">
         <v>5</v>
       </c>
-      <c r="BB2" s="70"/>
+      <c r="BB2" s="52"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="54" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="67" t="s">
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="68"/>
-      <c r="BA3" s="68"/>
-      <c r="BB3" s="71"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="50"/>
+      <c r="AU3" s="50"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
+      <c r="BB3" s="53"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="72" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="73">
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="55">
         <v>43032</v>
       </c>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="74"/>
-      <c r="AX4" s="74"/>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="75"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="57"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="56"/>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="67"/>
-      <c r="AR5" s="68"/>
-      <c r="AS5" s="68"/>
-      <c r="AT5" s="68"/>
-      <c r="AU5" s="76"/>
-      <c r="AV5" s="76"/>
-      <c r="AW5" s="76"/>
-      <c r="AX5" s="76"/>
-      <c r="AY5" s="76"/>
-      <c r="AZ5" s="76"/>
-      <c r="BA5" s="76"/>
-      <c r="BB5" s="77"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="67"/>
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="67"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="67"/>
+      <c r="AL5" s="67"/>
+      <c r="AM5" s="67"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="67"/>
+      <c r="AP5" s="68"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="58"/>
+      <c r="AW5" s="58"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58"/>
+      <c r="AZ5" s="58"/>
+      <c r="BA5" s="58"/>
+      <c r="BB5" s="59"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -22651,8 +22665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AR15" sqref="AR15:AS18"/>
+    <sheetView topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -22701,246 +22715,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="52" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="72" t="s">
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69">
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51">
         <v>1</v>
       </c>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="69" t="s">
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69">
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51">
         <v>6</v>
       </c>
-      <c r="BB2" s="70"/>
+      <c r="BB2" s="52"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="54" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="67" t="s">
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="68"/>
-      <c r="BA3" s="68"/>
-      <c r="BB3" s="71"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="50"/>
+      <c r="AU3" s="50"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
+      <c r="BB3" s="53"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="72" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="73">
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="55">
         <v>43032</v>
       </c>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="74"/>
-      <c r="AX4" s="74"/>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="75"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="57"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="56"/>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="67"/>
-      <c r="AR5" s="68"/>
-      <c r="AS5" s="68"/>
-      <c r="AT5" s="68"/>
-      <c r="AU5" s="76"/>
-      <c r="AV5" s="76"/>
-      <c r="AW5" s="76"/>
-      <c r="AX5" s="76"/>
-      <c r="AY5" s="76"/>
-      <c r="AZ5" s="76"/>
-      <c r="BA5" s="76"/>
-      <c r="BB5" s="77"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="67"/>
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="67"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="67"/>
+      <c r="AL5" s="67"/>
+      <c r="AM5" s="67"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="67"/>
+      <c r="AP5" s="68"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="58"/>
+      <c r="AW5" s="58"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58"/>
+      <c r="AZ5" s="58"/>
+      <c r="BA5" s="58"/>
+      <c r="BB5" s="59"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -24454,246 +24468,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="52" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="72" t="s">
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69">
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51">
         <v>1</v>
       </c>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="69" t="s">
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69">
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51">
         <v>7</v>
       </c>
-      <c r="BB2" s="70"/>
+      <c r="BB2" s="52"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="54" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="67" t="s">
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="68"/>
-      <c r="BA3" s="68"/>
-      <c r="BB3" s="71"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="50"/>
+      <c r="AU3" s="50"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
+      <c r="BB3" s="53"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="72" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="73">
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="55">
         <v>43032</v>
       </c>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="74"/>
-      <c r="AX4" s="74"/>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="75"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="57"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="56"/>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="67"/>
-      <c r="AR5" s="68"/>
-      <c r="AS5" s="68"/>
-      <c r="AT5" s="68"/>
-      <c r="AU5" s="76"/>
-      <c r="AV5" s="76"/>
-      <c r="AW5" s="76"/>
-      <c r="AX5" s="76"/>
-      <c r="AY5" s="76"/>
-      <c r="AZ5" s="76"/>
-      <c r="BA5" s="76"/>
-      <c r="BB5" s="77"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="67"/>
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="67"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="67"/>
+      <c r="AL5" s="67"/>
+      <c r="AM5" s="67"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="67"/>
+      <c r="AP5" s="68"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="58"/>
+      <c r="AW5" s="58"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58"/>
+      <c r="AZ5" s="58"/>
+      <c r="BA5" s="58"/>
+      <c r="BB5" s="59"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -26083,8 +26097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB33"/>
   <sheetViews>
-    <sheetView topLeftCell="E4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16:Z24"/>
+    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -26133,246 +26147,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="52" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="72" t="s">
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69">
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51">
         <v>1</v>
       </c>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="69" t="s">
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69">
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51">
         <v>8</v>
       </c>
-      <c r="BB2" s="70"/>
+      <c r="BB2" s="52"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="54" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="67" t="s">
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="68"/>
-      <c r="BA3" s="68"/>
-      <c r="BB3" s="71"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="50"/>
+      <c r="AU3" s="50"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
+      <c r="BB3" s="53"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="72" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="73">
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="55">
         <v>43032</v>
       </c>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="74"/>
-      <c r="AX4" s="74"/>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="75"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="57"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="56"/>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="67"/>
-      <c r="AR5" s="68"/>
-      <c r="AS5" s="68"/>
-      <c r="AT5" s="68"/>
-      <c r="AU5" s="76"/>
-      <c r="AV5" s="76"/>
-      <c r="AW5" s="76"/>
-      <c r="AX5" s="76"/>
-      <c r="AY5" s="76"/>
-      <c r="AZ5" s="76"/>
-      <c r="BA5" s="76"/>
-      <c r="BB5" s="77"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="67"/>
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="67"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="67"/>
+      <c r="AL5" s="67"/>
+      <c r="AM5" s="67"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="67"/>
+      <c r="AP5" s="68"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="58"/>
+      <c r="AW5" s="58"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58"/>
+      <c r="AZ5" s="58"/>
+      <c r="BA5" s="58"/>
+      <c r="BB5" s="59"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -26877,14 +26891,11 @@
       <c r="I16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
+      <c r="P16" s="39" t="s">
+        <v>115</v>
+      </c>
       <c r="U16" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="AC16" s="5"/>
       <c r="AD16" s="4"/>
@@ -26922,13 +26933,13 @@
       <c r="N17" s="4"/>
       <c r="O17" s="3"/>
       <c r="P17" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="U17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AC17" s="5"/>
       <c r="AD17" s="4"/>
@@ -26970,13 +26981,13 @@
       <c r="N18" s="4"/>
       <c r="O18" s="3"/>
       <c r="P18" s="23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
       <c r="U18" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="AC18" s="5"/>
       <c r="AH18" s="4"/>
@@ -27016,11 +27027,14 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="3"/>
-      <c r="P19" t="s">
-        <v>90</v>
-      </c>
+      <c r="P19" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
       <c r="U19" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="AC19" s="5"/>
       <c r="AH19" s="4"/>
@@ -27060,14 +27074,11 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="U20">
-        <v>1001</v>
+      <c r="P20" t="s">
+        <v>90</v>
+      </c>
+      <c r="U20" t="s">
+        <v>91</v>
       </c>
       <c r="AC20" s="5"/>
       <c r="AH20" s="4"/>
@@ -27108,13 +27119,13 @@
       <c r="N21" s="4"/>
       <c r="O21" s="3"/>
       <c r="P21" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
-      <c r="U21" t="s">
-        <v>18</v>
+      <c r="U21">
+        <v>1001</v>
       </c>
       <c r="AC21" s="5"/>
       <c r="AD21" s="4"/>
@@ -27155,19 +27166,15 @@
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="25" t="s">
-        <v>23</v>
+      <c r="P22" s="23" t="s">
+        <v>77</v>
       </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="2"/>
+      <c r="U22" t="s">
+        <v>18</v>
+      </c>
       <c r="AC22" s="5"/>
       <c r="AD22" s="4"/>
       <c r="AH22" s="4"/>
@@ -27207,17 +27214,19 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="4"/>
+      <c r="P23" s="25" t="s">
+        <v>23</v>
+      </c>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="5"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="2"/>
       <c r="AC23" s="5"/>
       <c r="AD23" s="4"/>
       <c r="AH23" s="4"/>
@@ -27262,12 +27271,12 @@
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="8"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="5"/>
       <c r="AA24" s="4"/>
       <c r="AB24" s="4"/>
       <c r="AC24" s="5"/>
@@ -27309,6 +27318,17 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="3"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="8"/>
       <c r="AC25" s="5"/>
       <c r="AD25" s="4"/>
       <c r="AE25" s="4"/>
@@ -27808,246 +27828,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="52" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="72" t="s">
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69">
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51">
         <v>1</v>
       </c>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="69" t="s">
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69">
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51">
         <v>9</v>
       </c>
-      <c r="BB2" s="70"/>
+      <c r="BB2" s="52"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="54" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="67" t="s">
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="68"/>
-      <c r="BA3" s="68"/>
-      <c r="BB3" s="71"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="50"/>
+      <c r="AU3" s="50"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
+      <c r="BB3" s="53"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="72" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="73">
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="55">
         <v>43032</v>
       </c>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="74"/>
-      <c r="AX4" s="74"/>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="75"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="57"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="56"/>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="67"/>
-      <c r="AR5" s="68"/>
-      <c r="AS5" s="68"/>
-      <c r="AT5" s="68"/>
-      <c r="AU5" s="76"/>
-      <c r="AV5" s="76"/>
-      <c r="AW5" s="76"/>
-      <c r="AX5" s="76"/>
-      <c r="AY5" s="76"/>
-      <c r="AZ5" s="76"/>
-      <c r="BA5" s="76"/>
-      <c r="BB5" s="77"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="67"/>
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="67"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="67"/>
+      <c r="AL5" s="67"/>
+      <c r="AM5" s="67"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="67"/>
+      <c r="AP5" s="68"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="58"/>
+      <c r="AW5" s="58"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58"/>
+      <c r="AZ5" s="58"/>
+      <c r="BA5" s="58"/>
+      <c r="BB5" s="59"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>

--- a/総合演習資料/2.外部設計/画面設計図.xlsx
+++ b/総合演習資料/2.外部設計/画面設計図.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7650" windowHeight="6765" tabRatio="833" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7650" windowHeight="6765" tabRatio="833" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン" sheetId="13" r:id="rId1"/>
@@ -752,44 +752,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※新規登録、修正、削除が成功した場合はこの部分に</t>
-    <rPh sb="1" eb="3">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>セイコウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ブブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メッセージを表示する。　例）登録できました。</t>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>※入力エラーメッセージがある場合ここに表示</t>
     <rPh sb="1" eb="3">
       <t>ニュウリョク</t>
@@ -1019,6 +981,41 @@
     <t>男</t>
     <rPh sb="0" eb="1">
       <t>オトコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※新規登録が成功した場合など各種メッセージはこの部分に</t>
+    <rPh sb="1" eb="3">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクシュ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ブブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示する。　例）登録できました。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1526,39 +1523,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1611,6 +1575,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10863,246 +10860,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69">
         <v>1</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="70"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="71"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="73">
         <v>43031</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="75"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="77"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -11395,7 +11392,7 @@
       <c r="I12" s="4"/>
       <c r="O12" s="19"/>
       <c r="P12" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -11448,7 +11445,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
       <c r="P13" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
@@ -11554,16 +11551,16 @@
       <c r="R15" s="29"/>
       <c r="S15" s="29"/>
       <c r="T15" s="34"/>
-      <c r="U15" s="60">
+      <c r="U15" s="49">
         <v>199104101</v>
       </c>
-      <c r="V15" s="61"/>
-      <c r="W15" s="61"/>
-      <c r="X15" s="61"/>
-      <c r="Y15" s="61"/>
-      <c r="Z15" s="61"/>
-      <c r="AA15" s="61"/>
-      <c r="AB15" s="62"/>
+      <c r="V15" s="50"/>
+      <c r="W15" s="50"/>
+      <c r="X15" s="50"/>
+      <c r="Y15" s="50"/>
+      <c r="Z15" s="50"/>
+      <c r="AA15" s="50"/>
+      <c r="AB15" s="51"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="3"/>
       <c r="AG15" s="4"/>
@@ -11649,22 +11646,22 @@
       <c r="N17" s="4"/>
       <c r="O17" s="3"/>
       <c r="P17" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q17" s="20"/>
       <c r="R17" s="20"/>
       <c r="S17" s="20"/>
       <c r="T17" s="21"/>
-      <c r="U17" s="60" t="s">
+      <c r="U17" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="V17" s="61"/>
-      <c r="W17" s="61"/>
-      <c r="X17" s="61"/>
-      <c r="Y17" s="61"/>
-      <c r="Z17" s="61"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="62"/>
+      <c r="V17" s="50"/>
+      <c r="W17" s="50"/>
+      <c r="X17" s="50"/>
+      <c r="Y17" s="50"/>
+      <c r="Z17" s="50"/>
+      <c r="AA17" s="50"/>
+      <c r="AB17" s="51"/>
       <c r="AC17" s="5"/>
       <c r="AD17" s="3"/>
       <c r="AH17" s="4"/>
@@ -12508,12 +12505,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="U15:AB15"/>
-    <mergeCell ref="U17:AB17"/>
-    <mergeCell ref="W2:AP2"/>
-    <mergeCell ref="W3:AP5"/>
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="B3:V5"/>
     <mergeCell ref="AQ3:AT3"/>
     <mergeCell ref="AU2:AV3"/>
     <mergeCell ref="AQ4:AT5"/>
@@ -12521,6 +12512,12 @@
     <mergeCell ref="BA2:BB3"/>
     <mergeCell ref="AW2:AZ3"/>
     <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="U15:AB15"/>
+    <mergeCell ref="U17:AB17"/>
+    <mergeCell ref="W2:AP2"/>
+    <mergeCell ref="W3:AP5"/>
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="B3:V5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12583,246 +12580,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69">
         <v>10</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="70"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="71"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="73">
         <v>43032</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="75"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="77"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -13332,7 +13329,7 @@
       <c r="N16" s="4"/>
       <c r="O16" s="3"/>
       <c r="P16" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="20"/>
       <c r="R16" s="20"/>
@@ -13376,13 +13373,13 @@
       <c r="N17" s="4"/>
       <c r="O17" s="3"/>
       <c r="P17" s="23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="U17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AC17" s="5"/>
       <c r="AD17" s="4"/>
@@ -13471,7 +13468,7 @@
       <c r="N19" s="4"/>
       <c r="O19" s="3"/>
       <c r="P19" s="25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="U19" t="s">
         <v>12</v>
@@ -13616,7 +13613,7 @@
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
       <c r="U22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AC22" s="5"/>
       <c r="AD22" s="4"/>
@@ -13658,13 +13655,13 @@
       <c r="N23" s="4"/>
       <c r="O23" s="3"/>
       <c r="P23" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
       <c r="U23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AC23" s="5"/>
       <c r="AD23" s="4"/>
@@ -14225,246 +14222,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69">
         <v>11</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="70"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="71"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="73">
         <v>43032</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="75"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="77"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -14981,7 +14978,7 @@
       <c r="N16" s="4"/>
       <c r="O16" s="3"/>
       <c r="P16" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="20"/>
       <c r="R16" s="20"/>
@@ -15025,13 +15022,13 @@
       <c r="N17" s="4"/>
       <c r="O17" s="3"/>
       <c r="P17" s="23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="U17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AC17" s="5"/>
       <c r="AD17" s="4"/>
@@ -15120,7 +15117,7 @@
       <c r="N19" s="4"/>
       <c r="O19" s="3"/>
       <c r="P19" s="25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="U19" t="s">
         <v>12</v>
@@ -15265,7 +15262,7 @@
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
       <c r="U22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AC22" s="5"/>
       <c r="AD22" s="4"/>
@@ -15307,13 +15304,13 @@
       <c r="N23" s="4"/>
       <c r="O23" s="3"/>
       <c r="P23" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
       <c r="U23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AC23" s="5"/>
       <c r="AD23" s="4"/>
@@ -15828,9 +15825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB38"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -15878,246 +15873,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69">
         <v>2</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="70"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="71"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="73">
         <v>43032</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="75"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="77"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -16189,7 +16184,7 @@
       <c r="M7" s="15"/>
       <c r="N7" s="15"/>
       <c r="O7" s="40" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="P7" s="41"/>
       <c r="Q7" s="41"/>
@@ -16246,7 +16241,7 @@
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
       <c r="O8" s="43" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="P8" s="44"/>
       <c r="Q8" s="44"/>
@@ -17593,246 +17588,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69">
         <v>3</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="70"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="71"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="73">
         <v>43032</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="75"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="77"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -19306,246 +19301,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69">
         <v>4</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="70"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="71"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="73">
         <v>43032</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="75"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="77"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -19812,7 +19807,7 @@
       <c r="N11" s="4"/>
       <c r="O11" s="3"/>
       <c r="P11" s="46" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q11" s="47"/>
       <c r="R11" s="47"/>
@@ -19903,7 +19898,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="3"/>
       <c r="P13" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q13" s="20"/>
       <c r="R13" s="20"/>
@@ -19957,7 +19952,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="3"/>
       <c r="P14" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
@@ -19987,7 +19982,7 @@
       <c r="AP14" s="4"/>
       <c r="AQ14" s="3"/>
       <c r="AR14" s="35" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AS14" s="4"/>
       <c r="AT14" s="4"/>
@@ -20013,7 +20008,7 @@
       <c r="N15" s="4"/>
       <c r="O15" s="3"/>
       <c r="P15" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q15" s="20"/>
       <c r="R15" s="20"/>
@@ -20042,7 +20037,7 @@
       <c r="AP15" s="4"/>
       <c r="AQ15" s="3"/>
       <c r="AR15" s="35" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AS15" s="4"/>
       <c r="AT15" s="4"/>
@@ -20068,14 +20063,14 @@
       <c r="N16" s="4"/>
       <c r="O16" s="3"/>
       <c r="P16" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q16" s="20"/>
       <c r="R16" s="20"/>
       <c r="S16" s="20"/>
       <c r="T16" s="21"/>
       <c r="U16" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="V16" s="17"/>
       <c r="W16" s="17"/>
@@ -20096,7 +20091,7 @@
       <c r="AP16" s="4"/>
       <c r="AQ16" s="3"/>
       <c r="AR16" s="35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AS16" s="4"/>
       <c r="AT16" s="4"/>
@@ -20147,7 +20142,7 @@
       <c r="AP17" s="4"/>
       <c r="AQ17" s="3"/>
       <c r="AR17" s="35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AS17" s="4"/>
       <c r="AT17" s="4"/>
@@ -20204,7 +20199,7 @@
       <c r="AP18" s="4"/>
       <c r="AQ18" s="3"/>
       <c r="AR18" s="35" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AS18" s="4"/>
       <c r="AT18" s="4"/>
@@ -20261,7 +20256,7 @@
       <c r="AP19" s="4"/>
       <c r="AQ19" s="3"/>
       <c r="AR19" s="35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AS19" s="4"/>
       <c r="AT19" s="4"/>
@@ -20345,14 +20340,14 @@
       <c r="N21" s="4"/>
       <c r="O21" s="3"/>
       <c r="P21" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="V21" s="17"/>
       <c r="W21" s="17"/>
@@ -21036,246 +21031,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69">
         <v>5</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="70"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="71"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="73">
         <v>43032</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="75"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="77"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -21600,7 +21595,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="3"/>
       <c r="P12" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q12" s="20"/>
       <c r="R12" s="20"/>
@@ -21648,7 +21643,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="3"/>
       <c r="P13" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q13" s="20"/>
       <c r="R13" s="20"/>
@@ -21694,7 +21689,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="3"/>
       <c r="P14" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
@@ -21738,10 +21733,10 @@
       <c r="N15" s="4"/>
       <c r="O15" s="3"/>
       <c r="P15" s="39" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="U15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AD15" s="3"/>
       <c r="AG15" s="4"/>
@@ -21962,10 +21957,10 @@
       <c r="N20" s="4"/>
       <c r="O20" s="3"/>
       <c r="P20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="U20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AC20" s="5"/>
       <c r="AH20" s="4"/>
@@ -22715,246 +22710,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69">
         <v>6</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="70"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="71"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="73">
         <v>43032</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="75"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="77"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -23227,7 +23222,7 @@
       <c r="N11" s="4"/>
       <c r="O11" s="3"/>
       <c r="P11" s="46" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q11" s="47"/>
       <c r="R11" s="47"/>
@@ -23322,7 +23317,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="3"/>
       <c r="P13" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q13" s="20"/>
       <c r="R13" s="20"/>
@@ -23375,7 +23370,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="3"/>
       <c r="P14" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
@@ -23405,7 +23400,7 @@
       <c r="AP14" s="4"/>
       <c r="AQ14" s="3"/>
       <c r="AR14" s="35" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AS14" s="4"/>
       <c r="AT14" s="4"/>
@@ -23430,10 +23425,10 @@
       <c r="N15" s="4"/>
       <c r="O15" s="3"/>
       <c r="P15" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="U15" s="16" t="s">
         <v>99</v>
-      </c>
-      <c r="U15" s="16" t="s">
-        <v>101</v>
       </c>
       <c r="V15" s="17"/>
       <c r="W15" s="17"/>
@@ -23455,7 +23450,7 @@
       <c r="AP15" s="4"/>
       <c r="AQ15" s="3"/>
       <c r="AR15" s="35" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AS15" s="4"/>
       <c r="AT15" s="4"/>
@@ -23480,7 +23475,7 @@
       <c r="N16" s="4"/>
       <c r="O16" s="3"/>
       <c r="P16" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="20"/>
       <c r="R16" s="20"/>
@@ -23508,7 +23503,7 @@
       <c r="AP16" s="4"/>
       <c r="AQ16" s="3"/>
       <c r="AR16" s="35" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AT16" s="4"/>
       <c r="AU16" s="4"/>
@@ -23532,14 +23527,14 @@
       <c r="N17" s="4"/>
       <c r="O17" s="3"/>
       <c r="P17" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="20"/>
       <c r="R17" s="20"/>
       <c r="S17" s="20"/>
       <c r="T17" s="21"/>
       <c r="U17" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="V17" s="17"/>
       <c r="W17" s="17"/>
@@ -23561,7 +23556,7 @@
       <c r="AP17" s="4"/>
       <c r="AQ17" s="3"/>
       <c r="AR17" s="35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AS17" s="4"/>
       <c r="AT17" s="4"/>
@@ -23618,7 +23613,7 @@
       <c r="AP18" s="4"/>
       <c r="AQ18" s="3"/>
       <c r="AR18" s="35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AS18" s="4"/>
       <c r="AT18" s="4"/>
@@ -23754,14 +23749,14 @@
       <c r="N21" s="4"/>
       <c r="O21" s="3"/>
       <c r="P21" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="V21" s="17"/>
       <c r="W21" s="17"/>
@@ -23922,14 +23917,14 @@
       <c r="N24" s="4"/>
       <c r="O24" s="3"/>
       <c r="P24" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
       <c r="U24" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="V24" s="17"/>
       <c r="W24" s="17"/>
@@ -24468,246 +24463,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69">
         <v>7</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="70"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="71"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="73">
         <v>43032</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="75"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="77"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -25032,7 +25027,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="3"/>
       <c r="P12" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q12" s="20"/>
       <c r="R12" s="20"/>
@@ -25080,13 +25075,13 @@
       <c r="N13" s="4"/>
       <c r="O13" s="3"/>
       <c r="P13" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q13" s="20"/>
       <c r="R13" s="20"/>
       <c r="S13" s="20"/>
       <c r="U13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AD13" s="3"/>
       <c r="AG13" s="4"/>
@@ -25126,7 +25121,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="3"/>
       <c r="P14" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
@@ -25170,10 +25165,10 @@
       <c r="N15" s="4"/>
       <c r="O15" s="3"/>
       <c r="P15" s="39" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="U15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AD15" s="3"/>
       <c r="AG15" s="4"/>
@@ -25350,10 +25345,10 @@
       <c r="N19" s="4"/>
       <c r="O19" s="3"/>
       <c r="P19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="U19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AC19" s="5"/>
       <c r="AH19" s="4"/>
@@ -25489,10 +25484,10 @@
       <c r="N22" s="4"/>
       <c r="O22" s="3"/>
       <c r="P22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="U22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AC22" s="5"/>
       <c r="AD22" s="4"/>
@@ -26097,7 +26092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="E7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
@@ -26147,246 +26142,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69">
         <v>8</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="70"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="71"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="73">
         <v>43032</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="75"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="77"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -26711,7 +26706,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="3"/>
       <c r="P12" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q12" s="20"/>
       <c r="R12" s="20"/>
@@ -26759,13 +26754,13 @@
       <c r="N13" s="4"/>
       <c r="O13" s="3"/>
       <c r="P13" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q13" s="20"/>
       <c r="R13" s="20"/>
       <c r="S13" s="20"/>
       <c r="U13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AD13" s="3"/>
       <c r="AG13" s="4"/>
@@ -26805,7 +26800,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="3"/>
       <c r="P14" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
@@ -26851,10 +26846,10 @@
       <c r="N15" s="4"/>
       <c r="O15" s="3"/>
       <c r="P15" s="39" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="U15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AD15" s="3"/>
       <c r="AG15" s="4"/>
@@ -26892,10 +26887,10 @@
       <c r="N16" s="4"/>
       <c r="O16" s="3"/>
       <c r="P16" s="39" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="U16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AC16" s="5"/>
       <c r="AD16" s="4"/>
@@ -27075,10 +27070,10 @@
       <c r="N20" s="4"/>
       <c r="O20" s="3"/>
       <c r="P20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="U20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AC20" s="5"/>
       <c r="AH20" s="4"/>
@@ -27456,7 +27451,7 @@
       <c r="N28" s="4"/>
       <c r="O28" s="3"/>
       <c r="P28" s="23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
@@ -27828,246 +27823,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69">
         <v>9</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="70"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="71"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="73">
         <v>43032</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="75"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="77"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -28589,7 +28584,7 @@
       <c r="N16" s="4"/>
       <c r="O16" s="3"/>
       <c r="P16" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="20"/>
       <c r="R16" s="20"/>
@@ -28633,13 +28628,13 @@
       <c r="N17" s="4"/>
       <c r="O17" s="3"/>
       <c r="P17" s="23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="U17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AC17" s="5"/>
       <c r="AD17" s="4"/>
@@ -28728,7 +28723,7 @@
       <c r="N19" s="4"/>
       <c r="O19" s="3"/>
       <c r="P19" s="25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="U19" t="s">
         <v>12</v>
@@ -28873,7 +28868,7 @@
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
       <c r="U22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AC22" s="5"/>
       <c r="AD22" s="4"/>
@@ -28915,13 +28910,13 @@
       <c r="N23" s="4"/>
       <c r="O23" s="3"/>
       <c r="P23" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
       <c r="U23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AC23" s="5"/>
       <c r="AD23" s="4"/>
@@ -29058,10 +29053,10 @@
       <c r="N26" s="4"/>
       <c r="O26" s="3"/>
       <c r="P26" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="U26" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AA26" s="4"/>
       <c r="AB26" s="4"/>

--- a/総合演習資料/2.外部設計/画面設計図.xlsx
+++ b/総合演習資料/2.外部設計/画面設計図.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7650" windowHeight="6765" tabRatio="833" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7650" windowHeight="6765" tabRatio="833" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン" sheetId="13" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="118">
   <si>
     <t>作成日付：</t>
     <rPh sb="0" eb="2">
@@ -789,13 +789,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・氏名</t>
-    <rPh sb="1" eb="3">
-      <t>シメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・部署</t>
     <rPh sb="1" eb="3">
       <t>ブショ</t>
@@ -855,13 +848,6 @@
   </si>
   <si>
     <t>パスワード</t>
-  </si>
-  <si>
-    <t>氏名</t>
-    <rPh sb="0" eb="2">
-      <t>シメイ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>旧パスワード</t>
@@ -1017,6 +1003,18 @@
     <rPh sb="8" eb="10">
       <t>トウロク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>・名前</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・名前</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1523,6 +1521,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1575,39 +1606,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2351,7 +2349,7 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="466794" cy="275717"/>
+    <xdr:ext cx="467949" cy="275717"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
@@ -2359,8 +2357,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2752725" y="2886075"/>
-          <a:ext cx="466794" cy="275717"/>
+          <a:off x="2774576" y="3347757"/>
+          <a:ext cx="467949" cy="275717"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2389,7 +2387,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>氏名</a:t>
+            <a:t>名前</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
         </a:p>
@@ -6767,7 +6765,7 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="466794" cy="275717"/>
+    <xdr:ext cx="467949" cy="275717"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
@@ -6775,8 +6773,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1866900" y="3333750"/>
-          <a:ext cx="466794" cy="275717"/>
+          <a:off x="1882028" y="3357282"/>
+          <a:ext cx="467949" cy="275717"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6805,7 +6803,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>氏名</a:t>
+            <a:t>名前</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
         </a:p>
@@ -10860,246 +10858,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="52" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="72" t="s">
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69">
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51">
         <v>1</v>
       </c>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="69" t="s">
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69">
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51">
         <v>1</v>
       </c>
-      <c r="BB2" s="70"/>
+      <c r="BB2" s="52"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="67" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="68"/>
-      <c r="BA3" s="68"/>
-      <c r="BB3" s="71"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="50"/>
+      <c r="AU3" s="50"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
+      <c r="BB3" s="53"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="72" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="73">
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="55">
         <v>43031</v>
       </c>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="74"/>
-      <c r="AX4" s="74"/>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="75"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="57"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="56"/>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="67"/>
-      <c r="AR5" s="68"/>
-      <c r="AS5" s="68"/>
-      <c r="AT5" s="68"/>
-      <c r="AU5" s="76"/>
-      <c r="AV5" s="76"/>
-      <c r="AW5" s="76"/>
-      <c r="AX5" s="76"/>
-      <c r="AY5" s="76"/>
-      <c r="AZ5" s="76"/>
-      <c r="BA5" s="76"/>
-      <c r="BB5" s="77"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="67"/>
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="67"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="67"/>
+      <c r="AL5" s="67"/>
+      <c r="AM5" s="67"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="67"/>
+      <c r="AP5" s="68"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="58"/>
+      <c r="AW5" s="58"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58"/>
+      <c r="AZ5" s="58"/>
+      <c r="BA5" s="58"/>
+      <c r="BB5" s="59"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -11392,7 +11390,7 @@
       <c r="I12" s="4"/>
       <c r="O12" s="19"/>
       <c r="P12" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -11445,7 +11443,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
       <c r="P13" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
@@ -11551,16 +11549,16 @@
       <c r="R15" s="29"/>
       <c r="S15" s="29"/>
       <c r="T15" s="34"/>
-      <c r="U15" s="49">
+      <c r="U15" s="60">
         <v>199104101</v>
       </c>
-      <c r="V15" s="50"/>
-      <c r="W15" s="50"/>
-      <c r="X15" s="50"/>
-      <c r="Y15" s="50"/>
-      <c r="Z15" s="50"/>
-      <c r="AA15" s="50"/>
-      <c r="AB15" s="51"/>
+      <c r="V15" s="61"/>
+      <c r="W15" s="61"/>
+      <c r="X15" s="61"/>
+      <c r="Y15" s="61"/>
+      <c r="Z15" s="61"/>
+      <c r="AA15" s="61"/>
+      <c r="AB15" s="62"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="3"/>
       <c r="AG15" s="4"/>
@@ -11646,22 +11644,22 @@
       <c r="N17" s="4"/>
       <c r="O17" s="3"/>
       <c r="P17" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Q17" s="20"/>
       <c r="R17" s="20"/>
       <c r="S17" s="20"/>
       <c r="T17" s="21"/>
-      <c r="U17" s="49" t="s">
+      <c r="U17" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="V17" s="50"/>
-      <c r="W17" s="50"/>
-      <c r="X17" s="50"/>
-      <c r="Y17" s="50"/>
-      <c r="Z17" s="50"/>
-      <c r="AA17" s="50"/>
-      <c r="AB17" s="51"/>
+      <c r="V17" s="61"/>
+      <c r="W17" s="61"/>
+      <c r="X17" s="61"/>
+      <c r="Y17" s="61"/>
+      <c r="Z17" s="61"/>
+      <c r="AA17" s="61"/>
+      <c r="AB17" s="62"/>
       <c r="AC17" s="5"/>
       <c r="AD17" s="3"/>
       <c r="AH17" s="4"/>
@@ -12505,6 +12503,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="U15:AB15"/>
+    <mergeCell ref="U17:AB17"/>
+    <mergeCell ref="W2:AP2"/>
+    <mergeCell ref="W3:AP5"/>
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="B3:V5"/>
     <mergeCell ref="AQ3:AT3"/>
     <mergeCell ref="AU2:AV3"/>
     <mergeCell ref="AQ4:AT5"/>
@@ -12512,12 +12516,6 @@
     <mergeCell ref="BA2:BB3"/>
     <mergeCell ref="AW2:AZ3"/>
     <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="U15:AB15"/>
-    <mergeCell ref="U17:AB17"/>
-    <mergeCell ref="W2:AP2"/>
-    <mergeCell ref="W3:AP5"/>
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="B3:V5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12531,7 +12529,7 @@
   <dimension ref="B1:BB33"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19:Z27"/>
+      <selection activeCell="AL22" sqref="AL22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12580,246 +12578,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="52" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="72" t="s">
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69">
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51">
         <v>1</v>
       </c>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="69" t="s">
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69">
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51">
         <v>10</v>
       </c>
-      <c r="BB2" s="70"/>
+      <c r="BB2" s="52"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="67" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="68"/>
-      <c r="BA3" s="68"/>
-      <c r="BB3" s="71"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="50"/>
+      <c r="AU3" s="50"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
+      <c r="BB3" s="53"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="72" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="73">
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="55">
         <v>43032</v>
       </c>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="74"/>
-      <c r="AX4" s="74"/>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="75"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="57"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="56"/>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="67"/>
-      <c r="AR5" s="68"/>
-      <c r="AS5" s="68"/>
-      <c r="AT5" s="68"/>
-      <c r="AU5" s="76"/>
-      <c r="AV5" s="76"/>
-      <c r="AW5" s="76"/>
-      <c r="AX5" s="76"/>
-      <c r="AY5" s="76"/>
-      <c r="AZ5" s="76"/>
-      <c r="BA5" s="76"/>
-      <c r="BB5" s="77"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="67"/>
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="67"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="67"/>
+      <c r="AL5" s="67"/>
+      <c r="AM5" s="67"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="67"/>
+      <c r="AP5" s="68"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="58"/>
+      <c r="AW5" s="58"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58"/>
+      <c r="AZ5" s="58"/>
+      <c r="BA5" s="58"/>
+      <c r="BB5" s="59"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -13329,7 +13327,7 @@
       <c r="N16" s="4"/>
       <c r="O16" s="3"/>
       <c r="P16" s="20" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="20"/>
       <c r="R16" s="20"/>
@@ -13373,13 +13371,13 @@
       <c r="N17" s="4"/>
       <c r="O17" s="3"/>
       <c r="P17" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="U17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AC17" s="5"/>
       <c r="AD17" s="4"/>
@@ -13468,7 +13466,7 @@
       <c r="N19" s="4"/>
       <c r="O19" s="3"/>
       <c r="P19" s="25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="U19" t="s">
         <v>12</v>
@@ -13613,7 +13611,7 @@
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
       <c r="U22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AC22" s="5"/>
       <c r="AD22" s="4"/>
@@ -13655,13 +13653,13 @@
       <c r="N23" s="4"/>
       <c r="O23" s="3"/>
       <c r="P23" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
       <c r="U23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AC23" s="5"/>
       <c r="AD23" s="4"/>
@@ -14174,7 +14172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -14222,246 +14220,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="52" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="72" t="s">
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69">
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51">
         <v>1</v>
       </c>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="69" t="s">
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69">
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51">
         <v>11</v>
       </c>
-      <c r="BB2" s="70"/>
+      <c r="BB2" s="52"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="67" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="68"/>
-      <c r="BA3" s="68"/>
-      <c r="BB3" s="71"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="50"/>
+      <c r="AU3" s="50"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
+      <c r="BB3" s="53"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="72" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="73">
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="55">
         <v>43032</v>
       </c>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="74"/>
-      <c r="AX4" s="74"/>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="75"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="57"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="56"/>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="67"/>
-      <c r="AR5" s="68"/>
-      <c r="AS5" s="68"/>
-      <c r="AT5" s="68"/>
-      <c r="AU5" s="76"/>
-      <c r="AV5" s="76"/>
-      <c r="AW5" s="76"/>
-      <c r="AX5" s="76"/>
-      <c r="AY5" s="76"/>
-      <c r="AZ5" s="76"/>
-      <c r="BA5" s="76"/>
-      <c r="BB5" s="77"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="67"/>
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="67"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="67"/>
+      <c r="AL5" s="67"/>
+      <c r="AM5" s="67"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="67"/>
+      <c r="AP5" s="68"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="58"/>
+      <c r="AW5" s="58"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58"/>
+      <c r="AZ5" s="58"/>
+      <c r="BA5" s="58"/>
+      <c r="BB5" s="59"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -14978,7 +14976,7 @@
       <c r="N16" s="4"/>
       <c r="O16" s="3"/>
       <c r="P16" s="20" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="20"/>
       <c r="R16" s="20"/>
@@ -15022,13 +15020,13 @@
       <c r="N17" s="4"/>
       <c r="O17" s="3"/>
       <c r="P17" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="U17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AC17" s="5"/>
       <c r="AD17" s="4"/>
@@ -15117,7 +15115,7 @@
       <c r="N19" s="4"/>
       <c r="O19" s="3"/>
       <c r="P19" s="25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="U19" t="s">
         <v>12</v>
@@ -15262,7 +15260,7 @@
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
       <c r="U22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AC22" s="5"/>
       <c r="AD22" s="4"/>
@@ -15304,13 +15302,13 @@
       <c r="N23" s="4"/>
       <c r="O23" s="3"/>
       <c r="P23" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
       <c r="U23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AC23" s="5"/>
       <c r="AD23" s="4"/>
@@ -15825,7 +15823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -15873,246 +15871,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="52" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="72" t="s">
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69">
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51">
         <v>1</v>
       </c>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="69" t="s">
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69">
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51">
         <v>2</v>
       </c>
-      <c r="BB2" s="70"/>
+      <c r="BB2" s="52"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="67" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="68"/>
-      <c r="BA3" s="68"/>
-      <c r="BB3" s="71"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="50"/>
+      <c r="AU3" s="50"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
+      <c r="BB3" s="53"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="72" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="73">
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="55">
         <v>43032</v>
       </c>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="74"/>
-      <c r="AX4" s="74"/>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="75"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="57"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="56"/>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="67"/>
-      <c r="AR5" s="68"/>
-      <c r="AS5" s="68"/>
-      <c r="AT5" s="68"/>
-      <c r="AU5" s="76"/>
-      <c r="AV5" s="76"/>
-      <c r="AW5" s="76"/>
-      <c r="AX5" s="76"/>
-      <c r="AY5" s="76"/>
-      <c r="AZ5" s="76"/>
-      <c r="BA5" s="76"/>
-      <c r="BB5" s="77"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="67"/>
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="67"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="67"/>
+      <c r="AL5" s="67"/>
+      <c r="AM5" s="67"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="67"/>
+      <c r="AP5" s="68"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="58"/>
+      <c r="AW5" s="58"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58"/>
+      <c r="AZ5" s="58"/>
+      <c r="BA5" s="58"/>
+      <c r="BB5" s="59"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -16184,7 +16182,7 @@
       <c r="M7" s="15"/>
       <c r="N7" s="15"/>
       <c r="O7" s="40" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P7" s="41"/>
       <c r="Q7" s="41"/>
@@ -16241,7 +16239,7 @@
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
       <c r="O8" s="43" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P8" s="44"/>
       <c r="Q8" s="44"/>
@@ -17538,7 +17536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB38"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="W3" sqref="W3:AP5"/>
     </sheetView>
   </sheetViews>
@@ -17588,246 +17586,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="52" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="72" t="s">
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69">
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51">
         <v>1</v>
       </c>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="69" t="s">
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69">
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51">
         <v>3</v>
       </c>
-      <c r="BB2" s="70"/>
+      <c r="BB2" s="52"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="67" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="68"/>
-      <c r="BA3" s="68"/>
-      <c r="BB3" s="71"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="50"/>
+      <c r="AU3" s="50"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
+      <c r="BB3" s="53"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="72" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="73">
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="55">
         <v>43032</v>
       </c>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="74"/>
-      <c r="AX4" s="74"/>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="75"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="57"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="56"/>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="67"/>
-      <c r="AR5" s="68"/>
-      <c r="AS5" s="68"/>
-      <c r="AT5" s="68"/>
-      <c r="AU5" s="76"/>
-      <c r="AV5" s="76"/>
-      <c r="AW5" s="76"/>
-      <c r="AX5" s="76"/>
-      <c r="AY5" s="76"/>
-      <c r="AZ5" s="76"/>
-      <c r="BA5" s="76"/>
-      <c r="BB5" s="77"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="67"/>
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="67"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="67"/>
+      <c r="AL5" s="67"/>
+      <c r="AM5" s="67"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="67"/>
+      <c r="AP5" s="68"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="58"/>
+      <c r="AW5" s="58"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58"/>
+      <c r="AZ5" s="58"/>
+      <c r="BA5" s="58"/>
+      <c r="BB5" s="59"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -19248,9 +19246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB33"/>
   <sheetViews>
-    <sheetView topLeftCell="O4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD12" sqref="AD12"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -19301,246 +19297,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="52" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="72" t="s">
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69">
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51">
         <v>1</v>
       </c>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="69" t="s">
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69">
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51">
         <v>4</v>
       </c>
-      <c r="BB2" s="70"/>
+      <c r="BB2" s="52"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="67" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="68"/>
-      <c r="BA3" s="68"/>
-      <c r="BB3" s="71"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="50"/>
+      <c r="AU3" s="50"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
+      <c r="BB3" s="53"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="72" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="73">
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="55">
         <v>43032</v>
       </c>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="74"/>
-      <c r="AX4" s="74"/>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="75"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="57"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="56"/>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="67"/>
-      <c r="AR5" s="68"/>
-      <c r="AS5" s="68"/>
-      <c r="AT5" s="68"/>
-      <c r="AU5" s="76"/>
-      <c r="AV5" s="76"/>
-      <c r="AW5" s="76"/>
-      <c r="AX5" s="76"/>
-      <c r="AY5" s="76"/>
-      <c r="AZ5" s="76"/>
-      <c r="BA5" s="76"/>
-      <c r="BB5" s="77"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="67"/>
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="67"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="67"/>
+      <c r="AL5" s="67"/>
+      <c r="AM5" s="67"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="67"/>
+      <c r="AP5" s="68"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="58"/>
+      <c r="AW5" s="58"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58"/>
+      <c r="AZ5" s="58"/>
+      <c r="BA5" s="58"/>
+      <c r="BB5" s="59"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -19898,7 +19894,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="3"/>
       <c r="P13" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q13" s="20"/>
       <c r="R13" s="20"/>
@@ -19952,7 +19948,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="3"/>
       <c r="P14" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
@@ -20008,7 +20004,7 @@
       <c r="N15" s="4"/>
       <c r="O15" s="3"/>
       <c r="P15" s="20" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="Q15" s="20"/>
       <c r="R15" s="20"/>
@@ -20063,14 +20059,14 @@
       <c r="N16" s="4"/>
       <c r="O16" s="3"/>
       <c r="P16" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q16" s="20"/>
       <c r="R16" s="20"/>
       <c r="S16" s="20"/>
       <c r="T16" s="21"/>
       <c r="U16" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V16" s="17"/>
       <c r="W16" s="17"/>
@@ -20142,7 +20138,7 @@
       <c r="AP17" s="4"/>
       <c r="AQ17" s="3"/>
       <c r="AR17" s="35" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="AS17" s="4"/>
       <c r="AT17" s="4"/>
@@ -20199,7 +20195,7 @@
       <c r="AP18" s="4"/>
       <c r="AQ18" s="3"/>
       <c r="AR18" s="35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AS18" s="4"/>
       <c r="AT18" s="4"/>
@@ -20256,7 +20252,7 @@
       <c r="AP19" s="4"/>
       <c r="AQ19" s="3"/>
       <c r="AR19" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AS19" s="4"/>
       <c r="AT19" s="4"/>
@@ -20340,14 +20336,14 @@
       <c r="N21" s="4"/>
       <c r="O21" s="3"/>
       <c r="P21" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V21" s="17"/>
       <c r="W21" s="17"/>
@@ -21031,246 +21027,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="52" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="72" t="s">
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69">
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51">
         <v>1</v>
       </c>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="69" t="s">
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69">
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51">
         <v>5</v>
       </c>
-      <c r="BB2" s="70"/>
+      <c r="BB2" s="52"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="67" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="68"/>
-      <c r="BA3" s="68"/>
-      <c r="BB3" s="71"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="50"/>
+      <c r="AU3" s="50"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
+      <c r="BB3" s="53"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="72" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="73">
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="55">
         <v>43032</v>
       </c>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="74"/>
-      <c r="AX4" s="74"/>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="75"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="57"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="56"/>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="67"/>
-      <c r="AR5" s="68"/>
-      <c r="AS5" s="68"/>
-      <c r="AT5" s="68"/>
-      <c r="AU5" s="76"/>
-      <c r="AV5" s="76"/>
-      <c r="AW5" s="76"/>
-      <c r="AX5" s="76"/>
-      <c r="AY5" s="76"/>
-      <c r="AZ5" s="76"/>
-      <c r="BA5" s="76"/>
-      <c r="BB5" s="77"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="67"/>
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="67"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="67"/>
+      <c r="AL5" s="67"/>
+      <c r="AM5" s="67"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="67"/>
+      <c r="AP5" s="68"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="58"/>
+      <c r="AW5" s="58"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58"/>
+      <c r="AZ5" s="58"/>
+      <c r="BA5" s="58"/>
+      <c r="BB5" s="59"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -21595,7 +21591,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="3"/>
       <c r="P12" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q12" s="20"/>
       <c r="R12" s="20"/>
@@ -21643,7 +21639,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="3"/>
       <c r="P13" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q13" s="20"/>
       <c r="R13" s="20"/>
@@ -21689,7 +21685,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="3"/>
       <c r="P14" s="20" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
@@ -21733,10 +21729,10 @@
       <c r="N15" s="4"/>
       <c r="O15" s="3"/>
       <c r="P15" s="39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AD15" s="3"/>
       <c r="AG15" s="4"/>
@@ -21957,10 +21953,10 @@
       <c r="N20" s="4"/>
       <c r="O20" s="3"/>
       <c r="P20" t="s">
+        <v>87</v>
+      </c>
+      <c r="U20" t="s">
         <v>88</v>
-      </c>
-      <c r="U20" t="s">
-        <v>89</v>
       </c>
       <c r="AC20" s="5"/>
       <c r="AH20" s="4"/>
@@ -22660,8 +22656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB33"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AS21" sqref="A21:AS21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -22710,246 +22706,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="52" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="72" t="s">
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69">
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51">
         <v>1</v>
       </c>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="69" t="s">
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69">
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51">
         <v>6</v>
       </c>
-      <c r="BB2" s="70"/>
+      <c r="BB2" s="52"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="67" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="68"/>
-      <c r="BA3" s="68"/>
-      <c r="BB3" s="71"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="50"/>
+      <c r="AU3" s="50"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
+      <c r="BB3" s="53"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="72" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="73">
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="55">
         <v>43032</v>
       </c>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="74"/>
-      <c r="AX4" s="74"/>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="75"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="57"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="56"/>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="67"/>
-      <c r="AR5" s="68"/>
-      <c r="AS5" s="68"/>
-      <c r="AT5" s="68"/>
-      <c r="AU5" s="76"/>
-      <c r="AV5" s="76"/>
-      <c r="AW5" s="76"/>
-      <c r="AX5" s="76"/>
-      <c r="AY5" s="76"/>
-      <c r="AZ5" s="76"/>
-      <c r="BA5" s="76"/>
-      <c r="BB5" s="77"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="67"/>
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="67"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="67"/>
+      <c r="AL5" s="67"/>
+      <c r="AM5" s="67"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="67"/>
+      <c r="AP5" s="68"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="58"/>
+      <c r="AW5" s="58"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58"/>
+      <c r="AZ5" s="58"/>
+      <c r="BA5" s="58"/>
+      <c r="BB5" s="59"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -23317,7 +23313,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="3"/>
       <c r="P13" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q13" s="20"/>
       <c r="R13" s="20"/>
@@ -23370,7 +23366,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="3"/>
       <c r="P14" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
@@ -23425,10 +23421,10 @@
       <c r="N15" s="4"/>
       <c r="O15" s="3"/>
       <c r="P15" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="U15" s="16" t="s">
         <v>97</v>
-      </c>
-      <c r="U15" s="16" t="s">
-        <v>99</v>
       </c>
       <c r="V15" s="17"/>
       <c r="W15" s="17"/>
@@ -23450,7 +23446,7 @@
       <c r="AP15" s="4"/>
       <c r="AQ15" s="3"/>
       <c r="AR15" s="35" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AS15" s="4"/>
       <c r="AT15" s="4"/>
@@ -23475,7 +23471,7 @@
       <c r="N16" s="4"/>
       <c r="O16" s="3"/>
       <c r="P16" s="20" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="20"/>
       <c r="R16" s="20"/>
@@ -23503,7 +23499,7 @@
       <c r="AP16" s="4"/>
       <c r="AQ16" s="3"/>
       <c r="AR16" s="35" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AT16" s="4"/>
       <c r="AU16" s="4"/>
@@ -23527,14 +23523,14 @@
       <c r="N17" s="4"/>
       <c r="O17" s="3"/>
       <c r="P17" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q17" s="20"/>
       <c r="R17" s="20"/>
       <c r="S17" s="20"/>
       <c r="T17" s="21"/>
       <c r="U17" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V17" s="17"/>
       <c r="W17" s="17"/>
@@ -23556,7 +23552,7 @@
       <c r="AP17" s="4"/>
       <c r="AQ17" s="3"/>
       <c r="AR17" s="35" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="AS17" s="4"/>
       <c r="AT17" s="4"/>
@@ -23613,7 +23609,7 @@
       <c r="AP18" s="4"/>
       <c r="AQ18" s="3"/>
       <c r="AR18" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AS18" s="4"/>
       <c r="AT18" s="4"/>
@@ -23749,14 +23745,14 @@
       <c r="N21" s="4"/>
       <c r="O21" s="3"/>
       <c r="P21" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V21" s="17"/>
       <c r="W21" s="17"/>
@@ -23917,14 +23913,14 @@
       <c r="N24" s="4"/>
       <c r="O24" s="3"/>
       <c r="P24" s="25" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
       <c r="U24" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="V24" s="17"/>
       <c r="W24" s="17"/>
@@ -24463,246 +24459,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="52" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="72" t="s">
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69">
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51">
         <v>1</v>
       </c>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="69" t="s">
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69">
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51">
         <v>7</v>
       </c>
-      <c r="BB2" s="70"/>
+      <c r="BB2" s="52"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="67" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="68"/>
-      <c r="BA3" s="68"/>
-      <c r="BB3" s="71"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="50"/>
+      <c r="AU3" s="50"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
+      <c r="BB3" s="53"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="72" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="73">
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="55">
         <v>43032</v>
       </c>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="74"/>
-      <c r="AX4" s="74"/>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="75"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="57"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="56"/>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="67"/>
-      <c r="AR5" s="68"/>
-      <c r="AS5" s="68"/>
-      <c r="AT5" s="68"/>
-      <c r="AU5" s="76"/>
-      <c r="AV5" s="76"/>
-      <c r="AW5" s="76"/>
-      <c r="AX5" s="76"/>
-      <c r="AY5" s="76"/>
-      <c r="AZ5" s="76"/>
-      <c r="BA5" s="76"/>
-      <c r="BB5" s="77"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="67"/>
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="67"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="67"/>
+      <c r="AL5" s="67"/>
+      <c r="AM5" s="67"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="67"/>
+      <c r="AP5" s="68"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="58"/>
+      <c r="AW5" s="58"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58"/>
+      <c r="AZ5" s="58"/>
+      <c r="BA5" s="58"/>
+      <c r="BB5" s="59"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -25027,7 +25023,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="3"/>
       <c r="P12" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q12" s="20"/>
       <c r="R12" s="20"/>
@@ -25075,13 +25071,13 @@
       <c r="N13" s="4"/>
       <c r="O13" s="3"/>
       <c r="P13" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q13" s="20"/>
       <c r="R13" s="20"/>
       <c r="S13" s="20"/>
       <c r="U13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AD13" s="3"/>
       <c r="AG13" s="4"/>
@@ -25121,7 +25117,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="3"/>
       <c r="P14" s="20" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
@@ -25165,10 +25161,10 @@
       <c r="N15" s="4"/>
       <c r="O15" s="3"/>
       <c r="P15" s="39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AD15" s="3"/>
       <c r="AG15" s="4"/>
@@ -25345,10 +25341,10 @@
       <c r="N19" s="4"/>
       <c r="O19" s="3"/>
       <c r="P19" t="s">
+        <v>87</v>
+      </c>
+      <c r="U19" t="s">
         <v>88</v>
-      </c>
-      <c r="U19" t="s">
-        <v>89</v>
       </c>
       <c r="AC19" s="5"/>
       <c r="AH19" s="4"/>
@@ -25484,10 +25480,10 @@
       <c r="N22" s="4"/>
       <c r="O22" s="3"/>
       <c r="P22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="U22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AC22" s="5"/>
       <c r="AD22" s="4"/>
@@ -26142,246 +26138,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="52" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="72" t="s">
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69">
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51">
         <v>1</v>
       </c>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="69" t="s">
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69">
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51">
         <v>8</v>
       </c>
-      <c r="BB2" s="70"/>
+      <c r="BB2" s="52"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="67" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="68"/>
-      <c r="BA3" s="68"/>
-      <c r="BB3" s="71"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="50"/>
+      <c r="AU3" s="50"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
+      <c r="BB3" s="53"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="72" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="73">
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="55">
         <v>43032</v>
       </c>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="74"/>
-      <c r="AX4" s="74"/>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="75"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="57"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="56"/>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="67"/>
-      <c r="AR5" s="68"/>
-      <c r="AS5" s="68"/>
-      <c r="AT5" s="68"/>
-      <c r="AU5" s="76"/>
-      <c r="AV5" s="76"/>
-      <c r="AW5" s="76"/>
-      <c r="AX5" s="76"/>
-      <c r="AY5" s="76"/>
-      <c r="AZ5" s="76"/>
-      <c r="BA5" s="76"/>
-      <c r="BB5" s="77"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="67"/>
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="67"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="67"/>
+      <c r="AL5" s="67"/>
+      <c r="AM5" s="67"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="67"/>
+      <c r="AP5" s="68"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="58"/>
+      <c r="AW5" s="58"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58"/>
+      <c r="AZ5" s="58"/>
+      <c r="BA5" s="58"/>
+      <c r="BB5" s="59"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -26706,7 +26702,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="3"/>
       <c r="P12" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q12" s="20"/>
       <c r="R12" s="20"/>
@@ -26754,13 +26750,13 @@
       <c r="N13" s="4"/>
       <c r="O13" s="3"/>
       <c r="P13" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q13" s="20"/>
       <c r="R13" s="20"/>
       <c r="S13" s="20"/>
       <c r="U13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AD13" s="3"/>
       <c r="AG13" s="4"/>
@@ -26800,7 +26796,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="3"/>
       <c r="P14" s="20" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
@@ -26846,10 +26842,10 @@
       <c r="N15" s="4"/>
       <c r="O15" s="3"/>
       <c r="P15" s="39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AD15" s="3"/>
       <c r="AG15" s="4"/>
@@ -26887,10 +26883,10 @@
       <c r="N16" s="4"/>
       <c r="O16" s="3"/>
       <c r="P16" s="39" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="U16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AC16" s="5"/>
       <c r="AD16" s="4"/>
@@ -27070,10 +27066,10 @@
       <c r="N20" s="4"/>
       <c r="O20" s="3"/>
       <c r="P20" t="s">
+        <v>87</v>
+      </c>
+      <c r="U20" t="s">
         <v>88</v>
-      </c>
-      <c r="U20" t="s">
-        <v>89</v>
       </c>
       <c r="AC20" s="5"/>
       <c r="AH20" s="4"/>
@@ -27451,7 +27447,7 @@
       <c r="N28" s="4"/>
       <c r="O28" s="3"/>
       <c r="P28" s="23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
@@ -27774,7 +27770,7 @@
   <dimension ref="B1:BB33"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19:AB28"/>
+      <selection activeCell="AE17" sqref="AE17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -27823,246 +27819,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="52" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="72" t="s">
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69">
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51">
         <v>1</v>
       </c>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="69" t="s">
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69">
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51">
         <v>9</v>
       </c>
-      <c r="BB2" s="70"/>
+      <c r="BB2" s="52"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="67" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="68"/>
-      <c r="BA3" s="68"/>
-      <c r="BB3" s="71"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="50"/>
+      <c r="AU3" s="50"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
+      <c r="BB3" s="53"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="72" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="73">
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="55">
         <v>43032</v>
       </c>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="74"/>
-      <c r="AX4" s="74"/>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="75"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="57"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="56"/>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="67"/>
-      <c r="AR5" s="68"/>
-      <c r="AS5" s="68"/>
-      <c r="AT5" s="68"/>
-      <c r="AU5" s="76"/>
-      <c r="AV5" s="76"/>
-      <c r="AW5" s="76"/>
-      <c r="AX5" s="76"/>
-      <c r="AY5" s="76"/>
-      <c r="AZ5" s="76"/>
-      <c r="BA5" s="76"/>
-      <c r="BB5" s="77"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="67"/>
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="67"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="67"/>
+      <c r="AL5" s="67"/>
+      <c r="AM5" s="67"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="67"/>
+      <c r="AP5" s="68"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="58"/>
+      <c r="AW5" s="58"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58"/>
+      <c r="AZ5" s="58"/>
+      <c r="BA5" s="58"/>
+      <c r="BB5" s="59"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -28584,7 +28580,7 @@
       <c r="N16" s="4"/>
       <c r="O16" s="3"/>
       <c r="P16" s="20" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="20"/>
       <c r="R16" s="20"/>
@@ -28628,13 +28624,13 @@
       <c r="N17" s="4"/>
       <c r="O17" s="3"/>
       <c r="P17" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="U17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AC17" s="5"/>
       <c r="AD17" s="4"/>
@@ -28723,7 +28719,7 @@
       <c r="N19" s="4"/>
       <c r="O19" s="3"/>
       <c r="P19" s="25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="U19" t="s">
         <v>12</v>
@@ -28868,7 +28864,7 @@
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
       <c r="U22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AC22" s="5"/>
       <c r="AD22" s="4"/>
@@ -28910,13 +28906,13 @@
       <c r="N23" s="4"/>
       <c r="O23" s="3"/>
       <c r="P23" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
       <c r="U23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AC23" s="5"/>
       <c r="AD23" s="4"/>
@@ -29053,10 +29049,10 @@
       <c r="N26" s="4"/>
       <c r="O26" s="3"/>
       <c r="P26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="U26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AA26" s="4"/>
       <c r="AB26" s="4"/>

--- a/総合演習資料/2.外部設計/画面設計図.xlsx
+++ b/総合演習資料/2.外部設計/画面設計図.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7650" windowHeight="6765" tabRatio="833" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7650" windowHeight="6765" tabRatio="833" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン" sheetId="13" r:id="rId1"/>
@@ -1521,39 +1521,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1606,6 +1573,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10074,13 +10074,13 @@
       <xdr:col>29</xdr:col>
       <xdr:colOff>40340</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>96372</xdr:rowOff>
+      <xdr:rowOff>96371</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>168087</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>56028</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10089,13 +10089,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5889811" y="1687607"/>
-          <a:ext cx="2548217" cy="1080246"/>
+          <a:off x="5889811" y="1687606"/>
+          <a:ext cx="2548217" cy="1169893"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -58912"/>
-            <a:gd name="adj2" fmla="val 24277"/>
+            <a:gd name="adj1" fmla="val -57153"/>
+            <a:gd name="adj2" fmla="val 40874"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -10128,7 +10128,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>修正画面は、既存の情報が入力された状態で表示。</a:t>
+            <a:t>修正画面は、新パスワード以外既存の情報が入力された状態で表示。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -10144,7 +10144,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>但し、一般社員でログインしている場合、旧パスワードと新パスワードは空白の状態で表示。</a:t>
+            <a:t>但し、一般社員でログインしている場合、旧パスワードも空白の状態で表示。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -10858,246 +10858,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69">
         <v>1</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="70"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="71"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="73">
         <v>43031</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="75"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="77"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -11549,16 +11549,16 @@
       <c r="R15" s="29"/>
       <c r="S15" s="29"/>
       <c r="T15" s="34"/>
-      <c r="U15" s="60">
+      <c r="U15" s="49">
         <v>199104101</v>
       </c>
-      <c r="V15" s="61"/>
-      <c r="W15" s="61"/>
-      <c r="X15" s="61"/>
-      <c r="Y15" s="61"/>
-      <c r="Z15" s="61"/>
-      <c r="AA15" s="61"/>
-      <c r="AB15" s="62"/>
+      <c r="V15" s="50"/>
+      <c r="W15" s="50"/>
+      <c r="X15" s="50"/>
+      <c r="Y15" s="50"/>
+      <c r="Z15" s="50"/>
+      <c r="AA15" s="50"/>
+      <c r="AB15" s="51"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="3"/>
       <c r="AG15" s="4"/>
@@ -11650,16 +11650,16 @@
       <c r="R17" s="20"/>
       <c r="S17" s="20"/>
       <c r="T17" s="21"/>
-      <c r="U17" s="60" t="s">
+      <c r="U17" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="V17" s="61"/>
-      <c r="W17" s="61"/>
-      <c r="X17" s="61"/>
-      <c r="Y17" s="61"/>
-      <c r="Z17" s="61"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="62"/>
+      <c r="V17" s="50"/>
+      <c r="W17" s="50"/>
+      <c r="X17" s="50"/>
+      <c r="Y17" s="50"/>
+      <c r="Z17" s="50"/>
+      <c r="AA17" s="50"/>
+      <c r="AB17" s="51"/>
       <c r="AC17" s="5"/>
       <c r="AD17" s="3"/>
       <c r="AH17" s="4"/>
@@ -12503,12 +12503,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="U15:AB15"/>
-    <mergeCell ref="U17:AB17"/>
-    <mergeCell ref="W2:AP2"/>
-    <mergeCell ref="W3:AP5"/>
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="B3:V5"/>
     <mergeCell ref="AQ3:AT3"/>
     <mergeCell ref="AU2:AV3"/>
     <mergeCell ref="AQ4:AT5"/>
@@ -12516,6 +12510,12 @@
     <mergeCell ref="BA2:BB3"/>
     <mergeCell ref="AW2:AZ3"/>
     <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="U15:AB15"/>
+    <mergeCell ref="U17:AB17"/>
+    <mergeCell ref="W2:AP2"/>
+    <mergeCell ref="W3:AP5"/>
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="B3:V5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12578,246 +12578,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69">
         <v>10</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="70"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="71"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="73">
         <v>43032</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="75"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="77"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -14172,7 +14172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -14220,246 +14220,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69">
         <v>11</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="70"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="71"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="73">
         <v>43032</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="75"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="77"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -15871,246 +15871,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69">
         <v>2</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="70"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="71"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="73">
         <v>43032</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="75"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="77"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -17586,246 +17586,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69">
         <v>3</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="70"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="71"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="73">
         <v>43032</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="75"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="77"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -19297,246 +19297,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69">
         <v>4</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="70"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="71"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="73">
         <v>43032</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="75"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="77"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -21027,246 +21027,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69">
         <v>5</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="70"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="71"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="73">
         <v>43032</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="75"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="77"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -22656,8 +22656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AS21" sqref="A21:AS21"/>
+    <sheetView topLeftCell="P7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AM25" sqref="AM25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -22706,246 +22706,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69">
         <v>6</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="70"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="71"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="73">
         <v>43032</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="75"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="77"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -24411,7 +24411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -24459,246 +24459,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69">
         <v>7</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="70"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="71"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="73">
         <v>43032</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="75"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="77"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -26088,9 +26088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB33"/>
   <sheetViews>
-    <sheetView topLeftCell="E7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -26138,246 +26136,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69">
         <v>8</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="70"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="71"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="73">
         <v>43032</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="75"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="77"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -27819,246 +27817,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69">
         <v>9</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="70"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="71"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="73">
         <v>43032</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="75"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="76"/>
+      <c r="AW5" s="76"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="77"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>

--- a/総合演習資料/2.外部設計/画面設計図.xlsx
+++ b/総合演習資料/2.外部設計/画面設計図.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptsg-user\Desktop\javaWeb2.git\総合演習資料\2.外部設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\javaWeb.git\総合演習資料\2.外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7650" windowHeight="6765" tabRatio="833" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7650" windowHeight="6765" tabRatio="833" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン" sheetId="13" r:id="rId1"/>
@@ -1521,6 +1521,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1573,39 +1606,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10808,7 +10808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB33"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
@@ -10858,246 +10858,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="52" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="72" t="s">
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69">
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51">
         <v>1</v>
       </c>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="69" t="s">
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69">
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51">
         <v>1</v>
       </c>
-      <c r="BB2" s="70"/>
+      <c r="BB2" s="52"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="54" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="67" t="s">
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="68"/>
-      <c r="BA3" s="68"/>
-      <c r="BB3" s="71"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="50"/>
+      <c r="AU3" s="50"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
+      <c r="BB3" s="53"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="72" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="73">
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="55">
         <v>43031</v>
       </c>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="74"/>
-      <c r="AX4" s="74"/>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="75"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="57"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="56"/>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="67"/>
-      <c r="AR5" s="68"/>
-      <c r="AS5" s="68"/>
-      <c r="AT5" s="68"/>
-      <c r="AU5" s="76"/>
-      <c r="AV5" s="76"/>
-      <c r="AW5" s="76"/>
-      <c r="AX5" s="76"/>
-      <c r="AY5" s="76"/>
-      <c r="AZ5" s="76"/>
-      <c r="BA5" s="76"/>
-      <c r="BB5" s="77"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="67"/>
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="67"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="67"/>
+      <c r="AL5" s="67"/>
+      <c r="AM5" s="67"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="67"/>
+      <c r="AP5" s="68"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="58"/>
+      <c r="AW5" s="58"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58"/>
+      <c r="AZ5" s="58"/>
+      <c r="BA5" s="58"/>
+      <c r="BB5" s="59"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -11549,16 +11549,16 @@
       <c r="R15" s="29"/>
       <c r="S15" s="29"/>
       <c r="T15" s="34"/>
-      <c r="U15" s="49">
+      <c r="U15" s="60">
         <v>199104101</v>
       </c>
-      <c r="V15" s="50"/>
-      <c r="W15" s="50"/>
-      <c r="X15" s="50"/>
-      <c r="Y15" s="50"/>
-      <c r="Z15" s="50"/>
-      <c r="AA15" s="50"/>
-      <c r="AB15" s="51"/>
+      <c r="V15" s="61"/>
+      <c r="W15" s="61"/>
+      <c r="X15" s="61"/>
+      <c r="Y15" s="61"/>
+      <c r="Z15" s="61"/>
+      <c r="AA15" s="61"/>
+      <c r="AB15" s="62"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="3"/>
       <c r="AG15" s="4"/>
@@ -11650,16 +11650,16 @@
       <c r="R17" s="20"/>
       <c r="S17" s="20"/>
       <c r="T17" s="21"/>
-      <c r="U17" s="49" t="s">
+      <c r="U17" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="V17" s="50"/>
-      <c r="W17" s="50"/>
-      <c r="X17" s="50"/>
-      <c r="Y17" s="50"/>
-      <c r="Z17" s="50"/>
-      <c r="AA17" s="50"/>
-      <c r="AB17" s="51"/>
+      <c r="V17" s="61"/>
+      <c r="W17" s="61"/>
+      <c r="X17" s="61"/>
+      <c r="Y17" s="61"/>
+      <c r="Z17" s="61"/>
+      <c r="AA17" s="61"/>
+      <c r="AB17" s="62"/>
       <c r="AC17" s="5"/>
       <c r="AD17" s="3"/>
       <c r="AH17" s="4"/>
@@ -12503,6 +12503,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="U15:AB15"/>
+    <mergeCell ref="U17:AB17"/>
+    <mergeCell ref="W2:AP2"/>
+    <mergeCell ref="W3:AP5"/>
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="B3:V5"/>
     <mergeCell ref="AQ3:AT3"/>
     <mergeCell ref="AU2:AV3"/>
     <mergeCell ref="AQ4:AT5"/>
@@ -12510,12 +12516,6 @@
     <mergeCell ref="BA2:BB3"/>
     <mergeCell ref="AW2:AZ3"/>
     <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="U15:AB15"/>
-    <mergeCell ref="U17:AB17"/>
-    <mergeCell ref="W2:AP2"/>
-    <mergeCell ref="W3:AP5"/>
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="B3:V5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12528,8 +12528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AL22" sqref="AL22"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AH21" sqref="AH21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12578,246 +12578,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="52" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="72" t="s">
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69">
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51">
         <v>1</v>
       </c>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="69" t="s">
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69">
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51">
         <v>10</v>
       </c>
-      <c r="BB2" s="70"/>
+      <c r="BB2" s="52"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="54" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="67" t="s">
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="68"/>
-      <c r="BA3" s="68"/>
-      <c r="BB3" s="71"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="50"/>
+      <c r="AU3" s="50"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
+      <c r="BB3" s="53"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="72" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="73">
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="55">
         <v>43032</v>
       </c>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="74"/>
-      <c r="AX4" s="74"/>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="75"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="57"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="56"/>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="67"/>
-      <c r="AR5" s="68"/>
-      <c r="AS5" s="68"/>
-      <c r="AT5" s="68"/>
-      <c r="AU5" s="76"/>
-      <c r="AV5" s="76"/>
-      <c r="AW5" s="76"/>
-      <c r="AX5" s="76"/>
-      <c r="AY5" s="76"/>
-      <c r="AZ5" s="76"/>
-      <c r="BA5" s="76"/>
-      <c r="BB5" s="77"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="67"/>
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="67"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="67"/>
+      <c r="AL5" s="67"/>
+      <c r="AM5" s="67"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="67"/>
+      <c r="AP5" s="68"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="58"/>
+      <c r="AW5" s="58"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58"/>
+      <c r="AZ5" s="58"/>
+      <c r="BA5" s="58"/>
+      <c r="BB5" s="59"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -14172,7 +14172,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AJ22" sqref="AJ22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -14220,246 +14222,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="52" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="72" t="s">
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69">
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51">
         <v>1</v>
       </c>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="69" t="s">
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69">
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51">
         <v>11</v>
       </c>
-      <c r="BB2" s="70"/>
+      <c r="BB2" s="52"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="54" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="67" t="s">
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="68"/>
-      <c r="BA3" s="68"/>
-      <c r="BB3" s="71"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="50"/>
+      <c r="AU3" s="50"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
+      <c r="BB3" s="53"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="72" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="73">
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="55">
         <v>43032</v>
       </c>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="74"/>
-      <c r="AX4" s="74"/>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="75"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="57"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="56"/>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="67"/>
-      <c r="AR5" s="68"/>
-      <c r="AS5" s="68"/>
-      <c r="AT5" s="68"/>
-      <c r="AU5" s="76"/>
-      <c r="AV5" s="76"/>
-      <c r="AW5" s="76"/>
-      <c r="AX5" s="76"/>
-      <c r="AY5" s="76"/>
-      <c r="AZ5" s="76"/>
-      <c r="BA5" s="76"/>
-      <c r="BB5" s="77"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="67"/>
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="67"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="67"/>
+      <c r="AL5" s="67"/>
+      <c r="AM5" s="67"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="67"/>
+      <c r="AP5" s="68"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="58"/>
+      <c r="AW5" s="58"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58"/>
+      <c r="AZ5" s="58"/>
+      <c r="BA5" s="58"/>
+      <c r="BB5" s="59"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -15823,7 +15825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB38"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -15871,246 +15873,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="52" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="72" t="s">
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69">
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51">
         <v>1</v>
       </c>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="69" t="s">
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69">
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51">
         <v>2</v>
       </c>
-      <c r="BB2" s="70"/>
+      <c r="BB2" s="52"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="54" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="67" t="s">
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="68"/>
-      <c r="BA3" s="68"/>
-      <c r="BB3" s="71"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="50"/>
+      <c r="AU3" s="50"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
+      <c r="BB3" s="53"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="72" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="73">
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="55">
         <v>43032</v>
       </c>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="74"/>
-      <c r="AX4" s="74"/>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="75"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="57"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="56"/>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="67"/>
-      <c r="AR5" s="68"/>
-      <c r="AS5" s="68"/>
-      <c r="AT5" s="68"/>
-      <c r="AU5" s="76"/>
-      <c r="AV5" s="76"/>
-      <c r="AW5" s="76"/>
-      <c r="AX5" s="76"/>
-      <c r="AY5" s="76"/>
-      <c r="AZ5" s="76"/>
-      <c r="BA5" s="76"/>
-      <c r="BB5" s="77"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="67"/>
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="67"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="67"/>
+      <c r="AL5" s="67"/>
+      <c r="AM5" s="67"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="67"/>
+      <c r="AP5" s="68"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="58"/>
+      <c r="AW5" s="58"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58"/>
+      <c r="AZ5" s="58"/>
+      <c r="BA5" s="58"/>
+      <c r="BB5" s="59"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -17536,7 +17538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB38"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="W3" sqref="W3:AP5"/>
     </sheetView>
   </sheetViews>
@@ -17586,246 +17588,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="52" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="72" t="s">
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69">
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51">
         <v>1</v>
       </c>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="69" t="s">
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69">
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51">
         <v>3</v>
       </c>
-      <c r="BB2" s="70"/>
+      <c r="BB2" s="52"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="54" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="67" t="s">
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="68"/>
-      <c r="BA3" s="68"/>
-      <c r="BB3" s="71"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="50"/>
+      <c r="AU3" s="50"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
+      <c r="BB3" s="53"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="72" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="73">
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="55">
         <v>43032</v>
       </c>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="74"/>
-      <c r="AX4" s="74"/>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="75"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="57"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="56"/>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="67"/>
-      <c r="AR5" s="68"/>
-      <c r="AS5" s="68"/>
-      <c r="AT5" s="68"/>
-      <c r="AU5" s="76"/>
-      <c r="AV5" s="76"/>
-      <c r="AW5" s="76"/>
-      <c r="AX5" s="76"/>
-      <c r="AY5" s="76"/>
-      <c r="AZ5" s="76"/>
-      <c r="BA5" s="76"/>
-      <c r="BB5" s="77"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="67"/>
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="67"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="67"/>
+      <c r="AL5" s="67"/>
+      <c r="AM5" s="67"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="67"/>
+      <c r="AP5" s="68"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="58"/>
+      <c r="AW5" s="58"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58"/>
+      <c r="AZ5" s="58"/>
+      <c r="BA5" s="58"/>
+      <c r="BB5" s="59"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -19246,7 +19248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -19297,246 +19299,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="52" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="72" t="s">
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69">
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51">
         <v>1</v>
       </c>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="69" t="s">
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69">
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51">
         <v>4</v>
       </c>
-      <c r="BB2" s="70"/>
+      <c r="BB2" s="52"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="54" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="67" t="s">
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="68"/>
-      <c r="BA3" s="68"/>
-      <c r="BB3" s="71"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="50"/>
+      <c r="AU3" s="50"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
+      <c r="BB3" s="53"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="72" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="73">
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="55">
         <v>43032</v>
       </c>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="74"/>
-      <c r="AX4" s="74"/>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="75"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="57"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="56"/>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="67"/>
-      <c r="AR5" s="68"/>
-      <c r="AS5" s="68"/>
-      <c r="AT5" s="68"/>
-      <c r="AU5" s="76"/>
-      <c r="AV5" s="76"/>
-      <c r="AW5" s="76"/>
-      <c r="AX5" s="76"/>
-      <c r="AY5" s="76"/>
-      <c r="AZ5" s="76"/>
-      <c r="BA5" s="76"/>
-      <c r="BB5" s="77"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="67"/>
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="67"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="67"/>
+      <c r="AL5" s="67"/>
+      <c r="AM5" s="67"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="67"/>
+      <c r="AP5" s="68"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="58"/>
+      <c r="AW5" s="58"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58"/>
+      <c r="AZ5" s="58"/>
+      <c r="BA5" s="58"/>
+      <c r="BB5" s="59"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -20979,7 +20981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -21027,246 +21029,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="52" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="72" t="s">
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69">
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51">
         <v>1</v>
       </c>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="69" t="s">
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69">
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51">
         <v>5</v>
       </c>
-      <c r="BB2" s="70"/>
+      <c r="BB2" s="52"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="54" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="67" t="s">
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="68"/>
-      <c r="BA3" s="68"/>
-      <c r="BB3" s="71"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="50"/>
+      <c r="AU3" s="50"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
+      <c r="BB3" s="53"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="72" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="73">
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="55">
         <v>43032</v>
       </c>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="74"/>
-      <c r="AX4" s="74"/>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="75"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="57"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="56"/>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="67"/>
-      <c r="AR5" s="68"/>
-      <c r="AS5" s="68"/>
-      <c r="AT5" s="68"/>
-      <c r="AU5" s="76"/>
-      <c r="AV5" s="76"/>
-      <c r="AW5" s="76"/>
-      <c r="AX5" s="76"/>
-      <c r="AY5" s="76"/>
-      <c r="AZ5" s="76"/>
-      <c r="BA5" s="76"/>
-      <c r="BB5" s="77"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="67"/>
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="67"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="67"/>
+      <c r="AL5" s="67"/>
+      <c r="AM5" s="67"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="67"/>
+      <c r="AP5" s="68"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="58"/>
+      <c r="AW5" s="58"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58"/>
+      <c r="AZ5" s="58"/>
+      <c r="BA5" s="58"/>
+      <c r="BB5" s="59"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -22656,7 +22658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB33"/>
   <sheetViews>
-    <sheetView topLeftCell="P7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AM25" sqref="AM25"/>
     </sheetView>
   </sheetViews>
@@ -22706,246 +22708,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="52" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="72" t="s">
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69">
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51">
         <v>1</v>
       </c>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="69" t="s">
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69">
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51">
         <v>6</v>
       </c>
-      <c r="BB2" s="70"/>
+      <c r="BB2" s="52"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="54" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="67" t="s">
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="68"/>
-      <c r="BA3" s="68"/>
-      <c r="BB3" s="71"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="50"/>
+      <c r="AU3" s="50"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
+      <c r="BB3" s="53"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="72" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="73">
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="55">
         <v>43032</v>
       </c>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="74"/>
-      <c r="AX4" s="74"/>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="75"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="57"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="56"/>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="67"/>
-      <c r="AR5" s="68"/>
-      <c r="AS5" s="68"/>
-      <c r="AT5" s="68"/>
-      <c r="AU5" s="76"/>
-      <c r="AV5" s="76"/>
-      <c r="AW5" s="76"/>
-      <c r="AX5" s="76"/>
-      <c r="AY5" s="76"/>
-      <c r="AZ5" s="76"/>
-      <c r="BA5" s="76"/>
-      <c r="BB5" s="77"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="67"/>
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="67"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="67"/>
+      <c r="AL5" s="67"/>
+      <c r="AM5" s="67"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="67"/>
+      <c r="AP5" s="68"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="58"/>
+      <c r="AW5" s="58"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58"/>
+      <c r="AZ5" s="58"/>
+      <c r="BA5" s="58"/>
+      <c r="BB5" s="59"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -24411,7 +24413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -24459,246 +24461,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="52" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="72" t="s">
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69">
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51">
         <v>1</v>
       </c>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="69" t="s">
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69">
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51">
         <v>7</v>
       </c>
-      <c r="BB2" s="70"/>
+      <c r="BB2" s="52"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="54" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="67" t="s">
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="68"/>
-      <c r="BA3" s="68"/>
-      <c r="BB3" s="71"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="50"/>
+      <c r="AU3" s="50"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
+      <c r="BB3" s="53"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="72" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="73">
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="55">
         <v>43032</v>
       </c>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="74"/>
-      <c r="AX4" s="74"/>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="75"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="57"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="56"/>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="67"/>
-      <c r="AR5" s="68"/>
-      <c r="AS5" s="68"/>
-      <c r="AT5" s="68"/>
-      <c r="AU5" s="76"/>
-      <c r="AV5" s="76"/>
-      <c r="AW5" s="76"/>
-      <c r="AX5" s="76"/>
-      <c r="AY5" s="76"/>
-      <c r="AZ5" s="76"/>
-      <c r="BA5" s="76"/>
-      <c r="BB5" s="77"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="67"/>
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="67"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="67"/>
+      <c r="AL5" s="67"/>
+      <c r="AM5" s="67"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="67"/>
+      <c r="AP5" s="68"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="58"/>
+      <c r="AW5" s="58"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58"/>
+      <c r="AZ5" s="58"/>
+      <c r="BA5" s="58"/>
+      <c r="BB5" s="59"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -26088,7 +26090,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AJ11" sqref="AJ11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -26136,246 +26140,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="52" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="72" t="s">
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69">
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51">
         <v>1</v>
       </c>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="69" t="s">
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69">
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51">
         <v>8</v>
       </c>
-      <c r="BB2" s="70"/>
+      <c r="BB2" s="52"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="54" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="67" t="s">
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="68"/>
-      <c r="BA3" s="68"/>
-      <c r="BB3" s="71"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="50"/>
+      <c r="AU3" s="50"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
+      <c r="BB3" s="53"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="72" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="73">
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="55">
         <v>43032</v>
       </c>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="74"/>
-      <c r="AX4" s="74"/>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="75"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="57"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="56"/>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="67"/>
-      <c r="AR5" s="68"/>
-      <c r="AS5" s="68"/>
-      <c r="AT5" s="68"/>
-      <c r="AU5" s="76"/>
-      <c r="AV5" s="76"/>
-      <c r="AW5" s="76"/>
-      <c r="AX5" s="76"/>
-      <c r="AY5" s="76"/>
-      <c r="AZ5" s="76"/>
-      <c r="BA5" s="76"/>
-      <c r="BB5" s="77"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="67"/>
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="67"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="67"/>
+      <c r="AL5" s="67"/>
+      <c r="AM5" s="67"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="67"/>
+      <c r="AP5" s="68"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="58"/>
+      <c r="AW5" s="58"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58"/>
+      <c r="AZ5" s="58"/>
+      <c r="BA5" s="58"/>
+      <c r="BB5" s="59"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -27767,8 +27771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AE17" sqref="AE17"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -27817,246 +27821,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="52" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="72" t="s">
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69">
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51">
         <v>1</v>
       </c>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="69" t="s">
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69">
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51">
         <v>9</v>
       </c>
-      <c r="BB2" s="70"/>
+      <c r="BB2" s="52"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="54" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="67" t="s">
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="68"/>
-      <c r="BA3" s="68"/>
-      <c r="BB3" s="71"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="50"/>
+      <c r="AU3" s="50"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
+      <c r="BB3" s="53"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="72" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="73">
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="55">
         <v>43032</v>
       </c>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="74"/>
-      <c r="AX4" s="74"/>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="75"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="57"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="56"/>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="67"/>
-      <c r="AR5" s="68"/>
-      <c r="AS5" s="68"/>
-      <c r="AT5" s="68"/>
-      <c r="AU5" s="76"/>
-      <c r="AV5" s="76"/>
-      <c r="AW5" s="76"/>
-      <c r="AX5" s="76"/>
-      <c r="AY5" s="76"/>
-      <c r="AZ5" s="76"/>
-      <c r="BA5" s="76"/>
-      <c r="BB5" s="77"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="67"/>
+      <c r="AH5" s="67"/>
+      <c r="AI5" s="67"/>
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="67"/>
+      <c r="AL5" s="67"/>
+      <c r="AM5" s="67"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="67"/>
+      <c r="AP5" s="68"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="58"/>
+      <c r="AW5" s="58"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58"/>
+      <c r="AZ5" s="58"/>
+      <c r="BA5" s="58"/>
+      <c r="BB5" s="59"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>

--- a/総合演習資料/2.外部設計/画面設計図.xlsx
+++ b/総合演習資料/2.外部設計/画面設計図.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\javaWeb.git\総合演習資料\2.外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7650" windowHeight="6765" tabRatio="833" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7650" windowHeight="6765" tabRatio="833" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン" sheetId="13" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="120">
   <si>
     <t>作成日付：</t>
     <rPh sb="0" eb="2">
@@ -400,19 +400,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>内線or携帯番号</t>
-    <rPh sb="0" eb="2">
-      <t>ナイセン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ケイタイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -499,51 +486,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>前画面に戻るボタンをクリックすると</t>
-    <rPh sb="0" eb="1">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新規登録画面に遷移</t>
-    <rPh sb="0" eb="2">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>（各項目には入力された状態で遷移）</t>
-    <rPh sb="1" eb="4">
-      <t>カクコウモク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>修正</t>
     <rPh sb="0" eb="2">
       <t>シュウセイ</t>
@@ -583,16 +525,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>修正画面に遷移</t>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>バージョン</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -620,38 +552,6 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>詳細画面に遷移</t>
-    <rPh sb="0" eb="2">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>（本画面に遷移する前の画面に遷移）</t>
-    <rPh sb="1" eb="2">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -971,7 +871,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※新規登録が成功した場合など各種メッセージはこの部分に</t>
+    <t>名前</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>・名前</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・名前</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※新規登録が成功した場合など各種メッセージは</t>
     <rPh sb="1" eb="3">
       <t>シンキ</t>
     </rPh>
@@ -987,34 +899,117 @@
     <rPh sb="14" eb="16">
       <t>カクシュ</t>
     </rPh>
-    <rPh sb="24" eb="26">
-      <t>ブブン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>表示する。　例）登録できました。</t>
-    <rPh sb="0" eb="2">
+    <t>この部分に表示する。　例）登録できました。</t>
+    <rPh sb="5" eb="7">
       <t>ヒョウジ</t>
     </rPh>
-    <rPh sb="6" eb="7">
+    <rPh sb="11" eb="12">
       <t>レイ</t>
     </rPh>
-    <rPh sb="8" eb="10">
+    <rPh sb="13" eb="15">
       <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>名前</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>・名前</t>
+    <t>前画面に戻るボタンをクリック</t>
+    <rPh sb="0" eb="1">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>モド</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・名前</t>
+    <t>すると新規登録画面に遷移</t>
+    <rPh sb="3" eb="5">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（各項目には入力された</t>
+    <rPh sb="1" eb="4">
+      <t>カクコウモク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状態で遷移）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すると修正画面に遷移</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（各項目には入力された状態で</t>
+    <rPh sb="1" eb="4">
+      <t>カクコウモク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遷移）</t>
+  </si>
+  <si>
+    <t>すると詳細画面に遷移</t>
+    <rPh sb="3" eb="5">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（本画面に遷移する前の画面に</t>
+    <rPh sb="1" eb="2">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1381,7 +1376,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1512,47 +1507,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1607,6 +1566,43 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2063,7 +2059,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>108858</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
@@ -2075,7 +2071,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="390525" y="904875"/>
+          <a:off x="312965" y="1040946"/>
           <a:ext cx="2339102" cy="559192"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2769,11 +2765,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:colOff>54428</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1923604" cy="275717"/>
+    <xdr:ext cx="2002526" cy="275717"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="17" name="テキスト ボックス 16"/>
@@ -2781,8 +2777,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6534150" y="1047750"/>
-          <a:ext cx="1923604" cy="275717"/>
+          <a:off x="6585857" y="1059996"/>
+          <a:ext cx="2002526" cy="275717"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2804,7 +2800,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
           <a:spAutoFit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -5193,16 +5189,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>112060</xdr:colOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>152881</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>33619</xdr:rowOff>
+      <xdr:rowOff>128869</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>40821</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5211,17 +5207,21 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7373472" y="1826560"/>
-          <a:ext cx="2913528" cy="1591234"/>
+          <a:off x="8113060" y="1938619"/>
+          <a:ext cx="2949547" cy="1354310"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -61627"/>
-            <a:gd name="adj2" fmla="val -18943"/>
+            <a:gd name="adj1" fmla="val -82848"/>
+            <a:gd name="adj2" fmla="val -29927"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:alpha val="61000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -7184,12 +7184,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>14967</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2285113" cy="275717"/>
+    <xdr:ext cx="2407105" cy="275717"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="17" name="テキスト ボックス 16"/>
@@ -7197,8 +7197,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6281457" y="1043268"/>
-          <a:ext cx="2285113" cy="275717"/>
+          <a:off x="6138181" y="1050472"/>
+          <a:ext cx="2407105" cy="275717"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7220,7 +7220,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
           <a:spAutoFit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -9444,16 +9444,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>33617</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>128868</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
+      <xdr:rowOff>124064</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>123263</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>33616</xdr:rowOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>14406</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9462,17 +9462,21 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7295029" y="1848970"/>
-          <a:ext cx="2913528" cy="1591234"/>
+          <a:off x="7884939" y="1933814"/>
+          <a:ext cx="2947146" cy="1345507"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -61627"/>
+            <a:gd name="adj1" fmla="val -72246"/>
             <a:gd name="adj2" fmla="val -18943"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:alpha val="64000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -10794,7 +10798,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:noFill/>
+      </a:spPr>
+      <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+      <a:lstStyle>
+        <a:defPPr algn="l">
+          <a:defRPr kumimoji="1" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:defRPr>
+        </a:defPPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
@@ -10858,246 +10894,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="51"/>
+      <c r="AO2" s="51"/>
+      <c r="AP2" s="52"/>
+      <c r="AQ2" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR2" s="68"/>
+      <c r="AS2" s="68"/>
+      <c r="AT2" s="68"/>
+      <c r="AU2" s="68">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="69"/>
+      <c r="AW2" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="68"/>
+      <c r="AY2" s="68"/>
+      <c r="AZ2" s="68"/>
+      <c r="BA2" s="68">
         <v>1</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="69"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
-        <v>84</v>
-      </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="B3" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="53"/>
+      <c r="AD3" s="53"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="53"/>
+      <c r="AG3" s="53"/>
+      <c r="AH3" s="53"/>
+      <c r="AI3" s="53"/>
+      <c r="AJ3" s="53"/>
+      <c r="AK3" s="53"/>
+      <c r="AL3" s="53"/>
+      <c r="AM3" s="53"/>
+      <c r="AN3" s="53"/>
+      <c r="AO3" s="53"/>
+      <c r="AP3" s="54"/>
+      <c r="AQ3" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR3" s="67"/>
+      <c r="AS3" s="67"/>
+      <c r="AT3" s="67"/>
+      <c r="AU3" s="67"/>
+      <c r="AV3" s="70"/>
+      <c r="AW3" s="67"/>
+      <c r="AX3" s="67"/>
+      <c r="AY3" s="67"/>
+      <c r="AZ3" s="67"/>
+      <c r="BA3" s="67"/>
+      <c r="BB3" s="70"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="62"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="53"/>
+      <c r="AA4" s="53"/>
+      <c r="AB4" s="53"/>
+      <c r="AC4" s="53"/>
+      <c r="AD4" s="53"/>
+      <c r="AE4" s="53"/>
+      <c r="AF4" s="53"/>
+      <c r="AG4" s="53"/>
+      <c r="AH4" s="53"/>
+      <c r="AI4" s="53"/>
+      <c r="AJ4" s="53"/>
+      <c r="AK4" s="53"/>
+      <c r="AL4" s="53"/>
+      <c r="AM4" s="53"/>
+      <c r="AN4" s="53"/>
+      <c r="AO4" s="53"/>
+      <c r="AP4" s="54"/>
+      <c r="AQ4" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="68"/>
+      <c r="AS4" s="68"/>
+      <c r="AT4" s="68"/>
+      <c r="AU4" s="72">
         <v>43031</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="73"/>
+      <c r="AW4" s="73"/>
+      <c r="AX4" s="73"/>
+      <c r="AY4" s="73"/>
+      <c r="AZ4" s="73"/>
+      <c r="BA4" s="73"/>
+      <c r="BB4" s="74"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="64"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="65"/>
+      <c r="W5" s="55"/>
+      <c r="X5" s="55"/>
+      <c r="Y5" s="55"/>
+      <c r="Z5" s="55"/>
+      <c r="AA5" s="55"/>
+      <c r="AB5" s="55"/>
+      <c r="AC5" s="55"/>
+      <c r="AD5" s="55"/>
+      <c r="AE5" s="55"/>
+      <c r="AF5" s="55"/>
+      <c r="AG5" s="55"/>
+      <c r="AH5" s="55"/>
+      <c r="AI5" s="55"/>
+      <c r="AJ5" s="55"/>
+      <c r="AK5" s="55"/>
+      <c r="AL5" s="55"/>
+      <c r="AM5" s="55"/>
+      <c r="AN5" s="55"/>
+      <c r="AO5" s="55"/>
+      <c r="AP5" s="56"/>
+      <c r="AQ5" s="66"/>
+      <c r="AR5" s="67"/>
+      <c r="AS5" s="67"/>
+      <c r="AT5" s="67"/>
+      <c r="AU5" s="75"/>
+      <c r="AV5" s="75"/>
+      <c r="AW5" s="75"/>
+      <c r="AX5" s="75"/>
+      <c r="AY5" s="75"/>
+      <c r="AZ5" s="75"/>
+      <c r="BA5" s="75"/>
+      <c r="BB5" s="76"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -11390,7 +11426,7 @@
       <c r="I12" s="4"/>
       <c r="O12" s="19"/>
       <c r="P12" s="4" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -11443,7 +11479,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
       <c r="P13" s="4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
@@ -11549,16 +11585,16 @@
       <c r="R15" s="29"/>
       <c r="S15" s="29"/>
       <c r="T15" s="34"/>
-      <c r="U15" s="60">
+      <c r="U15" s="48">
         <v>199104101</v>
       </c>
-      <c r="V15" s="61"/>
-      <c r="W15" s="61"/>
-      <c r="X15" s="61"/>
-      <c r="Y15" s="61"/>
-      <c r="Z15" s="61"/>
-      <c r="AA15" s="61"/>
-      <c r="AB15" s="62"/>
+      <c r="V15" s="49"/>
+      <c r="W15" s="49"/>
+      <c r="X15" s="49"/>
+      <c r="Y15" s="49"/>
+      <c r="Z15" s="49"/>
+      <c r="AA15" s="49"/>
+      <c r="AB15" s="50"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="3"/>
       <c r="AG15" s="4"/>
@@ -11644,22 +11680,22 @@
       <c r="N17" s="4"/>
       <c r="O17" s="3"/>
       <c r="P17" s="20" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="20"/>
       <c r="R17" s="20"/>
       <c r="S17" s="20"/>
       <c r="T17" s="21"/>
-      <c r="U17" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="V17" s="61"/>
-      <c r="W17" s="61"/>
-      <c r="X17" s="61"/>
-      <c r="Y17" s="61"/>
-      <c r="Z17" s="61"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="62"/>
+      <c r="U17" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="V17" s="49"/>
+      <c r="W17" s="49"/>
+      <c r="X17" s="49"/>
+      <c r="Y17" s="49"/>
+      <c r="Z17" s="49"/>
+      <c r="AA17" s="49"/>
+      <c r="AB17" s="50"/>
       <c r="AC17" s="5"/>
       <c r="AD17" s="3"/>
       <c r="AH17" s="4"/>
@@ -12503,12 +12539,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="U15:AB15"/>
-    <mergeCell ref="U17:AB17"/>
-    <mergeCell ref="W2:AP2"/>
-    <mergeCell ref="W3:AP5"/>
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="B3:V5"/>
     <mergeCell ref="AQ3:AT3"/>
     <mergeCell ref="AU2:AV3"/>
     <mergeCell ref="AQ4:AT5"/>
@@ -12516,6 +12546,12 @@
     <mergeCell ref="BA2:BB3"/>
     <mergeCell ref="AW2:AZ3"/>
     <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="U15:AB15"/>
+    <mergeCell ref="U17:AB17"/>
+    <mergeCell ref="W2:AP2"/>
+    <mergeCell ref="W3:AP5"/>
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="B3:V5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12578,246 +12614,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="51"/>
+      <c r="AO2" s="51"/>
+      <c r="AP2" s="52"/>
+      <c r="AQ2" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="68"/>
+      <c r="AS2" s="68"/>
+      <c r="AT2" s="68"/>
+      <c r="AU2" s="68">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="69"/>
+      <c r="AW2" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="68"/>
+      <c r="AY2" s="68"/>
+      <c r="AZ2" s="68"/>
+      <c r="BA2" s="68">
         <v>10</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="69"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
-        <v>84</v>
-      </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="53"/>
+      <c r="AD3" s="53"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="53"/>
+      <c r="AG3" s="53"/>
+      <c r="AH3" s="53"/>
+      <c r="AI3" s="53"/>
+      <c r="AJ3" s="53"/>
+      <c r="AK3" s="53"/>
+      <c r="AL3" s="53"/>
+      <c r="AM3" s="53"/>
+      <c r="AN3" s="53"/>
+      <c r="AO3" s="53"/>
+      <c r="AP3" s="54"/>
+      <c r="AQ3" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="AR3" s="67"/>
+      <c r="AS3" s="67"/>
+      <c r="AT3" s="67"/>
+      <c r="AU3" s="67"/>
+      <c r="AV3" s="70"/>
+      <c r="AW3" s="67"/>
+      <c r="AX3" s="67"/>
+      <c r="AY3" s="67"/>
+      <c r="AZ3" s="67"/>
+      <c r="BA3" s="67"/>
+      <c r="BB3" s="70"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="62"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="53"/>
+      <c r="AA4" s="53"/>
+      <c r="AB4" s="53"/>
+      <c r="AC4" s="53"/>
+      <c r="AD4" s="53"/>
+      <c r="AE4" s="53"/>
+      <c r="AF4" s="53"/>
+      <c r="AG4" s="53"/>
+      <c r="AH4" s="53"/>
+      <c r="AI4" s="53"/>
+      <c r="AJ4" s="53"/>
+      <c r="AK4" s="53"/>
+      <c r="AL4" s="53"/>
+      <c r="AM4" s="53"/>
+      <c r="AN4" s="53"/>
+      <c r="AO4" s="53"/>
+      <c r="AP4" s="54"/>
+      <c r="AQ4" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="68"/>
+      <c r="AS4" s="68"/>
+      <c r="AT4" s="68"/>
+      <c r="AU4" s="72">
         <v>43032</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="73"/>
+      <c r="AW4" s="73"/>
+      <c r="AX4" s="73"/>
+      <c r="AY4" s="73"/>
+      <c r="AZ4" s="73"/>
+      <c r="BA4" s="73"/>
+      <c r="BB4" s="74"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="64"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="65"/>
+      <c r="W5" s="55"/>
+      <c r="X5" s="55"/>
+      <c r="Y5" s="55"/>
+      <c r="Z5" s="55"/>
+      <c r="AA5" s="55"/>
+      <c r="AB5" s="55"/>
+      <c r="AC5" s="55"/>
+      <c r="AD5" s="55"/>
+      <c r="AE5" s="55"/>
+      <c r="AF5" s="55"/>
+      <c r="AG5" s="55"/>
+      <c r="AH5" s="55"/>
+      <c r="AI5" s="55"/>
+      <c r="AJ5" s="55"/>
+      <c r="AK5" s="55"/>
+      <c r="AL5" s="55"/>
+      <c r="AM5" s="55"/>
+      <c r="AN5" s="55"/>
+      <c r="AO5" s="55"/>
+      <c r="AP5" s="56"/>
+      <c r="AQ5" s="66"/>
+      <c r="AR5" s="67"/>
+      <c r="AS5" s="67"/>
+      <c r="AT5" s="67"/>
+      <c r="AU5" s="75"/>
+      <c r="AV5" s="75"/>
+      <c r="AW5" s="75"/>
+      <c r="AX5" s="75"/>
+      <c r="AY5" s="75"/>
+      <c r="AZ5" s="75"/>
+      <c r="BA5" s="75"/>
+      <c r="BB5" s="76"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -12972,7 +13008,7 @@
       <c r="AP8" s="15"/>
       <c r="AQ8" s="3"/>
       <c r="AR8" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AS8" s="4"/>
       <c r="AT8" s="4"/>
@@ -13025,7 +13061,7 @@
       <c r="AP9" s="15"/>
       <c r="AQ9" s="3"/>
       <c r="AR9" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AS9" s="4"/>
       <c r="AT9" s="4"/>
@@ -13327,7 +13363,7 @@
       <c r="N16" s="4"/>
       <c r="O16" s="3"/>
       <c r="P16" s="20" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="Q16" s="20"/>
       <c r="R16" s="20"/>
@@ -13371,13 +13407,13 @@
       <c r="N17" s="4"/>
       <c r="O17" s="3"/>
       <c r="P17" s="23" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="U17" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AC17" s="5"/>
       <c r="AD17" s="4"/>
@@ -13419,13 +13455,13 @@
       <c r="N18" s="4"/>
       <c r="O18" s="3"/>
       <c r="P18" s="23" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
       <c r="U18" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AC18" s="5"/>
       <c r="AH18" s="4"/>
@@ -13466,7 +13502,7 @@
       <c r="N19" s="4"/>
       <c r="O19" s="3"/>
       <c r="P19" s="25" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="U19" t="s">
         <v>12</v>
@@ -13611,7 +13647,7 @@
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
       <c r="U22" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="AC22" s="5"/>
       <c r="AD22" s="4"/>
@@ -13653,13 +13689,13 @@
       <c r="N23" s="4"/>
       <c r="O23" s="3"/>
       <c r="P23" s="23" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
       <c r="U23" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AC23" s="5"/>
       <c r="AD23" s="4"/>
@@ -13701,7 +13737,7 @@
       <c r="N24" s="4"/>
       <c r="O24" s="3"/>
       <c r="P24" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="U24">
         <v>1001</v>
@@ -13746,7 +13782,7 @@
       <c r="N25" s="4"/>
       <c r="O25" s="3"/>
       <c r="P25" s="23" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="Q25" s="4"/>
       <c r="U25" t="s">
@@ -14172,7 +14208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AJ22" sqref="AJ22"/>
     </sheetView>
   </sheetViews>
@@ -14222,246 +14258,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="51"/>
+      <c r="AO2" s="51"/>
+      <c r="AP2" s="52"/>
+      <c r="AQ2" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="AR2" s="68"/>
+      <c r="AS2" s="68"/>
+      <c r="AT2" s="68"/>
+      <c r="AU2" s="68">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AV2" s="69"/>
+      <c r="AW2" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="AX2" s="68"/>
+      <c r="AY2" s="68"/>
+      <c r="AZ2" s="68"/>
+      <c r="BA2" s="68">
         <v>11</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="69"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
-        <v>84</v>
-      </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="53"/>
+      <c r="AD3" s="53"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="53"/>
+      <c r="AG3" s="53"/>
+      <c r="AH3" s="53"/>
+      <c r="AI3" s="53"/>
+      <c r="AJ3" s="53"/>
+      <c r="AK3" s="53"/>
+      <c r="AL3" s="53"/>
+      <c r="AM3" s="53"/>
+      <c r="AN3" s="53"/>
+      <c r="AO3" s="53"/>
+      <c r="AP3" s="54"/>
+      <c r="AQ3" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR3" s="67"/>
+      <c r="AS3" s="67"/>
+      <c r="AT3" s="67"/>
+      <c r="AU3" s="67"/>
+      <c r="AV3" s="70"/>
+      <c r="AW3" s="67"/>
+      <c r="AX3" s="67"/>
+      <c r="AY3" s="67"/>
+      <c r="AZ3" s="67"/>
+      <c r="BA3" s="67"/>
+      <c r="BB3" s="70"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="62"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="53"/>
+      <c r="AA4" s="53"/>
+      <c r="AB4" s="53"/>
+      <c r="AC4" s="53"/>
+      <c r="AD4" s="53"/>
+      <c r="AE4" s="53"/>
+      <c r="AF4" s="53"/>
+      <c r="AG4" s="53"/>
+      <c r="AH4" s="53"/>
+      <c r="AI4" s="53"/>
+      <c r="AJ4" s="53"/>
+      <c r="AK4" s="53"/>
+      <c r="AL4" s="53"/>
+      <c r="AM4" s="53"/>
+      <c r="AN4" s="53"/>
+      <c r="AO4" s="53"/>
+      <c r="AP4" s="54"/>
+      <c r="AQ4" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="68"/>
+      <c r="AS4" s="68"/>
+      <c r="AT4" s="68"/>
+      <c r="AU4" s="72">
         <v>43032</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="73"/>
+      <c r="AW4" s="73"/>
+      <c r="AX4" s="73"/>
+      <c r="AY4" s="73"/>
+      <c r="AZ4" s="73"/>
+      <c r="BA4" s="73"/>
+      <c r="BB4" s="74"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="64"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="65"/>
+      <c r="W5" s="55"/>
+      <c r="X5" s="55"/>
+      <c r="Y5" s="55"/>
+      <c r="Z5" s="55"/>
+      <c r="AA5" s="55"/>
+      <c r="AB5" s="55"/>
+      <c r="AC5" s="55"/>
+      <c r="AD5" s="55"/>
+      <c r="AE5" s="55"/>
+      <c r="AF5" s="55"/>
+      <c r="AG5" s="55"/>
+      <c r="AH5" s="55"/>
+      <c r="AI5" s="55"/>
+      <c r="AJ5" s="55"/>
+      <c r="AK5" s="55"/>
+      <c r="AL5" s="55"/>
+      <c r="AM5" s="55"/>
+      <c r="AN5" s="55"/>
+      <c r="AO5" s="55"/>
+      <c r="AP5" s="56"/>
+      <c r="AQ5" s="66"/>
+      <c r="AR5" s="67"/>
+      <c r="AS5" s="67"/>
+      <c r="AT5" s="67"/>
+      <c r="AU5" s="75"/>
+      <c r="AV5" s="75"/>
+      <c r="AW5" s="75"/>
+      <c r="AX5" s="75"/>
+      <c r="AY5" s="75"/>
+      <c r="AZ5" s="75"/>
+      <c r="BA5" s="75"/>
+      <c r="BB5" s="76"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -14616,7 +14652,7 @@
       <c r="AP8" s="15"/>
       <c r="AQ8" s="3"/>
       <c r="AR8" s="4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="AS8" s="4"/>
       <c r="AT8" s="4"/>
@@ -14669,7 +14705,7 @@
       <c r="AP9" s="15"/>
       <c r="AQ9" s="3"/>
       <c r="AR9" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="AS9" s="4"/>
       <c r="AT9" s="4"/>
@@ -14760,7 +14796,7 @@
       <c r="AP11" s="4"/>
       <c r="AQ11" s="3"/>
       <c r="AR11" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AS11" s="4"/>
       <c r="AT11" s="4"/>
@@ -14808,7 +14844,7 @@
       <c r="AP12" s="4"/>
       <c r="AQ12" s="3"/>
       <c r="AR12" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AS12" s="4"/>
       <c r="AT12" s="4"/>
@@ -14978,7 +15014,7 @@
       <c r="N16" s="4"/>
       <c r="O16" s="3"/>
       <c r="P16" s="20" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="Q16" s="20"/>
       <c r="R16" s="20"/>
@@ -15022,13 +15058,13 @@
       <c r="N17" s="4"/>
       <c r="O17" s="3"/>
       <c r="P17" s="23" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="U17" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AC17" s="5"/>
       <c r="AD17" s="4"/>
@@ -15070,13 +15106,13 @@
       <c r="N18" s="4"/>
       <c r="O18" s="3"/>
       <c r="P18" s="23" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
       <c r="U18" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AC18" s="5"/>
       <c r="AH18" s="4"/>
@@ -15117,7 +15153,7 @@
       <c r="N19" s="4"/>
       <c r="O19" s="3"/>
       <c r="P19" s="25" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="U19" t="s">
         <v>12</v>
@@ -15262,7 +15298,7 @@
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
       <c r="U22" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="AC22" s="5"/>
       <c r="AD22" s="4"/>
@@ -15304,13 +15340,13 @@
       <c r="N23" s="4"/>
       <c r="O23" s="3"/>
       <c r="P23" s="23" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
       <c r="U23" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AC23" s="5"/>
       <c r="AD23" s="4"/>
@@ -15352,7 +15388,7 @@
       <c r="N24" s="4"/>
       <c r="O24" s="3"/>
       <c r="P24" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="U24">
         <v>1001</v>
@@ -15397,7 +15433,7 @@
       <c r="N25" s="4"/>
       <c r="O25" s="3"/>
       <c r="P25" s="23" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="Q25" s="4"/>
       <c r="U25" t="s">
@@ -15825,7 +15861,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB38"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BG12" sqref="BG12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -15873,246 +15911,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="51"/>
+      <c r="AO2" s="51"/>
+      <c r="AP2" s="52"/>
+      <c r="AQ2" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR2" s="68"/>
+      <c r="AS2" s="68"/>
+      <c r="AT2" s="68"/>
+      <c r="AU2" s="68">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="69"/>
+      <c r="AW2" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="68"/>
+      <c r="AY2" s="68"/>
+      <c r="AZ2" s="68"/>
+      <c r="BA2" s="68">
         <v>2</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="69"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
-        <v>84</v>
-      </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="B3" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="53"/>
+      <c r="AD3" s="53"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="53"/>
+      <c r="AG3" s="53"/>
+      <c r="AH3" s="53"/>
+      <c r="AI3" s="53"/>
+      <c r="AJ3" s="53"/>
+      <c r="AK3" s="53"/>
+      <c r="AL3" s="53"/>
+      <c r="AM3" s="53"/>
+      <c r="AN3" s="53"/>
+      <c r="AO3" s="53"/>
+      <c r="AP3" s="54"/>
+      <c r="AQ3" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR3" s="67"/>
+      <c r="AS3" s="67"/>
+      <c r="AT3" s="67"/>
+      <c r="AU3" s="67"/>
+      <c r="AV3" s="70"/>
+      <c r="AW3" s="67"/>
+      <c r="AX3" s="67"/>
+      <c r="AY3" s="67"/>
+      <c r="AZ3" s="67"/>
+      <c r="BA3" s="67"/>
+      <c r="BB3" s="70"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="62"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="53"/>
+      <c r="AA4" s="53"/>
+      <c r="AB4" s="53"/>
+      <c r="AC4" s="53"/>
+      <c r="AD4" s="53"/>
+      <c r="AE4" s="53"/>
+      <c r="AF4" s="53"/>
+      <c r="AG4" s="53"/>
+      <c r="AH4" s="53"/>
+      <c r="AI4" s="53"/>
+      <c r="AJ4" s="53"/>
+      <c r="AK4" s="53"/>
+      <c r="AL4" s="53"/>
+      <c r="AM4" s="53"/>
+      <c r="AN4" s="53"/>
+      <c r="AO4" s="53"/>
+      <c r="AP4" s="54"/>
+      <c r="AQ4" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="68"/>
+      <c r="AS4" s="68"/>
+      <c r="AT4" s="68"/>
+      <c r="AU4" s="72">
         <v>43032</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="73"/>
+      <c r="AW4" s="73"/>
+      <c r="AX4" s="73"/>
+      <c r="AY4" s="73"/>
+      <c r="AZ4" s="73"/>
+      <c r="BA4" s="73"/>
+      <c r="BB4" s="74"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="64"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="65"/>
+      <c r="W5" s="55"/>
+      <c r="X5" s="55"/>
+      <c r="Y5" s="55"/>
+      <c r="Z5" s="55"/>
+      <c r="AA5" s="55"/>
+      <c r="AB5" s="55"/>
+      <c r="AC5" s="55"/>
+      <c r="AD5" s="55"/>
+      <c r="AE5" s="55"/>
+      <c r="AF5" s="55"/>
+      <c r="AG5" s="55"/>
+      <c r="AH5" s="55"/>
+      <c r="AI5" s="55"/>
+      <c r="AJ5" s="55"/>
+      <c r="AK5" s="55"/>
+      <c r="AL5" s="55"/>
+      <c r="AM5" s="55"/>
+      <c r="AN5" s="55"/>
+      <c r="AO5" s="55"/>
+      <c r="AP5" s="56"/>
+      <c r="AQ5" s="66"/>
+      <c r="AR5" s="67"/>
+      <c r="AS5" s="67"/>
+      <c r="AT5" s="67"/>
+      <c r="AU5" s="75"/>
+      <c r="AV5" s="75"/>
+      <c r="AW5" s="75"/>
+      <c r="AX5" s="75"/>
+      <c r="AY5" s="75"/>
+      <c r="AZ5" s="75"/>
+      <c r="BA5" s="75"/>
+      <c r="BB5" s="76"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -16184,7 +16222,7 @@
       <c r="M7" s="15"/>
       <c r="N7" s="15"/>
       <c r="O7" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P7" s="41"/>
       <c r="Q7" s="41"/>
@@ -16241,7 +16279,7 @@
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
       <c r="O8" s="43" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P8" s="44"/>
       <c r="Q8" s="44"/>
@@ -17509,9 +17547,7 @@
       <c r="K36" s="26"/>
     </row>
     <row r="38" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K38" s="26" t="s">
-        <v>38</v>
-      </c>
+      <c r="K38" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -17538,8 +17574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB38"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3:AP5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AK11" sqref="AK11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -17588,246 +17624,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="51"/>
+      <c r="AO2" s="51"/>
+      <c r="AP2" s="52"/>
+      <c r="AQ2" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR2" s="68"/>
+      <c r="AS2" s="68"/>
+      <c r="AT2" s="68"/>
+      <c r="AU2" s="68">
+        <v>1</v>
+      </c>
+      <c r="AV2" s="69"/>
+      <c r="AW2" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX2" s="68"/>
+      <c r="AY2" s="68"/>
+      <c r="AZ2" s="68"/>
+      <c r="BA2" s="68">
+        <v>3</v>
+      </c>
+      <c r="BB2" s="69"/>
+    </row>
+    <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
-        <v>1</v>
-      </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
-        <v>3</v>
-      </c>
-      <c r="BB2" s="52"/>
-    </row>
-    <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
-        <v>84</v>
-      </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="53"/>
+      <c r="AD3" s="53"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="53"/>
+      <c r="AG3" s="53"/>
+      <c r="AH3" s="53"/>
+      <c r="AI3" s="53"/>
+      <c r="AJ3" s="53"/>
+      <c r="AK3" s="53"/>
+      <c r="AL3" s="53"/>
+      <c r="AM3" s="53"/>
+      <c r="AN3" s="53"/>
+      <c r="AO3" s="53"/>
+      <c r="AP3" s="54"/>
+      <c r="AQ3" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR3" s="67"/>
+      <c r="AS3" s="67"/>
+      <c r="AT3" s="67"/>
+      <c r="AU3" s="67"/>
+      <c r="AV3" s="70"/>
+      <c r="AW3" s="67"/>
+      <c r="AX3" s="67"/>
+      <c r="AY3" s="67"/>
+      <c r="AZ3" s="67"/>
+      <c r="BA3" s="67"/>
+      <c r="BB3" s="70"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="62"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="53"/>
+      <c r="AA4" s="53"/>
+      <c r="AB4" s="53"/>
+      <c r="AC4" s="53"/>
+      <c r="AD4" s="53"/>
+      <c r="AE4" s="53"/>
+      <c r="AF4" s="53"/>
+      <c r="AG4" s="53"/>
+      <c r="AH4" s="53"/>
+      <c r="AI4" s="53"/>
+      <c r="AJ4" s="53"/>
+      <c r="AK4" s="53"/>
+      <c r="AL4" s="53"/>
+      <c r="AM4" s="53"/>
+      <c r="AN4" s="53"/>
+      <c r="AO4" s="53"/>
+      <c r="AP4" s="54"/>
+      <c r="AQ4" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="68"/>
+      <c r="AS4" s="68"/>
+      <c r="AT4" s="68"/>
+      <c r="AU4" s="72">
         <v>43032</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="73"/>
+      <c r="AW4" s="73"/>
+      <c r="AX4" s="73"/>
+      <c r="AY4" s="73"/>
+      <c r="AZ4" s="73"/>
+      <c r="BA4" s="73"/>
+      <c r="BB4" s="74"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="64"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="65"/>
+      <c r="W5" s="55"/>
+      <c r="X5" s="55"/>
+      <c r="Y5" s="55"/>
+      <c r="Z5" s="55"/>
+      <c r="AA5" s="55"/>
+      <c r="AB5" s="55"/>
+      <c r="AC5" s="55"/>
+      <c r="AD5" s="55"/>
+      <c r="AE5" s="55"/>
+      <c r="AF5" s="55"/>
+      <c r="AG5" s="55"/>
+      <c r="AH5" s="55"/>
+      <c r="AI5" s="55"/>
+      <c r="AJ5" s="55"/>
+      <c r="AK5" s="55"/>
+      <c r="AL5" s="55"/>
+      <c r="AM5" s="55"/>
+      <c r="AN5" s="55"/>
+      <c r="AO5" s="55"/>
+      <c r="AP5" s="56"/>
+      <c r="AQ5" s="66"/>
+      <c r="AR5" s="67"/>
+      <c r="AS5" s="67"/>
+      <c r="AT5" s="67"/>
+      <c r="AU5" s="75"/>
+      <c r="AV5" s="75"/>
+      <c r="AW5" s="75"/>
+      <c r="AX5" s="75"/>
+      <c r="AY5" s="75"/>
+      <c r="AZ5" s="75"/>
+      <c r="BA5" s="75"/>
+      <c r="BB5" s="76"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -19219,9 +19255,7 @@
       <c r="K36" s="26"/>
     </row>
     <row r="38" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K38" s="26" t="s">
-        <v>38</v>
-      </c>
+      <c r="K38" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -19248,7 +19282,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB33"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AH8" sqref="AH8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -19299,246 +19335,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="51"/>
+      <c r="AO2" s="51"/>
+      <c r="AP2" s="52"/>
+      <c r="AQ2" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="68"/>
+      <c r="AS2" s="68"/>
+      <c r="AT2" s="68"/>
+      <c r="AU2" s="68">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="69"/>
+      <c r="AW2" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="68"/>
+      <c r="AY2" s="68"/>
+      <c r="AZ2" s="68"/>
+      <c r="BA2" s="68">
         <v>4</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="69"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
-        <v>84</v>
-      </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="53"/>
+      <c r="AD3" s="53"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="53"/>
+      <c r="AG3" s="53"/>
+      <c r="AH3" s="53"/>
+      <c r="AI3" s="53"/>
+      <c r="AJ3" s="53"/>
+      <c r="AK3" s="53"/>
+      <c r="AL3" s="53"/>
+      <c r="AM3" s="53"/>
+      <c r="AN3" s="53"/>
+      <c r="AO3" s="53"/>
+      <c r="AP3" s="54"/>
+      <c r="AQ3" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR3" s="67"/>
+      <c r="AS3" s="67"/>
+      <c r="AT3" s="67"/>
+      <c r="AU3" s="67"/>
+      <c r="AV3" s="70"/>
+      <c r="AW3" s="67"/>
+      <c r="AX3" s="67"/>
+      <c r="AY3" s="67"/>
+      <c r="AZ3" s="67"/>
+      <c r="BA3" s="67"/>
+      <c r="BB3" s="70"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="62"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="53"/>
+      <c r="AA4" s="53"/>
+      <c r="AB4" s="53"/>
+      <c r="AC4" s="53"/>
+      <c r="AD4" s="53"/>
+      <c r="AE4" s="53"/>
+      <c r="AF4" s="53"/>
+      <c r="AG4" s="53"/>
+      <c r="AH4" s="53"/>
+      <c r="AI4" s="53"/>
+      <c r="AJ4" s="53"/>
+      <c r="AK4" s="53"/>
+      <c r="AL4" s="53"/>
+      <c r="AM4" s="53"/>
+      <c r="AN4" s="53"/>
+      <c r="AO4" s="53"/>
+      <c r="AP4" s="54"/>
+      <c r="AQ4" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="68"/>
+      <c r="AS4" s="68"/>
+      <c r="AT4" s="68"/>
+      <c r="AU4" s="72">
         <v>43032</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="73"/>
+      <c r="AW4" s="73"/>
+      <c r="AX4" s="73"/>
+      <c r="AY4" s="73"/>
+      <c r="AZ4" s="73"/>
+      <c r="BA4" s="73"/>
+      <c r="BB4" s="74"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="64"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="65"/>
+      <c r="W5" s="55"/>
+      <c r="X5" s="55"/>
+      <c r="Y5" s="55"/>
+      <c r="Z5" s="55"/>
+      <c r="AA5" s="55"/>
+      <c r="AB5" s="55"/>
+      <c r="AC5" s="55"/>
+      <c r="AD5" s="55"/>
+      <c r="AE5" s="55"/>
+      <c r="AF5" s="55"/>
+      <c r="AG5" s="55"/>
+      <c r="AH5" s="55"/>
+      <c r="AI5" s="55"/>
+      <c r="AJ5" s="55"/>
+      <c r="AK5" s="55"/>
+      <c r="AL5" s="55"/>
+      <c r="AM5" s="55"/>
+      <c r="AN5" s="55"/>
+      <c r="AO5" s="55"/>
+      <c r="AP5" s="56"/>
+      <c r="AQ5" s="66"/>
+      <c r="AR5" s="67"/>
+      <c r="AS5" s="67"/>
+      <c r="AT5" s="67"/>
+      <c r="AU5" s="75"/>
+      <c r="AV5" s="75"/>
+      <c r="AW5" s="75"/>
+      <c r="AX5" s="75"/>
+      <c r="AY5" s="75"/>
+      <c r="AZ5" s="75"/>
+      <c r="BA5" s="75"/>
+      <c r="BB5" s="76"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -19678,7 +19714,7 @@
       <c r="AP8" s="15"/>
       <c r="AQ8" s="3"/>
       <c r="AR8" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AS8" s="4"/>
       <c r="AT8" s="4"/>
@@ -19729,7 +19765,7 @@
       <c r="AP9" s="15"/>
       <c r="AQ9" s="3"/>
       <c r="AR9" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AS9" s="4"/>
       <c r="AT9" s="4"/>
@@ -19804,21 +19840,21 @@
       <c r="I11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="47"/>
-      <c r="U11" s="47"/>
-      <c r="V11" s="47"/>
-      <c r="W11" s="47"/>
-      <c r="X11" s="47"/>
-      <c r="Y11" s="47"/>
-      <c r="Z11" s="47"/>
-      <c r="AA11" s="47"/>
-      <c r="AB11" s="48"/>
+      <c r="P11" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="46"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="46"/>
+      <c r="X11" s="46"/>
+      <c r="Y11" s="46"/>
+      <c r="Z11" s="46"/>
+      <c r="AA11" s="46"/>
+      <c r="AB11" s="47"/>
       <c r="AC11" s="5"/>
       <c r="AD11" s="3"/>
       <c r="AG11" s="4"/>
@@ -19833,7 +19869,7 @@
       <c r="AP11" s="4"/>
       <c r="AQ11" s="3"/>
       <c r="AR11" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AS11" s="4"/>
       <c r="AT11" s="4"/>
@@ -19871,7 +19907,7 @@
       <c r="AP12" s="4"/>
       <c r="AQ12" s="3"/>
       <c r="AR12" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AS12" s="4"/>
       <c r="AT12" s="4"/>
@@ -19896,7 +19932,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="3"/>
       <c r="P13" s="20" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="Q13" s="20"/>
       <c r="R13" s="20"/>
@@ -19950,7 +19986,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="3"/>
       <c r="P14" s="20" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
@@ -19980,7 +20016,7 @@
       <c r="AP14" s="4"/>
       <c r="AQ14" s="3"/>
       <c r="AR14" s="35" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AS14" s="4"/>
       <c r="AT14" s="4"/>
@@ -20006,7 +20042,7 @@
       <c r="N15" s="4"/>
       <c r="O15" s="3"/>
       <c r="P15" s="20" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="Q15" s="20"/>
       <c r="R15" s="20"/>
@@ -20035,7 +20071,7 @@
       <c r="AP15" s="4"/>
       <c r="AQ15" s="3"/>
       <c r="AR15" s="35" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AS15" s="4"/>
       <c r="AT15" s="4"/>
@@ -20061,14 +20097,14 @@
       <c r="N16" s="4"/>
       <c r="O16" s="3"/>
       <c r="P16" s="20" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="Q16" s="20"/>
       <c r="R16" s="20"/>
       <c r="S16" s="20"/>
       <c r="T16" s="21"/>
       <c r="U16" s="16" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="V16" s="17"/>
       <c r="W16" s="17"/>
@@ -20089,7 +20125,7 @@
       <c r="AP16" s="4"/>
       <c r="AQ16" s="3"/>
       <c r="AR16" s="35" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AS16" s="4"/>
       <c r="AT16" s="4"/>
@@ -20115,10 +20151,10 @@
       <c r="N17" s="4"/>
       <c r="O17" s="3"/>
       <c r="P17" s="39" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="U17" s="16" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="V17" s="17"/>
       <c r="W17" s="17"/>
@@ -20140,7 +20176,7 @@
       <c r="AP17" s="4"/>
       <c r="AQ17" s="3"/>
       <c r="AR17" s="35" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="AS17" s="4"/>
       <c r="AT17" s="4"/>
@@ -20197,7 +20233,7 @@
       <c r="AP18" s="4"/>
       <c r="AQ18" s="3"/>
       <c r="AR18" s="35" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="AS18" s="4"/>
       <c r="AT18" s="4"/>
@@ -20254,7 +20290,7 @@
       <c r="AP19" s="4"/>
       <c r="AQ19" s="3"/>
       <c r="AR19" s="35" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AS19" s="4"/>
       <c r="AT19" s="4"/>
@@ -20290,7 +20326,7 @@
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
       <c r="U20" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V20" s="17"/>
       <c r="W20" s="17"/>
@@ -20338,14 +20374,14 @@
       <c r="N21" s="4"/>
       <c r="O21" s="3"/>
       <c r="P21" s="23" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="16" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="V21" s="17"/>
       <c r="W21" s="17"/>
@@ -20396,7 +20432,7 @@
       <c r="N22" s="4"/>
       <c r="O22" s="3"/>
       <c r="P22" s="23" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
@@ -20454,7 +20490,7 @@
       <c r="N23" s="4"/>
       <c r="O23" s="3"/>
       <c r="P23" s="23" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
@@ -20981,7 +21017,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB33"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AM24" sqref="AM24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -21029,246 +21067,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="51"/>
+      <c r="AO2" s="51"/>
+      <c r="AP2" s="52"/>
+      <c r="AQ2" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="68"/>
+      <c r="AS2" s="68"/>
+      <c r="AT2" s="68"/>
+      <c r="AU2" s="68">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="69"/>
+      <c r="AW2" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="68"/>
+      <c r="AY2" s="68"/>
+      <c r="AZ2" s="68"/>
+      <c r="BA2" s="68">
         <v>5</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="69"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
-        <v>84</v>
-      </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="53"/>
+      <c r="AD3" s="53"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="53"/>
+      <c r="AG3" s="53"/>
+      <c r="AH3" s="53"/>
+      <c r="AI3" s="53"/>
+      <c r="AJ3" s="53"/>
+      <c r="AK3" s="53"/>
+      <c r="AL3" s="53"/>
+      <c r="AM3" s="53"/>
+      <c r="AN3" s="53"/>
+      <c r="AO3" s="53"/>
+      <c r="AP3" s="54"/>
+      <c r="AQ3" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="53"/>
+      <c r="AR3" s="67"/>
+      <c r="AS3" s="67"/>
+      <c r="AT3" s="67"/>
+      <c r="AU3" s="67"/>
+      <c r="AV3" s="70"/>
+      <c r="AW3" s="67"/>
+      <c r="AX3" s="67"/>
+      <c r="AY3" s="67"/>
+      <c r="AZ3" s="67"/>
+      <c r="BA3" s="67"/>
+      <c r="BB3" s="70"/>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="54" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="62"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="53"/>
+      <c r="AA4" s="53"/>
+      <c r="AB4" s="53"/>
+      <c r="AC4" s="53"/>
+      <c r="AD4" s="53"/>
+      <c r="AE4" s="53"/>
+      <c r="AF4" s="53"/>
+      <c r="AG4" s="53"/>
+      <c r="AH4" s="53"/>
+      <c r="AI4" s="53"/>
+      <c r="AJ4" s="53"/>
+      <c r="AK4" s="53"/>
+      <c r="AL4" s="53"/>
+      <c r="AM4" s="53"/>
+      <c r="AN4" s="53"/>
+      <c r="AO4" s="53"/>
+      <c r="AP4" s="54"/>
+      <c r="AQ4" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="55">
+      <c r="AR4" s="68"/>
+      <c r="AS4" s="68"/>
+      <c r="AT4" s="68"/>
+      <c r="AU4" s="72">
         <v>43032</v>
       </c>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="57"/>
+      <c r="AV4" s="73"/>
+      <c r="AW4" s="73"/>
+      <c r="AX4" s="73"/>
+      <c r="AY4" s="73"/>
+      <c r="AZ4" s="73"/>
+      <c r="BA4" s="73"/>
+      <c r="BB4" s="74"/>
     </row>
     <row r="5" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="64"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="65"/>
+      <c r="W5" s="55"/>
+      <c r="X5" s="55"/>
+      <c r="Y5" s="55"/>
+      <c r="Z5" s="55"/>
+      <c r="AA5" s="55"/>
+      <c r="AB5" s="55"/>
+      <c r="AC5" s="55"/>
+      <c r="AD5" s="55"/>
+      <c r="AE5" s="55"/>
+      <c r="AF5" s="55"/>
+      <c r="AG5" s="55"/>
+      <c r="AH5" s="55"/>
+      <c r="AI5" s="55"/>
+      <c r="AJ5" s="55"/>
+      <c r="AK5" s="55"/>
+      <c r="AL5" s="55"/>
+      <c r="AM5" s="55"/>
+      <c r="AN5" s="55"/>
+      <c r="AO5" s="55"/>
+      <c r="AP5" s="56"/>
+      <c r="AQ5" s="66"/>
+      <c r="AR5" s="67"/>
+      <c r="AS5" s="67"/>
+      <c r="AT5" s="67"/>
+      <c r="AU5" s="75"/>
+      <c r="AV5" s="75"/>
+      <c r="AW5" s="75"/>
+      <c r="AX5" s="75"/>
+      <c r="AY5" s="75"/>
+      <c r="AZ5" s="75"/>
+      <c r="BA5" s="75"/>
+      <c r="BB5" s="76"/>
     </row>
     <row r="6" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14"/>
@@ -21423,7 +21461,7 @@
       <c r="AP8" s="15"/>
       <c r="AQ8" s="3"/>
       <c r="AR8" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AS8" s="4"/>
       <c r="AT8" s="4"/>
@@ -21476,7 +21514,7 @@
       <c r="AP9" s="15"/>
       <c r="AQ9" s="3"/>
       <c r="AR9" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AS9" s="4"/>
       <c r="AT9" s="4"/>
@@ -21568,7 +21606,7 @@
       <c r="AP11" s="4"/>
       <c r="AQ11" s="3"/>
       <c r="AR11" s="4" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="AS11" s="4"/>
       <c r="AT11" s="4"/>
@@ -21593,7 +21631,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="3"/>
       <c r="P12" s="20" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="20"/>
       <c r="R12" s="20"/>
@@ -21616,7 +21654,7 @@
       <c r="AP12" s="4"/>
       <c r="AQ12" s="3"/>
       <c r="AR12" s="35" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="AS12" s="4"/>
       <c r="AT12" s="4"/>
@@ -21641,7 +21679,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="3"/>
       <c r="P13" s="20" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="20"/>
       <c r="R13" s="20"/>
@@ -21662,7 +21700,7 @@
       <c r="AP13" s="4"/>
       <c r="AQ13" s="3"/>
       <c r="AR13" s="35" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="AS13" s="4"/>
       <c r="AT13" s="4"/>
@@ -21687,7 +21725,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="3"/>
       <c r="P14" s="20" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
@@ -21707,7 +21745,9 @@
       <c r="AO14" s="4"/>
       <c r="AP14" s="4"/>
       <c r="AQ14" s="3"/>
-      <c r="AR14" s="4"/>
+      <c r="AR14" s="35" t="s">
+        <v>114</v>
+      </c>
       <c r="AS14" s="4"/>
       <c r="AT14" s="4"/>
       <c r="AU14" s="4"/>
@@ -21731,10 +21771,10 @@
       <c r="N15" s="4"/>
       <c r="O15" s="3"/>
       <c r="P15" s="39" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="U15" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AD15" s="3"/>
       <c r="AG15" s="4"/>
@@ -21772,10 +21812,10 @@
       <c r="N16" s="4"/>
       <c r="O16" s="3"/>
       <c r="P16" s="39" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="U16" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AC16" s="5"/>
       <c r="AD16" s="4"/>
@@ -21914,7 +21954,7 @@
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
       <c r="U19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AC19" s="5"/>
       <c r="AH19" s="4"/>
@@ -21955,10 +21995,10 @@
       <c r="N20" s="4"/>
       <c r="O20" s="3"/>
       <c r="P20" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="U20" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AC20" s="5"/>
       <c r="AH20" s="4"/>
@@ -21999,7 +22039,7 @@
       <c r="N21" s="4"/>
       <c r="O21" s="3"/>
       <c r="P21" s="23" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
@@ -22047,7 +22087,7 @@
       <c r="N22" s="4"/>
       <c r="O22" s="3"/>
       <c r="P22" s="23" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
@@ -22335,7 +22375,7 @@
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="3"/>
-      <c r="P28" s="23" t="s">
+      <c r="P28" s="77" t="s">
         <v>24</v>
       </c>
       <c r="Q28" s="4"/>
@@ -22659,7 +22699,7 @@
   <dimension ref="B1:BB33"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AM25" sqref="AM25"/>
+      <selection activeCell="AC7" sqref="AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -22708,246 +22748,246 @@
       <c r="AP1" s="13"/>
     </row>
     <row r="2" spans="2:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="63" t="s">
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="54" t="s">
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="51"/>
+      <c r="AO2" s="51"/>
+      <c r="AP2" s="52"/>
+      <c r="AQ2" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51">
+      <c r="AR2" s="68"/>
+      <c r="AS2" s="68"/>
+      <c r="AT2" s="68"/>
+      <c r="AU2" s="68">
         <v>1</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="51" t="s">
+      <c r="AV2" s="69"/>
+      <c r="AW2" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51">
+      <c r="AX2" s="68"/>
+      <c r="AY2" s="68"/>
+      <c r="AZ2" s="68"/>
+      <c r="BA2" s="68">
         <v>6</v>
       </c>
-      <c r="BB2" s="52"/>
+      <c r="BB2" s="69"/>
     </row>
     <row r="3" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="72" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="65" t="s">
-        <v>84</v>
-      </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="49" t="s">
+      <c r="B3" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="53"/>
+      <c r="AD3" s="53"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="53"/>
+      <c r="AG3" s="53"/>
+      <c r="AH3" s="53"/>
+      <c r="AI3" s="53"/>
+      <c r="AJ3" s="53"/>
+      <c r="AK3" s="53"/>
+      <c r="AL3" s="53"/>
+      <c r="AM3" s="53"/>
+      <c r="AN3" s="53"/>
+      <c r="AO3" s="53"/>
+      <c r="AP3" s="54"/>
+      <c r="AQ3" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="53"/>
-      <c r="AW3" s="50"/>
-   